--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -118,9 +118,6 @@
     <t>TSV Aubstadt</t>
   </si>
   <si>
-    <t>Greuther Furth II</t>
-  </si>
-  <si>
     <t>Wacker Burghausen</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Rain am Lech</t>
+  </si>
+  <si>
+    <t>Greuther Furth II</t>
   </si>
   <si>
     <t>Nurnberg II</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC324"/>
+  <dimension ref="A1:AC322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5189126</v>
+        <v>5189130</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1100,7 +1100,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1112,61 +1112,61 @@
         <v>55</v>
       </c>
       <c r="K7">
+        <v>2.2</v>
+      </c>
+      <c r="L7">
+        <v>3.75</v>
+      </c>
+      <c r="M7">
         <v>2.625</v>
       </c>
-      <c r="L7">
-        <v>3.6</v>
-      </c>
-      <c r="M7">
-        <v>2.2</v>
-      </c>
       <c r="N7">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q7">
+        <v>-0.25</v>
+      </c>
+      <c r="R7">
+        <v>1.825</v>
+      </c>
+      <c r="S7">
+        <v>2.025</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>2.025</v>
+      </c>
+      <c r="V7">
+        <v>1.825</v>
+      </c>
+      <c r="W7">
+        <v>1.05</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <v>0.825</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0</v>
       </c>
-      <c r="R7">
-        <v>1.975</v>
-      </c>
-      <c r="S7">
-        <v>1.725</v>
-      </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
-      <c r="W7">
-        <v>1.625</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>0.825</v>
-      </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5189130</v>
+        <v>5189128</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1189,67 +1189,67 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
         <v>3.75</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
         <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5189128</v>
+        <v>5189127</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1278,73 +1278,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9">
+        <v>2.9</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9">
+      <c r="N9">
+        <v>2.375</v>
+      </c>
+      <c r="O9">
+        <v>3.4</v>
+      </c>
+      <c r="P9">
+        <v>2.625</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>1.8</v>
       </c>
-      <c r="L9">
-        <v>3.75</v>
-      </c>
-      <c r="M9">
-        <v>3.6</v>
-      </c>
-      <c r="N9">
-        <v>1.909</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>3.2</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.75</v>
-      </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5189127</v>
+        <v>5189126</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,73 +1367,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
         <v>3.6</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1545,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2343,10 +2343,10 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
         <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2420,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6170806</v>
+        <v>6170808</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2432,28 +2432,28 @@
         <v>44992.625</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L22">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N22">
         <v>1.533</v>
@@ -2462,46 +2462,46 @@
         <v>4</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q22">
         <v>-1</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6170808</v>
+        <v>6170806</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2521,28 +2521,28 @@
         <v>44992.625</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
         <v>1.533</v>
@@ -2551,46 +2551,46 @@
         <v>4</v>
       </c>
       <c r="P23">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q23">
         <v>-1</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y23">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2702,7 +2702,7 @@
         <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2877,7 +2877,7 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -3322,10 +3322,10 @@
         <v>45002.625</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5189152</v>
+        <v>5189148</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,58 +3945,58 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>55</v>
       </c>
       <c r="K39">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N39">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.25</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.675</v>
       </c>
       <c r="W39">
-        <v>0.571</v>
+        <v>1.625</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4005,16 +4005,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>0.625</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5189148</v>
+        <v>5189152</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4034,58 +4034,58 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>55</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2.25</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.675</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>1.625</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4094,16 +4094,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.625</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4301,7 +4301,7 @@
         <v>45009.625</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -4378,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5189159</v>
+        <v>5189156</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4390,55 +4390,55 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>53</v>
       </c>
       <c r="K44">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4447,19 +4447,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4746,7 +4746,7 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4823,7 +4823,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5189156</v>
+        <v>5189159</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4835,55 +4835,55 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>2</v>
-      </c>
-      <c r="I49">
-        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>53</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N49">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P49">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4892,19 +4892,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6170804</v>
+        <v>6170809</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45013.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52">
+        <v>3.5</v>
+      </c>
+      <c r="L52">
+        <v>3.75</v>
+      </c>
+      <c r="M52">
+        <v>1.833</v>
+      </c>
+      <c r="N52">
+        <v>4.75</v>
+      </c>
+      <c r="O52">
+        <v>4.2</v>
+      </c>
+      <c r="P52">
+        <v>1.55</v>
+      </c>
+      <c r="Q52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52">
-        <v>2.7</v>
-      </c>
-      <c r="L52">
-        <v>3.4</v>
-      </c>
-      <c r="M52">
-        <v>2.3</v>
-      </c>
-      <c r="N52">
-        <v>2.25</v>
-      </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
-      <c r="P52">
-        <v>2.8</v>
-      </c>
-      <c r="Q52">
-        <v>-0.25</v>
-      </c>
       <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
         <v>1.975</v>
       </c>
-      <c r="S52">
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>1.925</v>
+      </c>
+      <c r="V52">
         <v>1.875</v>
       </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>1.875</v>
-      </c>
-      <c r="V52">
-        <v>1.975</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6170809</v>
+        <v>6170804</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45013.52083333334</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K54">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
+        <v>1.875</v>
+      </c>
+      <c r="T54">
+        <v>2.5</v>
+      </c>
+      <c r="U54">
+        <v>1.875</v>
+      </c>
+      <c r="V54">
         <v>1.975</v>
       </c>
-      <c r="T54">
-        <v>3</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.875</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
+        <v>0.4375</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5903,10 +5903,10 @@
         <v>45017.375</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -5992,10 +5992,10 @@
         <v>45017.375</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6173,7 +6173,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6351,7 +6351,7 @@
         <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>45026.375</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>43</v>
@@ -6971,7 +6971,7 @@
         <v>45026.375</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>47</v>
@@ -7063,7 +7063,7 @@
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7315,7 +7315,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5315846</v>
+        <v>5310367</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7327,76 +7327,76 @@
         <v>45026.375</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K77">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7404,7 +7404,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5310367</v>
+        <v>5315846</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7416,76 +7416,76 @@
         <v>45026.375</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>54</v>
+      </c>
+      <c r="K78">
+        <v>1.363</v>
+      </c>
+      <c r="L78">
+        <v>4.75</v>
+      </c>
+      <c r="M78">
+        <v>6</v>
+      </c>
+      <c r="N78">
+        <v>1.533</v>
+      </c>
+      <c r="O78">
+        <v>4.333</v>
+      </c>
+      <c r="P78">
+        <v>4.5</v>
+      </c>
+      <c r="Q78">
+        <v>-1</v>
+      </c>
+      <c r="R78">
+        <v>1.85</v>
+      </c>
+      <c r="S78">
+        <v>1.95</v>
+      </c>
+      <c r="T78">
         <v>3</v>
       </c>
-      <c r="J78" t="s">
-        <v>53</v>
-      </c>
-      <c r="K78">
-        <v>2</v>
-      </c>
-      <c r="L78">
-        <v>3.4</v>
-      </c>
-      <c r="M78">
-        <v>3.1</v>
-      </c>
-      <c r="N78">
-        <v>2.9</v>
-      </c>
-      <c r="O78">
-        <v>3.4</v>
-      </c>
-      <c r="P78">
-        <v>2.05</v>
-      </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.975</v>
-      </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y78">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7686,7 +7686,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>45031.375</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8309,7 +8309,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8487,7 +8487,7 @@
         <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>45038.375</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
         <v>31</v>
@@ -8929,7 +8929,7 @@
         <v>45038.375</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>42</v>
@@ -9273,7 +9273,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5405034</v>
+        <v>5405037</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9285,76 +9285,76 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K99">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="N99">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T99">
         <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X99">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5405037</v>
+        <v>5405034</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9374,76 +9374,76 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="N100">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5404373</v>
+        <v>5405038</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9463,13 +9463,13 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9478,43 +9478,43 @@
         <v>55</v>
       </c>
       <c r="K101">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M101">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N101">
-        <v>1.45</v>
+        <v>1.142</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P101">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.45</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9523,13 +9523,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9540,7 +9540,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5405038</v>
+        <v>5404373</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9552,13 +9552,13 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I102">
         <v>2</v>
@@ -9567,43 +9567,43 @@
         <v>55</v>
       </c>
       <c r="K102">
+        <v>1.615</v>
+      </c>
+      <c r="L102">
+        <v>3.75</v>
+      </c>
+      <c r="M102">
+        <v>4.75</v>
+      </c>
+      <c r="N102">
         <v>1.45</v>
       </c>
-      <c r="L102">
+      <c r="O102">
         <v>4.2</v>
       </c>
-      <c r="M102">
-        <v>5.5</v>
-      </c>
-      <c r="N102">
-        <v>1.142</v>
-      </c>
-      <c r="O102">
-        <v>6.5</v>
-      </c>
       <c r="P102">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="Q102">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>0.1419999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9612,13 +9612,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9819,7 +9819,7 @@
         <v>45045.375</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -9997,7 +9997,7 @@
         <v>45045.375</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10267,7 +10267,7 @@
         <v>48</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10531,7 +10531,7 @@
         <v>45052.375</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>46</v>
@@ -10801,7 +10801,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>45059.375</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
         <v>41</v>
@@ -11424,7 +11424,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H123">
         <v>6</v>
@@ -11599,7 +11599,7 @@
         <v>45059.375</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
         <v>38</v>
@@ -11688,7 +11688,7 @@
         <v>45060.375</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
         <v>30</v>
@@ -11869,7 +11869,7 @@
         <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>5</v>
@@ -12032,7 +12032,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5495227</v>
+        <v>5495230</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12044,13 +12044,13 @@
         <v>45066.375</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12059,43 +12059,43 @@
         <v>55</v>
       </c>
       <c r="K130">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12104,16 +12104,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12121,7 +12121,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5495230</v>
+        <v>5495227</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12133,13 +12133,13 @@
         <v>45066.375</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12148,43 +12148,43 @@
         <v>55</v>
       </c>
       <c r="K131">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N131">
+        <v>1.5</v>
+      </c>
+      <c r="O131">
+        <v>4.2</v>
+      </c>
+      <c r="P131">
+        <v>5.5</v>
+      </c>
+      <c r="Q131">
+        <v>-1</v>
+      </c>
+      <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
         <v>2</v>
       </c>
-      <c r="O131">
-        <v>3.6</v>
-      </c>
-      <c r="P131">
-        <v>3.1</v>
-      </c>
-      <c r="Q131">
-        <v>-0.5</v>
-      </c>
-      <c r="R131">
-        <v>2</v>
-      </c>
-      <c r="S131">
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
         <v>1.85</v>
       </c>
-      <c r="T131">
-        <v>2.75</v>
-      </c>
-      <c r="U131">
-        <v>1.825</v>
-      </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12193,16 +12193,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12225,7 +12225,7 @@
         <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12403,7 +12403,7 @@
         <v>48</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12937,7 +12937,7 @@
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5515020</v>
+        <v>5515019</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>45073.375</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="L142">
+        <v>3.8</v>
+      </c>
+      <c r="M142">
+        <v>1.615</v>
+      </c>
+      <c r="N142">
+        <v>4.2</v>
+      </c>
+      <c r="O142">
+        <v>4.2</v>
+      </c>
+      <c r="P142">
+        <v>1.615</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>1.975</v>
+      </c>
+      <c r="T142">
         <v>3.75</v>
       </c>
-      <c r="M142">
-        <v>3</v>
-      </c>
-      <c r="N142">
-        <v>1.833</v>
-      </c>
-      <c r="O142">
-        <v>4</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.9</v>
-      </c>
-      <c r="S142">
-        <v>1.95</v>
-      </c>
-      <c r="T142">
-        <v>3.25</v>
-      </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5515019</v>
+        <v>5515020</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45073.375</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
+      <c r="J143" t="s">
+        <v>55</v>
+      </c>
+      <c r="K143">
+        <v>1.95</v>
+      </c>
+      <c r="L143">
+        <v>3.75</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>1.833</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143">
+        <v>3.1</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.9</v>
+      </c>
+      <c r="S143">
+        <v>1.95</v>
+      </c>
+      <c r="T143">
+        <v>3.25</v>
+      </c>
+      <c r="U143">
+        <v>1.85</v>
+      </c>
+      <c r="V143">
         <v>2</v>
       </c>
-      <c r="J143" t="s">
-        <v>53</v>
-      </c>
-      <c r="K143">
-        <v>4.333</v>
-      </c>
-      <c r="L143">
-        <v>3.8</v>
-      </c>
-      <c r="M143">
-        <v>1.615</v>
-      </c>
-      <c r="N143">
-        <v>4.2</v>
-      </c>
-      <c r="O143">
-        <v>4.2</v>
-      </c>
-      <c r="P143">
-        <v>1.615</v>
-      </c>
-      <c r="Q143">
-        <v>1</v>
-      </c>
-      <c r="R143">
-        <v>1.825</v>
-      </c>
-      <c r="S143">
-        <v>1.975</v>
-      </c>
-      <c r="T143">
-        <v>3.75</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
-      </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5515024</v>
+        <v>5515023</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,73 +13290,73 @@
         <v>45073.375</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I144">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K144">
-        <v>12</v>
+        <v>1.4</v>
       </c>
       <c r="L144">
+        <v>4.75</v>
+      </c>
+      <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>1.3</v>
+      </c>
+      <c r="O144">
         <v>5.75</v>
       </c>
-      <c r="M144">
-        <v>1.181</v>
-      </c>
-      <c r="N144">
-        <v>12</v>
-      </c>
-      <c r="O144">
-        <v>6</v>
-      </c>
       <c r="P144">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="Q144">
-        <v>2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
         <v>3.75</v>
       </c>
       <c r="U144">
+        <v>1.85</v>
+      </c>
+      <c r="V144">
         <v>2</v>
       </c>
-      <c r="V144">
-        <v>1.85</v>
-      </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA144">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13367,7 +13367,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5515023</v>
+        <v>6694369</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13379,73 +13379,73 @@
         <v>45073.375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K145">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L145">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>1.85</v>
+      </c>
+      <c r="T145">
+        <v>3.5</v>
+      </c>
+      <c r="U145">
+        <v>1.825</v>
+      </c>
+      <c r="V145">
         <v>1.975</v>
       </c>
-      <c r="S145">
-        <v>1.875</v>
-      </c>
-      <c r="T145">
-        <v>3.75</v>
-      </c>
-      <c r="U145">
-        <v>1.85</v>
-      </c>
-      <c r="V145">
-        <v>2</v>
-      </c>
       <c r="W145">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z145">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13456,7 +13456,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6694369</v>
+        <v>5515024</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13468,56 +13468,56 @@
         <v>45073.375</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J146" t="s">
         <v>53</v>
       </c>
       <c r="K146">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="L146">
+        <v>5.75</v>
+      </c>
+      <c r="M146">
+        <v>1.181</v>
+      </c>
+      <c r="N146">
+        <v>12</v>
+      </c>
+      <c r="O146">
+        <v>6</v>
+      </c>
+      <c r="P146">
+        <v>1.166</v>
+      </c>
+      <c r="Q146">
+        <v>2.25</v>
+      </c>
+      <c r="R146">
+        <v>1.825</v>
+      </c>
+      <c r="S146">
+        <v>2.025</v>
+      </c>
+      <c r="T146">
         <v>3.75</v>
       </c>
-      <c r="M146">
-        <v>3.1</v>
-      </c>
-      <c r="N146">
-        <v>2.1</v>
-      </c>
-      <c r="O146">
-        <v>3.8</v>
-      </c>
-      <c r="P146">
-        <v>2.625</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
-      <c r="R146">
-        <v>1.95</v>
-      </c>
-      <c r="S146">
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="T146">
-        <v>3.5</v>
-      </c>
-      <c r="U146">
-        <v>1.825</v>
-      </c>
-      <c r="V146">
-        <v>1.975</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
@@ -13525,16 +13525,16 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.625</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13735,7 +13735,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -13913,7 +13913,7 @@
         <v>45129.375</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14005,7 +14005,7 @@
         <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14361,7 +14361,7 @@
         <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14447,7 +14447,7 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>30</v>
@@ -14524,7 +14524,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6813734</v>
+        <v>6813736</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14536,76 +14536,76 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K158">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N158">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O158">
         <v>3.6</v>
       </c>
       <c r="P158">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA158">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14613,7 +14613,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6813736</v>
+        <v>6813734</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14625,76 +14625,76 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K159">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N159">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O159">
         <v>3.6</v>
       </c>
       <c r="P159">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>2.15</v>
+      </c>
+      <c r="S159">
+        <v>1.725</v>
+      </c>
+      <c r="T159">
+        <v>3.5</v>
+      </c>
+      <c r="U159">
         <v>1.975</v>
       </c>
-      <c r="S159">
-        <v>1.825</v>
-      </c>
-      <c r="T159">
-        <v>2.75</v>
-      </c>
-      <c r="U159">
-        <v>1.8</v>
-      </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB159">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
-      <c r="AB159">
-        <v>-1</v>
-      </c>
       <c r="AC159">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14791,7 +14791,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6813733</v>
+        <v>6813740</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14803,10 +14803,10 @@
         <v>45136.375</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14818,61 +14818,61 @@
         <v>55</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M161">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N161">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>1.925</v>
+      </c>
+      <c r="S161">
+        <v>1.925</v>
+      </c>
+      <c r="T161">
+        <v>2.75</v>
+      </c>
+      <c r="U161">
+        <v>1.8</v>
+      </c>
+      <c r="V161">
+        <v>2.05</v>
+      </c>
+      <c r="W161">
+        <v>1.45</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>0.925</v>
+      </c>
+      <c r="AA161">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
+        <v>0.4</v>
+      </c>
+      <c r="AC161">
         <v>-0.5</v>
-      </c>
-      <c r="R161">
-        <v>2</v>
-      </c>
-      <c r="S161">
-        <v>1.85</v>
-      </c>
-      <c r="T161">
-        <v>3</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.9</v>
-      </c>
-      <c r="W161">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
-      <c r="Z161">
-        <v>1</v>
-      </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>0</v>
-      </c>
-      <c r="AC161">
-        <v>-0</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14880,7 +14880,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6813740</v>
+        <v>6813733</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14892,10 +14892,10 @@
         <v>45136.375</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14907,61 +14907,61 @@
         <v>55</v>
       </c>
       <c r="K162">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
+        <v>2.5</v>
+      </c>
+      <c r="N162">
+        <v>1.85</v>
+      </c>
+      <c r="O162">
+        <v>3.6</v>
+      </c>
+      <c r="P162">
+        <v>3.2</v>
+      </c>
+      <c r="Q162">
+        <v>-0.5</v>
+      </c>
+      <c r="R162">
         <v>2</v>
       </c>
-      <c r="N162">
-        <v>2.45</v>
-      </c>
-      <c r="O162">
-        <v>3.4</v>
-      </c>
-      <c r="P162">
-        <v>2.45</v>
-      </c>
-      <c r="Q162">
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>3</v>
+      </c>
+      <c r="U162">
+        <v>1.95</v>
+      </c>
+      <c r="V162">
+        <v>1.9</v>
+      </c>
+      <c r="W162">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>-1</v>
+      </c>
+      <c r="Z162">
+        <v>1</v>
+      </c>
+      <c r="AA162">
+        <v>-1</v>
+      </c>
+      <c r="AB162">
         <v>0</v>
       </c>
-      <c r="R162">
-        <v>1.925</v>
-      </c>
-      <c r="S162">
-        <v>1.925</v>
-      </c>
-      <c r="T162">
-        <v>2.75</v>
-      </c>
-      <c r="U162">
-        <v>1.8</v>
-      </c>
-      <c r="V162">
-        <v>2.05</v>
-      </c>
-      <c r="W162">
-        <v>1.45</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
-      <c r="Y162">
-        <v>-1</v>
-      </c>
-      <c r="Z162">
-        <v>0.925</v>
-      </c>
-      <c r="AA162">
-        <v>-1</v>
-      </c>
-      <c r="AB162">
-        <v>0.4</v>
-      </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15070,7 +15070,7 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>33</v>
@@ -15147,7 +15147,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6813745</v>
+        <v>6813747</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15159,76 +15159,76 @@
         <v>45143.375</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K165">
+        <v>2.8</v>
+      </c>
+      <c r="L165">
+        <v>3.5</v>
+      </c>
+      <c r="M165">
+        <v>2.1</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165">
+        <v>3.6</v>
+      </c>
+      <c r="P165">
+        <v>2</v>
+      </c>
+      <c r="Q165">
+        <v>0.5</v>
+      </c>
+      <c r="R165">
+        <v>1.775</v>
+      </c>
+      <c r="S165">
+        <v>2.1</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
         <v>1.95</v>
-      </c>
-      <c r="L165">
-        <v>3.6</v>
-      </c>
-      <c r="M165">
-        <v>3.1</v>
-      </c>
-      <c r="N165">
-        <v>2.1</v>
-      </c>
-      <c r="O165">
-        <v>3.4</v>
-      </c>
-      <c r="P165">
-        <v>2.875</v>
-      </c>
-      <c r="Q165">
-        <v>-0.25</v>
-      </c>
-      <c r="R165">
-        <v>1.875</v>
-      </c>
-      <c r="S165">
-        <v>1.925</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
       </c>
       <c r="V165">
         <v>1.9</v>
       </c>
       <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>1</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
         <v>1.1</v>
       </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>0.875</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC165">
-        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15236,7 +15236,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6813744</v>
+        <v>6813745</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15248,58 +15248,58 @@
         <v>45143.375</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>55</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N166">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15308,16 +15308,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15325,7 +15325,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6813742</v>
+        <v>6813744</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15337,58 +15337,58 @@
         <v>45143.375</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>55</v>
       </c>
       <c r="K167">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L167">
         <v>3.75</v>
       </c>
       <c r="M167">
+        <v>3.75</v>
+      </c>
+      <c r="N167">
+        <v>1.6</v>
+      </c>
+      <c r="O167">
         <v>4</v>
       </c>
-      <c r="N167">
-        <v>1.7</v>
-      </c>
-      <c r="O167">
-        <v>3.8</v>
-      </c>
       <c r="P167">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
         <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15397,16 +15397,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6813747</v>
+        <v>6813748</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,76 +15426,76 @@
         <v>45143.375</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K168">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L168">
         <v>3.5</v>
       </c>
       <c r="M168">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N168">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
+        <v>2.3</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
         <v>2</v>
       </c>
-      <c r="Q168">
-        <v>0.5</v>
-      </c>
-      <c r="R168">
-        <v>1.775</v>
-      </c>
       <c r="S168">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
+        <v>1.85</v>
+      </c>
+      <c r="V168">
         <v>1.95</v>
       </c>
-      <c r="V168">
-        <v>1.9</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
         <v>1</v>
       </c>
-      <c r="Z168">
-        <v>-1</v>
-      </c>
       <c r="AA168">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6813748</v>
+        <v>6813742</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,13 +15515,13 @@
         <v>45143.375</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -15530,43 +15530,43 @@
         <v>55</v>
       </c>
       <c r="K169">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P169">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>1.875</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
         <v>2</v>
       </c>
-      <c r="S169">
-        <v>1.8</v>
-      </c>
-      <c r="T169">
-        <v>2.75</v>
-      </c>
-      <c r="U169">
+      <c r="V169">
         <v>1.85</v>
       </c>
-      <c r="V169">
-        <v>1.95</v>
-      </c>
       <c r="W169">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15575,13 +15575,13 @@
         <v>-1</v>
       </c>
       <c r="Z169">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>1</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15607,7 +15607,7 @@
         <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -16052,7 +16052,7 @@
         <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16230,7 +16230,7 @@
         <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16304,7 +16304,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6813753</v>
+        <v>6814789</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16316,58 +16316,58 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>55</v>
       </c>
       <c r="K178">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L178">
         <v>3.6</v>
       </c>
       <c r="M178">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N178">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O178">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
         <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16376,16 +16376,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6814789</v>
+        <v>6813753</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,58 +16405,58 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G179" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>55</v>
       </c>
       <c r="K179">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L179">
         <v>3.6</v>
       </c>
       <c r="M179">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N179">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P179">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U179">
         <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W179">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16465,16 +16465,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16583,7 +16583,7 @@
         <v>45157.375</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
         <v>46</v>
@@ -16853,7 +16853,7 @@
         <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H184">
         <v>4</v>
@@ -17117,7 +17117,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>42</v>
@@ -17384,7 +17384,7 @@
         <v>45164.375</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
         <v>50</v>
@@ -17743,7 +17743,7 @@
         <v>51</v>
       </c>
       <c r="G194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -18274,7 +18274,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
         <v>29</v>
@@ -18541,7 +18541,7 @@
         <v>45171.375</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G203" t="s">
         <v>43</v>
@@ -18633,7 +18633,7 @@
         <v>50</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18811,7 +18811,7 @@
         <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6813800</v>
+        <v>6813801</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,76 +18897,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G207" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
         <v>1</v>
       </c>
-      <c r="I207">
-        <v>4</v>
-      </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K207">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N207">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O207">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P207">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q207">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>2.75</v>
       </c>
       <c r="U207">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.75</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6813801</v>
+        <v>6813800</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>4</v>
+      </c>
+      <c r="J208" t="s">
+        <v>53</v>
+      </c>
+      <c r="K208">
+        <v>3.25</v>
+      </c>
+      <c r="L208">
+        <v>4</v>
+      </c>
+      <c r="M208">
+        <v>1.8</v>
+      </c>
+      <c r="N208">
+        <v>3.5</v>
+      </c>
+      <c r="O208">
+        <v>4</v>
+      </c>
+      <c r="P208">
+        <v>1.727</v>
+      </c>
+      <c r="Q208">
+        <v>0.75</v>
+      </c>
+      <c r="R208">
+        <v>1.8</v>
+      </c>
+      <c r="S208">
         <v>2</v>
-      </c>
-      <c r="I208">
-        <v>1</v>
-      </c>
-      <c r="J208" t="s">
-        <v>55</v>
-      </c>
-      <c r="K208">
-        <v>2</v>
-      </c>
-      <c r="L208">
-        <v>3.6</v>
-      </c>
-      <c r="M208">
-        <v>3</v>
-      </c>
-      <c r="N208">
-        <v>2.05</v>
-      </c>
-      <c r="O208">
-        <v>3.6</v>
-      </c>
-      <c r="P208">
-        <v>2.875</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.925</v>
-      </c>
-      <c r="S208">
-        <v>1.925</v>
       </c>
       <c r="T208">
         <v>2.75</v>
       </c>
       <c r="U208">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W208">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z208">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB208">
-        <v>0.5249999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19167,7 +19167,7 @@
         <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19431,7 +19431,7 @@
         <v>45184.5</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
         <v>38</v>
@@ -19612,7 +19612,7 @@
         <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -19698,7 +19698,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
         <v>43</v>
@@ -20232,7 +20232,7 @@
         <v>45188.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>49</v>
@@ -20413,7 +20413,7 @@
         <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20487,7 +20487,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6813817</v>
+        <v>6813818</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20499,58 +20499,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G225" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
         <v>55</v>
       </c>
       <c r="K225">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="M225">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N225">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P225">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U225">
         <v>1.9</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W225">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20559,16 +20559,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20576,7 +20576,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6813823</v>
+        <v>6813817</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20588,58 +20588,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H226">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>55</v>
       </c>
       <c r="K226">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L226">
         <v>3.8</v>
       </c>
       <c r="M226">
+        <v>3.8</v>
+      </c>
+      <c r="N226">
+        <v>2.2</v>
+      </c>
+      <c r="O226">
+        <v>4</v>
+      </c>
+      <c r="P226">
+        <v>2.5</v>
+      </c>
+      <c r="Q226">
+        <v>-0.25</v>
+      </c>
+      <c r="R226">
         <v>2.05</v>
       </c>
-      <c r="N226">
-        <v>2.7</v>
-      </c>
-      <c r="O226">
+      <c r="S226">
+        <v>1.8</v>
+      </c>
+      <c r="T226">
         <v>3.75</v>
       </c>
-      <c r="P226">
-        <v>2.1</v>
-      </c>
-      <c r="Q226">
-        <v>0.25</v>
-      </c>
-      <c r="R226">
-        <v>1.875</v>
-      </c>
-      <c r="S226">
-        <v>1.925</v>
-      </c>
-      <c r="T226">
-        <v>2.75</v>
-      </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20648,13 +20648,13 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20665,7 +20665,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6813819</v>
+        <v>6813823</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20677,40 +20677,40 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K227">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M227">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N227">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O227">
         <v>3.75</v>
       </c>
       <c r="P227">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
         <v>1.875</v>
@@ -20719,31 +20719,31 @@
         <v>1.925</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X227">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20754,7 +20754,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6813818</v>
+        <v>6813819</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20766,46 +20766,46 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H228">
         <v>2</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K228">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L228">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M228">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N228">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O228">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
         <v>3</v>
@@ -20817,25 +20817,25 @@
         <v>1.9</v>
       </c>
       <c r="W228">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB228">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC228">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20843,7 +20843,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6813824</v>
+        <v>6813820</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20855,76 +20855,76 @@
         <v>45192.375</v>
       </c>
       <c r="F229" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K229">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L229">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M229">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P229">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20932,7 +20932,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6813820</v>
+        <v>6813824</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20944,76 +20944,76 @@
         <v>45192.375</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G230" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K230">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L230">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N230">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O230">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="Q230">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X230">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21211,7 +21211,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
         <v>38</v>
@@ -21466,7 +21466,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6813833</v>
+        <v>6813828</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21478,76 +21478,76 @@
         <v>45199.375</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G236" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
         <v>0</v>
       </c>
-      <c r="I236">
-        <v>2</v>
-      </c>
       <c r="J236" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K236">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L236">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M236">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N236">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O236">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P236">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S236">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T236">
         <v>3</v>
       </c>
       <c r="U236">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V236">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA236">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21555,7 +21555,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6813830</v>
+        <v>6813833</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21567,55 +21567,55 @@
         <v>45199.375</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L237">
+        <v>3.6</v>
+      </c>
+      <c r="M237">
         <v>3.5</v>
       </c>
-      <c r="M237">
-        <v>2.8</v>
-      </c>
       <c r="N237">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P237">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
         <v>3</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21624,19 +21624,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6813829</v>
+        <v>6813830</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45199.375</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K238">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L238">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N238">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O238">
         <v>3.6</v>
       </c>
       <c r="P238">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
         <v>2.6</v>
       </c>
-      <c r="Y238">
-        <v>-1</v>
-      </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21733,7 +21733,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6813828</v>
+        <v>6813829</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21745,76 +21745,76 @@
         <v>45199.375</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K239">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L239">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N239">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T239">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U239">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V239">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W239">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21926,7 +21926,7 @@
         <v>49</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22104,7 +22104,7 @@
         <v>42</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H243">
         <v>3</v>
@@ -22457,7 +22457,7 @@
         <v>45202.375</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G247" t="s">
         <v>46</v>
@@ -22724,7 +22724,7 @@
         <v>45206.375</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G250" t="s">
         <v>52</v>
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6813850</v>
+        <v>6813842</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45207.375</v>
       </c>
       <c r="F255" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G255" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H255">
+        <v>2</v>
+      </c>
+      <c r="I255">
         <v>1</v>
       </c>
-      <c r="I255">
+      <c r="J255" t="s">
+        <v>55</v>
+      </c>
+      <c r="K255">
+        <v>3.5</v>
+      </c>
+      <c r="L255">
+        <v>4</v>
+      </c>
+      <c r="M255">
+        <v>1.727</v>
+      </c>
+      <c r="N255">
+        <v>2.8</v>
+      </c>
+      <c r="O255">
+        <v>3.8</v>
+      </c>
+      <c r="P255">
+        <v>2.05</v>
+      </c>
+      <c r="Q255">
+        <v>0.25</v>
+      </c>
+      <c r="R255">
+        <v>1.95</v>
+      </c>
+      <c r="S255">
+        <v>1.9</v>
+      </c>
+      <c r="T255">
+        <v>3</v>
+      </c>
+      <c r="U255">
         <v>2</v>
       </c>
-      <c r="J255" t="s">
-        <v>53</v>
-      </c>
-      <c r="K255">
-        <v>1.444</v>
-      </c>
-      <c r="L255">
-        <v>4.333</v>
-      </c>
-      <c r="M255">
-        <v>5.25</v>
-      </c>
-      <c r="N255">
-        <v>1.571</v>
-      </c>
-      <c r="O255">
-        <v>4.2</v>
-      </c>
-      <c r="P255">
-        <v>4.2</v>
-      </c>
-      <c r="Q255">
-        <v>-1</v>
-      </c>
-      <c r="R255">
-        <v>2.025</v>
-      </c>
-      <c r="S255">
-        <v>1.825</v>
-      </c>
-      <c r="T255">
-        <v>3.25</v>
-      </c>
-      <c r="U255">
-        <v>1.95</v>
-      </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA255">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC255">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6813842</v>
+        <v>6813850</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,76 +23347,76 @@
         <v>45207.375</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
         <v>2</v>
       </c>
-      <c r="I257">
-        <v>1</v>
-      </c>
       <c r="J257" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K257">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M257">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N257">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O257">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P257">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q257">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R257">
+        <v>2.025</v>
+      </c>
+      <c r="S257">
+        <v>1.825</v>
+      </c>
+      <c r="T257">
+        <v>3.25</v>
+      </c>
+      <c r="U257">
         <v>1.95</v>
       </c>
-      <c r="S257">
+      <c r="V257">
         <v>1.9</v>
       </c>
-      <c r="T257">
-        <v>3</v>
-      </c>
-      <c r="U257">
-        <v>2</v>
-      </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
       <c r="W257">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z257">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB257">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC257">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23706,7 +23706,7 @@
         <v>42</v>
       </c>
       <c r="G261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -24059,10 +24059,10 @@
         <v>45213.375</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H265">
         <v>4</v>
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6813863</v>
+        <v>6813871</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,76 +24326,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G268" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268">
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K268">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L268">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M268">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N268">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="O268">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P268">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q268">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R268">
+        <v>1.825</v>
+      </c>
+      <c r="S268">
+        <v>1.975</v>
+      </c>
+      <c r="T268">
+        <v>2.5</v>
+      </c>
+      <c r="U268">
         <v>1.85</v>
       </c>
-      <c r="S268">
+      <c r="V268">
         <v>1.95</v>
       </c>
-      <c r="T268">
-        <v>3.25</v>
-      </c>
-      <c r="U268">
-        <v>1.975</v>
-      </c>
-      <c r="V268">
-        <v>1.825</v>
-      </c>
       <c r="W268">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24403,7 +24403,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6813871</v>
+        <v>6813863</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24415,76 +24415,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269">
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K269">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L269">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M269">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N269">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O269">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P269">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q269">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R269">
+        <v>1.85</v>
+      </c>
+      <c r="S269">
+        <v>1.95</v>
+      </c>
+      <c r="T269">
+        <v>3.25</v>
+      </c>
+      <c r="U269">
+        <v>1.975</v>
+      </c>
+      <c r="V269">
         <v>1.825</v>
       </c>
-      <c r="S269">
-        <v>1.975</v>
-      </c>
-      <c r="T269">
-        <v>2.5</v>
-      </c>
-      <c r="U269">
-        <v>1.85</v>
-      </c>
-      <c r="V269">
-        <v>1.95</v>
-      </c>
       <c r="W269">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X269">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
         <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24492,7 +24492,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6813866</v>
+        <v>6813868</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24504,76 +24504,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G270" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
         <v>54</v>
       </c>
       <c r="K270">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L270">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M270">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N270">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O270">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P270">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q270">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R270">
+        <v>1.825</v>
+      </c>
+      <c r="S270">
+        <v>1.975</v>
+      </c>
+      <c r="T270">
+        <v>3.25</v>
+      </c>
+      <c r="U270">
         <v>1.95</v>
       </c>
-      <c r="S270">
+      <c r="V270">
         <v>1.85</v>
       </c>
-      <c r="T270">
-        <v>2.75</v>
-      </c>
-      <c r="U270">
-        <v>1.825</v>
-      </c>
-      <c r="V270">
-        <v>1.975</v>
-      </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA270">
+        <v>-1</v>
+      </c>
+      <c r="AB270">
+        <v>-1</v>
+      </c>
+      <c r="AC270">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB270">
-        <v>-1</v>
-      </c>
-      <c r="AC270">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24581,7 +24581,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6813868</v>
+        <v>6813866</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24593,76 +24593,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271" t="s">
         <v>54</v>
       </c>
       <c r="K271">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L271">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M271">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N271">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O271">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P271">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q271">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R271">
+        <v>1.95</v>
+      </c>
+      <c r="S271">
+        <v>1.85</v>
+      </c>
+      <c r="T271">
+        <v>2.75</v>
+      </c>
+      <c r="U271">
         <v>1.825</v>
       </c>
-      <c r="S271">
+      <c r="V271">
         <v>1.975</v>
       </c>
-      <c r="T271">
-        <v>3.25</v>
-      </c>
-      <c r="U271">
-        <v>1.95</v>
-      </c>
-      <c r="V271">
-        <v>1.85</v>
-      </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB271">
         <v>-1</v>
       </c>
       <c r="AC271">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24682,7 +24682,7 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G272" t="s">
         <v>51</v>
@@ -25219,7 +25219,7 @@
         <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H278">
         <v>2</v>
@@ -25305,10 +25305,10 @@
         <v>45220.375</v>
       </c>
       <c r="F279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25575,7 +25575,7 @@
         <v>31</v>
       </c>
       <c r="G282" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H282">
         <v>4</v>
@@ -25649,7 +25649,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6813885</v>
+        <v>6813882</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25661,56 +25661,56 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G283" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J283" t="s">
         <v>53</v>
       </c>
       <c r="K283">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L283">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M283">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="N283">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="O283">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P283">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="Q283">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R283">
+        <v>2</v>
+      </c>
+      <c r="S283">
+        <v>1.8</v>
+      </c>
+      <c r="T283">
+        <v>3.25</v>
+      </c>
+      <c r="U283">
         <v>1.9</v>
       </c>
-      <c r="S283">
+      <c r="V283">
         <v>1.9</v>
       </c>
-      <c r="T283">
-        <v>2.75</v>
-      </c>
-      <c r="U283">
-        <v>1.75</v>
-      </c>
-      <c r="V283">
-        <v>1.95</v>
-      </c>
       <c r="W283">
         <v>-1</v>
       </c>
@@ -25718,19 +25718,19 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>1.1</v>
+        <v>0.222</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
+        <v>0.8</v>
+      </c>
+      <c r="AB283">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB283">
-        <v>-1</v>
-      </c>
       <c r="AC283">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25738,7 +25738,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6813882</v>
+        <v>6813885</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25750,55 +25750,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H284">
         <v>0</v>
       </c>
       <c r="I284">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
         <v>53</v>
       </c>
       <c r="K284">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L284">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M284">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="N284">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="O284">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P284">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="Q284">
+        <v>0.25</v>
+      </c>
+      <c r="R284">
+        <v>1.9</v>
+      </c>
+      <c r="S284">
+        <v>1.9</v>
+      </c>
+      <c r="T284">
+        <v>2.75</v>
+      </c>
+      <c r="U284">
         <v>1.75</v>
       </c>
-      <c r="R284">
-        <v>2</v>
-      </c>
-      <c r="S284">
-        <v>1.8</v>
-      </c>
-      <c r="T284">
-        <v>3.25</v>
-      </c>
-      <c r="U284">
-        <v>1.9</v>
-      </c>
       <c r="V284">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W284">
         <v>-1</v>
@@ -25807,19 +25807,19 @@
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>0.222</v>
+        <v>1.1</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB284">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -26020,7 +26020,7 @@
         <v>33</v>
       </c>
       <c r="G287" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H287">
         <v>3</v>
@@ -26373,7 +26373,7 @@
         <v>45230.625</v>
       </c>
       <c r="F291" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G291" t="s">
         <v>31</v>
@@ -26462,7 +26462,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F292" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G292" t="s">
         <v>44</v>
@@ -26910,7 +26910,7 @@
         <v>30</v>
       </c>
       <c r="G297" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H297">
         <v>6</v>
@@ -26996,7 +26996,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
         <v>40</v>
@@ -27352,7 +27352,7 @@
         <v>45240.625</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G302" t="s">
         <v>38</v>
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6813901</v>
+        <v>6813905</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G303" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H303">
+        <v>3</v>
+      </c>
+      <c r="I303">
         <v>1</v>
       </c>
-      <c r="I303">
-        <v>2</v>
-      </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K303">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M303">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="N303">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="O303">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P303">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q303">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R303">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U303">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V303">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA303">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
       <c r="AC303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27518,7 +27518,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6813905</v>
+        <v>6813901</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27530,76 +27530,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F304" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G304" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I304">
+        <v>2</v>
+      </c>
+      <c r="J304" t="s">
+        <v>53</v>
+      </c>
+      <c r="K304">
+        <v>3.4</v>
+      </c>
+      <c r="L304">
+        <v>4</v>
+      </c>
+      <c r="M304">
+        <v>1.75</v>
+      </c>
+      <c r="N304">
+        <v>2.75</v>
+      </c>
+      <c r="O304">
+        <v>3.4</v>
+      </c>
+      <c r="P304">
+        <v>2.15</v>
+      </c>
+      <c r="Q304">
+        <v>0.25</v>
+      </c>
+      <c r="R304">
+        <v>1.85</v>
+      </c>
+      <c r="S304">
+        <v>2</v>
+      </c>
+      <c r="T304">
+        <v>2.75</v>
+      </c>
+      <c r="U304">
+        <v>1.875</v>
+      </c>
+      <c r="V304">
+        <v>1.975</v>
+      </c>
+      <c r="W304">
+        <v>-1</v>
+      </c>
+      <c r="X304">
+        <v>-1</v>
+      </c>
+      <c r="Y304">
+        <v>1.15</v>
+      </c>
+      <c r="Z304">
+        <v>-1</v>
+      </c>
+      <c r="AA304">
         <v>1</v>
       </c>
-      <c r="J304" t="s">
-        <v>55</v>
-      </c>
-      <c r="K304">
-        <v>1.2</v>
-      </c>
-      <c r="L304">
-        <v>6</v>
-      </c>
-      <c r="M304">
-        <v>9</v>
-      </c>
-      <c r="N304">
-        <v>1.333</v>
-      </c>
-      <c r="O304">
-        <v>5</v>
-      </c>
-      <c r="P304">
-        <v>6.5</v>
-      </c>
-      <c r="Q304">
-        <v>-1.5</v>
-      </c>
-      <c r="R304">
-        <v>1.925</v>
-      </c>
-      <c r="S304">
-        <v>1.925</v>
-      </c>
-      <c r="T304">
-        <v>3.25</v>
-      </c>
-      <c r="U304">
-        <v>2.025</v>
-      </c>
-      <c r="V304">
-        <v>1.825</v>
-      </c>
-      <c r="W304">
-        <v>0.333</v>
-      </c>
-      <c r="X304">
-        <v>-1</v>
-      </c>
-      <c r="Y304">
-        <v>-1</v>
-      </c>
-      <c r="Z304">
-        <v>0.925</v>
-      </c>
-      <c r="AA304">
-        <v>-1</v>
-      </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27696,7 +27696,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6813903</v>
+        <v>6813904</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27708,76 +27708,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F306" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G306" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H306">
+        <v>1</v>
+      </c>
+      <c r="I306">
+        <v>2</v>
+      </c>
+      <c r="J306" t="s">
+        <v>53</v>
+      </c>
+      <c r="K306">
+        <v>1.833</v>
+      </c>
+      <c r="L306">
+        <v>3.75</v>
+      </c>
+      <c r="M306">
+        <v>3.3</v>
+      </c>
+      <c r="N306">
+        <v>2.1</v>
+      </c>
+      <c r="O306">
+        <v>3.5</v>
+      </c>
+      <c r="P306">
+        <v>2.8</v>
+      </c>
+      <c r="Q306">
+        <v>-0.25</v>
+      </c>
+      <c r="R306">
+        <v>1.95</v>
+      </c>
+      <c r="S306">
+        <v>1.9</v>
+      </c>
+      <c r="T306">
+        <v>3</v>
+      </c>
+      <c r="U306">
+        <v>1.95</v>
+      </c>
+      <c r="V306">
+        <v>1.9</v>
+      </c>
+      <c r="W306">
+        <v>-1</v>
+      </c>
+      <c r="X306">
+        <v>-1</v>
+      </c>
+      <c r="Y306">
+        <v>1.8</v>
+      </c>
+      <c r="Z306">
+        <v>-1</v>
+      </c>
+      <c r="AA306">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB306">
         <v>0</v>
       </c>
-      <c r="I306">
-        <v>0</v>
-      </c>
-      <c r="J306" t="s">
-        <v>54</v>
-      </c>
-      <c r="K306">
-        <v>1.533</v>
-      </c>
-      <c r="L306">
-        <v>4.2</v>
-      </c>
-      <c r="M306">
-        <v>4.5</v>
-      </c>
-      <c r="N306">
-        <v>1.4</v>
-      </c>
-      <c r="O306">
-        <v>4.2</v>
-      </c>
-      <c r="P306">
-        <v>6</v>
-      </c>
-      <c r="Q306">
-        <v>-1.25</v>
-      </c>
-      <c r="R306">
-        <v>1.9</v>
-      </c>
-      <c r="S306">
-        <v>1.95</v>
-      </c>
-      <c r="T306">
-        <v>3.25</v>
-      </c>
-      <c r="U306">
-        <v>2</v>
-      </c>
-      <c r="V306">
-        <v>1.85</v>
-      </c>
-      <c r="W306">
-        <v>-1</v>
-      </c>
-      <c r="X306">
-        <v>3.2</v>
-      </c>
-      <c r="Y306">
-        <v>-1</v>
-      </c>
-      <c r="Z306">
-        <v>-1</v>
-      </c>
-      <c r="AA306">
-        <v>0.95</v>
-      </c>
-      <c r="AB306">
-        <v>-1</v>
-      </c>
       <c r="AC306">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27785,7 +27785,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6813904</v>
+        <v>6813903</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27797,76 +27797,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G307" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307" t="s">
+        <v>54</v>
+      </c>
+      <c r="K307">
+        <v>1.533</v>
+      </c>
+      <c r="L307">
+        <v>4.2</v>
+      </c>
+      <c r="M307">
+        <v>4.5</v>
+      </c>
+      <c r="N307">
+        <v>1.4</v>
+      </c>
+      <c r="O307">
+        <v>4.2</v>
+      </c>
+      <c r="P307">
+        <v>6</v>
+      </c>
+      <c r="Q307">
+        <v>-1.25</v>
+      </c>
+      <c r="R307">
+        <v>1.9</v>
+      </c>
+      <c r="S307">
+        <v>1.95</v>
+      </c>
+      <c r="T307">
+        <v>3.25</v>
+      </c>
+      <c r="U307">
         <v>2</v>
       </c>
-      <c r="J307" t="s">
-        <v>53</v>
-      </c>
-      <c r="K307">
-        <v>1.833</v>
-      </c>
-      <c r="L307">
-        <v>3.75</v>
-      </c>
-      <c r="M307">
-        <v>3.3</v>
-      </c>
-      <c r="N307">
-        <v>2.1</v>
-      </c>
-      <c r="O307">
-        <v>3.5</v>
-      </c>
-      <c r="P307">
-        <v>2.8</v>
-      </c>
-      <c r="Q307">
-        <v>-0.25</v>
-      </c>
-      <c r="R307">
-        <v>1.95</v>
-      </c>
-      <c r="S307">
-        <v>1.9</v>
-      </c>
-      <c r="T307">
-        <v>3</v>
-      </c>
-      <c r="U307">
-        <v>1.95</v>
-      </c>
       <c r="V307">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y307">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
         <v>-1</v>
       </c>
       <c r="AA307">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27889,7 +27889,7 @@
         <v>33</v>
       </c>
       <c r="G308" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H308">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>49</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H311">
         <v>0</v>
@@ -28242,7 +28242,7 @@
         <v>45247.625</v>
       </c>
       <c r="F312" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G312" t="s">
         <v>44</v>
@@ -28331,7 +28331,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G313" t="s">
         <v>45</v>
@@ -28408,7 +28408,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6814795</v>
+        <v>6813913</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28420,58 +28420,58 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G314" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H314">
         <v>2</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>55</v>
       </c>
       <c r="K314">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L314">
         <v>3.75</v>
       </c>
       <c r="M314">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N314">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O314">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P314">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q314">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R314">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S314">
         <v>1.85</v>
       </c>
       <c r="T314">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
         <v>1.975</v>
       </c>
       <c r="V314">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W314">
-        <v>0.909</v>
+        <v>1.875</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28480,16 +28480,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28497,7 +28497,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6813913</v>
+        <v>6814795</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28509,58 +28509,58 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G315" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H315">
         <v>2</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J315" t="s">
         <v>55</v>
       </c>
       <c r="K315">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L315">
         <v>3.75</v>
       </c>
       <c r="M315">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N315">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O315">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P315">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q315">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S315">
         <v>1.85</v>
       </c>
       <c r="T315">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U315">
         <v>1.975</v>
       </c>
       <c r="V315">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W315">
-        <v>1.875</v>
+        <v>0.909</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28569,16 +28569,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC315">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28601,7 +28601,7 @@
         <v>46</v>
       </c>
       <c r="G316" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -28957,7 +28957,7 @@
         <v>31</v>
       </c>
       <c r="G320" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -29058,31 +29058,31 @@
         <v>2.8</v>
       </c>
       <c r="N321">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O321">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P321">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S321">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T321">
         <v>3</v>
       </c>
       <c r="U321">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29144,10 +29144,10 @@
         <v>0.25</v>
       </c>
       <c r="R322">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S322">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T322">
         <v>3</v>
@@ -29171,154 +29171,6 @@
         <v>0</v>
       </c>
       <c r="AA322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>7625941</v>
-      </c>
-      <c r="C323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E323" s="2">
-        <v>45346.41666666666</v>
-      </c>
-      <c r="F323" t="s">
-        <v>43</v>
-      </c>
-      <c r="G323" t="s">
-        <v>33</v>
-      </c>
-      <c r="K323">
-        <v>1.75</v>
-      </c>
-      <c r="L323">
-        <v>3.75</v>
-      </c>
-      <c r="M323">
-        <v>3.6</v>
-      </c>
-      <c r="N323">
-        <v>5</v>
-      </c>
-      <c r="O323">
-        <v>3.8</v>
-      </c>
-      <c r="P323">
-        <v>1.533</v>
-      </c>
-      <c r="Q323">
-        <v>1</v>
-      </c>
-      <c r="R323">
-        <v>1.8</v>
-      </c>
-      <c r="S323">
-        <v>2.05</v>
-      </c>
-      <c r="T323">
-        <v>3</v>
-      </c>
-      <c r="U323">
-        <v>2</v>
-      </c>
-      <c r="V323">
-        <v>1.85</v>
-      </c>
-      <c r="W323">
-        <v>0</v>
-      </c>
-      <c r="X323">
-        <v>0</v>
-      </c>
-      <c r="Y323">
-        <v>0</v>
-      </c>
-      <c r="Z323">
-        <v>0</v>
-      </c>
-      <c r="AA323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>7395938</v>
-      </c>
-      <c r="C324" t="s">
-        <v>28</v>
-      </c>
-      <c r="D324" t="s">
-        <v>28</v>
-      </c>
-      <c r="E324" s="2">
-        <v>45346.41666666666</v>
-      </c>
-      <c r="F324" t="s">
-        <v>46</v>
-      </c>
-      <c r="G324" t="s">
-        <v>31</v>
-      </c>
-      <c r="K324">
-        <v>2.75</v>
-      </c>
-      <c r="L324">
-        <v>4</v>
-      </c>
-      <c r="M324">
-        <v>2</v>
-      </c>
-      <c r="N324">
-        <v>2.45</v>
-      </c>
-      <c r="O324">
-        <v>3.75</v>
-      </c>
-      <c r="P324">
-        <v>2.3</v>
-      </c>
-      <c r="Q324">
-        <v>0</v>
-      </c>
-      <c r="R324">
-        <v>1.975</v>
-      </c>
-      <c r="S324">
-        <v>1.875</v>
-      </c>
-      <c r="T324">
-        <v>3</v>
-      </c>
-      <c r="U324">
-        <v>1.825</v>
-      </c>
-      <c r="V324">
-        <v>2.025</v>
-      </c>
-      <c r="W324">
-        <v>0</v>
-      </c>
-      <c r="X324">
-        <v>0</v>
-      </c>
-      <c r="Y324">
-        <v>0</v>
-      </c>
-      <c r="Z324">
-        <v>0</v>
-      </c>
-      <c r="AA324">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6813841</v>
+        <v>6813838</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,76 +21923,76 @@
         <v>45202.375</v>
       </c>
       <c r="F241" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H241">
         <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K241">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L241">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="N241">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q241">
         <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>3</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC241">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22000,7 +22000,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6813840</v>
+        <v>6813841</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22012,43 +22012,43 @@
         <v>45202.375</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G242" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K242">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L242">
         <v>3.8</v>
       </c>
       <c r="M242">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="N242">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O242">
         <v>3.75</v>
       </c>
       <c r="P242">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S242">
         <v>1.975</v>
@@ -22057,31 +22057,31 @@
         <v>3</v>
       </c>
       <c r="U242">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W242">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB242">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22089,7 +22089,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6813838</v>
+        <v>6813840</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22101,76 +22101,76 @@
         <v>45202.375</v>
       </c>
       <c r="F243" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G243" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H243">
+        <v>3</v>
+      </c>
+      <c r="I243">
         <v>1</v>
       </c>
-      <c r="I243">
-        <v>2</v>
-      </c>
       <c r="J243" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K243">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L243">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M243">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N243">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O243">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P243">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S243">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T243">
         <v>3</v>
       </c>
       <c r="U243">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA243">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -115,6 +115,9 @@
     <t>Eintracht Bamberg</t>
   </si>
   <si>
+    <t>Schweinfurt 05</t>
+  </si>
+  <si>
     <t>Greuther Furth II</t>
   </si>
   <si>
@@ -122,9 +125,6 @@
   </si>
   <si>
     <t>Nurnberg II</t>
-  </si>
-  <si>
-    <t>Schweinfurt 05</t>
   </si>
   <si>
     <t>TSV Aubstadt</t>
@@ -145,10 +145,10 @@
     <t>Bayern Munich II</t>
   </si>
   <si>
-    <t>FV Illertissen</t>
+    <t>DJK Vilzing</t>
   </si>
   <si>
-    <t>DJK Vilzing</t>
+    <t>FV Illertissen</t>
   </si>
   <si>
     <t>SV SchaldingHeining</t>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6813726</v>
+        <v>6813721</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
         <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
         <v>3.6</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6813724</v>
+        <v>6813726</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
+        <v>3.75</v>
+      </c>
+      <c r="M7">
+        <v>2.5</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
         <v>3.6</v>
       </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>1.65</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
       <c r="P7">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>1.975</v>
+      </c>
+      <c r="S7">
         <v>1.825</v>
       </c>
-      <c r="S7">
-        <v>1.975</v>
-      </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813722</v>
+        <v>6813724</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
         <v>3.6</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
         <v>3.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6813721</v>
+        <v>6813722</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6813733</v>
+        <v>6813740</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1895,61 +1895,61 @@
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.925</v>
+      </c>
+      <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>1.8</v>
+      </c>
+      <c r="V16">
+        <v>2.05</v>
+      </c>
+      <c r="W16">
+        <v>1.45</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>0.925</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
+        <v>0.4</v>
+      </c>
+      <c r="AC16">
         <v>-0.5</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>1.85</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.95</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6813740</v>
+        <v>6813733</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1984,61 +1984,61 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
+        <v>2.5</v>
+      </c>
+      <c r="N17">
+        <v>1.85</v>
+      </c>
+      <c r="O17">
+        <v>3.6</v>
+      </c>
+      <c r="P17">
+        <v>3.2</v>
+      </c>
+      <c r="Q17">
+        <v>-0.5</v>
+      </c>
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>2.45</v>
-      </c>
-      <c r="O17">
-        <v>3.4</v>
-      </c>
-      <c r="P17">
-        <v>2.45</v>
-      </c>
-      <c r="Q17">
+      <c r="S17">
+        <v>1.85</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>1.95</v>
+      </c>
+      <c r="V17">
+        <v>1.9</v>
+      </c>
+      <c r="W17">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>1.925</v>
-      </c>
-      <c r="S17">
-        <v>1.925</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
-      <c r="U17">
-        <v>1.8</v>
-      </c>
-      <c r="V17">
-        <v>2.05</v>
-      </c>
-      <c r="W17">
-        <v>1.45</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0.925</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.4</v>
-      </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2236,7 +2236,7 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6813747</v>
+        <v>6813742</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45143.375</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
         <v>1</v>
       </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
-      <c r="AA21">
-        <v>1.1</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6813745</v>
+        <v>6813744</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,58 +2414,58 @@
         <v>45143.375</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
       <c r="K22">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N22">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
+        <v>2.05</v>
+      </c>
+      <c r="T22">
+        <v>3.5</v>
+      </c>
+      <c r="U22">
         <v>1.925</v>
       </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.9</v>
-      </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>1.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2474,16 +2474,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6813742</v>
+        <v>6813747</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45143.375</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6813744</v>
+        <v>6813745</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,58 +2592,58 @@
         <v>45143.375</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,16 +2652,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2681,7 +2681,7 @@
         <v>45143.4375</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2773,7 +2773,7 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2859,7 +2859,7 @@
         <v>45147.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3126,10 +3126,10 @@
         <v>45149.5625</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3307,7 +3307,7 @@
         <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         <v>45157.375</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -3749,10 +3749,10 @@
         <v>45157.375</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>45157.375</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4108,7 +4108,7 @@
         <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4194,7 +4194,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>45164.375</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4550,7 +4550,7 @@
         <v>45167.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6813779</v>
+        <v>6813786</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,37 +4728,37 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
       </c>
       <c r="K48">
+        <v>1.5</v>
+      </c>
+      <c r="L48">
+        <v>4.1</v>
+      </c>
+      <c r="M48">
+        <v>4.8</v>
+      </c>
+      <c r="N48">
         <v>1.4</v>
       </c>
-      <c r="L48">
-        <v>4.75</v>
-      </c>
-      <c r="M48">
+      <c r="O48">
+        <v>4.333</v>
+      </c>
+      <c r="P48">
         <v>5.5</v>
-      </c>
-      <c r="N48">
-        <v>1.45</v>
-      </c>
-      <c r="O48">
-        <v>4.5</v>
-      </c>
-      <c r="P48">
-        <v>5</v>
       </c>
       <c r="Q48">
         <v>-1.25</v>
@@ -4770,7 +4770,7 @@
         <v>1.85</v>
       </c>
       <c r="T48">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
         <v>1.825</v>
@@ -4779,7 +4779,7 @@
         <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4794,10 +4794,10 @@
         <v>0.425</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6813786</v>
+        <v>6813779</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,37 +4817,37 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
       </c>
       <c r="K49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L49">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="M49">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="N49">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O49">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q49">
         <v>-1.25</v>
@@ -4859,7 +4859,7 @@
         <v>1.85</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
         <v>1.825</v>
@@ -4868,7 +4868,7 @@
         <v>1.975</v>
       </c>
       <c r="W49">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4883,10 +4883,10 @@
         <v>0.425</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6813788</v>
+        <v>6813789</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N50">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y50">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6813789</v>
+        <v>6813788</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="N51">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5176,7 +5176,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5262,10 +5262,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s">
         <v>43</v>
-      </c>
-      <c r="G54" t="s">
-        <v>44</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5354,7 +5354,7 @@
         <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5440,10 +5440,10 @@
         <v>45171.375</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5796,7 +5796,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5885,7 +5885,7 @@
         <v>45177.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -6066,7 +6066,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>45178.375</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -6330,7 +6330,7 @@
         <v>45178.375</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6422,7 +6422,7 @@
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6508,10 +6508,10 @@
         <v>45184.5</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6686,7 +6686,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6778,7 +6778,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>45185.375</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>42</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6813817</v>
+        <v>6813823</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L80">
         <v>3.8</v>
       </c>
       <c r="M80">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="N80">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,13 +7636,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6813823</v>
+        <v>6813817</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,58 +7665,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L81">
         <v>3.8</v>
       </c>
       <c r="M81">
+        <v>3.8</v>
+      </c>
+      <c r="N81">
+        <v>2.2</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
+      <c r="P81">
+        <v>2.5</v>
+      </c>
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
         <v>2.05</v>
       </c>
-      <c r="N81">
-        <v>2.7</v>
-      </c>
-      <c r="O81">
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
         <v>3.75</v>
       </c>
-      <c r="P81">
-        <v>2.1</v>
-      </c>
-      <c r="Q81">
-        <v>0.25</v>
-      </c>
-      <c r="R81">
-        <v>1.875</v>
-      </c>
-      <c r="S81">
-        <v>1.925</v>
-      </c>
-      <c r="T81">
-        <v>2.75</v>
-      </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7725,13 +7725,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6813818</v>
+        <v>6813819</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,46 +7754,46 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>3</v>
@@ -7805,25 +7805,25 @@
         <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6813819</v>
+        <v>6813818</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,46 +7843,46 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M83">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>3</v>
@@ -7894,25 +7894,25 @@
         <v>1.9</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7932,10 +7932,10 @@
         <v>45192.375</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8021,7 +8021,7 @@
         <v>45192.375</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>32</v>
@@ -8110,7 +8110,7 @@
         <v>45192.375</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8199,7 +8199,7 @@
         <v>45197.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -8291,7 +8291,7 @@
         <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>45199.375</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8733,10 +8733,10 @@
         <v>45199.375</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6813838</v>
+        <v>6813836</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45202.375</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M96">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N96">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
         <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6813836</v>
+        <v>6813838</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45202.375</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N97">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
         <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
+        <v>1.975</v>
+      </c>
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="V97">
-        <v>1.925</v>
-      </c>
       <c r="W97">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6813840</v>
+        <v>6813837</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,58 +9178,58 @@
         <v>45202.375</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M98">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N98">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="O98">
+        <v>5.5</v>
+      </c>
+      <c r="P98">
+        <v>7</v>
+      </c>
+      <c r="Q98">
+        <v>-1.75</v>
+      </c>
+      <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
+        <v>1.875</v>
+      </c>
+      <c r="T98">
         <v>3.75</v>
       </c>
-      <c r="P98">
-        <v>2.875</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.875</v>
-      </c>
-      <c r="S98">
-        <v>1.975</v>
-      </c>
-      <c r="T98">
-        <v>3</v>
-      </c>
       <c r="U98">
+        <v>1.9</v>
+      </c>
+      <c r="V98">
         <v>1.95</v>
       </c>
-      <c r="V98">
-        <v>1.9</v>
-      </c>
       <c r="W98">
-        <v>1.05</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9238,13 +9238,13 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6813837</v>
+        <v>6813841</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45202.375</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
+        <v>1.65</v>
+      </c>
+      <c r="L99">
+        <v>3.8</v>
+      </c>
+      <c r="M99">
+        <v>4.1</v>
+      </c>
+      <c r="N99">
+        <v>1.8</v>
+      </c>
+      <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
+        <v>3.4</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.825</v>
+      </c>
+      <c r="S99">
+        <v>1.975</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
         <v>2</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>1.45</v>
-      </c>
-      <c r="L99">
-        <v>4.75</v>
-      </c>
-      <c r="M99">
-        <v>4.75</v>
-      </c>
-      <c r="N99">
-        <v>1.285</v>
-      </c>
-      <c r="O99">
-        <v>5.5</v>
-      </c>
-      <c r="P99">
-        <v>7</v>
-      </c>
-      <c r="Q99">
-        <v>-1.75</v>
-      </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>1.875</v>
-      </c>
-      <c r="T99">
-        <v>3.75</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6813841</v>
+        <v>6813834</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45202.375</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>1.65</v>
+        <v>4.1</v>
       </c>
       <c r="L100">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6813834</v>
+        <v>6813835</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,73 +9448,73 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>2.1</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>2.6</v>
+      </c>
+      <c r="N101">
+        <v>2.45</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101">
+        <v>2.15</v>
+      </c>
+      <c r="Q101">
+        <v>0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
         <v>2</v>
       </c>
-      <c r="J101" t="s">
-        <v>49</v>
-      </c>
-      <c r="K101">
-        <v>4.1</v>
-      </c>
-      <c r="L101">
-        <v>3.6</v>
-      </c>
-      <c r="M101">
-        <v>1.7</v>
-      </c>
-      <c r="N101">
-        <v>4.2</v>
-      </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>1.666</v>
-      </c>
-      <c r="Q101">
-        <v>0.75</v>
-      </c>
-      <c r="R101">
-        <v>1.95</v>
-      </c>
-      <c r="S101">
-        <v>1.85</v>
-      </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y101">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813835</v>
+        <v>6813840</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45202.375</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M102">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
         <v>3</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6814791</v>
+        <v>6813839</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9623,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
+        <v>2.1</v>
+      </c>
+      <c r="S103">
+        <v>1.775</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
         <v>1.9</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>2</v>
-      </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6813839</v>
+        <v>6814791</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K104">
+        <v>1.666</v>
+      </c>
+      <c r="L104">
+        <v>4</v>
+      </c>
+      <c r="M104">
+        <v>3.8</v>
+      </c>
+      <c r="N104">
+        <v>1.666</v>
+      </c>
+      <c r="O104">
+        <v>4</v>
+      </c>
+      <c r="P104">
+        <v>3.8</v>
+      </c>
+      <c r="Q104">
+        <v>-0.75</v>
+      </c>
+      <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
         <v>2</v>
       </c>
-      <c r="L104">
-        <v>3.75</v>
-      </c>
-      <c r="M104">
-        <v>2.875</v>
-      </c>
-      <c r="N104">
-        <v>2.25</v>
-      </c>
-      <c r="O104">
-        <v>3.75</v>
-      </c>
-      <c r="P104">
-        <v>2.55</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
-        <v>2.1</v>
-      </c>
-      <c r="S104">
-        <v>1.775</v>
-      </c>
-      <c r="T104">
-        <v>2.75</v>
-      </c>
-      <c r="U104">
-        <v>1.9</v>
-      </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z104">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9893,7 +9893,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9982,7 +9982,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10160,7 +10160,7 @@
         <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10335,7 +10335,7 @@
         <v>45207.375</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -10424,7 +10424,7 @@
         <v>45207.375</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
         <v>39</v>
@@ -10605,7 +10605,7 @@
         <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10780,7 +10780,7 @@
         <v>45213.375</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
         <v>31</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6813858</v>
+        <v>6813859</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,58 +10869,58 @@
         <v>45213.375</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117">
         <v>2</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
         <v>3.75</v>
       </c>
       <c r="M117">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N117">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O117">
         <v>4</v>
       </c>
       <c r="P117">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10929,16 +10929,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6813857</v>
+        <v>6813858</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,58 +10958,58 @@
         <v>45213.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N118">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="O118">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
         <v>1.825</v>
       </c>
       <c r="W118">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11018,16 +11018,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6813859</v>
+        <v>6813857</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,58 +11047,58 @@
         <v>45213.375</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>47</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N119">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,10 +11136,10 @@
         <v>45213.375</v>
       </c>
       <c r="F120" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s">
         <v>36</v>
-      </c>
-      <c r="G120" t="s">
-        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11225,7 +11225,7 @@
         <v>45216.4375</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>29</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6813871</v>
+        <v>6813868</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,10 +11403,10 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11418,25 +11418,25 @@
         <v>48</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N123">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
         <v>1.825</v>
@@ -11445,34 +11445,34 @@
         <v>1.975</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
         <v>1.85</v>
       </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6813868</v>
+        <v>6813871</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,10 +11492,10 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11507,25 +11507,25 @@
         <v>48</v>
       </c>
       <c r="K124">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>2.3</v>
+      </c>
+      <c r="N124">
+        <v>2.8</v>
+      </c>
+      <c r="O124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.25</v>
-      </c>
-      <c r="N124">
-        <v>4</v>
-      </c>
-      <c r="O124">
-        <v>3.8</v>
-      </c>
       <c r="P124">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
         <v>1.825</v>
@@ -11534,34 +11534,34 @@
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>46</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6813863</v>
+        <v>6813866</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N127">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O127">
         <v>3.75</v>
       </c>
       <c r="P127">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
         <v>1.85</v>
       </c>
-      <c r="S127">
-        <v>1.95</v>
-      </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
+        <v>1.825</v>
+      </c>
+      <c r="V127">
         <v>1.975</v>
       </c>
-      <c r="V127">
-        <v>1.825</v>
-      </c>
       <c r="W127">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6813866</v>
+        <v>6813863</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O128">
         <v>3.75</v>
       </c>
       <c r="P128">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
         <v>1.95</v>
       </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X128">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11940,7 +11940,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>45220.375</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12382,10 +12382,10 @@
         <v>45220.375</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12830,7 +12830,7 @@
         <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12916,10 +12916,10 @@
         <v>45227.375</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -13008,7 +13008,7 @@
         <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13183,7 +13183,7 @@
         <v>45227.375</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
@@ -13275,7 +13275,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13542,7 +13542,7 @@
         <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6813896</v>
+        <v>6813892</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,58 +13806,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>3</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="L150">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N150">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O150">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q150">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6813897</v>
+        <v>6813896</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,70 +13895,70 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
         <v>1</v>
       </c>
-      <c r="I151">
-        <v>3</v>
-      </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M151">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="N151">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P151">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
         <v>1.95</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U151">
         <v>1.85</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>0.8500000000000001</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6813894</v>
+        <v>6813897</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,73 +13984,73 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>1.166</v>
+        <v>3.1</v>
       </c>
       <c r="L152">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>11</v>
+        <v>1.833</v>
       </c>
       <c r="N152">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O152">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="Q152">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
         <v>1.95</v>
       </c>
-      <c r="S152">
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
         <v>1.85</v>
       </c>
-      <c r="T152">
-        <v>3.25</v>
-      </c>
-      <c r="U152">
-        <v>1.9</v>
-      </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
         <v>0.95</v>
       </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6813892</v>
+        <v>6813894</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,13 +14073,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I153">
         <v>2</v>
@@ -14088,43 +14088,43 @@
         <v>47</v>
       </c>
       <c r="K153">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="N153">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P153">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14133,13 +14133,13 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14162,7 +14162,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14251,7 +14251,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
         <v>39</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6813900</v>
+        <v>6813898</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45240.625</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>48</v>
+      </c>
+      <c r="K156">
         <v>5</v>
       </c>
-      <c r="I156">
-        <v>4</v>
-      </c>
-      <c r="J156" t="s">
-        <v>47</v>
-      </c>
-      <c r="K156">
-        <v>1.909</v>
-      </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N156">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P156">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
         <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6813898</v>
+        <v>6813900</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45240.625</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N157">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q157">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
         <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6813899</v>
+        <v>6813901</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>49</v>
+      </c>
+      <c r="K158">
+        <v>3.4</v>
+      </c>
+      <c r="L158">
         <v>4</v>
       </c>
-      <c r="I158">
+      <c r="M158">
+        <v>1.75</v>
+      </c>
+      <c r="N158">
+        <v>2.75</v>
+      </c>
+      <c r="O158">
+        <v>3.4</v>
+      </c>
+      <c r="P158">
+        <v>2.15</v>
+      </c>
+      <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.85</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2.75</v>
+      </c>
+      <c r="U158">
+        <v>1.875</v>
+      </c>
+      <c r="V158">
+        <v>1.975</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>1.15</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
         <v>1</v>
       </c>
-      <c r="J158" t="s">
-        <v>47</v>
-      </c>
-      <c r="K158">
-        <v>6</v>
-      </c>
-      <c r="L158">
-        <v>4.75</v>
-      </c>
-      <c r="M158">
-        <v>1.363</v>
-      </c>
-      <c r="N158">
-        <v>3.3</v>
-      </c>
-      <c r="O158">
-        <v>4.2</v>
-      </c>
-      <c r="P158">
-        <v>1.75</v>
-      </c>
-      <c r="Q158">
-        <v>0.75</v>
-      </c>
-      <c r="R158">
-        <v>1.825</v>
-      </c>
-      <c r="S158">
-        <v>1.975</v>
-      </c>
-      <c r="T158">
-        <v>3.25</v>
-      </c>
-      <c r="U158">
-        <v>1.925</v>
-      </c>
-      <c r="V158">
-        <v>1.875</v>
-      </c>
-      <c r="W158">
-        <v>2.3</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.825</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
       <c r="AB158">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6813904</v>
+        <v>6813899</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,76 +14607,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G159" t="s">
         <v>33</v>
       </c>
       <c r="H159">
+        <v>4</v>
+      </c>
+      <c r="I159">
         <v>1</v>
       </c>
-      <c r="I159">
-        <v>2</v>
-      </c>
       <c r="J159" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K159">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M159">
+        <v>1.363</v>
+      </c>
+      <c r="N159">
         <v>3.3</v>
       </c>
-      <c r="N159">
-        <v>2.1</v>
-      </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P159">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6813905</v>
+        <v>6813904</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160" t="s">
+        <v>49</v>
+      </c>
+      <c r="K160">
+        <v>1.833</v>
+      </c>
+      <c r="L160">
+        <v>3.75</v>
+      </c>
+      <c r="M160">
+        <v>3.3</v>
+      </c>
+      <c r="N160">
+        <v>2.1</v>
+      </c>
+      <c r="O160">
+        <v>3.5</v>
+      </c>
+      <c r="P160">
+        <v>2.8</v>
+      </c>
+      <c r="Q160">
+        <v>-0.25</v>
+      </c>
+      <c r="R160">
+        <v>1.95</v>
+      </c>
+      <c r="S160">
+        <v>1.9</v>
+      </c>
+      <c r="T160">
         <v>3</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="J160" t="s">
-        <v>47</v>
-      </c>
-      <c r="K160">
-        <v>1.2</v>
-      </c>
-      <c r="L160">
-        <v>6</v>
-      </c>
-      <c r="M160">
-        <v>9</v>
-      </c>
-      <c r="N160">
-        <v>1.333</v>
-      </c>
-      <c r="O160">
-        <v>5</v>
-      </c>
-      <c r="P160">
-        <v>6.5</v>
-      </c>
-      <c r="Q160">
-        <v>-1.5</v>
-      </c>
-      <c r="R160">
-        <v>1.925</v>
-      </c>
-      <c r="S160">
-        <v>1.925</v>
-      </c>
-      <c r="T160">
-        <v>3.25</v>
-      </c>
       <c r="U160">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z160">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB160">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6814794</v>
+        <v>6813905</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,40 +14785,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>2</v>
-      </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L161">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M161">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N161">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P161">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R161">
         <v>1.925</v>
@@ -14827,34 +14827,34 @@
         <v>1.925</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA161">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6813902</v>
+        <v>6814794</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,55 +14874,55 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>49</v>
       </c>
       <c r="K162">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="L162">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M162">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="N162">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="O162">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14931,19 +14931,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC162">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6813901</v>
+        <v>6813902</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,55 +15052,55 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>1</v>
-      </c>
-      <c r="I164">
-        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="L164">
+        <v>5.5</v>
+      </c>
+      <c r="M164">
+        <v>7.5</v>
+      </c>
+      <c r="N164">
+        <v>1.6</v>
+      </c>
+      <c r="O164">
+        <v>4.2</v>
+      </c>
+      <c r="P164">
         <v>4</v>
       </c>
-      <c r="M164">
-        <v>1.75</v>
-      </c>
-      <c r="N164">
-        <v>2.75</v>
-      </c>
-      <c r="O164">
-        <v>3.4</v>
-      </c>
-      <c r="P164">
-        <v>2.15</v>
-      </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15109,19 +15109,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.15</v>
+        <v>3</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB164">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15586,7 +15586,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
         <v>46</v>
@@ -15764,10 +15764,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15856,7 +15856,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16034,7 +16034,7 @@
         <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16120,10 +16120,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16387,7 +16387,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
         <v>37</v>
@@ -16479,7 +16479,7 @@
         <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16832,7 +16832,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G184" t="s">
         <v>40</v>
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6813932</v>
+        <v>6813933</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,73 +16921,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185" t="s">
+        <v>49</v>
+      </c>
+      <c r="K185">
+        <v>2.7</v>
+      </c>
+      <c r="L185">
+        <v>3.6</v>
+      </c>
+      <c r="M185">
+        <v>2.15</v>
+      </c>
+      <c r="N185">
+        <v>3.6</v>
+      </c>
+      <c r="O185">
+        <v>4</v>
+      </c>
+      <c r="P185">
+        <v>1.727</v>
+      </c>
+      <c r="Q185">
+        <v>0.75</v>
+      </c>
+      <c r="R185">
+        <v>1.85</v>
+      </c>
+      <c r="S185">
         <v>2</v>
       </c>
-      <c r="I185">
-        <v>2</v>
-      </c>
-      <c r="J185" t="s">
-        <v>48</v>
-      </c>
-      <c r="K185">
-        <v>1.25</v>
-      </c>
-      <c r="L185">
-        <v>5</v>
-      </c>
-      <c r="M185">
-        <v>9</v>
-      </c>
-      <c r="N185">
+      <c r="T185">
+        <v>2.75</v>
+      </c>
+      <c r="U185">
         <v>1.8</v>
       </c>
-      <c r="O185">
-        <v>3.4</v>
-      </c>
-      <c r="P185">
-        <v>3.6</v>
-      </c>
-      <c r="Q185">
-        <v>-0.75</v>
-      </c>
-      <c r="R185">
-        <v>2.1</v>
-      </c>
-      <c r="S185">
-        <v>1.775</v>
-      </c>
-      <c r="T185">
-        <v>3.25</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB185">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6813933</v>
+        <v>6813932</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,73 +17010,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186" t="s">
+        <v>48</v>
+      </c>
+      <c r="K186">
+        <v>1.25</v>
+      </c>
+      <c r="L186">
+        <v>5</v>
+      </c>
+      <c r="M186">
+        <v>9</v>
+      </c>
+      <c r="N186">
+        <v>1.8</v>
+      </c>
+      <c r="O186">
+        <v>3.4</v>
+      </c>
+      <c r="P186">
+        <v>3.6</v>
+      </c>
+      <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>2.1</v>
+      </c>
+      <c r="S186">
+        <v>1.775</v>
+      </c>
+      <c r="T186">
+        <v>3.25</v>
+      </c>
+      <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
+        <v>1.85</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.4</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>-1</v>
+      </c>
+      <c r="AA186">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB186">
         <v>1</v>
-      </c>
-      <c r="I186">
-        <v>3</v>
-      </c>
-      <c r="J186" t="s">
-        <v>49</v>
-      </c>
-      <c r="K186">
-        <v>2.7</v>
-      </c>
-      <c r="L186">
-        <v>3.6</v>
-      </c>
-      <c r="M186">
-        <v>2.15</v>
-      </c>
-      <c r="N186">
-        <v>3.6</v>
-      </c>
-      <c r="O186">
-        <v>4</v>
-      </c>
-      <c r="P186">
-        <v>1.727</v>
-      </c>
-      <c r="Q186">
-        <v>0.75</v>
-      </c>
-      <c r="R186">
-        <v>1.85</v>
-      </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.8</v>
-      </c>
-      <c r="V186">
-        <v>2.05</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
-      <c r="Y186">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z186">
-        <v>-1</v>
-      </c>
-      <c r="AA186">
-        <v>1</v>
-      </c>
-      <c r="AB186">
-        <v>0.8</v>
       </c>
       <c r="AC186">
         <v>-1</v>
@@ -17099,7 +17099,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>41</v>
@@ -17188,7 +17188,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17458,7 +17458,7 @@
         <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6813943</v>
+        <v>6813939</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K193">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M193">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="N193">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O193">
         <v>4.333</v>
       </c>
       <c r="P193">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q193">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
         <v>0.363</v>
       </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
       <c r="Z193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6813939</v>
+        <v>6813941</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,52 +17722,52 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
         <v>49</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L194">
         <v>4</v>
       </c>
       <c r="M194">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="N194">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O194">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P194">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="Q194">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
         <v>2</v>
@@ -17779,13 +17779,13 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.363</v>
+        <v>1.8</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6813941</v>
+        <v>6813938</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,55 +17811,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
         <v>49</v>
       </c>
       <c r="K195">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L195">
         <v>4</v>
       </c>
       <c r="M195">
+        <v>2.5</v>
+      </c>
+      <c r="N195">
         <v>2.6</v>
       </c>
-      <c r="N195">
-        <v>2.15</v>
-      </c>
       <c r="O195">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17868,19 +17868,19 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6813938</v>
+        <v>6813943</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,70 +17900,70 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="I196">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>3</v>
-      </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M196">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O196">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P196">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
         <v>3</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
         <v>0</v>
@@ -17992,7 +17992,7 @@
         <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7763101</v>
+        <v>7763221</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,58 +18078,58 @@
         <v>45363.625</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>47</v>
       </c>
       <c r="K198">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N198">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O198">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q198">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W198">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18138,16 +18138,16 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA198">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7763221</v>
+        <v>7763101</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,58 +18167,58 @@
         <v>45363.625</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H199">
         <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>47</v>
       </c>
       <c r="K199">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L199">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M199">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N199">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P199">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R199">
+        <v>1.9</v>
+      </c>
+      <c r="S199">
+        <v>1.9</v>
+      </c>
+      <c r="T199">
+        <v>3.25</v>
+      </c>
+      <c r="U199">
         <v>1.825</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.975</v>
       </c>
-      <c r="T199">
-        <v>2.75</v>
-      </c>
-      <c r="U199">
-        <v>1.8</v>
-      </c>
-      <c r="V199">
-        <v>2</v>
-      </c>
       <c r="W199">
-        <v>0.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18227,16 +18227,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC199">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18434,7 +18434,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6813948</v>
+        <v>6813945</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,55 +18523,55 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J203" t="s">
         <v>49</v>
       </c>
       <c r="K203">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="N203">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P203">
+        <v>1.909</v>
+      </c>
+      <c r="Q203">
+        <v>0.5</v>
+      </c>
+      <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
+        <v>2.025</v>
+      </c>
+      <c r="T203">
         <v>3</v>
       </c>
-      <c r="Q203">
-        <v>-0.25</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
-      </c>
-      <c r="S203">
-        <v>1.925</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18580,16 +18580,16 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB203">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6813945</v>
+        <v>6813948</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,55 +18612,55 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>49</v>
       </c>
       <c r="K204">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M204">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="N204">
+        <v>2.15</v>
+      </c>
+      <c r="O204">
         <v>3.2</v>
       </c>
-      <c r="O204">
-        <v>3.6</v>
-      </c>
       <c r="P204">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q204">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18669,16 +18669,16 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18790,10 +18790,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F206" t="s">
+        <v>35</v>
+      </c>
+      <c r="G206" t="s">
         <v>34</v>
-      </c>
-      <c r="G206" t="s">
-        <v>33</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18879,7 +18879,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>41</v>
@@ -19149,7 +19149,7 @@
         <v>46</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19238,7 +19238,7 @@
         <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6813959</v>
+        <v>6813958</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,76 +19324,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="L212">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M212">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N212">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6813958</v>
+        <v>6813959</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="L213">
+        <v>6</v>
+      </c>
+      <c r="M213">
+        <v>9</v>
+      </c>
+      <c r="N213">
+        <v>1.5</v>
+      </c>
+      <c r="O213">
         <v>3.6</v>
       </c>
-      <c r="M213">
-        <v>3.4</v>
-      </c>
-      <c r="N213">
-        <v>2.2</v>
-      </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
       <c r="P213">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X213">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA213">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19772,7 +19772,7 @@
         <v>42</v>
       </c>
       <c r="G217" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -19873,31 +19873,31 @@
         <v>2.25</v>
       </c>
       <c r="N218">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O218">
         <v>3.8</v>
       </c>
       <c r="P218">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q218">
         <v>0.25</v>
       </c>
       <c r="R218">
+        <v>1.875</v>
+      </c>
+      <c r="S218">
         <v>1.975</v>
       </c>
-      <c r="S218">
-        <v>1.875</v>
-      </c>
       <c r="T218">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V218">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19932,10 +19932,10 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K219">
         <v>1.909</v>
@@ -19947,31 +19947,31 @@
         <v>3.1</v>
       </c>
       <c r="N219">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O219">
         <v>3.8</v>
       </c>
       <c r="P219">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q219">
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T219">
         <v>3</v>
       </c>
       <c r="U219">
+        <v>1.9</v>
+      </c>
+      <c r="V219">
         <v>1.95</v>
-      </c>
-      <c r="V219">
-        <v>1.9</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -20021,13 +20021,13 @@
         <v>10</v>
       </c>
       <c r="N220">
-        <v>1.1</v>
+        <v>1.111</v>
       </c>
       <c r="O220">
         <v>9</v>
       </c>
       <c r="P220">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q220">
         <v>-2.5</v>
@@ -20042,10 +20042,10 @@
         <v>3.5</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20080,7 +20080,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
         <v>31</v>
@@ -20157,7 +20157,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K222">
         <v>2.15</v>
@@ -20169,31 +20169,31 @@
         <v>2.625</v>
       </c>
       <c r="N222">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O222">
         <v>3.75</v>
       </c>
       <c r="P222">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q222">
         <v>0</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
         <v>3</v>
       </c>
       <c r="U222">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20228,7 +20228,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
         <v>38</v>
@@ -20255,19 +20255,19 @@
         <v>-1.25</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T223">
         <v>3</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20317,22 +20317,22 @@
         <v>4</v>
       </c>
       <c r="N224">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P224">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S224">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T224">
         <v>3</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Eintracht Bamberg</t>
   </si>
   <si>
-    <t>Schweinfurt 05</t>
-  </si>
-  <si>
     <t>Greuther Furth II</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Nurnberg II</t>
+  </si>
+  <si>
+    <t>Schweinfurt 05</t>
   </si>
   <si>
     <t>TSV Aubstadt</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC225"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6813721</v>
+        <v>6813726</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
         <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>3.6</v>
       </c>
       <c r="P6">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6813726</v>
+        <v>6813724</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7">
+        <v>2.4</v>
+      </c>
+      <c r="L7">
+        <v>3.6</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>1.65</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>-0.75</v>
+      </c>
+      <c r="R7">
+        <v>1.825</v>
+      </c>
+      <c r="S7">
+        <v>1.975</v>
+      </c>
+      <c r="T7">
+        <v>3.25</v>
+      </c>
+      <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
+        <v>1.975</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7">
-        <v>2.25</v>
-      </c>
-      <c r="L7">
-        <v>3.75</v>
-      </c>
-      <c r="M7">
-        <v>2.5</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
-      <c r="P7">
-        <v>2.05</v>
-      </c>
-      <c r="Q7">
-        <v>0.25</v>
-      </c>
-      <c r="R7">
-        <v>1.975</v>
-      </c>
-      <c r="S7">
-        <v>1.825</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.8</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
       <c r="Y7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813724</v>
+        <v>6813722</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L8">
         <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6813722</v>
+        <v>6813721</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
+        <v>3.75</v>
+      </c>
+      <c r="M9">
+        <v>2.7</v>
+      </c>
+      <c r="N9">
+        <v>2.1</v>
+      </c>
+      <c r="O9">
         <v>3.6</v>
       </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>2.15</v>
-      </c>
-      <c r="O9">
-        <v>3.2</v>
-      </c>
       <c r="P9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2325,7 +2325,7 @@
         <v>45143.375</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2592,7 +2592,7 @@
         <v>45143.375</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>44</v>
@@ -2681,7 +2681,7 @@
         <v>45143.4375</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3129,7 +3129,7 @@
         <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3307,7 +3307,7 @@
         <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         <v>45157.375</v>
       </c>
       <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>33</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -3749,7 +3749,7 @@
         <v>45157.375</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
@@ -3927,7 +3927,7 @@
         <v>45157.375</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4108,7 +4108,7 @@
         <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4461,7 +4461,7 @@
         <v>45164.375</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4550,7 +4550,7 @@
         <v>45167.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6813786</v>
+        <v>6813779</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,37 +4728,37 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>47</v>
       </c>
       <c r="K48">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L48">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="M48">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="N48">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O48">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q48">
         <v>-1.25</v>
@@ -4770,7 +4770,7 @@
         <v>1.85</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
         <v>1.825</v>
@@ -4779,7 +4779,7 @@
         <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4794,10 +4794,10 @@
         <v>0.425</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6813779</v>
+        <v>6813786</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,37 +4817,37 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>47</v>
       </c>
       <c r="K49">
+        <v>1.5</v>
+      </c>
+      <c r="L49">
+        <v>4.1</v>
+      </c>
+      <c r="M49">
+        <v>4.8</v>
+      </c>
+      <c r="N49">
         <v>1.4</v>
       </c>
-      <c r="L49">
-        <v>4.75</v>
-      </c>
-      <c r="M49">
+      <c r="O49">
+        <v>4.333</v>
+      </c>
+      <c r="P49">
         <v>5.5</v>
-      </c>
-      <c r="N49">
-        <v>1.45</v>
-      </c>
-      <c r="O49">
-        <v>4.5</v>
-      </c>
-      <c r="P49">
-        <v>5</v>
       </c>
       <c r="Q49">
         <v>-1.25</v>
@@ -4859,7 +4859,7 @@
         <v>1.85</v>
       </c>
       <c r="T49">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
         <v>1.825</v>
@@ -4868,7 +4868,7 @@
         <v>1.975</v>
       </c>
       <c r="W49">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4883,10 +4883,10 @@
         <v>0.425</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6813789</v>
+        <v>6813788</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="N50">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6813788</v>
+        <v>6813789</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y51">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6813791</v>
+        <v>6813790</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,58 +5084,58 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L52">
         <v>3.75</v>
       </c>
       <c r="M52">
+        <v>2.3</v>
+      </c>
+      <c r="N52">
+        <v>1.833</v>
+      </c>
+      <c r="O52">
         <v>3.75</v>
       </c>
-      <c r="N52">
-        <v>1.285</v>
-      </c>
-      <c r="O52">
-        <v>5</v>
-      </c>
       <c r="P52">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
         <v>1.925</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5144,13 +5144,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6813796</v>
+        <v>6813791</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,58 +5173,58 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>47</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N53">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P53">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R53">
+        <v>1.9</v>
+      </c>
+      <c r="S53">
+        <v>1.9</v>
+      </c>
+      <c r="T53">
+        <v>3.5</v>
+      </c>
+      <c r="U53">
         <v>1.775</v>
       </c>
-      <c r="S53">
-        <v>2.025</v>
-      </c>
-      <c r="T53">
-        <v>3</v>
-      </c>
-      <c r="U53">
-        <v>1.95</v>
-      </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>1.7</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5233,16 +5233,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB53">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA53">
-        <v>-1</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6813790</v>
+        <v>6813796</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,58 +5262,58 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>47</v>
       </c>
       <c r="K54">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O54">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.833</v>
+        <v>1.7</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5322,16 +5322,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5440,10 +5440,10 @@
         <v>45171.375</v>
       </c>
       <c r="F56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
         <v>34</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5885,7 +5885,7 @@
         <v>45177.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -6152,7 +6152,7 @@
         <v>45178.375</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -6330,7 +6330,7 @@
         <v>45178.375</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6422,7 +6422,7 @@
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6508,10 +6508,10 @@
         <v>45184.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>45185.375</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>42</v>
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7932,10 +7932,10 @@
         <v>45192.375</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8021,7 +8021,7 @@
         <v>45192.375</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>32</v>
@@ -8199,7 +8199,7 @@
         <v>45197.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -8469,7 +8469,7 @@
         <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>45199.375</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8736,7 +8736,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6813836</v>
+        <v>6813838</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45202.375</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L96">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N96">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
         <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U96">
+        <v>1.975</v>
+      </c>
+      <c r="V96">
         <v>1.875</v>
       </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
       <c r="W96">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6813838</v>
+        <v>6813836</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45202.375</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M97">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
         <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6813837</v>
+        <v>6813840</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,58 +9178,58 @@
         <v>45202.375</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L98">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M98">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N98">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O98">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
         <v>1.975</v>
       </c>
-      <c r="S98">
-        <v>1.875</v>
-      </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
         <v>1.9</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
-        <v>0.2849999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9238,13 +9238,13 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6813841</v>
+        <v>6813837</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45202.375</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M99">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="N99">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O99">
+        <v>5.5</v>
+      </c>
+      <c r="P99">
+        <v>7</v>
+      </c>
+      <c r="Q99">
+        <v>-1.75</v>
+      </c>
+      <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.875</v>
+      </c>
+      <c r="T99">
         <v>3.75</v>
       </c>
-      <c r="P99">
-        <v>3.4</v>
-      </c>
-      <c r="Q99">
+      <c r="U99">
+        <v>1.9</v>
+      </c>
+      <c r="V99">
+        <v>1.95</v>
+      </c>
+      <c r="W99">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.4875</v>
+      </c>
+      <c r="AA99">
         <v>-0.5</v>
       </c>
-      <c r="R99">
-        <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>2</v>
-      </c>
-      <c r="V99">
-        <v>1.8</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.75</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6813834</v>
+        <v>6813841</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45202.375</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>1.65</v>
+      </c>
+      <c r="L100">
+        <v>3.8</v>
+      </c>
+      <c r="M100">
+        <v>4.1</v>
+      </c>
+      <c r="N100">
+        <v>1.8</v>
+      </c>
+      <c r="O100">
+        <v>3.75</v>
+      </c>
+      <c r="P100">
+        <v>3.4</v>
+      </c>
+      <c r="Q100">
+        <v>-0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
         <v>2</v>
       </c>
-      <c r="J100" t="s">
-        <v>49</v>
-      </c>
-      <c r="K100">
-        <v>4.1</v>
-      </c>
-      <c r="L100">
-        <v>3.6</v>
-      </c>
-      <c r="M100">
-        <v>1.7</v>
-      </c>
-      <c r="N100">
-        <v>4.2</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>1.666</v>
-      </c>
-      <c r="Q100">
-        <v>0.75</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.95</v>
-      </c>
       <c r="V100">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y100">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6813835</v>
+        <v>6813834</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,73 +9448,73 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="N101">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813840</v>
+        <v>6813835</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45202.375</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N102">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T102">
         <v>3</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6813839</v>
+        <v>6814791</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9623,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K103">
+        <v>1.666</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <v>3.8</v>
+      </c>
+      <c r="N103">
+        <v>1.666</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>3.8</v>
+      </c>
+      <c r="Q103">
+        <v>-0.75</v>
+      </c>
+      <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>1.95</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
         <v>2</v>
       </c>
-      <c r="L103">
-        <v>3.75</v>
-      </c>
-      <c r="M103">
-        <v>2.875</v>
-      </c>
-      <c r="N103">
-        <v>2.25</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>2.55</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
-        <v>2.1</v>
-      </c>
-      <c r="S103">
-        <v>1.775</v>
-      </c>
-      <c r="T103">
-        <v>2.75</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6814791</v>
+        <v>6813839</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N104">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>1.775</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
         <v>1.9</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
-      <c r="U104">
-        <v>2</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9893,7 +9893,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -10335,7 +10335,7 @@
         <v>45207.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -10424,7 +10424,7 @@
         <v>45207.375</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>39</v>
@@ -10605,7 +10605,7 @@
         <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6813859</v>
+        <v>6813858</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,58 +10869,58 @@
         <v>45213.375</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
         <v>3.75</v>
       </c>
       <c r="M117">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N117">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O117">
         <v>4</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10929,16 +10929,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6813858</v>
+        <v>6813857</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,58 +10958,58 @@
         <v>45213.375</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N118">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P118">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
         <v>1.825</v>
       </c>
       <c r="W118">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11018,16 +11018,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6813857</v>
+        <v>6813859</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,58 +11047,58 @@
         <v>45213.375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
         <v>2</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>47</v>
       </c>
       <c r="K119">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N119">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11136,10 +11136,10 @@
         <v>45213.375</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11225,7 +11225,7 @@
         <v>45216.4375</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
         <v>29</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6813868</v>
+        <v>6813871</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,10 +11403,10 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11418,25 +11418,25 @@
         <v>48</v>
       </c>
       <c r="K123">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
+        <v>3.6</v>
+      </c>
+      <c r="M123">
+        <v>2.3</v>
+      </c>
+      <c r="N123">
+        <v>2.8</v>
+      </c>
+      <c r="O123">
         <v>3.5</v>
       </c>
-      <c r="M123">
-        <v>2.25</v>
-      </c>
-      <c r="N123">
-        <v>4</v>
-      </c>
-      <c r="O123">
-        <v>3.8</v>
-      </c>
       <c r="P123">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
         <v>1.825</v>
@@ -11445,34 +11445,34 @@
         <v>1.975</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6813871</v>
+        <v>6813868</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,10 +11492,10 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11507,25 +11507,25 @@
         <v>48</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
         <v>1.825</v>
@@ -11534,34 +11534,34 @@
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
         <v>1.85</v>
       </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6813866</v>
+        <v>6813863</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L127">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N127">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O127">
         <v>3.75</v>
       </c>
       <c r="P127">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
+        <v>1.85</v>
+      </c>
+      <c r="S127">
         <v>1.95</v>
       </c>
-      <c r="S127">
-        <v>1.85</v>
-      </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
+        <v>1.975</v>
+      </c>
+      <c r="V127">
         <v>1.825</v>
       </c>
-      <c r="V127">
-        <v>1.975</v>
-      </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X127">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6813863</v>
+        <v>6813866</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N128">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O128">
         <v>3.75</v>
       </c>
       <c r="P128">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
+        <v>1.95</v>
+      </c>
+      <c r="S128">
         <v>1.85</v>
       </c>
-      <c r="S128">
-        <v>1.95</v>
-      </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11940,7 +11940,7 @@
         <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12385,7 +12385,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12830,7 +12830,7 @@
         <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12919,7 +12919,7 @@
         <v>43</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -13008,7 +13008,7 @@
         <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13275,7 +13275,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6813889</v>
+        <v>6813891</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
+        <v>3</v>
+      </c>
+      <c r="J147" t="s">
+        <v>49</v>
+      </c>
+      <c r="K147">
+        <v>6</v>
+      </c>
+      <c r="L147">
+        <v>4.333</v>
+      </c>
+      <c r="M147">
+        <v>1.4</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147">
+        <v>4</v>
+      </c>
+      <c r="P147">
+        <v>1.444</v>
+      </c>
+      <c r="Q147">
+        <v>1.25</v>
+      </c>
+      <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.825</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>0.444</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>1.025</v>
+      </c>
+      <c r="AB147">
         <v>0</v>
       </c>
-      <c r="J147" t="s">
-        <v>48</v>
-      </c>
-      <c r="K147">
-        <v>3.1</v>
-      </c>
-      <c r="L147">
-        <v>3.75</v>
-      </c>
-      <c r="M147">
-        <v>1.909</v>
-      </c>
-      <c r="N147">
-        <v>2.5</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>2.375</v>
-      </c>
-      <c r="Q147">
-        <v>0</v>
-      </c>
-      <c r="R147">
-        <v>1.975</v>
-      </c>
-      <c r="S147">
-        <v>1.875</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.925</v>
-      </c>
-      <c r="V147">
-        <v>1.925</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>2.5</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
-      <c r="AA147">
+      <c r="AC147">
         <v>-0</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6813890</v>
+        <v>6813889</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L148">
         <v>3.75</v>
       </c>
       <c r="M148">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N148">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
         <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y148">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
         <v>0.925</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6813891</v>
+        <v>6813890</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,55 +13717,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J149" t="s">
         <v>49</v>
       </c>
       <c r="K149">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="L149">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="N149">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="Q149">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13774,19 +13774,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -14162,7 +14162,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14251,7 +14251,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>39</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6813898</v>
+        <v>6813900</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45240.625</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="L156">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N156">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P156">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q156">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
         <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC156">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6813900</v>
+        <v>6813898</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45240.625</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>48</v>
+      </c>
+      <c r="K157">
         <v>5</v>
       </c>
-      <c r="I157">
-        <v>4</v>
-      </c>
-      <c r="J157" t="s">
-        <v>47</v>
-      </c>
-      <c r="K157">
-        <v>1.909</v>
-      </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M157">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N157">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T157">
         <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14610,7 +14610,7 @@
         <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6813903</v>
+        <v>6813902</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L163">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M163">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N163">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O163">
         <v>4.2</v>
       </c>
       <c r="P163">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6813902</v>
+        <v>6813903</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,76 +15052,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K164">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L164">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M164">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N164">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O164">
         <v>4.2</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y164">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6813906</v>
+        <v>6813907</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45247.625</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N166">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6813907</v>
+        <v>6813906</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45247.625</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N167">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15586,7 +15586,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>46</v>
@@ -15767,7 +15767,7 @@
         <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16034,7 +16034,7 @@
         <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16120,7 +16120,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
         <v>43</v>
@@ -16387,7 +16387,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>37</v>
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6813933</v>
+        <v>6813932</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,73 +16921,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>48</v>
+      </c>
+      <c r="K185">
+        <v>1.25</v>
+      </c>
+      <c r="L185">
+        <v>5</v>
+      </c>
+      <c r="M185">
+        <v>9</v>
+      </c>
+      <c r="N185">
+        <v>1.8</v>
+      </c>
+      <c r="O185">
+        <v>3.4</v>
+      </c>
+      <c r="P185">
+        <v>3.6</v>
+      </c>
+      <c r="Q185">
+        <v>-0.75</v>
+      </c>
+      <c r="R185">
+        <v>2.1</v>
+      </c>
+      <c r="S185">
+        <v>1.775</v>
+      </c>
+      <c r="T185">
+        <v>3.25</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
+        <v>1.85</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>2.4</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB185">
         <v>1</v>
-      </c>
-      <c r="I185">
-        <v>3</v>
-      </c>
-      <c r="J185" t="s">
-        <v>49</v>
-      </c>
-      <c r="K185">
-        <v>2.7</v>
-      </c>
-      <c r="L185">
-        <v>3.6</v>
-      </c>
-      <c r="M185">
-        <v>2.15</v>
-      </c>
-      <c r="N185">
-        <v>3.6</v>
-      </c>
-      <c r="O185">
-        <v>4</v>
-      </c>
-      <c r="P185">
-        <v>1.727</v>
-      </c>
-      <c r="Q185">
-        <v>0.75</v>
-      </c>
-      <c r="R185">
-        <v>1.85</v>
-      </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
-      <c r="T185">
-        <v>2.75</v>
-      </c>
-      <c r="U185">
-        <v>1.8</v>
-      </c>
-      <c r="V185">
-        <v>2.05</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
-      <c r="AA185">
-        <v>1</v>
-      </c>
-      <c r="AB185">
-        <v>0.8</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6813932</v>
+        <v>6813933</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,73 +17010,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F186" t="s">
+        <v>32</v>
+      </c>
+      <c r="G186" t="s">
         <v>33</v>
       </c>
-      <c r="G186" t="s">
-        <v>39</v>
-      </c>
       <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>3</v>
+      </c>
+      <c r="J186" t="s">
+        <v>49</v>
+      </c>
+      <c r="K186">
+        <v>2.7</v>
+      </c>
+      <c r="L186">
+        <v>3.6</v>
+      </c>
+      <c r="M186">
+        <v>2.15</v>
+      </c>
+      <c r="N186">
+        <v>3.6</v>
+      </c>
+      <c r="O186">
+        <v>4</v>
+      </c>
+      <c r="P186">
+        <v>1.727</v>
+      </c>
+      <c r="Q186">
+        <v>0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.85</v>
+      </c>
+      <c r="S186">
         <v>2</v>
       </c>
-      <c r="I186">
-        <v>2</v>
-      </c>
-      <c r="J186" t="s">
-        <v>48</v>
-      </c>
-      <c r="K186">
-        <v>1.25</v>
-      </c>
-      <c r="L186">
-        <v>5</v>
-      </c>
-      <c r="M186">
-        <v>9</v>
-      </c>
-      <c r="N186">
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
         <v>1.8</v>
       </c>
-      <c r="O186">
-        <v>3.4</v>
-      </c>
-      <c r="P186">
-        <v>3.6</v>
-      </c>
-      <c r="Q186">
-        <v>-0.75</v>
-      </c>
-      <c r="R186">
-        <v>2.1</v>
-      </c>
-      <c r="S186">
-        <v>1.775</v>
-      </c>
-      <c r="T186">
-        <v>3.25</v>
-      </c>
-      <c r="U186">
-        <v>2</v>
-      </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC186">
         <v>-1</v>
@@ -17099,7 +17099,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
         <v>41</v>
@@ -17188,7 +17188,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813936</v>
+        <v>6813940</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,13 +17366,13 @@
         <v>45359.625</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -17381,43 +17381,43 @@
         <v>47</v>
       </c>
       <c r="K190">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N190">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O190">
         <v>3.8</v>
       </c>
       <c r="P190">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
-        <v>1.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17426,16 +17426,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6813940</v>
+        <v>6813936</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,13 +17455,13 @@
         <v>45359.625</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17470,43 +17470,43 @@
         <v>47</v>
       </c>
       <c r="K191">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L191">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N191">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O191">
         <v>3.8</v>
       </c>
       <c r="P191">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q191">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17515,16 +17515,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AA191">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6813939</v>
+        <v>6813943</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
         <v>0</v>
       </c>
-      <c r="I193">
-        <v>2</v>
-      </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K193">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M193">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="N193">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="O193">
         <v>4.333</v>
       </c>
       <c r="P193">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="Q193">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA193">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17722,7 +17722,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>31</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6813938</v>
+        <v>6813939</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,55 +17811,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>49</v>
       </c>
       <c r="K195">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="L195">
         <v>4</v>
       </c>
       <c r="M195">
+        <v>1.615</v>
+      </c>
+      <c r="N195">
+        <v>7</v>
+      </c>
+      <c r="O195">
+        <v>4.333</v>
+      </c>
+      <c r="P195">
+        <v>1.363</v>
+      </c>
+      <c r="Q195">
+        <v>1.25</v>
+      </c>
+      <c r="R195">
+        <v>1.925</v>
+      </c>
+      <c r="S195">
+        <v>1.875</v>
+      </c>
+      <c r="T195">
         <v>2.5</v>
       </c>
-      <c r="N195">
-        <v>2.6</v>
-      </c>
-      <c r="O195">
-        <v>3.6</v>
-      </c>
-      <c r="P195">
-        <v>2.2</v>
-      </c>
-      <c r="Q195">
-        <v>0.25</v>
-      </c>
-      <c r="R195">
-        <v>1.825</v>
-      </c>
-      <c r="S195">
-        <v>2.025</v>
-      </c>
-      <c r="T195">
-        <v>3</v>
-      </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17868,19 +17868,19 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6813943</v>
+        <v>6813938</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,70 +17900,70 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
         <v>3</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L196">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N196">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O196">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P196">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T196">
         <v>3</v>
       </c>
       <c r="U196">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB196">
         <v>0</v>
@@ -17992,7 +17992,7 @@
         <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7763221</v>
+        <v>7763101</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,58 +18078,58 @@
         <v>45363.625</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>47</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M198">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N198">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R198">
+        <v>1.9</v>
+      </c>
+      <c r="S198">
+        <v>1.9</v>
+      </c>
+      <c r="T198">
+        <v>3.25</v>
+      </c>
+      <c r="U198">
         <v>1.825</v>
       </c>
-      <c r="S198">
+      <c r="V198">
         <v>1.975</v>
       </c>
-      <c r="T198">
-        <v>2.75</v>
-      </c>
-      <c r="U198">
-        <v>1.8</v>
-      </c>
-      <c r="V198">
-        <v>2</v>
-      </c>
       <c r="W198">
-        <v>0.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18138,16 +18138,16 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC198">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7763101</v>
+        <v>7763221</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,58 +18167,58 @@
         <v>45363.625</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>47</v>
       </c>
       <c r="K199">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L199">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N199">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O199">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q199">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18227,16 +18227,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA199">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18434,7 +18434,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18790,10 +18790,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18879,7 +18879,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>41</v>
@@ -19149,7 +19149,7 @@
         <v>46</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19238,7 +19238,7 @@
         <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19772,7 +19772,7 @@
         <v>42</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -19839,598 +19839,6 @@
       </c>
       <c r="AC217">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>6813971</v>
-      </c>
-      <c r="C218" t="s">
-        <v>28</v>
-      </c>
-      <c r="D218" t="s">
-        <v>28</v>
-      </c>
-      <c r="E218" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F218" t="s">
-        <v>45</v>
-      </c>
-      <c r="G218" t="s">
-        <v>41</v>
-      </c>
-      <c r="K218">
-        <v>2.5</v>
-      </c>
-      <c r="L218">
-        <v>3.75</v>
-      </c>
-      <c r="M218">
-        <v>2.25</v>
-      </c>
-      <c r="N218">
-        <v>2.75</v>
-      </c>
-      <c r="O218">
-        <v>3.8</v>
-      </c>
-      <c r="P218">
-        <v>2.15</v>
-      </c>
-      <c r="Q218">
-        <v>0.25</v>
-      </c>
-      <c r="R218">
-        <v>1.875</v>
-      </c>
-      <c r="S218">
-        <v>1.975</v>
-      </c>
-      <c r="T218">
-        <v>2.75</v>
-      </c>
-      <c r="U218">
-        <v>1.8</v>
-      </c>
-      <c r="V218">
-        <v>2.05</v>
-      </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-      <c r="AA218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>6813970</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F219" t="s">
-        <v>36</v>
-      </c>
-      <c r="G219" t="s">
-        <v>34</v>
-      </c>
-      <c r="K219">
-        <v>1.909</v>
-      </c>
-      <c r="L219">
-        <v>3.75</v>
-      </c>
-      <c r="M219">
-        <v>3.1</v>
-      </c>
-      <c r="N219">
-        <v>1.8</v>
-      </c>
-      <c r="O219">
-        <v>3.8</v>
-      </c>
-      <c r="P219">
-        <v>3.4</v>
-      </c>
-      <c r="Q219">
-        <v>-0.5</v>
-      </c>
-      <c r="R219">
-        <v>1.875</v>
-      </c>
-      <c r="S219">
-        <v>1.975</v>
-      </c>
-      <c r="T219">
-        <v>3</v>
-      </c>
-      <c r="U219">
-        <v>1.9</v>
-      </c>
-      <c r="V219">
-        <v>1.95</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-      <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>6813969</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F220" t="s">
-        <v>30</v>
-      </c>
-      <c r="G220" t="s">
-        <v>32</v>
-      </c>
-      <c r="K220">
-        <v>1.125</v>
-      </c>
-      <c r="L220">
-        <v>8</v>
-      </c>
-      <c r="M220">
-        <v>10</v>
-      </c>
-      <c r="N220">
-        <v>1.111</v>
-      </c>
-      <c r="O220">
-        <v>9</v>
-      </c>
-      <c r="P220">
-        <v>15</v>
-      </c>
-      <c r="Q220">
-        <v>-2.5</v>
-      </c>
-      <c r="R220">
-        <v>1.975</v>
-      </c>
-      <c r="S220">
-        <v>1.875</v>
-      </c>
-      <c r="T220">
-        <v>3.5</v>
-      </c>
-      <c r="U220">
-        <v>1.925</v>
-      </c>
-      <c r="V220">
-        <v>1.925</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>6813968</v>
-      </c>
-      <c r="C221" t="s">
-        <v>28</v>
-      </c>
-      <c r="D221" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F221" t="s">
-        <v>35</v>
-      </c>
-      <c r="G221" t="s">
-        <v>31</v>
-      </c>
-      <c r="K221">
-        <v>3.1</v>
-      </c>
-      <c r="L221">
-        <v>3.75</v>
-      </c>
-      <c r="M221">
-        <v>1.909</v>
-      </c>
-      <c r="N221">
-        <v>3.8</v>
-      </c>
-      <c r="O221">
-        <v>4</v>
-      </c>
-      <c r="P221">
-        <v>1.65</v>
-      </c>
-      <c r="Q221">
-        <v>0.75</v>
-      </c>
-      <c r="R221">
-        <v>1.975</v>
-      </c>
-      <c r="S221">
-        <v>1.875</v>
-      </c>
-      <c r="T221">
-        <v>3.25</v>
-      </c>
-      <c r="U221">
-        <v>2.05</v>
-      </c>
-      <c r="V221">
-        <v>1.8</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222">
-        <v>6813966</v>
-      </c>
-      <c r="C222" t="s">
-        <v>28</v>
-      </c>
-      <c r="D222" t="s">
-        <v>28</v>
-      </c>
-      <c r="E222" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F222" t="s">
-        <v>40</v>
-      </c>
-      <c r="G222" t="s">
-        <v>44</v>
-      </c>
-      <c r="K222">
-        <v>2.15</v>
-      </c>
-      <c r="L222">
-        <v>3.75</v>
-      </c>
-      <c r="M222">
-        <v>2.625</v>
-      </c>
-      <c r="N222">
-        <v>2.3</v>
-      </c>
-      <c r="O222">
-        <v>3.75</v>
-      </c>
-      <c r="P222">
-        <v>2.45</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>1.875</v>
-      </c>
-      <c r="S222">
-        <v>1.975</v>
-      </c>
-      <c r="T222">
-        <v>3</v>
-      </c>
-      <c r="U222">
-        <v>1.925</v>
-      </c>
-      <c r="V222">
-        <v>1.925</v>
-      </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <v>0</v>
-      </c>
-      <c r="Y222">
-        <v>0</v>
-      </c>
-      <c r="Z222">
-        <v>0</v>
-      </c>
-      <c r="AA222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223">
-        <v>6813965</v>
-      </c>
-      <c r="C223" t="s">
-        <v>28</v>
-      </c>
-      <c r="D223" t="s">
-        <v>28</v>
-      </c>
-      <c r="E223" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F223" t="s">
-        <v>43</v>
-      </c>
-      <c r="G223" t="s">
-        <v>38</v>
-      </c>
-      <c r="K223">
-        <v>1.25</v>
-      </c>
-      <c r="L223">
-        <v>5.5</v>
-      </c>
-      <c r="M223">
-        <v>7.5</v>
-      </c>
-      <c r="N223">
-        <v>1.363</v>
-      </c>
-      <c r="O223">
-        <v>4.5</v>
-      </c>
-      <c r="P223">
-        <v>5.75</v>
-      </c>
-      <c r="Q223">
-        <v>-1.25</v>
-      </c>
-      <c r="R223">
-        <v>1.85</v>
-      </c>
-      <c r="S223">
-        <v>2</v>
-      </c>
-      <c r="T223">
-        <v>3</v>
-      </c>
-      <c r="U223">
-        <v>1.975</v>
-      </c>
-      <c r="V223">
-        <v>1.875</v>
-      </c>
-      <c r="W223">
-        <v>0</v>
-      </c>
-      <c r="X223">
-        <v>0</v>
-      </c>
-      <c r="Y223">
-        <v>0</v>
-      </c>
-      <c r="Z223">
-        <v>0</v>
-      </c>
-      <c r="AA223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224">
-        <v>6813964</v>
-      </c>
-      <c r="C224" t="s">
-        <v>28</v>
-      </c>
-      <c r="D224" t="s">
-        <v>28</v>
-      </c>
-      <c r="E224" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F224" t="s">
-        <v>29</v>
-      </c>
-      <c r="G224" t="s">
-        <v>46</v>
-      </c>
-      <c r="K224">
-        <v>1.615</v>
-      </c>
-      <c r="L224">
-        <v>4</v>
-      </c>
-      <c r="M224">
-        <v>4</v>
-      </c>
-      <c r="N224">
-        <v>1.533</v>
-      </c>
-      <c r="O224">
-        <v>4.2</v>
-      </c>
-      <c r="P224">
-        <v>4.75</v>
-      </c>
-      <c r="Q224">
-        <v>-1</v>
-      </c>
-      <c r="R224">
-        <v>1.975</v>
-      </c>
-      <c r="S224">
-        <v>1.875</v>
-      </c>
-      <c r="T224">
-        <v>3</v>
-      </c>
-      <c r="U224">
-        <v>2.025</v>
-      </c>
-      <c r="V224">
-        <v>1.825</v>
-      </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-      <c r="X224">
-        <v>0</v>
-      </c>
-      <c r="Y224">
-        <v>0</v>
-      </c>
-      <c r="Z224">
-        <v>0</v>
-      </c>
-      <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
-        <v>6813963</v>
-      </c>
-      <c r="C225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" s="2">
-        <v>45381.41666666666</v>
-      </c>
-      <c r="F225" t="s">
-        <v>39</v>
-      </c>
-      <c r="G225" t="s">
-        <v>37</v>
-      </c>
-      <c r="K225">
-        <v>6</v>
-      </c>
-      <c r="L225">
-        <v>4.75</v>
-      </c>
-      <c r="M225">
-        <v>1.363</v>
-      </c>
-      <c r="N225">
-        <v>4.333</v>
-      </c>
-      <c r="O225">
-        <v>4</v>
-      </c>
-      <c r="P225">
-        <v>1.6</v>
-      </c>
-      <c r="Q225">
-        <v>0.75</v>
-      </c>
-      <c r="R225">
-        <v>2</v>
-      </c>
-      <c r="S225">
-        <v>1.85</v>
-      </c>
-      <c r="T225">
-        <v>2.75</v>
-      </c>
-      <c r="U225">
-        <v>1.85</v>
-      </c>
-      <c r="V225">
-        <v>2</v>
-      </c>
-      <c r="W225">
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <v>0</v>
-      </c>
-      <c r="Y225">
-        <v>0</v>
-      </c>
-      <c r="Z225">
-        <v>0</v>
-      </c>
-      <c r="AA225">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6813936</v>
+        <v>6813942</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45359.625</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K189">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L189">
         <v>4</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N189">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P189">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813942</v>
+        <v>6813936</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45359.625</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L190">
         <v>4</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O190">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X190">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6813941</v>
+        <v>6813939</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,52 +17544,52 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>49</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L192">
         <v>4</v>
       </c>
       <c r="M192">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="N192">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O192">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P192">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
         <v>2</v>
@@ -17601,13 +17601,13 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.8</v>
+        <v>0.363</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB192">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6813939</v>
+        <v>6813941</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,52 +17633,52 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>49</v>
       </c>
       <c r="K193">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
         <v>4</v>
       </c>
       <c r="M193">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="N193">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P193">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="Q193">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
         <v>2</v>
@@ -17690,13 +17690,13 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.363</v>
+        <v>1.8</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB193">
         <v>-1</v>
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6813944</v>
+        <v>6813943</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G194" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K194">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M194">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N194">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O194">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P194">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U194">
         <v>1.95</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X194">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA194">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6813943</v>
+        <v>6813944</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L195">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N195">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O195">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
         <v>1.95</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB195">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC195">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7763226</v>
+        <v>7625939</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45384.53125</v>
       </c>
       <c r="F226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>48</v>
+      </c>
+      <c r="K226">
         <v>5</v>
       </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-      <c r="J226" t="s">
-        <v>47</v>
-      </c>
-      <c r="K226">
-        <v>1.333</v>
-      </c>
       <c r="L226">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N226">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="O226">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>1.8</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
         <v>1.875</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.925</v>
       </c>
-      <c r="T226">
-        <v>2.75</v>
-      </c>
-      <c r="U226">
-        <v>1.85</v>
-      </c>
-      <c r="V226">
-        <v>1.95</v>
-      </c>
       <c r="W226">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7625939</v>
+        <v>7763226</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45384.53125</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="L227">
+        <v>4.6</v>
+      </c>
+      <c r="M227">
+        <v>7</v>
+      </c>
+      <c r="N227">
+        <v>1.615</v>
+      </c>
+      <c r="O227">
+        <v>3.8</v>
+      </c>
+      <c r="P227">
         <v>4</v>
       </c>
-      <c r="M227">
-        <v>1.5</v>
-      </c>
-      <c r="N227">
-        <v>4.75</v>
-      </c>
-      <c r="O227">
-        <v>3.6</v>
-      </c>
-      <c r="P227">
-        <v>1.571</v>
-      </c>
       <c r="Q227">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R227">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X227">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC228"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6813942</v>
+        <v>6813936</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45359.625</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
         <v>4</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N189">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O189">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X189">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813936</v>
+        <v>6813942</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45359.625</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L190">
         <v>4</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P190">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6813939</v>
+        <v>6813941</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,52 +17544,52 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>49</v>
       </c>
       <c r="K192">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
         <v>4</v>
       </c>
       <c r="M192">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="N192">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="O192">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P192">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="Q192">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
         <v>2</v>
@@ -17601,13 +17601,13 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.363</v>
+        <v>1.8</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB192">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6813941</v>
+        <v>6813939</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,52 +17633,52 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>49</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L193">
         <v>4</v>
       </c>
       <c r="M193">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="N193">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O193">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P193">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
         <v>2</v>
@@ -17690,13 +17690,13 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.8</v>
+        <v>0.363</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB193">
         <v>-1</v>
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6813943</v>
+        <v>6813944</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K194">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L194">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M194">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N194">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O194">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P194">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q194">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
         <v>1.95</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC194">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6813944</v>
+        <v>6813943</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K195">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M195">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P195">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U195">
         <v>1.95</v>
       </c>
       <c r="V195">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X195">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7625939</v>
+        <v>7763226</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45384.53125</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="L226">
+        <v>4.6</v>
+      </c>
+      <c r="M226">
+        <v>7</v>
+      </c>
+      <c r="N226">
+        <v>1.615</v>
+      </c>
+      <c r="O226">
+        <v>3.8</v>
+      </c>
+      <c r="P226">
         <v>4</v>
       </c>
-      <c r="M226">
-        <v>1.5</v>
-      </c>
-      <c r="N226">
-        <v>4.75</v>
-      </c>
-      <c r="O226">
-        <v>3.6</v>
-      </c>
-      <c r="P226">
-        <v>1.571</v>
-      </c>
       <c r="Q226">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7763226</v>
+        <v>7625939</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45384.53125</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>48</v>
+      </c>
+      <c r="K227">
         <v>5</v>
       </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227" t="s">
-        <v>47</v>
-      </c>
-      <c r="K227">
-        <v>1.333</v>
-      </c>
       <c r="L227">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N227">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="O227">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>1.8</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
         <v>1.875</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.925</v>
       </c>
-      <c r="T227">
-        <v>2.75</v>
-      </c>
-      <c r="U227">
-        <v>1.85</v>
-      </c>
-      <c r="V227">
-        <v>1.95</v>
-      </c>
       <c r="W227">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20818,6 +20818,154 @@
       </c>
       <c r="AC228">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6813972</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45387.58333333334</v>
+      </c>
+      <c r="F229" t="s">
+        <v>46</v>
+      </c>
+      <c r="G229" t="s">
+        <v>45</v>
+      </c>
+      <c r="K229">
+        <v>2.3</v>
+      </c>
+      <c r="L229">
+        <v>3.6</v>
+      </c>
+      <c r="M229">
+        <v>2.5</v>
+      </c>
+      <c r="N229">
+        <v>1.95</v>
+      </c>
+      <c r="O229">
+        <v>3.75</v>
+      </c>
+      <c r="P229">
+        <v>3</v>
+      </c>
+      <c r="Q229">
+        <v>-0.25</v>
+      </c>
+      <c r="R229">
+        <v>1.8</v>
+      </c>
+      <c r="S229">
+        <v>2.05</v>
+      </c>
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
+        <v>1.925</v>
+      </c>
+      <c r="V229">
+        <v>1.925</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6813976</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45387.58333333334</v>
+      </c>
+      <c r="F230" t="s">
+        <v>44</v>
+      </c>
+      <c r="G230" t="s">
+        <v>42</v>
+      </c>
+      <c r="K230">
+        <v>1.909</v>
+      </c>
+      <c r="L230">
+        <v>4</v>
+      </c>
+      <c r="M230">
+        <v>2.9</v>
+      </c>
+      <c r="N230">
+        <v>1.8</v>
+      </c>
+      <c r="O230">
+        <v>4</v>
+      </c>
+      <c r="P230">
+        <v>3.4</v>
+      </c>
+      <c r="Q230">
+        <v>-0.5</v>
+      </c>
+      <c r="R230">
+        <v>1.825</v>
+      </c>
+      <c r="S230">
+        <v>2.025</v>
+      </c>
+      <c r="T230">
+        <v>3</v>
+      </c>
+      <c r="U230">
+        <v>1.9</v>
+      </c>
+      <c r="V230">
+        <v>1.95</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -139,10 +139,10 @@
     <t>Viktoria Aschaffenburg</t>
   </si>
   <si>
-    <t>Memmingen</t>
+    <t>Bayern Munich II</t>
   </si>
   <si>
-    <t>Bayern Munich II</t>
+    <t>Memmingen</t>
   </si>
   <si>
     <t>DJK Vilzing</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC236"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6813735</v>
+        <v>6813734</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,49 +1705,49 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>49</v>
       </c>
       <c r="K14">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="N14">
         <v>2.05</v>
       </c>
       <c r="O14">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>2.15</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
         <v>1.875</v>
@@ -1759,19 +1759,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6813734</v>
+        <v>6813735</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,49 +1794,49 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M15">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="N15">
         <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2.15</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
         <v>1.875</v>
@@ -1848,19 +1848,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2150,7 +2150,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6813744</v>
+        <v>6813745</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,58 +2236,58 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2296,16 +2296,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6813745</v>
+        <v>6813747</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45143.375</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
+        <v>2.8</v>
+      </c>
+      <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>2.1</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>3.6</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.775</v>
+      </c>
+      <c r="S21">
+        <v>2.1</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
         <v>1.95</v>
-      </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>3.1</v>
-      </c>
-      <c r="N21">
-        <v>2.1</v>
-      </c>
-      <c r="O21">
-        <v>3.4</v>
-      </c>
-      <c r="P21">
-        <v>2.875</v>
-      </c>
-      <c r="Q21">
-        <v>-0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.875</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.9</v>
       </c>
       <c r="V21">
         <v>1.9</v>
       </c>
       <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1.1</v>
       </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.875</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6813747</v>
+        <v>6813744</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45143.375</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L22">
+        <v>3.75</v>
+      </c>
+      <c r="M22">
+        <v>3.75</v>
+      </c>
+      <c r="N22">
+        <v>1.6</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>4.2</v>
+      </c>
+      <c r="Q22">
+        <v>-0.75</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2.05</v>
+      </c>
+      <c r="T22">
         <v>3.5</v>
       </c>
-      <c r="M22">
-        <v>2.1</v>
-      </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.775</v>
-      </c>
-      <c r="S22">
-        <v>2.1</v>
-      </c>
-      <c r="T22">
-        <v>3</v>
-      </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6813742</v>
+        <v>6813748</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45143.375</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,43 +2518,43 @@
         <v>47</v>
       </c>
       <c r="K23">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,13 +2563,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6813748</v>
+        <v>6813742</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45143.375</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,43 +2607,43 @@
         <v>47</v>
       </c>
       <c r="K24">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
+        <v>1.975</v>
+      </c>
+      <c r="S24">
+        <v>1.875</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
         <v>2</v>
       </c>
-      <c r="S24">
-        <v>1.8</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
       <c r="W24">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,13 +2652,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
         <v>1</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -3215,7 +3215,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3482,7 +3482,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6813767</v>
+        <v>6813768</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R41">
         <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U41">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6813768</v>
+        <v>6813767</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="N42">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q42">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
         <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X42">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5173,10 +5173,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
         <v>42</v>
-      </c>
-      <c r="G53" t="s">
-        <v>41</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6813796</v>
+        <v>6813793</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N54">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P54">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6813793</v>
+        <v>6813796</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55">
         <v>3</v>
       </c>
-      <c r="I55">
-        <v>4</v>
-      </c>
-      <c r="J55" t="s">
-        <v>49</v>
-      </c>
-      <c r="K55">
-        <v>1.727</v>
-      </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O55">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
+        <v>1.775</v>
+      </c>
+      <c r="S55">
+        <v>2.025</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="U55">
         <v>1.95</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.85</v>
       </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
-      <c r="U55">
-        <v>1.875</v>
-      </c>
-      <c r="V55">
-        <v>1.925</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
         <v>44</v>
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6813810</v>
+        <v>6813811</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L70">
         <v>4</v>
       </c>
       <c r="M70">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N70">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6813814</v>
+        <v>6813810</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,34 +6775,34 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>49</v>
       </c>
       <c r="K71">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M71">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N71">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
         <v>2.2</v>
@@ -6811,19 +6811,19 @@
         <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6838,13 +6838,13 @@
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6813811</v>
+        <v>6813814</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K72">
+        <v>3.1</v>
+      </c>
+      <c r="L72">
+        <v>3.75</v>
+      </c>
+      <c r="M72">
+        <v>1.909</v>
+      </c>
+      <c r="N72">
+        <v>2.625</v>
+      </c>
+      <c r="O72">
+        <v>3.6</v>
+      </c>
+      <c r="P72">
+        <v>2.2</v>
+      </c>
+      <c r="Q72">
+        <v>0.25</v>
+      </c>
+      <c r="R72">
         <v>1.8</v>
       </c>
-      <c r="L72">
-        <v>4</v>
-      </c>
-      <c r="M72">
-        <v>3.25</v>
-      </c>
-      <c r="N72">
-        <v>1.65</v>
-      </c>
-      <c r="O72">
-        <v>4.2</v>
-      </c>
-      <c r="P72">
-        <v>3.75</v>
-      </c>
-      <c r="Q72">
-        <v>-0.75</v>
-      </c>
-      <c r="R72">
-        <v>1.875</v>
-      </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z72">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -7134,7 +7134,7 @@
         <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6813823</v>
+        <v>6813819</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,40 +7576,40 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N80">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O80">
         <v>3.75</v>
       </c>
       <c r="P80">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
         <v>1.875</v>
@@ -7618,31 +7618,31 @@
         <v>1.925</v>
       </c>
       <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
+        <v>1.9</v>
+      </c>
+      <c r="V80">
+        <v>1.9</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
         <v>2.75</v>
       </c>
-      <c r="U80">
-        <v>1.825</v>
-      </c>
-      <c r="V80">
-        <v>1.975</v>
-      </c>
-      <c r="W80">
-        <v>1.7</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6813819</v>
+        <v>6813823</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,40 +7665,40 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M81">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N81">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
         <v>1.875</v>
@@ -7707,31 +7707,31 @@
         <v>1.925</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7754,7 +7754,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7843,7 +7843,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
         <v>44</v>
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6813821</v>
+        <v>6813820</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45192.375</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K85">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="M85">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
+        <v>1.825</v>
+      </c>
+      <c r="V85">
         <v>1.975</v>
       </c>
-      <c r="V85">
-        <v>1.825</v>
-      </c>
       <c r="W85">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6813820</v>
+        <v>6813821</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45192.375</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L86">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
+        <v>1.925</v>
+      </c>
+      <c r="T86">
+        <v>3.25</v>
+      </c>
+      <c r="U86">
+        <v>1.975</v>
+      </c>
+      <c r="V86">
         <v>1.825</v>
       </c>
-      <c r="S86">
-        <v>1.975</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>1.825</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X86">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8558,7 +8558,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6813828</v>
+        <v>6813833</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45199.375</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L93">
+        <v>3.6</v>
+      </c>
+      <c r="M93">
         <v>3.5</v>
       </c>
-      <c r="M93">
-        <v>2.4</v>
-      </c>
       <c r="N93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V93">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W93">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6813833</v>
+        <v>6813828</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45199.375</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N94">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V94">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6813837</v>
+        <v>6813834</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45202.375</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>4.1</v>
       </c>
       <c r="L98">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="N98">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O98">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W98">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z98">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813834</v>
+        <v>6813837</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45202.375</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>4.1</v>
+        <v>1.45</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M102">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="N102">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P102">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="Q102">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R102">
+        <v>1.975</v>
+      </c>
+      <c r="S102">
+        <v>1.875</v>
+      </c>
+      <c r="T102">
+        <v>3.75</v>
+      </c>
+      <c r="U102">
+        <v>1.9</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="S102">
-        <v>1.85</v>
-      </c>
-      <c r="T102">
-        <v>3.25</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.75</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA102">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6813839</v>
+        <v>6814791</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9623,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K103">
+        <v>1.666</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <v>3.8</v>
+      </c>
+      <c r="N103">
+        <v>1.666</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>3.8</v>
+      </c>
+      <c r="Q103">
+        <v>-0.75</v>
+      </c>
+      <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>1.95</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
         <v>2</v>
       </c>
-      <c r="L103">
-        <v>3.75</v>
-      </c>
-      <c r="M103">
-        <v>2.875</v>
-      </c>
-      <c r="N103">
-        <v>2.25</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>2.55</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
-        <v>2.1</v>
-      </c>
-      <c r="S103">
-        <v>1.775</v>
-      </c>
-      <c r="T103">
-        <v>2.75</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6814791</v>
+        <v>6813839</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N104">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>1.775</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
         <v>1.9</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
-      <c r="U104">
-        <v>2</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6813845</v>
+        <v>6813849</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,73 +9801,73 @@
         <v>45206.375</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M105">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="N105">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB105">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6813849</v>
+        <v>6813846</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,73 +9890,73 @@
         <v>45206.375</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>4</v>
-      </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="L106">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M106">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="O106">
         <v>4</v>
       </c>
       <c r="P106">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
         <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
         <v>3</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6813846</v>
+        <v>6813848</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,58 +9979,58 @@
         <v>45206.375</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>47</v>
       </c>
       <c r="K107">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N107">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O107">
         <v>4</v>
       </c>
       <c r="P107">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q107">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>0.444</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10039,16 +10039,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6813848</v>
+        <v>6813845</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,13 +10068,13 @@
         <v>45206.375</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -10083,43 +10083,43 @@
         <v>47</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N108">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
         <v>3.6</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>0.7270000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10128,16 +10128,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10427,7 +10427,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10513,7 +10513,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
         <v>32</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6813870</v>
+        <v>6813871</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N123">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
+        <v>2.15</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.825</v>
+      </c>
+      <c r="S123">
+        <v>1.975</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
         <v>1.85</v>
       </c>
-      <c r="Q123">
-        <v>0.5</v>
-      </c>
-      <c r="R123">
-        <v>1.85</v>
-      </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>1.975</v>
-      </c>
-      <c r="V123">
-        <v>1.825</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA123">
+        <v>-0.5</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.95</v>
-      </c>
-      <c r="AB123">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6813871</v>
+        <v>6813870</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L124">
+        <v>3.75</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>3.3</v>
+      </c>
+      <c r="O124">
         <v>3.6</v>
       </c>
-      <c r="M124">
-        <v>2.3</v>
-      </c>
-      <c r="N124">
-        <v>2.8</v>
-      </c>
-      <c r="O124">
-        <v>3.5</v>
-      </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
         <v>1.825</v>
       </c>
-      <c r="S124">
-        <v>1.975</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.85</v>
-      </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z124">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6813868</v>
+        <v>6813863</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
         <v>3.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X125">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.825</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
-      <c r="AC125">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6813867</v>
+        <v>6813866</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L126">
         <v>3.6</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N126">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6813863</v>
+        <v>6813867</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,58 +11759,58 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N127">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
         <v>1.825</v>
       </c>
       <c r="W127">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,16 +11819,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6813866</v>
+        <v>6813868</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N128">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
+        <v>1.975</v>
+      </c>
+      <c r="T128">
+        <v>3.25</v>
+      </c>
+      <c r="U128">
         <v>1.95</v>
       </c>
-      <c r="S128">
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
-      <c r="AC128">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11937,7 +11937,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
         <v>32</v>
@@ -12026,7 +12026,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
         <v>35</v>
@@ -12649,7 +12649,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
         <v>30</v>
@@ -12827,7 +12827,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -13453,7 +13453,7 @@
         <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H146">
         <v>4</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6813894</v>
+        <v>6813892</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,13 +13628,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>2</v>
@@ -13643,43 +13643,43 @@
         <v>47</v>
       </c>
       <c r="K148">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="L148">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="N148">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>0.5</v>
+        <v>1.45</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,13 +13688,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6813892</v>
+        <v>6813894</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,13 +13806,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I150">
         <v>2</v>
@@ -13821,43 +13821,43 @@
         <v>47</v>
       </c>
       <c r="K150">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="L150">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M150">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="N150">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -14165,7 +14165,7 @@
         <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14254,7 +14254,7 @@
         <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6813900</v>
+        <v>6813898</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45240.625</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>48</v>
+      </c>
+      <c r="K156">
         <v>5</v>
       </c>
-      <c r="I156">
-        <v>4</v>
-      </c>
-      <c r="J156" t="s">
-        <v>47</v>
-      </c>
-      <c r="K156">
-        <v>1.909</v>
-      </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N156">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P156">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
         <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6813898</v>
+        <v>6813900</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45240.625</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N157">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q157">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
         <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6813899</v>
+        <v>6813902</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,76 +14607,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K159">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="L159">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M159">
-        <v>1.363</v>
+        <v>7.5</v>
       </c>
       <c r="N159">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="O159">
         <v>4.2</v>
       </c>
       <c r="P159">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="Q159">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
         <v>1.825</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6813902</v>
+        <v>6813899</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,76 +14696,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="L160">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M160">
-        <v>7.5</v>
+        <v>1.363</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="O160">
         <v>4.2</v>
       </c>
       <c r="P160">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R160">
         <v>1.825</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6813905</v>
+        <v>6814794</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,40 +14874,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L162">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M162">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N162">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="O162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q162">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R162">
         <v>1.925</v>
@@ -14916,34 +14916,34 @@
         <v>1.925</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z162">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB162">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6814794</v>
+        <v>6813905</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>2</v>
-      </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L163">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M163">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N163">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P163">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="Q163">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R163">
         <v>1.925</v>
@@ -15005,34 +15005,34 @@
         <v>1.925</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA163">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15411,7 +15411,7 @@
         <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15853,7 +15853,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
         <v>43</v>
@@ -15942,7 +15942,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
         <v>29</v>
@@ -16031,7 +16031,7 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16301,7 +16301,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16568,7 +16568,7 @@
         <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16924,7 +16924,7 @@
         <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17280,7 +17280,7 @@
         <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17366,7 +17366,7 @@
         <v>45359.625</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
         <v>43</v>
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6813944</v>
+        <v>6813939</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,76 +17544,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K192">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="L192">
         <v>4</v>
       </c>
       <c r="M192">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N192">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P192">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R192">
         <v>1.925</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6813943</v>
+        <v>6813944</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K193">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L193">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M193">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N193">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O193">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q193">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
         <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6813941</v>
+        <v>6813943</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194">
         <v>0</v>
       </c>
-      <c r="I194">
-        <v>1</v>
-      </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M194">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N194">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="O194">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P194">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R194">
+        <v>1.85</v>
+      </c>
+      <c r="S194">
         <v>1.95</v>
       </c>
-      <c r="S194">
-        <v>1.9</v>
-      </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U194">
+        <v>1.95</v>
+      </c>
+      <c r="V194">
         <v>1.85</v>
       </c>
-      <c r="V194">
-        <v>2</v>
-      </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6813939</v>
+        <v>6813937</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,55 +17811,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
         <v>49</v>
       </c>
       <c r="K195">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L195">
         <v>4</v>
       </c>
       <c r="M195">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="N195">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="O195">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="Q195">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R195">
+        <v>1.875</v>
+      </c>
+      <c r="S195">
         <v>1.925</v>
       </c>
-      <c r="S195">
-        <v>1.875</v>
-      </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17868,19 +17868,19 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.363</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA195">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6813937</v>
+        <v>6813941</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,10 +17900,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17915,40 +17915,40 @@
         <v>49</v>
       </c>
       <c r="K196">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L196">
         <v>4</v>
       </c>
       <c r="M196">
+        <v>2.6</v>
+      </c>
+      <c r="N196">
         <v>2.15</v>
       </c>
-      <c r="N196">
-        <v>3.6</v>
-      </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P196">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q196">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17957,19 +17957,19 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.6659999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7763221</v>
+        <v>7763101</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,58 +18078,58 @@
         <v>45363.625</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>47</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M198">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N198">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R198">
+        <v>1.9</v>
+      </c>
+      <c r="S198">
+        <v>1.9</v>
+      </c>
+      <c r="T198">
+        <v>3.25</v>
+      </c>
+      <c r="U198">
         <v>1.825</v>
       </c>
-      <c r="S198">
+      <c r="V198">
         <v>1.975</v>
       </c>
-      <c r="T198">
-        <v>2.75</v>
-      </c>
-      <c r="U198">
-        <v>1.8</v>
-      </c>
-      <c r="V198">
-        <v>2</v>
-      </c>
       <c r="W198">
-        <v>0.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18138,16 +18138,16 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC198">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7763101</v>
+        <v>7763221</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,58 +18167,58 @@
         <v>45363.625</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>47</v>
       </c>
       <c r="K199">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L199">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N199">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O199">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q199">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18227,16 +18227,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA199">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18612,10 +18612,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F204" t="s">
+        <v>42</v>
+      </c>
+      <c r="G204" t="s">
         <v>41</v>
-      </c>
-      <c r="G204" t="s">
-        <v>42</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>45373.625</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
         <v>39</v>
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6813958</v>
+        <v>6813955</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,76 +19235,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K211">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M211">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N211">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O211">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P211">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q211">
         <v>-0.25</v>
       </c>
       <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
         <v>2.025</v>
       </c>
-      <c r="S211">
-        <v>1.775</v>
-      </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA211">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6813959</v>
+        <v>6813958</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,76 +19324,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="L212">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M212">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N212">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T212">
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6813960</v>
+        <v>6813959</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M213">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="N213">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6813955</v>
+        <v>6813960</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
         <v>2</v>
       </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L214">
         <v>4</v>
       </c>
       <c r="M214">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q214">
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19769,7 +19769,7 @@
         <v>45379.625</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
         <v>33</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6813970</v>
+        <v>6813963</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,55 +19858,55 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
         <v>1</v>
-      </c>
-      <c r="I218">
-        <v>2</v>
       </c>
       <c r="J218" t="s">
         <v>49</v>
       </c>
       <c r="K218">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L218">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M218">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="N218">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O218">
         <v>3.6</v>
       </c>
       <c r="P218">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q218">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R218">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S218">
         <v>1.975</v>
       </c>
       <c r="T218">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W218">
         <v>-1</v>
@@ -19915,19 +19915,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6813969</v>
+        <v>6813971</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,58 +19947,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
         <v>47</v>
       </c>
       <c r="K219">
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="L219">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="M219">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="N219">
-        <v>1.111</v>
+        <v>2.7</v>
       </c>
       <c r="O219">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="Q219">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S219">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T219">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>0.111</v>
+        <v>1.7</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20007,13 +20007,13 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC219">
         <v>-1</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6813968</v>
+        <v>6813970</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,55 +20036,55 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>49</v>
       </c>
       <c r="K220">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L220">
         <v>3.75</v>
       </c>
       <c r="M220">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N220">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O220">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q220">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R220">
+        <v>1.825</v>
+      </c>
+      <c r="S220">
         <v>1.975</v>
       </c>
-      <c r="S220">
-        <v>1.875</v>
-      </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20093,19 +20093,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6813966</v>
+        <v>6813969</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,73 +20125,73 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K221">
-        <v>2.15</v>
+        <v>1.125</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="M221">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="N221">
-        <v>2.625</v>
+        <v>1.111</v>
       </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P221">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X221">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6813965</v>
+        <v>6813968</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,46 +20214,46 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J222" t="s">
         <v>49</v>
       </c>
       <c r="K222">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="L222">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N222">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O222">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
         <v>2.75</v>
@@ -20271,19 +20271,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB222">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6813964</v>
+        <v>6813966</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M223">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N223">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="O223">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
         <v>2.75</v>
       </c>
       <c r="U223">
+        <v>1.85</v>
+      </c>
+      <c r="V223">
         <v>2</v>
       </c>
-      <c r="V223">
-        <v>1.85</v>
-      </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y223">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA223">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6813963</v>
+        <v>6813965</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,55 +20392,55 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>49</v>
       </c>
       <c r="K224">
+        <v>1.25</v>
+      </c>
+      <c r="L224">
+        <v>5.5</v>
+      </c>
+      <c r="M224">
+        <v>7.5</v>
+      </c>
+      <c r="N224">
+        <v>1.363</v>
+      </c>
+      <c r="O224">
+        <v>4.5</v>
+      </c>
+      <c r="P224">
         <v>6</v>
       </c>
-      <c r="L224">
-        <v>4.75</v>
-      </c>
-      <c r="M224">
-        <v>1.363</v>
-      </c>
-      <c r="N224">
-        <v>4</v>
-      </c>
-      <c r="O224">
-        <v>3.6</v>
-      </c>
-      <c r="P224">
-        <v>1.7</v>
-      </c>
       <c r="Q224">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R224">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W224">
         <v>-1</v>
@@ -20449,19 +20449,19 @@
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
+        <v>0.95</v>
+      </c>
+      <c r="AB224">
+        <v>0.4125</v>
+      </c>
+      <c r="AC224">
         <v>-0.5</v>
-      </c>
-      <c r="AA224">
-        <v>0.4875</v>
-      </c>
-      <c r="AB224">
-        <v>-1</v>
-      </c>
-      <c r="AC224">
-        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6813971</v>
+        <v>6813964</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,40 +20481,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G225" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
         <v>2</v>
       </c>
-      <c r="I225">
-        <v>1</v>
-      </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K225">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M225">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N225">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P225">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R225">
         <v>1.85</v>
@@ -20523,34 +20523,34 @@
         <v>2</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W225">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>-1</v>
+      </c>
+      <c r="AC225">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA225">
-        <v>-1</v>
-      </c>
-      <c r="AB225">
-        <v>0.925</v>
-      </c>
-      <c r="AC225">
-        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20929,7 +20929,7 @@
         <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -20996,450 +20996,6 @@
       </c>
       <c r="AC230">
         <v>0.95</v>
-      </c>
-    </row>
-    <row r="231" spans="1:29">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231">
-        <v>6813974</v>
-      </c>
-      <c r="C231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F231" t="s">
-        <v>32</v>
-      </c>
-      <c r="G231" t="s">
-        <v>34</v>
-      </c>
-      <c r="K231">
-        <v>3.5</v>
-      </c>
-      <c r="L231">
-        <v>4</v>
-      </c>
-      <c r="M231">
-        <v>1.727</v>
-      </c>
-      <c r="N231">
-        <v>4.333</v>
-      </c>
-      <c r="O231">
-        <v>4.333</v>
-      </c>
-      <c r="P231">
-        <v>1.533</v>
-      </c>
-      <c r="Q231">
-        <v>1</v>
-      </c>
-      <c r="R231">
-        <v>1.875</v>
-      </c>
-      <c r="S231">
-        <v>1.975</v>
-      </c>
-      <c r="T231">
-        <v>3</v>
-      </c>
-      <c r="U231">
-        <v>1.85</v>
-      </c>
-      <c r="V231">
-        <v>2</v>
-      </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <v>0</v>
-      </c>
-      <c r="Y231">
-        <v>0</v>
-      </c>
-      <c r="Z231">
-        <v>0</v>
-      </c>
-      <c r="AA231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:29">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232">
-        <v>6813975</v>
-      </c>
-      <c r="C232" t="s">
-        <v>28</v>
-      </c>
-      <c r="D232" t="s">
-        <v>28</v>
-      </c>
-      <c r="E232" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F232" t="s">
-        <v>31</v>
-      </c>
-      <c r="G232" t="s">
-        <v>30</v>
-      </c>
-      <c r="K232">
-        <v>5</v>
-      </c>
-      <c r="L232">
-        <v>3.8</v>
-      </c>
-      <c r="M232">
-        <v>1.533</v>
-      </c>
-      <c r="N232">
-        <v>5.25</v>
-      </c>
-      <c r="O232">
-        <v>3.75</v>
-      </c>
-      <c r="P232">
-        <v>1.5</v>
-      </c>
-      <c r="Q232">
-        <v>1</v>
-      </c>
-      <c r="R232">
-        <v>1.875</v>
-      </c>
-      <c r="S232">
-        <v>1.975</v>
-      </c>
-      <c r="T232">
-        <v>2.5</v>
-      </c>
-      <c r="U232">
-        <v>1.85</v>
-      </c>
-      <c r="V232">
-        <v>2</v>
-      </c>
-      <c r="W232">
-        <v>0</v>
-      </c>
-      <c r="X232">
-        <v>0</v>
-      </c>
-      <c r="Y232">
-        <v>0</v>
-      </c>
-      <c r="Z232">
-        <v>0</v>
-      </c>
-      <c r="AA232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:29">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>6813977</v>
-      </c>
-      <c r="C233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D233" t="s">
-        <v>28</v>
-      </c>
-      <c r="E233" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F233" t="s">
-        <v>37</v>
-      </c>
-      <c r="G233" t="s">
-        <v>39</v>
-      </c>
-      <c r="K233">
-        <v>1.909</v>
-      </c>
-      <c r="L233">
-        <v>3.5</v>
-      </c>
-      <c r="M233">
-        <v>3.3</v>
-      </c>
-      <c r="N233">
-        <v>1.85</v>
-      </c>
-      <c r="O233">
-        <v>3.5</v>
-      </c>
-      <c r="P233">
-        <v>3.3</v>
-      </c>
-      <c r="Q233">
-        <v>-0.5</v>
-      </c>
-      <c r="R233">
-        <v>1.975</v>
-      </c>
-      <c r="S233">
-        <v>1.875</v>
-      </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
-      <c r="U233">
-        <v>1.825</v>
-      </c>
-      <c r="V233">
-        <v>2.025</v>
-      </c>
-      <c r="W233">
-        <v>0</v>
-      </c>
-      <c r="X233">
-        <v>0</v>
-      </c>
-      <c r="Y233">
-        <v>0</v>
-      </c>
-      <c r="Z233">
-        <v>0</v>
-      </c>
-      <c r="AA233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:29">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234">
-        <v>6813978</v>
-      </c>
-      <c r="C234" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" t="s">
-        <v>28</v>
-      </c>
-      <c r="E234" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F234" t="s">
-        <v>38</v>
-      </c>
-      <c r="G234" t="s">
-        <v>41</v>
-      </c>
-      <c r="K234">
-        <v>1.8</v>
-      </c>
-      <c r="L234">
-        <v>3.8</v>
-      </c>
-      <c r="M234">
-        <v>3.4</v>
-      </c>
-      <c r="N234">
-        <v>1.833</v>
-      </c>
-      <c r="O234">
-        <v>4</v>
-      </c>
-      <c r="P234">
-        <v>3.2</v>
-      </c>
-      <c r="Q234">
-        <v>-0.5</v>
-      </c>
-      <c r="R234">
-        <v>1.9</v>
-      </c>
-      <c r="S234">
-        <v>1.95</v>
-      </c>
-      <c r="T234">
-        <v>3</v>
-      </c>
-      <c r="U234">
-        <v>1.925</v>
-      </c>
-      <c r="V234">
-        <v>1.925</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:29">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235">
-        <v>6813979</v>
-      </c>
-      <c r="C235" t="s">
-        <v>28</v>
-      </c>
-      <c r="D235" t="s">
-        <v>28</v>
-      </c>
-      <c r="E235" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F235" t="s">
-        <v>40</v>
-      </c>
-      <c r="G235" t="s">
-        <v>43</v>
-      </c>
-      <c r="K235">
-        <v>3.6</v>
-      </c>
-      <c r="L235">
-        <v>3.6</v>
-      </c>
-      <c r="M235">
-        <v>1.8</v>
-      </c>
-      <c r="N235">
-        <v>3.5</v>
-      </c>
-      <c r="O235">
-        <v>3.6</v>
-      </c>
-      <c r="P235">
-        <v>1.833</v>
-      </c>
-      <c r="Q235">
-        <v>0.5</v>
-      </c>
-      <c r="R235">
-        <v>2</v>
-      </c>
-      <c r="S235">
-        <v>1.85</v>
-      </c>
-      <c r="T235">
-        <v>2.5</v>
-      </c>
-      <c r="U235">
-        <v>1.825</v>
-      </c>
-      <c r="V235">
-        <v>2.025</v>
-      </c>
-      <c r="W235">
-        <v>0</v>
-      </c>
-      <c r="X235">
-        <v>0</v>
-      </c>
-      <c r="Y235">
-        <v>0</v>
-      </c>
-      <c r="Z235">
-        <v>0</v>
-      </c>
-      <c r="AA235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:29">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>6813980</v>
-      </c>
-      <c r="C236" t="s">
-        <v>28</v>
-      </c>
-      <c r="D236" t="s">
-        <v>28</v>
-      </c>
-      <c r="E236" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F236" t="s">
-        <v>36</v>
-      </c>
-      <c r="G236" t="s">
-        <v>29</v>
-      </c>
-      <c r="K236">
-        <v>1.909</v>
-      </c>
-      <c r="L236">
-        <v>3.6</v>
-      </c>
-      <c r="M236">
-        <v>3.2</v>
-      </c>
-      <c r="N236">
-        <v>1.909</v>
-      </c>
-      <c r="O236">
-        <v>3.6</v>
-      </c>
-      <c r="P236">
-        <v>3.5</v>
-      </c>
-      <c r="Q236">
-        <v>-0.5</v>
-      </c>
-      <c r="R236">
-        <v>2</v>
-      </c>
-      <c r="S236">
-        <v>1.85</v>
-      </c>
-      <c r="T236">
-        <v>2.75</v>
-      </c>
-      <c r="U236">
-        <v>1.95</v>
-      </c>
-      <c r="V236">
-        <v>1.9</v>
-      </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <v>0</v>
-      </c>
-      <c r="Y236">
-        <v>0</v>
-      </c>
-      <c r="Z236">
-        <v>0</v>
-      </c>
-      <c r="AA236">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6813823</v>
+        <v>6813817</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,58 +7665,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L81">
         <v>3.8</v>
       </c>
       <c r="M81">
+        <v>3.8</v>
+      </c>
+      <c r="N81">
+        <v>2.2</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
+      <c r="P81">
+        <v>2.5</v>
+      </c>
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
         <v>2.05</v>
       </c>
-      <c r="N81">
-        <v>2.7</v>
-      </c>
-      <c r="O81">
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
         <v>3.75</v>
       </c>
-      <c r="P81">
-        <v>2.1</v>
-      </c>
-      <c r="Q81">
-        <v>0.25</v>
-      </c>
-      <c r="R81">
-        <v>1.875</v>
-      </c>
-      <c r="S81">
-        <v>1.925</v>
-      </c>
-      <c r="T81">
-        <v>2.75</v>
-      </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7725,13 +7725,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6813817</v>
+        <v>6813823</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,58 +7754,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>47</v>
       </c>
       <c r="K82">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
         <v>3.8</v>
       </c>
       <c r="M82">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="N82">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7814,13 +7814,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6813827</v>
+        <v>6813826</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
         <v>2</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="N88">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P88">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8339,25 +8339,25 @@
         <v>2.025</v>
       </c>
       <c r="W88">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z88">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6813826</v>
+        <v>6813827</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,49 +8377,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>1</v>
       </c>
-      <c r="I89">
+      <c r="J89" t="s">
+        <v>47</v>
+      </c>
+      <c r="K89">
+        <v>1.8</v>
+      </c>
+      <c r="L89">
+        <v>3.6</v>
+      </c>
+      <c r="M89">
+        <v>3.5</v>
+      </c>
+      <c r="N89">
+        <v>1.65</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>4.75</v>
+      </c>
+      <c r="Q89">
+        <v>-0.75</v>
+      </c>
+      <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
         <v>2</v>
       </c>
-      <c r="J89" t="s">
-        <v>49</v>
-      </c>
-      <c r="K89">
-        <v>4.333</v>
-      </c>
-      <c r="L89">
-        <v>3.75</v>
-      </c>
-      <c r="M89">
-        <v>1.615</v>
-      </c>
-      <c r="N89">
-        <v>3.2</v>
-      </c>
-      <c r="O89">
-        <v>3.2</v>
-      </c>
-      <c r="P89">
-        <v>2.1</v>
-      </c>
-      <c r="Q89">
-        <v>0.25</v>
-      </c>
-      <c r="R89">
-        <v>2.025</v>
-      </c>
-      <c r="S89">
-        <v>1.825</v>
-      </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
         <v>1.825</v>
@@ -8428,25 +8428,25 @@
         <v>2.025</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6813830</v>
+        <v>6813829</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45199.375</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N91">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q91">
+        <v>-0.25</v>
+      </c>
+      <c r="R91">
+        <v>2.025</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
+        <v>3.25</v>
+      </c>
+      <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
+        <v>1.875</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>2.6</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
         <v>-0.5</v>
       </c>
-      <c r="R91">
-        <v>1.95</v>
-      </c>
-      <c r="S91">
-        <v>1.9</v>
-      </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>1.85</v>
-      </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>2.6</v>
-      </c>
-      <c r="Z91">
-        <v>-1</v>
-      </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6813829</v>
+        <v>6813828</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45199.375</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N92">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V92">
+        <v>2.1</v>
+      </c>
+      <c r="W92">
         <v>1.875</v>
       </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6813828</v>
+        <v>6813833</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45199.375</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L93">
+        <v>3.6</v>
+      </c>
+      <c r="M93">
         <v>3.5</v>
       </c>
-      <c r="M93">
-        <v>2.4</v>
-      </c>
       <c r="N93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V93">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W93">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6813833</v>
+        <v>6813830</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,55 +8822,55 @@
         <v>45199.375</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L94">
+        <v>3.5</v>
+      </c>
+      <c r="M94">
+        <v>2.8</v>
+      </c>
+      <c r="N94">
+        <v>1.85</v>
+      </c>
+      <c r="O94">
         <v>3.6</v>
       </c>
-      <c r="M94">
-        <v>3.5</v>
-      </c>
-      <c r="N94">
-        <v>1.666</v>
-      </c>
-      <c r="O94">
-        <v>3.8</v>
-      </c>
       <c r="P94">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8879,19 +8879,19 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC94">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6813834</v>
+        <v>6813837</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45202.375</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>4.1</v>
+        <v>1.45</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M96">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="N96">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P96">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
+        <v>3.75</v>
+      </c>
+      <c r="U96">
+        <v>1.9</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
-      <c r="T96">
-        <v>3.25</v>
-      </c>
-      <c r="U96">
-        <v>1.95</v>
-      </c>
-      <c r="V96">
-        <v>1.75</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6813840</v>
+        <v>6813834</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45202.375</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>4.1</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
+        <v>1.7</v>
+      </c>
+      <c r="N97">
+        <v>4.2</v>
+      </c>
+      <c r="O97">
         <v>3.6</v>
       </c>
-      <c r="N97">
-        <v>2.05</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
       <c r="P97">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
         <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W97">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6813837</v>
+        <v>6813840</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,58 +9178,58 @@
         <v>45202.375</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L98">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M98">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N98">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O98">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
         <v>1.975</v>
       </c>
-      <c r="S98">
-        <v>1.875</v>
-      </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
         <v>1.9</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
-        <v>0.2849999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9238,13 +9238,13 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6813838</v>
+        <v>6813835</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45202.375</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>2.1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>2.6</v>
+      </c>
+      <c r="N100">
+        <v>2.45</v>
+      </c>
+      <c r="O100">
+        <v>4</v>
+      </c>
+      <c r="P100">
+        <v>2.15</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
         <v>2</v>
-      </c>
-      <c r="J100" t="s">
-        <v>49</v>
-      </c>
-      <c r="K100">
-        <v>2</v>
-      </c>
-      <c r="L100">
-        <v>3.4</v>
-      </c>
-      <c r="M100">
-        <v>3.2</v>
-      </c>
-      <c r="N100">
-        <v>1.909</v>
-      </c>
-      <c r="O100">
-        <v>3.5</v>
-      </c>
-      <c r="P100">
-        <v>3.5</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
       </c>
       <c r="T100">
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y100">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813835</v>
+        <v>6813838</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45202.375</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>3</v>
       </c>
       <c r="U102">
+        <v>1.975</v>
+      </c>
+      <c r="V102">
         <v>1.875</v>
       </c>
-      <c r="V102">
-        <v>1.925</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z102">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6813857</v>
+        <v>6813859</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,58 +10602,58 @@
         <v>45213.375</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114">
         <v>2</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>47</v>
       </c>
       <c r="K114">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L114">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N114">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q114">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
         <v>3.25</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6813859</v>
+        <v>6813857</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,58 +10691,58 @@
         <v>45213.375</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>47</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M115">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
         <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10751,16 +10751,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6813862</v>
+        <v>6813861</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,25 +10869,25 @@
         <v>45213.375</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
         <v>49</v>
       </c>
       <c r="K117">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L117">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M117">
         <v>1.4</v>
@@ -10896,29 +10896,29 @@
         <v>5</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P117">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q117">
         <v>1</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
+        <v>1.825</v>
+      </c>
+      <c r="T117">
+        <v>3</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.85</v>
       </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.825</v>
-      </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
@@ -10926,19 +10926,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6813858</v>
+        <v>6813862</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,76 +10958,76 @@
         <v>45213.375</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
         <v>2</v>
       </c>
-      <c r="I118">
+      <c r="J118" t="s">
+        <v>49</v>
+      </c>
+      <c r="K118">
+        <v>6</v>
+      </c>
+      <c r="L118">
+        <v>4.333</v>
+      </c>
+      <c r="M118">
+        <v>1.4</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>4.2</v>
+      </c>
+      <c r="P118">
+        <v>1.5</v>
+      </c>
+      <c r="Q118">
         <v>1</v>
       </c>
-      <c r="J118" t="s">
-        <v>47</v>
-      </c>
-      <c r="K118">
-        <v>2.25</v>
-      </c>
-      <c r="L118">
-        <v>3.75</v>
-      </c>
-      <c r="M118">
-        <v>2.5</v>
-      </c>
-      <c r="N118">
-        <v>1.75</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>3.6</v>
-      </c>
-      <c r="Q118">
+      <c r="R118">
+        <v>1.95</v>
+      </c>
+      <c r="S118">
+        <v>1.85</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.825</v>
+      </c>
+      <c r="V118">
+        <v>1.975</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>0.5</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>-0</v>
+      </c>
+      <c r="AB118">
+        <v>0.4125</v>
+      </c>
+      <c r="AC118">
         <v>-0.5</v>
-      </c>
-      <c r="R118">
-        <v>1.8</v>
-      </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>1.975</v>
-      </c>
-      <c r="V118">
-        <v>1.825</v>
-      </c>
-      <c r="W118">
-        <v>0.75</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
-      <c r="Z118">
-        <v>0.8</v>
-      </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
-      <c r="AB118">
-        <v>0</v>
-      </c>
-      <c r="AC118">
-        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6813856</v>
+        <v>6813858</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45213.375</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>47</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
         <v>3.75</v>
       </c>
       <c r="M119">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N119">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q119">
+        <v>-0.5</v>
+      </c>
+      <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
+        <v>1.975</v>
+      </c>
+      <c r="V119">
+        <v>1.825</v>
+      </c>
+      <c r="W119">
+        <v>0.75</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.8</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>0</v>
       </c>
-      <c r="R119">
-        <v>1.85</v>
-      </c>
-      <c r="S119">
-        <v>1.95</v>
-      </c>
-      <c r="T119">
-        <v>3.25</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
-      <c r="W119">
-        <v>1.3</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>1</v>
-      </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6813861</v>
+        <v>6813856</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,49 +11136,49 @@
         <v>45213.375</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="N120">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O120">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
         <v>2</v>
@@ -11187,19 +11187,19 @@
         <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6813872</v>
+        <v>6813873</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>49</v>
+      </c>
+      <c r="K129">
         <v>6</v>
       </c>
-      <c r="I129">
+      <c r="L129">
+        <v>4.75</v>
+      </c>
+      <c r="M129">
+        <v>1.363</v>
+      </c>
+      <c r="N129">
+        <v>4.5</v>
+      </c>
+      <c r="O129">
+        <v>4.5</v>
+      </c>
+      <c r="P129">
+        <v>1.5</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.825</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="J129" t="s">
-        <v>47</v>
-      </c>
-      <c r="K129">
-        <v>1.444</v>
-      </c>
-      <c r="L129">
-        <v>4.333</v>
-      </c>
-      <c r="M129">
-        <v>5.25</v>
-      </c>
-      <c r="N129">
-        <v>1.25</v>
-      </c>
-      <c r="O129">
-        <v>5</v>
-      </c>
-      <c r="P129">
-        <v>8.5</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
+      <c r="U129">
         <v>1.825</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="T129">
-        <v>3.75</v>
-      </c>
-      <c r="U129">
-        <v>1.875</v>
-      </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
       <c r="W129">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
         <v>0.825</v>
       </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6813873</v>
+        <v>6813872</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M130">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="N130">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O130">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P130">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
+        <v>1.825</v>
+      </c>
+      <c r="S130">
         <v>1.975</v>
       </c>
-      <c r="S130">
-        <v>1.825</v>
-      </c>
       <c r="T130">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6813924</v>
+        <v>6813926</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,46 +16565,46 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>48</v>
+      </c>
+      <c r="K181">
+        <v>3.75</v>
+      </c>
+      <c r="L181">
         <v>4</v>
       </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181" t="s">
-        <v>47</v>
-      </c>
-      <c r="K181">
-        <v>1.2</v>
-      </c>
-      <c r="L181">
-        <v>5.5</v>
-      </c>
       <c r="M181">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N181">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="O181">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="Q181">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
         <v>3.25</v>
@@ -16616,25 +16616,25 @@
         <v>1.875</v>
       </c>
       <c r="W181">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6813926</v>
+        <v>6813924</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,46 +16654,46 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M182">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N182">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="O182">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P182">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="Q182">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T182">
         <v>3.25</v>
@@ -16705,25 +16705,25 @@
         <v>1.875</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X182">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC182">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813940</v>
+        <v>6813936</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,13 +17366,13 @@
         <v>45359.625</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -17381,43 +17381,43 @@
         <v>47</v>
       </c>
       <c r="K190">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L190">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O190">
         <v>3.8</v>
       </c>
       <c r="P190">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17426,16 +17426,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AA190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6813936</v>
+        <v>6813940</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,13 +17455,13 @@
         <v>45359.625</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17470,43 +17470,43 @@
         <v>47</v>
       </c>
       <c r="K191">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M191">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N191">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O191">
         <v>3.8</v>
       </c>
       <c r="P191">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W191">
-        <v>1.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17515,16 +17515,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6813944</v>
+        <v>6813939</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K193">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="L193">
         <v>4</v>
       </c>
       <c r="M193">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N193">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P193">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q193">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R193">
         <v>1.925</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6813939</v>
+        <v>6813937</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,55 +17722,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
         <v>49</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L194">
         <v>4</v>
       </c>
       <c r="M194">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="N194">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="O194">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P194">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="Q194">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R194">
+        <v>1.875</v>
+      </c>
+      <c r="S194">
         <v>1.925</v>
       </c>
-      <c r="S194">
-        <v>1.875</v>
-      </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -17779,19 +17779,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.363</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA194">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6813938</v>
+        <v>6813944</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L196">
         <v>4</v>
       </c>
       <c r="M196">
+        <v>4.5</v>
+      </c>
+      <c r="N196">
+        <v>1.8</v>
+      </c>
+      <c r="O196">
+        <v>3.4</v>
+      </c>
+      <c r="P196">
+        <v>3.75</v>
+      </c>
+      <c r="Q196">
+        <v>-0.5</v>
+      </c>
+      <c r="R196">
+        <v>1.925</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
         <v>2.5</v>
       </c>
-      <c r="N196">
-        <v>2.6</v>
-      </c>
-      <c r="O196">
-        <v>3.6</v>
-      </c>
-      <c r="P196">
-        <v>2.2</v>
-      </c>
-      <c r="Q196">
-        <v>0.25</v>
-      </c>
-      <c r="R196">
-        <v>1.825</v>
-      </c>
-      <c r="S196">
-        <v>2.025</v>
-      </c>
-      <c r="T196">
-        <v>3</v>
-      </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y196">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB196">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6813937</v>
+        <v>6813938</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,55 +17989,55 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
         <v>49</v>
       </c>
       <c r="K197">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L197">
         <v>4</v>
       </c>
       <c r="M197">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N197">
+        <v>2.6</v>
+      </c>
+      <c r="O197">
         <v>3.6</v>
       </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
       <c r="P197">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q197">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
         <v>3</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18046,19 +18046,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.6659999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC197">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7763101</v>
+        <v>7763221</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,58 +18078,58 @@
         <v>45363.625</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>47</v>
       </c>
       <c r="K198">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N198">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O198">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q198">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W198">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18138,16 +18138,16 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA198">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7763221</v>
+        <v>7763101</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,58 +18167,58 @@
         <v>45363.625</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H199">
         <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>47</v>
       </c>
       <c r="K199">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L199">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M199">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N199">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P199">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R199">
+        <v>1.9</v>
+      </c>
+      <c r="S199">
+        <v>1.9</v>
+      </c>
+      <c r="T199">
+        <v>3.25</v>
+      </c>
+      <c r="U199">
         <v>1.825</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.975</v>
       </c>
-      <c r="T199">
-        <v>2.75</v>
-      </c>
-      <c r="U199">
-        <v>1.8</v>
-      </c>
-      <c r="V199">
-        <v>2</v>
-      </c>
       <c r="W199">
-        <v>0.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18227,16 +18227,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC199">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7625939</v>
+        <v>7763226</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45384.53125</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="L226">
+        <v>4.6</v>
+      </c>
+      <c r="M226">
+        <v>7</v>
+      </c>
+      <c r="N226">
+        <v>1.615</v>
+      </c>
+      <c r="O226">
+        <v>3.8</v>
+      </c>
+      <c r="P226">
         <v>4</v>
       </c>
-      <c r="M226">
-        <v>1.5</v>
-      </c>
-      <c r="N226">
-        <v>4.75</v>
-      </c>
-      <c r="O226">
-        <v>3.6</v>
-      </c>
-      <c r="P226">
-        <v>1.571</v>
-      </c>
       <c r="Q226">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7763226</v>
+        <v>7625939</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45384.53125</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>48</v>
+      </c>
+      <c r="K227">
         <v>5</v>
       </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227" t="s">
-        <v>47</v>
-      </c>
-      <c r="K227">
-        <v>1.333</v>
-      </c>
       <c r="L227">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N227">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="O227">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>1.8</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
         <v>1.875</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.925</v>
       </c>
-      <c r="T227">
-        <v>2.75</v>
-      </c>
-      <c r="U227">
-        <v>1.85</v>
-      </c>
-      <c r="V227">
-        <v>1.95</v>
-      </c>
       <c r="W227">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="228" spans="1:29">

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -115,16 +115,16 @@
     <t>Eintracht Bamberg</t>
   </si>
   <si>
-    <t>Turkgucu Munchen</t>
+    <t>Schweinfurt 05</t>
   </si>
   <si>
     <t>Nurnberg II</t>
   </si>
   <si>
-    <t>Greuther Furth II</t>
+    <t>Turkgucu Munchen</t>
   </si>
   <si>
-    <t>Schweinfurt 05</t>
+    <t>Greuther Furth II</t>
   </si>
   <si>
     <t>TSV Aubstadt</t>
@@ -133,13 +133,13 @@
     <t>Ansbach</t>
   </si>
   <si>
+    <t>Augsburg II</t>
+  </si>
+  <si>
     <t>Viktoria Aschaffenburg</t>
   </si>
   <si>
     <t>Bayern Munich II</t>
-  </si>
-  <si>
-    <t>Augsburg II</t>
   </si>
   <si>
     <t>Memmingen</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC254"/>
+  <dimension ref="A1:AC249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6813724</v>
+        <v>6813721</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <v>2.7</v>
+      </c>
+      <c r="N6">
+        <v>2.1</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
       </c>
-      <c r="M6">
-        <v>2.4</v>
-      </c>
-      <c r="N6">
-        <v>1.65</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6">
         <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813726</v>
+        <v>6813724</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8">
+        <v>2.4</v>
+      </c>
+      <c r="L8">
+        <v>3.6</v>
+      </c>
+      <c r="M8">
+        <v>2.4</v>
+      </c>
+      <c r="N8">
+        <v>1.65</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>-0.75</v>
+      </c>
+      <c r="R8">
+        <v>1.825</v>
+      </c>
+      <c r="S8">
+        <v>1.975</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>1.825</v>
+      </c>
+      <c r="V8">
+        <v>1.975</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8">
-        <v>2.25</v>
-      </c>
-      <c r="L8">
-        <v>3.75</v>
-      </c>
-      <c r="M8">
-        <v>2.5</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>3.6</v>
-      </c>
-      <c r="P8">
-        <v>2.05</v>
-      </c>
-      <c r="Q8">
-        <v>0.25</v>
-      </c>
-      <c r="R8">
-        <v>1.975</v>
-      </c>
-      <c r="S8">
-        <v>1.825</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>1.8</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
-      <c r="X8">
-        <v>-1</v>
-      </c>
       <c r="Y8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6813721</v>
+        <v>6813726</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
         <v>3.75</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>3.6</v>
       </c>
       <c r="P9">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6813736</v>
+        <v>6813739</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,73 +1527,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="N12">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6813734</v>
+        <v>6813736</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N13">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O13">
         <v>3.6</v>
       </c>
       <c r="P13">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6813739</v>
+        <v>6813734</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>49</v>
       </c>
       <c r="K14">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="M14">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="N14">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="S14">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T14">
         <v>3.5</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
+        <v>1.875</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
         <v>1.9</v>
       </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>0.444</v>
-      </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2236,7 +2236,7 @@
         <v>45143.375</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2414,7 +2414,7 @@
         <v>45143.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6813748</v>
+        <v>6813744</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,58 +2503,58 @@
         <v>45143.375</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
       <c r="K23">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L23">
+        <v>3.75</v>
+      </c>
+      <c r="M23">
+        <v>3.75</v>
+      </c>
+      <c r="N23">
+        <v>1.6</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>4.2</v>
+      </c>
+      <c r="Q23">
+        <v>-0.75</v>
+      </c>
+      <c r="R23">
+        <v>1.8</v>
+      </c>
+      <c r="S23">
+        <v>2.05</v>
+      </c>
+      <c r="T23">
         <v>3.5</v>
       </c>
-      <c r="M23">
-        <v>2.375</v>
-      </c>
-      <c r="N23">
-        <v>2.55</v>
-      </c>
-      <c r="O23">
-        <v>3.4</v>
-      </c>
-      <c r="P23">
-        <v>2.3</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,16 +2563,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6813744</v>
+        <v>6813748</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,58 +2592,58 @@
         <v>45143.375</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N24">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
         <v>1.8</v>
       </c>
-      <c r="S24">
-        <v>2.05</v>
-      </c>
       <c r="T24">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,16 +2652,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2684,7 +2684,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3129,7 +3129,7 @@
         <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3396,7 +3396,7 @@
         <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6813763</v>
+        <v>6813762</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,58 +3660,58 @@
         <v>45157.375</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6813762</v>
+        <v>6813763</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,58 +3749,58 @@
         <v>45157.375</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
       </c>
       <c r="K37">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L37">
         <v>3.75</v>
       </c>
       <c r="M37">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N37">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3809,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3838,10 +3838,10 @@
         <v>45157.375</v>
       </c>
       <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
         <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6813774</v>
+        <v>6813771</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K41">
+        <v>2.45</v>
+      </c>
+      <c r="L41">
+        <v>3.4</v>
+      </c>
+      <c r="M41">
+        <v>2.45</v>
+      </c>
+      <c r="N41">
+        <v>3.3</v>
+      </c>
+      <c r="O41">
+        <v>3.6</v>
+      </c>
+      <c r="P41">
+        <v>1.909</v>
+      </c>
+      <c r="Q41">
+        <v>0.5</v>
+      </c>
+      <c r="R41">
+        <v>1.9</v>
+      </c>
+      <c r="S41">
+        <v>1.9</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
+        <v>1.85</v>
+      </c>
+      <c r="V41">
+        <v>1.95</v>
+      </c>
+      <c r="W41">
         <v>2.3</v>
       </c>
-      <c r="L41">
-        <v>3.6</v>
-      </c>
-      <c r="M41">
-        <v>2.5</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>3.75</v>
-      </c>
-      <c r="P41">
-        <v>1.95</v>
-      </c>
-      <c r="Q41">
-        <v>0.25</v>
-      </c>
-      <c r="R41">
-        <v>1.975</v>
-      </c>
-      <c r="S41">
-        <v>1.825</v>
-      </c>
-      <c r="T41">
-        <v>3.5</v>
-      </c>
-      <c r="U41">
-        <v>1.975</v>
-      </c>
-      <c r="V41">
-        <v>1.825</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC41">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6813771</v>
+        <v>6813767</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,13 +4194,13 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4209,43 +4209,43 @@
         <v>47</v>
       </c>
       <c r="K42">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
         <v>2.45</v>
       </c>
       <c r="N42">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W42">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4254,16 +4254,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.425</v>
+        <v>1.125</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6813767</v>
+        <v>6813768</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,76 +4283,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P43">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R43">
         <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB43">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6813768</v>
+        <v>6813774</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,76 +4372,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q44">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>3.5</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>45164.375</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4642,7 +4642,7 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6813788</v>
+        <v>6813789</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L48">
         <v>3.6</v>
       </c>
       <c r="M48">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y48">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6813789</v>
+        <v>6813779</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,76 +4817,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M49">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N49">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X49">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6813779</v>
+        <v>6813786</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
       </c>
       <c r="K50">
+        <v>1.5</v>
+      </c>
+      <c r="L50">
+        <v>4.1</v>
+      </c>
+      <c r="M50">
+        <v>4.8</v>
+      </c>
+      <c r="N50">
         <v>1.4</v>
       </c>
-      <c r="L50">
-        <v>4.75</v>
-      </c>
-      <c r="M50">
+      <c r="O50">
+        <v>4.333</v>
+      </c>
+      <c r="P50">
         <v>5.5</v>
-      </c>
-      <c r="N50">
-        <v>1.45</v>
-      </c>
-      <c r="O50">
-        <v>4.5</v>
-      </c>
-      <c r="P50">
-        <v>5</v>
       </c>
       <c r="Q50">
         <v>-1.25</v>
@@ -4948,7 +4948,7 @@
         <v>1.85</v>
       </c>
       <c r="T50">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
         <v>1.825</v>
@@ -4957,7 +4957,7 @@
         <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4972,10 +4972,10 @@
         <v>0.425</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6813786</v>
+        <v>6813788</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51">
+        <v>2.25</v>
+      </c>
+      <c r="L51">
+        <v>3.6</v>
+      </c>
+      <c r="M51">
+        <v>2.55</v>
+      </c>
+      <c r="N51">
+        <v>2.55</v>
+      </c>
+      <c r="O51">
+        <v>3.6</v>
+      </c>
+      <c r="P51">
+        <v>2.25</v>
+      </c>
+      <c r="Q51">
+        <v>0.25</v>
+      </c>
+      <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>2.05</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>1.85</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
+        <v>1.25</v>
+      </c>
+      <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>1.05</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>47</v>
-      </c>
-      <c r="K51">
-        <v>1.5</v>
-      </c>
-      <c r="L51">
-        <v>4.1</v>
-      </c>
-      <c r="M51">
-        <v>4.8</v>
-      </c>
-      <c r="N51">
-        <v>1.4</v>
-      </c>
-      <c r="O51">
-        <v>4.333</v>
-      </c>
-      <c r="P51">
-        <v>5.5</v>
-      </c>
-      <c r="Q51">
-        <v>-1.25</v>
-      </c>
-      <c r="R51">
-        <v>1.95</v>
-      </c>
-      <c r="S51">
-        <v>1.85</v>
-      </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
-      <c r="U51">
-        <v>1.825</v>
-      </c>
-      <c r="V51">
-        <v>1.975</v>
-      </c>
-      <c r="W51">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>-1</v>
-      </c>
-      <c r="Z51">
-        <v>-0.5</v>
-      </c>
-      <c r="AA51">
-        <v>0.425</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6813791</v>
+        <v>6813793</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,70 +5087,70 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
         <v>4</v>
       </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N52">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
         <v>1.925</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5262,10 +5262,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6813793</v>
+        <v>6813791</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,73 +5351,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
         <v>3</v>
       </c>
-      <c r="I55">
-        <v>4</v>
-      </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.727</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>3.75</v>
+      </c>
+      <c r="N55">
+        <v>1.285</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>8</v>
+      </c>
+      <c r="Q55">
+        <v>-1.75</v>
+      </c>
+      <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>1.9</v>
+      </c>
+      <c r="T55">
         <v>3.5</v>
       </c>
-      <c r="M55">
-        <v>4</v>
-      </c>
-      <c r="N55">
-        <v>2.15</v>
-      </c>
-      <c r="O55">
-        <v>3.1</v>
-      </c>
-      <c r="P55">
-        <v>3.1</v>
-      </c>
-      <c r="Q55">
-        <v>-0.25</v>
-      </c>
-      <c r="R55">
-        <v>1.95</v>
-      </c>
-      <c r="S55">
-        <v>1.85</v>
-      </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V55">
         <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB55">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5529,10 +5529,10 @@
         <v>45171.375</v>
       </c>
       <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
         <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>33</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5885,7 +5885,7 @@
         <v>45177.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -6066,7 +6066,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6241,7 +6241,7 @@
         <v>45178.375</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6333,7 +6333,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6508,7 +6508,7 @@
         <v>45184.5</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>34</v>
@@ -6600,7 +6600,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6775,7 +6775,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
         <v>45</v>
@@ -6867,7 +6867,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6953,10 +6953,10 @@
         <v>45185.375</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>45188.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
         <v>29</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6813817</v>
+        <v>6813823</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L80">
         <v>3.8</v>
       </c>
       <c r="M80">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="N80">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,13 +7636,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6813823</v>
+        <v>6813819</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,40 +7665,40 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N81">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
         <v>1.875</v>
@@ -7707,31 +7707,31 @@
         <v>1.925</v>
       </c>
       <c r="T81">
+        <v>3</v>
+      </c>
+      <c r="U81">
+        <v>1.9</v>
+      </c>
+      <c r="V81">
+        <v>1.9</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
         <v>2.75</v>
       </c>
-      <c r="U81">
-        <v>1.825</v>
-      </c>
-      <c r="V81">
-        <v>1.975</v>
-      </c>
-      <c r="W81">
-        <v>1.7</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6813819</v>
+        <v>6813818</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,46 +7754,46 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M82">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N82">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>3</v>
@@ -7805,25 +7805,25 @@
         <v>1.9</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6813818</v>
+        <v>6813817</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,58 +7843,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
         <v>2</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>47</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L83">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N83">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U83">
         <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7903,16 +7903,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8021,10 +8021,10 @@
         <v>45192.375</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8199,7 +8199,7 @@
         <v>45197.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -8466,7 +8466,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8558,7 +8558,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>45199.375</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>45</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6813836</v>
+        <v>6813841</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45202.375</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L96">
         <v>3.8</v>
       </c>
       <c r="M96">
+        <v>4.1</v>
+      </c>
+      <c r="N96">
+        <v>1.8</v>
+      </c>
+      <c r="O96">
+        <v>3.75</v>
+      </c>
+      <c r="P96">
+        <v>3.4</v>
+      </c>
+      <c r="Q96">
+        <v>-0.5</v>
+      </c>
+      <c r="R96">
+        <v>1.825</v>
+      </c>
+      <c r="S96">
+        <v>1.975</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
+        <v>1.8</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>2.75</v>
       </c>
-      <c r="N96">
-        <v>2.2</v>
-      </c>
-      <c r="O96">
-        <v>3.8</v>
-      </c>
-      <c r="P96">
-        <v>2.5</v>
-      </c>
-      <c r="Q96">
-        <v>-0.25</v>
-      </c>
-      <c r="R96">
-        <v>1.95</v>
-      </c>
-      <c r="S96">
-        <v>1.75</v>
-      </c>
-      <c r="T96">
-        <v>2.75</v>
-      </c>
-      <c r="U96">
-        <v>1.875</v>
-      </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
-      <c r="W96">
-        <v>1.2</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6813841</v>
+        <v>6813836</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45202.375</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
         <v>3.8</v>
       </c>
       <c r="M97">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="N97">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X97">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9181,7 +9181,7 @@
         <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6813838</v>
+        <v>6813834</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,13 +9267,13 @@
         <v>45202.375</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -9282,40 +9282,40 @@
         <v>49</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="N99">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R99">
         <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9324,19 +9324,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9356,7 +9356,7 @@
         <v>45202.375</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
         <v>38</v>
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6813834</v>
+        <v>6813835</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45202.375</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>2.1</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>2.6</v>
+      </c>
+      <c r="N101">
+        <v>2.45</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101">
+        <v>2.15</v>
+      </c>
+      <c r="Q101">
+        <v>0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
         <v>2</v>
       </c>
-      <c r="J101" t="s">
-        <v>49</v>
-      </c>
-      <c r="K101">
-        <v>4.1</v>
-      </c>
-      <c r="L101">
-        <v>3.6</v>
-      </c>
-      <c r="M101">
-        <v>1.7</v>
-      </c>
-      <c r="N101">
-        <v>4.2</v>
-      </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>1.666</v>
-      </c>
-      <c r="Q101">
-        <v>0.75</v>
-      </c>
-      <c r="R101">
-        <v>1.95</v>
-      </c>
-      <c r="S101">
-        <v>1.85</v>
-      </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y101">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813835</v>
+        <v>6813838</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45202.375</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>3</v>
       </c>
       <c r="U102">
+        <v>1.975</v>
+      </c>
+      <c r="V102">
         <v>1.875</v>
       </c>
-      <c r="V102">
-        <v>1.925</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z102">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -10246,7 +10246,7 @@
         <v>45207.375</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>42</v>
@@ -10335,7 +10335,7 @@
         <v>45207.375</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -10427,7 +10427,7 @@
         <v>46</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10602,7 +10602,7 @@
         <v>45213.375</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6813861</v>
+        <v>6813862</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,25 +10780,25 @@
         <v>45213.375</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M116">
         <v>1.4</v>
@@ -10807,28 +10807,28 @@
         <v>5</v>
       </c>
       <c r="O116">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q116">
         <v>1</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
+        <v>1.85</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
         <v>1.825</v>
       </c>
-      <c r="T116">
-        <v>3</v>
-      </c>
-      <c r="U116">
-        <v>2</v>
-      </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10837,19 +10837,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6813860</v>
+        <v>6813861</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45213.375</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>49</v>
+      </c>
+      <c r="K117">
+        <v>5.5</v>
+      </c>
+      <c r="L117">
+        <v>4.5</v>
+      </c>
+      <c r="M117">
+        <v>1.4</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>1.45</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>2.025</v>
+      </c>
+      <c r="S117">
+        <v>1.825</v>
+      </c>
+      <c r="T117">
+        <v>3</v>
+      </c>
+      <c r="U117">
         <v>2</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>47</v>
-      </c>
-      <c r="K117">
-        <v>1.25</v>
-      </c>
-      <c r="L117">
-        <v>5.5</v>
-      </c>
-      <c r="M117">
-        <v>7.5</v>
-      </c>
-      <c r="N117">
-        <v>1.8</v>
-      </c>
-      <c r="O117">
-        <v>3.4</v>
-      </c>
-      <c r="P117">
-        <v>4.2</v>
-      </c>
-      <c r="Q117">
-        <v>-0.5</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>2.025</v>
-      </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.975</v>
-      </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.825</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6813859</v>
+        <v>6813860</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,58 +10958,58 @@
         <v>45213.375</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M118">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N118">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
         <v>1.875</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11018,16 +11018,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
+        <v>0.825</v>
+      </c>
+      <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.875</v>
-      </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
-      <c r="AB118">
-        <v>0.925</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6813858</v>
+        <v>6813859</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,58 +11047,58 @@
         <v>45213.375</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
         <v>2</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>47</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
         <v>3.75</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N119">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O119">
         <v>4</v>
       </c>
       <c r="P119">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6813862</v>
+        <v>6813858</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45213.375</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
         <v>1</v>
       </c>
-      <c r="I120">
+      <c r="J120" t="s">
+        <v>47</v>
+      </c>
+      <c r="K120">
+        <v>2.25</v>
+      </c>
+      <c r="L120">
+        <v>3.75</v>
+      </c>
+      <c r="M120">
+        <v>2.5</v>
+      </c>
+      <c r="N120">
+        <v>1.75</v>
+      </c>
+      <c r="O120">
+        <v>4</v>
+      </c>
+      <c r="P120">
+        <v>3.6</v>
+      </c>
+      <c r="Q120">
+        <v>-0.5</v>
+      </c>
+      <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
         <v>2</v>
       </c>
-      <c r="J120" t="s">
-        <v>49</v>
-      </c>
-      <c r="K120">
-        <v>6</v>
-      </c>
-      <c r="L120">
-        <v>4.333</v>
-      </c>
-      <c r="M120">
-        <v>1.4</v>
-      </c>
-      <c r="N120">
-        <v>5</v>
-      </c>
-      <c r="O120">
-        <v>4.2</v>
-      </c>
-      <c r="P120">
-        <v>1.5</v>
-      </c>
-      <c r="Q120">
-        <v>1</v>
-      </c>
-      <c r="R120">
-        <v>1.95</v>
-      </c>
-      <c r="S120">
-        <v>1.85</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
+        <v>1.975</v>
+      </c>
+      <c r="V120">
         <v>1.825</v>
       </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
+        <v>0.8</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>0</v>
       </c>
-      <c r="AA120">
+      <c r="AC120">
         <v>-0</v>
-      </c>
-      <c r="AB120">
-        <v>0.4125</v>
-      </c>
-      <c r="AC120">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6813868</v>
+        <v>6813863</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>3.25</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X123">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.825</v>
-      </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
-      <c r="AC123">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6813863</v>
+        <v>6813868</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N124">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
         <v>3.25</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.825</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
-      <c r="AC124">
-        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11581,7 +11581,7 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
         <v>37</v>
@@ -11670,7 +11670,7 @@
         <v>45216.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
         <v>43</v>
@@ -11940,7 +11940,7 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
         <v>32</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6813879</v>
+        <v>6813878</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,40 +12115,40 @@
         <v>45220.375</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
         <v>49</v>
       </c>
       <c r="K131">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N131">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
         <v>1.95</v>
@@ -12157,13 +12157,13 @@
         <v>1.9</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12172,19 +12172,19 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>45220.375</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6813878</v>
+        <v>6813879</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,40 +12293,40 @@
         <v>45220.375</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>1</v>
-      </c>
-      <c r="I133">
-        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133">
         <v>4.2</v>
       </c>
-      <c r="O133">
-        <v>3.8</v>
-      </c>
       <c r="P133">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R133">
         <v>1.95</v>
@@ -12335,13 +12335,13 @@
         <v>1.9</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12385,7 +12385,7 @@
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12563,7 +12563,7 @@
         <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12738,7 +12738,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>31</v>
@@ -12827,10 +12827,10 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12916,10 +12916,10 @@
         <v>45227.375</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13097,7 +13097,7 @@
         <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13450,10 +13450,10 @@
         <v>45230.625</v>
       </c>
       <c r="F146" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146" t="s">
         <v>41</v>
-      </c>
-      <c r="G146" t="s">
-        <v>40</v>
       </c>
       <c r="H146">
         <v>4</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6813889</v>
+        <v>6813891</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
+        <v>3</v>
+      </c>
+      <c r="J147" t="s">
+        <v>49</v>
+      </c>
+      <c r="K147">
+        <v>6</v>
+      </c>
+      <c r="L147">
+        <v>4.333</v>
+      </c>
+      <c r="M147">
+        <v>1.4</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147">
+        <v>4</v>
+      </c>
+      <c r="P147">
+        <v>1.444</v>
+      </c>
+      <c r="Q147">
+        <v>1.25</v>
+      </c>
+      <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.825</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>0.444</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>1.025</v>
+      </c>
+      <c r="AB147">
         <v>0</v>
       </c>
-      <c r="J147" t="s">
-        <v>48</v>
-      </c>
-      <c r="K147">
-        <v>3.1</v>
-      </c>
-      <c r="L147">
-        <v>3.75</v>
-      </c>
-      <c r="M147">
-        <v>1.909</v>
-      </c>
-      <c r="N147">
-        <v>2.5</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>2.375</v>
-      </c>
-      <c r="Q147">
-        <v>0</v>
-      </c>
-      <c r="R147">
-        <v>1.975</v>
-      </c>
-      <c r="S147">
-        <v>1.875</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.925</v>
-      </c>
-      <c r="V147">
-        <v>1.925</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>2.5</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
-      <c r="AA147">
+      <c r="AC147">
         <v>-0</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6813891</v>
+        <v>6813892</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148" t="s">
+        <v>47</v>
+      </c>
+      <c r="K148">
+        <v>2.7</v>
+      </c>
+      <c r="L148">
+        <v>3.75</v>
+      </c>
+      <c r="M148">
+        <v>2.1</v>
+      </c>
+      <c r="N148">
+        <v>2.45</v>
+      </c>
+      <c r="O148">
+        <v>3.5</v>
+      </c>
+      <c r="P148">
+        <v>2.375</v>
+      </c>
+      <c r="Q148">
         <v>0</v>
       </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
-      <c r="J148" t="s">
-        <v>49</v>
-      </c>
-      <c r="K148">
-        <v>6</v>
-      </c>
-      <c r="L148">
-        <v>4.333</v>
-      </c>
-      <c r="M148">
-        <v>1.4</v>
-      </c>
-      <c r="N148">
-        <v>6</v>
-      </c>
-      <c r="O148">
-        <v>4</v>
-      </c>
-      <c r="P148">
-        <v>1.444</v>
-      </c>
-      <c r="Q148">
-        <v>1.25</v>
-      </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6813892</v>
+        <v>6813894</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,13 +13717,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -13732,43 +13732,43 @@
         <v>47</v>
       </c>
       <c r="K149">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="L149">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M149">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="N149">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6813894</v>
+        <v>6813896</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,58 +13806,58 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>47</v>
       </c>
       <c r="K150">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M150">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O150">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P150">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q150">
         <v>-1.25</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
         <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.85</v>
       </c>
       <c r="T150">
         <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6813896</v>
+        <v>6813897</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,70 +13895,70 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
         <v>3</v>
       </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K151">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="L151">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M151">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="N151">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O151">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P151">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q151">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
         <v>1.95</v>
       </c>
       <c r="T151">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
         <v>1.85</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB151">
         <v>0.8500000000000001</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6813897</v>
+        <v>6813889</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>3.1</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N152">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y152">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>38</v>
@@ -14251,10 +14251,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14340,7 +14340,7 @@
         <v>45240.625</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
         <v>34</v>
@@ -14429,7 +14429,7 @@
         <v>45240.625</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
         <v>30</v>
@@ -14521,7 +14521,7 @@
         <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14610,7 +14610,7 @@
         <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -14785,10 +14785,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6813903</v>
+        <v>6813905</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,76 +14874,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="L162">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M162">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N162">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O162">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P162">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
         <v>3.25</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X162">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA162">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6814794</v>
+        <v>6813903</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="L163">
         <v>4.2</v>
       </c>
       <c r="M163">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="N163">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P163">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="Q163">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y163">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6813905</v>
+        <v>6814794</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,40 +15052,40 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L164">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M164">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N164">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="O164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q164">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R164">
         <v>1.925</v>
@@ -15094,34 +15094,34 @@
         <v>1.925</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z164">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15233,7 +15233,7 @@
         <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15497,7 +15497,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>46</v>
@@ -15589,7 +15589,7 @@
         <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15764,7 +15764,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
         <v>31</v>
@@ -15942,7 +15942,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
         <v>29</v>
@@ -16031,10 +16031,10 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7395938</v>
+        <v>7625941</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,10 +16209,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16224,40 +16224,40 @@
         <v>49</v>
       </c>
       <c r="K177">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N177">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P177">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
         <v>3</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16266,19 +16266,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
+        <v>0.3875</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.825</v>
-      </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
-      <c r="AC177">
-        <v>0.8</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7625941</v>
+        <v>7763178</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16301,7 +16301,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16313,31 +16313,31 @@
         <v>49</v>
       </c>
       <c r="K178">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L178">
         <v>3.75</v>
       </c>
       <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>2.6</v>
+      </c>
+      <c r="O178">
         <v>3.6</v>
       </c>
-      <c r="N178">
-        <v>4.75</v>
-      </c>
-      <c r="O178">
-        <v>3.75</v>
-      </c>
       <c r="P178">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q178">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T178">
         <v>3</v>
@@ -16346,7 +16346,7 @@
         <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16355,19 +16355,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.6000000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7763178</v>
+        <v>7395938</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,10 +16387,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16402,40 +16402,40 @@
         <v>49</v>
       </c>
       <c r="K179">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M179">
         <v>2</v>
       </c>
       <c r="N179">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="O179">
         <v>3.6</v>
       </c>
       <c r="P179">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
         <v>3</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -16444,19 +16444,19 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16743,7 +16743,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
         <v>42</v>
@@ -16835,7 +16835,7 @@
         <v>43</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16924,7 +16924,7 @@
         <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17099,10 +17099,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17280,7 +17280,7 @@
         <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813942</v>
+        <v>6813936</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17369,73 +17369,73 @@
         <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L190">
         <v>4</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O190">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X190">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6813936</v>
+        <v>6813942</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,76 +17455,76 @@
         <v>45359.625</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K191">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L191">
         <v>4</v>
       </c>
       <c r="M191">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O191">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P191">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6813944</v>
+        <v>6813941</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K193">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
         <v>4</v>
       </c>
       <c r="M193">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N193">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P193">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q193">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6813941</v>
+        <v>6813944</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L194">
         <v>4</v>
       </c>
       <c r="M194">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N194">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O194">
+        <v>3.4</v>
+      </c>
+      <c r="P194">
         <v>3.75</v>
       </c>
-      <c r="P194">
-        <v>2.8</v>
-      </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y194">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17989,7 +17989,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
         <v>30</v>
@@ -18078,10 +18078,10 @@
         <v>45363.625</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18167,7 +18167,7 @@
         <v>45363.625</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18437,7 +18437,7 @@
         <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18612,10 +18612,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18790,10 +18790,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18882,7 +18882,7 @@
         <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -19146,10 +19146,10 @@
         <v>45373.625</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19416,7 +19416,7 @@
         <v>31</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19505,7 +19505,7 @@
         <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19680,7 +19680,7 @@
         <v>45376.625</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
         <v>29</v>
@@ -19769,10 +19769,10 @@
         <v>45379.625</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -19950,7 +19950,7 @@
         <v>45</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6813966</v>
+        <v>6813964</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,76 +20036,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M220">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N220">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
+        <v>2</v>
+      </c>
+      <c r="V220">
         <v>1.85</v>
       </c>
-      <c r="V220">
-        <v>2</v>
-      </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z220">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC220">
-        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6813968</v>
+        <v>6813966</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,73 +20125,73 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L221">
         <v>3.75</v>
       </c>
       <c r="M221">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N221">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P221">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="Q221">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V221">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y221">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA221">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6813965</v>
+        <v>6813968</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,46 +20214,46 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J222" t="s">
         <v>49</v>
       </c>
       <c r="K222">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="L222">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N222">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O222">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
         <v>2.75</v>
@@ -20271,19 +20271,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB222">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6813964</v>
+        <v>6813965</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,13 +20303,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>2</v>
@@ -20318,40 +20318,40 @@
         <v>49</v>
       </c>
       <c r="K223">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M223">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N223">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="O223">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P223">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
         <v>2.75</v>
       </c>
       <c r="U223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
         <v>-1</v>
@@ -20360,19 +20360,19 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC223">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7625939</v>
+        <v>7763226</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,76 +20570,76 @@
         <v>45384.53125</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="L226">
+        <v>4.6</v>
+      </c>
+      <c r="M226">
+        <v>7</v>
+      </c>
+      <c r="N226">
+        <v>1.615</v>
+      </c>
+      <c r="O226">
+        <v>3.8</v>
+      </c>
+      <c r="P226">
         <v>4</v>
       </c>
-      <c r="M226">
-        <v>1.5</v>
-      </c>
-      <c r="N226">
-        <v>4.75</v>
-      </c>
-      <c r="O226">
-        <v>3.6</v>
-      </c>
-      <c r="P226">
-        <v>1.571</v>
-      </c>
       <c r="Q226">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20647,7 +20647,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7763226</v>
+        <v>7625939</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,76 +20659,76 @@
         <v>45384.53125</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>48</v>
+      </c>
+      <c r="K227">
         <v>5</v>
       </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227" t="s">
-        <v>47</v>
-      </c>
-      <c r="K227">
-        <v>1.333</v>
-      </c>
       <c r="L227">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N227">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="O227">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>1.8</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
         <v>1.875</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.925</v>
       </c>
-      <c r="T227">
-        <v>2.75</v>
-      </c>
-      <c r="U227">
-        <v>1.85</v>
-      </c>
-      <c r="V227">
-        <v>1.95</v>
-      </c>
       <c r="W227">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6813976</v>
+        <v>6813972</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,10 +20837,10 @@
         <v>45387.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20852,61 +20852,61 @@
         <v>48</v>
       </c>
       <c r="K229">
+        <v>2.3</v>
+      </c>
+      <c r="L229">
+        <v>3.6</v>
+      </c>
+      <c r="M229">
+        <v>2.5</v>
+      </c>
+      <c r="N229">
         <v>1.909</v>
       </c>
-      <c r="L229">
-        <v>4</v>
-      </c>
-      <c r="M229">
-        <v>2.9</v>
-      </c>
-      <c r="N229">
-        <v>2</v>
-      </c>
       <c r="O229">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P229">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
+        <v>2.025</v>
+      </c>
+      <c r="S229">
         <v>1.825</v>
       </c>
-      <c r="S229">
-        <v>1.975</v>
-      </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
         <v>1.85</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6813972</v>
+        <v>6813976</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,10 +20926,10 @@
         <v>45387.58333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -20941,61 +20941,61 @@
         <v>48</v>
       </c>
       <c r="K230">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M230">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N230">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P230">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
         <v>1.85</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21015,7 +21015,7 @@
         <v>45388.375</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G231" t="s">
         <v>43</v>
@@ -21196,7 +21196,7 @@
         <v>37</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21460,7 +21460,7 @@
         <v>45388.375</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
         <v>29</v>
@@ -21552,7 +21552,7 @@
         <v>42</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6814796</v>
+        <v>6813981</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,76 +21638,76 @@
         <v>45394.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K238">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="N238">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="O238">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA238">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB238">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6813981</v>
+        <v>6814796</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,76 +21727,76 @@
         <v>45394.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K239">
+        <v>1.4</v>
+      </c>
+      <c r="L239">
+        <v>4.5</v>
+      </c>
+      <c r="M239">
+        <v>5.75</v>
+      </c>
+      <c r="N239">
+        <v>1.4</v>
+      </c>
+      <c r="O239">
+        <v>4.2</v>
+      </c>
+      <c r="P239">
+        <v>6.5</v>
+      </c>
+      <c r="Q239">
+        <v>-1.25</v>
+      </c>
+      <c r="R239">
+        <v>1.9</v>
+      </c>
+      <c r="S239">
+        <v>1.9</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
+        <v>1.95</v>
+      </c>
+      <c r="V239">
         <v>1.85</v>
       </c>
-      <c r="L239">
-        <v>3.5</v>
-      </c>
-      <c r="M239">
-        <v>3.5</v>
-      </c>
-      <c r="N239">
-        <v>2.4</v>
-      </c>
-      <c r="O239">
-        <v>3.1</v>
-      </c>
-      <c r="P239">
-        <v>2.7</v>
-      </c>
-      <c r="Q239">
-        <v>0</v>
-      </c>
-      <c r="R239">
-        <v>1.775</v>
-      </c>
-      <c r="S239">
-        <v>2.025</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.975</v>
-      </c>
-      <c r="V239">
-        <v>1.825</v>
-      </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X239">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC239">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6813984</v>
+        <v>6813986</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,76 +21816,76 @@
         <v>45395.375</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L240">
+        <v>3.8</v>
+      </c>
+      <c r="M240">
+        <v>3.4</v>
+      </c>
+      <c r="N240">
+        <v>1.85</v>
+      </c>
+      <c r="O240">
         <v>3.75</v>
       </c>
-      <c r="M240">
-        <v>2.625</v>
-      </c>
-      <c r="N240">
-        <v>2.75</v>
-      </c>
-      <c r="O240">
-        <v>3.5</v>
-      </c>
       <c r="P240">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.75</v>
       </c>
       <c r="U240">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC240">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6813986</v>
+        <v>6813983</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,76 +21905,76 @@
         <v>45395.375</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>47</v>
       </c>
       <c r="K241">
+        <v>1.727</v>
+      </c>
+      <c r="L241">
+        <v>3.5</v>
+      </c>
+      <c r="M241">
+        <v>4</v>
+      </c>
+      <c r="N241">
+        <v>1.615</v>
+      </c>
+      <c r="O241">
+        <v>3.8</v>
+      </c>
+      <c r="P241">
+        <v>4.2</v>
+      </c>
+      <c r="Q241">
+        <v>-0.75</v>
+      </c>
+      <c r="R241">
+        <v>1.825</v>
+      </c>
+      <c r="S241">
+        <v>1.975</v>
+      </c>
+      <c r="T241">
+        <v>3.25</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
         <v>1.8</v>
       </c>
-      <c r="L241">
-        <v>3.8</v>
-      </c>
-      <c r="M241">
-        <v>3.4</v>
-      </c>
-      <c r="N241">
-        <v>1.85</v>
-      </c>
-      <c r="O241">
-        <v>3.75</v>
-      </c>
-      <c r="P241">
-        <v>3.3</v>
-      </c>
-      <c r="Q241">
+      <c r="W241">
+        <v>0.615</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
+        <v>0.825</v>
+      </c>
+      <c r="AA241">
+        <v>-1</v>
+      </c>
+      <c r="AB241">
         <v>-0.5</v>
       </c>
-      <c r="R241">
-        <v>1.9</v>
-      </c>
-      <c r="S241">
-        <v>1.9</v>
-      </c>
-      <c r="T241">
-        <v>2.75</v>
-      </c>
-      <c r="U241">
-        <v>1.75</v>
-      </c>
-      <c r="V241">
-        <v>1.95</v>
-      </c>
-      <c r="W241">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X241">
-        <v>-1</v>
-      </c>
-      <c r="Y241">
-        <v>-1</v>
-      </c>
-      <c r="Z241">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA241">
-        <v>-1</v>
-      </c>
-      <c r="AB241">
-        <v>0.375</v>
-      </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6813983</v>
+        <v>6813984</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>45395.375</v>
       </c>
       <c r="F242" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L242">
+        <v>3.75</v>
+      </c>
+      <c r="M242">
+        <v>2.625</v>
+      </c>
+      <c r="N242">
+        <v>2.75</v>
+      </c>
+      <c r="O242">
         <v>3.5</v>
       </c>
-      <c r="M242">
-        <v>4</v>
-      </c>
-      <c r="N242">
-        <v>1.615</v>
-      </c>
-      <c r="O242">
-        <v>3.8</v>
-      </c>
       <c r="P242">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S242">
         <v>1.975</v>
       </c>
       <c r="T242">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V242">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z242">
+        <v>-1</v>
+      </c>
+      <c r="AA242">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
         <v>0.825</v>
-      </c>
-      <c r="AA242">
-        <v>-1</v>
-      </c>
-      <c r="AB242">
-        <v>-0.5</v>
-      </c>
-      <c r="AC242">
-        <v>0.4</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>45</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22261,7 +22261,7 @@
         <v>45398.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G245" t="s">
         <v>30</v>
@@ -22442,7 +22442,7 @@
         <v>30</v>
       </c>
       <c r="G247" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H247">
         <v>3</v>
@@ -22528,10 +22528,10 @@
         <v>45401.58333333334</v>
       </c>
       <c r="F248" t="s">
+        <v>40</v>
+      </c>
+      <c r="G248" t="s">
         <v>39</v>
-      </c>
-      <c r="G248" t="s">
-        <v>41</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -22687,376 +22687,6 @@
       </c>
       <c r="AC249">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>6813992</v>
-      </c>
-      <c r="C250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" t="s">
-        <v>28</v>
-      </c>
-      <c r="E250" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F250" t="s">
-        <v>33</v>
-      </c>
-      <c r="G250" t="s">
-        <v>34</v>
-      </c>
-      <c r="K250">
-        <v>4.75</v>
-      </c>
-      <c r="L250">
-        <v>4</v>
-      </c>
-      <c r="M250">
-        <v>1.533</v>
-      </c>
-      <c r="N250">
-        <v>5</v>
-      </c>
-      <c r="O250">
-        <v>4</v>
-      </c>
-      <c r="P250">
-        <v>1.533</v>
-      </c>
-      <c r="Q250">
-        <v>1</v>
-      </c>
-      <c r="R250">
-        <v>1.95</v>
-      </c>
-      <c r="S250">
-        <v>1.9</v>
-      </c>
-      <c r="T250">
-        <v>3</v>
-      </c>
-      <c r="U250">
-        <v>1.8</v>
-      </c>
-      <c r="V250">
-        <v>2.05</v>
-      </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-      <c r="Y250">
-        <v>0</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
-      <c r="AA250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>6813993</v>
-      </c>
-      <c r="C251" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" t="s">
-        <v>28</v>
-      </c>
-      <c r="E251" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F251" t="s">
-        <v>37</v>
-      </c>
-      <c r="G251" t="s">
-        <v>44</v>
-      </c>
-      <c r="K251">
-        <v>1.909</v>
-      </c>
-      <c r="L251">
-        <v>4</v>
-      </c>
-      <c r="M251">
-        <v>3</v>
-      </c>
-      <c r="N251">
-        <v>2</v>
-      </c>
-      <c r="O251">
-        <v>4</v>
-      </c>
-      <c r="P251">
-        <v>2.8</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
-      <c r="R251">
-        <v>1.85</v>
-      </c>
-      <c r="S251">
-        <v>2</v>
-      </c>
-      <c r="T251">
-        <v>2.75</v>
-      </c>
-      <c r="U251">
-        <v>2</v>
-      </c>
-      <c r="V251">
-        <v>1.85</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-      <c r="Y251">
-        <v>0</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AA251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>6813994</v>
-      </c>
-      <c r="C252" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" t="s">
-        <v>28</v>
-      </c>
-      <c r="E252" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F252" t="s">
-        <v>38</v>
-      </c>
-      <c r="G252" t="s">
-        <v>40</v>
-      </c>
-      <c r="K252">
-        <v>2.5</v>
-      </c>
-      <c r="L252">
-        <v>3.75</v>
-      </c>
-      <c r="M252">
-        <v>2.25</v>
-      </c>
-      <c r="N252">
-        <v>2.75</v>
-      </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
-      <c r="P252">
-        <v>2.05</v>
-      </c>
-      <c r="Q252">
-        <v>0.25</v>
-      </c>
-      <c r="R252">
-        <v>1.95</v>
-      </c>
-      <c r="S252">
-        <v>1.9</v>
-      </c>
-      <c r="T252">
-        <v>3</v>
-      </c>
-      <c r="U252">
-        <v>1.875</v>
-      </c>
-      <c r="V252">
-        <v>1.975</v>
-      </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-      <c r="X252">
-        <v>0</v>
-      </c>
-      <c r="Y252">
-        <v>0</v>
-      </c>
-      <c r="Z252">
-        <v>0</v>
-      </c>
-      <c r="AA252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:29">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253">
-        <v>6813995</v>
-      </c>
-      <c r="C253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D253" t="s">
-        <v>28</v>
-      </c>
-      <c r="E253" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F253" t="s">
-        <v>35</v>
-      </c>
-      <c r="G253" t="s">
-        <v>43</v>
-      </c>
-      <c r="K253">
-        <v>2.75</v>
-      </c>
-      <c r="L253">
-        <v>4</v>
-      </c>
-      <c r="M253">
-        <v>2</v>
-      </c>
-      <c r="N253">
-        <v>2.3</v>
-      </c>
-      <c r="O253">
-        <v>3.6</v>
-      </c>
-      <c r="P253">
-        <v>2.4</v>
-      </c>
-      <c r="Q253">
-        <v>0</v>
-      </c>
-      <c r="R253">
-        <v>1.85</v>
-      </c>
-      <c r="S253">
-        <v>2</v>
-      </c>
-      <c r="T253">
-        <v>2.75</v>
-      </c>
-      <c r="U253">
-        <v>1.925</v>
-      </c>
-      <c r="V253">
-        <v>1.925</v>
-      </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-      <c r="X253">
-        <v>0</v>
-      </c>
-      <c r="Y253">
-        <v>0</v>
-      </c>
-      <c r="Z253">
-        <v>0</v>
-      </c>
-      <c r="AA253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:29">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254">
-        <v>6814797</v>
-      </c>
-      <c r="C254" t="s">
-        <v>28</v>
-      </c>
-      <c r="D254" t="s">
-        <v>28</v>
-      </c>
-      <c r="E254" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F254" t="s">
-        <v>32</v>
-      </c>
-      <c r="G254" t="s">
-        <v>45</v>
-      </c>
-      <c r="K254">
-        <v>2.25</v>
-      </c>
-      <c r="L254">
-        <v>3.75</v>
-      </c>
-      <c r="M254">
-        <v>2.5</v>
-      </c>
-      <c r="N254">
-        <v>2.375</v>
-      </c>
-      <c r="O254">
-        <v>3.75</v>
-      </c>
-      <c r="P254">
-        <v>2.375</v>
-      </c>
-      <c r="Q254">
-        <v>0</v>
-      </c>
-      <c r="R254">
-        <v>1.95</v>
-      </c>
-      <c r="S254">
-        <v>1.9</v>
-      </c>
-      <c r="T254">
-        <v>3</v>
-      </c>
-      <c r="U254">
-        <v>1.975</v>
-      </c>
-      <c r="V254">
-        <v>1.875</v>
-      </c>
-      <c r="W254">
-        <v>0</v>
-      </c>
-      <c r="X254">
-        <v>0</v>
-      </c>
-      <c r="Y254">
-        <v>0</v>
-      </c>
-      <c r="Z254">
-        <v>0</v>
-      </c>
-      <c r="AA254">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -2164,7 +2164,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6813742</v>
+        <v>6813745</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2173,10 +2173,10 @@
         <v>45143.375</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2188,43 +2188,43 @@
         <v>46</v>
       </c>
       <c r="J20">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N20">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P20">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q20">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2233,13 +2233,13 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2336,7 +2336,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6813745</v>
+        <v>6813747</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2345,76 +2345,76 @@
         <v>45143.375</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J22">
+        <v>2.8</v>
+      </c>
+      <c r="K22">
+        <v>3.5</v>
+      </c>
+      <c r="L22">
+        <v>2.1</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3.6</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>1.775</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
         <v>1.95</v>
-      </c>
-      <c r="K22">
-        <v>3.6</v>
-      </c>
-      <c r="L22">
-        <v>3.1</v>
-      </c>
-      <c r="M22">
-        <v>2.1</v>
-      </c>
-      <c r="N22">
-        <v>3.4</v>
-      </c>
-      <c r="O22">
-        <v>2.875</v>
-      </c>
-      <c r="P22">
-        <v>-0.25</v>
-      </c>
-      <c r="Q22">
-        <v>1.875</v>
-      </c>
-      <c r="R22">
-        <v>1.925</v>
-      </c>
-      <c r="S22">
-        <v>2.75</v>
-      </c>
-      <c r="T22">
-        <v>1.9</v>
       </c>
       <c r="U22">
         <v>1.9</v>
       </c>
       <c r="V22">
+        <v>-1</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
         <v>1.1</v>
       </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>0.875</v>
-      </c>
-      <c r="Z22">
-        <v>-1</v>
-      </c>
       <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2422,7 +2422,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6813747</v>
+        <v>6813748</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2431,76 +2431,76 @@
         <v>45143.375</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J23">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="K23">
         <v>3.5</v>
       </c>
       <c r="L23">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T23">
+        <v>1.85</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="U23">
-        <v>1.9</v>
-      </c>
       <c r="V23">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>1</v>
       </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
       <c r="Z23">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2508,7 +2508,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6813748</v>
+        <v>6813742</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2517,13 +2517,13 @@
         <v>45143.375</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2532,43 +2532,43 @@
         <v>46</v>
       </c>
       <c r="J24">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="K24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L24">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
         <v>1.85</v>
       </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
       <c r="V24">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2577,13 +2577,13 @@
         <v>-1</v>
       </c>
       <c r="Y24">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>-1</v>
-      </c>
-      <c r="AA24">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
         <v>-1</v>
@@ -3282,7 +3282,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6813753</v>
+        <v>6813751</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3291,76 +3291,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J33">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>3.6</v>
       </c>
       <c r="L33">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M33">
         <v>1.571</v>
       </c>
       <c r="N33">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O33">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P33">
         <v>-1</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T33">
         <v>1.95</v>
       </c>
       <c r="U33">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB33">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3368,7 +3368,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6813751</v>
+        <v>6813753</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3377,76 +3377,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K34">
         <v>3.6</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M34">
         <v>1.571</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O34">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P34">
         <v>-1</v>
       </c>
       <c r="Q34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T34">
         <v>1.95</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -4744,7 +4744,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6813789</v>
+        <v>6813779</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4753,76 +4753,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J50">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="K50">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L50">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="M50">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="N50">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O50">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T50">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U50">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W50">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA50">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4830,7 +4830,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6813779</v>
+        <v>6813789</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4839,76 +4839,76 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="K51">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="M51">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="N51">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="P51">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q51">
+        <v>1.925</v>
+      </c>
+      <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51">
         <v>1.95</v>
       </c>
-      <c r="R51">
-        <v>1.85</v>
-      </c>
-      <c r="S51">
-        <v>3.25</v>
-      </c>
-      <c r="T51">
-        <v>1.825</v>
-      </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V51">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5088,7 +5088,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6813793</v>
+        <v>6813791</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5097,73 +5097,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
         <v>3</v>
       </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J54">
         <v>1.727</v>
       </c>
       <c r="K54">
+        <v>3.75</v>
+      </c>
+      <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>1.285</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <v>8</v>
+      </c>
+      <c r="P54">
+        <v>-1.75</v>
+      </c>
+      <c r="Q54">
+        <v>1.9</v>
+      </c>
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
         <v>3.5</v>
       </c>
-      <c r="L54">
-        <v>4</v>
-      </c>
-      <c r="M54">
-        <v>2.15</v>
-      </c>
-      <c r="N54">
-        <v>3.1</v>
-      </c>
-      <c r="O54">
-        <v>3.1</v>
-      </c>
-      <c r="P54">
-        <v>-0.25</v>
-      </c>
-      <c r="Q54">
-        <v>1.95</v>
-      </c>
-      <c r="R54">
-        <v>1.85</v>
-      </c>
-      <c r="S54">
-        <v>2.75</v>
-      </c>
       <c r="T54">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U54">
         <v>1.925</v>
       </c>
       <c r="V54">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB54">
         <v>-1</v>
@@ -5174,7 +5174,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6813791</v>
+        <v>6813793</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5183,73 +5183,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
         <v>4</v>
       </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J55">
         <v>1.727</v>
       </c>
       <c r="K55">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="N55">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O55">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T55">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U55">
         <v>1.925</v>
       </c>
       <c r="V55">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -6722,7 +6722,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6813809</v>
+        <v>6813813</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6731,73 +6731,73 @@
         <v>45185.375</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
         <v>1</v>
       </c>
-      <c r="H73">
-        <v>4</v>
-      </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J73">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="K73">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="N73">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="O73">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S73">
         <v>3.25</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6808,7 +6808,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6813813</v>
+        <v>6813809</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6817,73 +6817,73 @@
         <v>45185.375</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J74">
-        <v>1.166</v>
+        <v>1.666</v>
       </c>
       <c r="K74">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L74">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="O74">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P74">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
         <v>3.25</v>
       </c>
       <c r="T74">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -7324,7 +7324,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6813818</v>
+        <v>6813819</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7333,46 +7333,46 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J80">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K80">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L80">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N80">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O80">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q80">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
         <v>3</v>
@@ -7384,25 +7384,25 @@
         <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7410,7 +7410,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6813819</v>
+        <v>6813818</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7419,46 +7419,46 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E81" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J81">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K81">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="M81">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N81">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="P81">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
         <v>3</v>
@@ -7470,25 +7470,25 @@
         <v>1.9</v>
       </c>
       <c r="V81">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -8700,7 +8700,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6813840</v>
+        <v>6813841</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8709,43 +8709,43 @@
         <v>45202.375</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J96">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="K96">
         <v>3.8</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M96">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N96">
         <v>3.75</v>
       </c>
       <c r="O96">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q96">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R96">
         <v>1.975</v>
@@ -8754,31 +8754,31 @@
         <v>3</v>
       </c>
       <c r="T96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8786,7 +8786,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6813837</v>
+        <v>6813840</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8795,58 +8795,58 @@
         <v>45202.375</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="s">
         <v>46</v>
       </c>
       <c r="J97">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="K97">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L97">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="N97">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O97">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="P97">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q97">
+        <v>1.875</v>
+      </c>
+      <c r="R97">
         <v>1.975</v>
       </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
       <c r="S97">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T97">
+        <v>1.95</v>
+      </c>
+      <c r="U97">
         <v>1.9</v>
       </c>
-      <c r="U97">
-        <v>1.95</v>
-      </c>
       <c r="V97">
-        <v>0.2849999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -8855,13 +8855,13 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -8872,7 +8872,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6813836</v>
+        <v>6813838</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8881,76 +8881,76 @@
         <v>45202.375</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J98">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K98">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L98">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O98">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
       </c>
       <c r="R98">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T98">
+        <v>1.975</v>
+      </c>
+      <c r="U98">
         <v>1.875</v>
       </c>
-      <c r="U98">
-        <v>1.925</v>
-      </c>
       <c r="V98">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8958,7 +8958,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6813838</v>
+        <v>6813837</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8967,76 +8967,76 @@
         <v>45202.375</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="K99">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M99">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="N99">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P99">
+        <v>-1.75</v>
+      </c>
+      <c r="Q99">
+        <v>1.975</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>3.75</v>
+      </c>
+      <c r="T99">
+        <v>1.9</v>
+      </c>
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>0.4875</v>
+      </c>
+      <c r="Z99">
         <v>-0.5</v>
       </c>
-      <c r="Q99">
-        <v>1.95</v>
-      </c>
-      <c r="R99">
-        <v>1.9</v>
-      </c>
-      <c r="S99">
-        <v>3</v>
-      </c>
-      <c r="T99">
-        <v>1.975</v>
-      </c>
-      <c r="U99">
-        <v>1.875</v>
-      </c>
-      <c r="V99">
-        <v>-1</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.5</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
+      <c r="AA99">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA99">
-        <v>0</v>
-      </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9044,7 +9044,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6813835</v>
+        <v>6813836</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9053,49 +9053,49 @@
         <v>45202.375</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J100">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M100">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O100">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="P100">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T100">
         <v>1.875</v>
@@ -9104,19 +9104,19 @@
         <v>1.925</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
@@ -9130,7 +9130,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6813834</v>
+        <v>6813835</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9139,76 +9139,76 @@
         <v>45202.375</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="M101">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O101">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="P101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q101">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U101">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
         <v>-1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X101">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z101">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9216,7 +9216,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813841</v>
+        <v>6813834</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9225,76 +9225,76 @@
         <v>45202.375</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J102">
-        <v>1.65</v>
+        <v>4.1</v>
       </c>
       <c r="K102">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="M102">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N102">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O102">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="P102">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9302,7 +9302,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6813839</v>
+        <v>6814791</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9311,76 +9311,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>48</v>
+      </c>
+      <c r="J103">
+        <v>1.666</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>3.8</v>
+      </c>
+      <c r="M103">
+        <v>1.666</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>3.8</v>
+      </c>
+      <c r="P103">
+        <v>-0.75</v>
+      </c>
+      <c r="Q103">
+        <v>1.9</v>
+      </c>
+      <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
         <v>3</v>
       </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-      <c r="I103" t="s">
-        <v>46</v>
-      </c>
-      <c r="J103">
-        <v>2</v>
-      </c>
-      <c r="K103">
-        <v>3.75</v>
-      </c>
-      <c r="L103">
-        <v>2.875</v>
-      </c>
-      <c r="M103">
-        <v>2.25</v>
-      </c>
-      <c r="N103">
-        <v>3.75</v>
-      </c>
-      <c r="O103">
-        <v>2.55</v>
-      </c>
-      <c r="P103">
-        <v>-0.25</v>
-      </c>
-      <c r="Q103">
-        <v>2.1</v>
-      </c>
-      <c r="R103">
-        <v>1.775</v>
-      </c>
-      <c r="S103">
-        <v>2.75</v>
-      </c>
       <c r="T103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9388,7 +9388,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6814791</v>
+        <v>6813839</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9397,76 +9397,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J104">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L104">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="M104">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="P104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q104">
+        <v>2.1</v>
+      </c>
+      <c r="R104">
+        <v>1.775</v>
+      </c>
+      <c r="S104">
+        <v>2.75</v>
+      </c>
+      <c r="T104">
         <v>1.9</v>
       </c>
-      <c r="R104">
+      <c r="U104">
         <v>1.95</v>
       </c>
-      <c r="S104">
-        <v>3</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.85</v>
-      </c>
       <c r="V104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -12226,7 +12226,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6813885</v>
+        <v>6813882</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12235,56 +12235,56 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I137" t="s">
         <v>48</v>
       </c>
       <c r="J137">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K137">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="L137">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="M137">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="N137">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O137">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="P137">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137">
+        <v>1.8</v>
+      </c>
+      <c r="S137">
+        <v>3.25</v>
+      </c>
+      <c r="T137">
         <v>1.9</v>
       </c>
-      <c r="R137">
+      <c r="U137">
         <v>1.9</v>
       </c>
-      <c r="S137">
-        <v>2.75</v>
-      </c>
-      <c r="T137">
-        <v>1.75</v>
-      </c>
-      <c r="U137">
-        <v>1.95</v>
-      </c>
       <c r="V137">
         <v>-1</v>
       </c>
@@ -12292,19 +12292,19 @@
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>1.1</v>
+        <v>0.222</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
+        <v>0.8</v>
+      </c>
+      <c r="AA137">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12312,7 +12312,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6813882</v>
+        <v>6813885</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12321,55 +12321,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I138" t="s">
         <v>48</v>
       </c>
       <c r="J138">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K138">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="L138">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="M138">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="N138">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O138">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="P138">
+        <v>0.25</v>
+      </c>
+      <c r="Q138">
+        <v>1.9</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>2.75</v>
+      </c>
+      <c r="T138">
         <v>1.75</v>
       </c>
-      <c r="Q138">
-        <v>2</v>
-      </c>
-      <c r="R138">
-        <v>1.8</v>
-      </c>
-      <c r="S138">
-        <v>3.25</v>
-      </c>
-      <c r="T138">
-        <v>1.9</v>
-      </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
         <v>-1</v>
@@ -12378,19 +12378,19 @@
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>0.222</v>
+        <v>1.1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -16268,7 +16268,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6813926</v>
+        <v>6813931</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -16277,10 +16277,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16292,34 +16292,34 @@
         <v>47</v>
       </c>
       <c r="J184">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="K184">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L184">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="M184">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N184">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O184">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="P184">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q184">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R184">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S184">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T184">
         <v>1.975</v>
@@ -16331,16 +16331,16 @@
         <v>-1</v>
       </c>
       <c r="W184">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA184">
         <v>-1</v>
@@ -16354,7 +16354,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6813931</v>
+        <v>6813926</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
@@ -16363,10 +16363,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,34 +16378,34 @@
         <v>47</v>
       </c>
       <c r="J185">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="K185">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="M185">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="N185">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O185">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="P185">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q185">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R185">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T185">
         <v>1.975</v>
@@ -16417,16 +16417,16 @@
         <v>-1</v>
       </c>
       <c r="W185">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z185">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
         <v>-1</v>
@@ -16698,7 +16698,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6813942</v>
+        <v>6813940</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16707,76 +16707,76 @@
         <v>45359.625</v>
       </c>
       <c r="E189" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J189">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="K189">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
         <v>1.65</v>
       </c>
       <c r="N189">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P189">
         <v>-0.75</v>
       </c>
       <c r="Q189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W189">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16784,7 +16784,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813940</v>
+        <v>6813942</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -16793,76 +16793,76 @@
         <v>45359.625</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G190">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J190">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="K190">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L190">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M190">
         <v>1.65</v>
       </c>
       <c r="N190">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P190">
         <v>-0.75</v>
       </c>
       <c r="Q190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -17816,7 +17816,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6813945</v>
+        <v>6813947</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17825,56 +17825,56 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I202" t="s">
         <v>48</v>
       </c>
       <c r="J202">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K202">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L202">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="M202">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N202">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O202">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="P202">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q202">
+        <v>2</v>
+      </c>
+      <c r="R202">
+        <v>1.85</v>
+      </c>
+      <c r="S202">
+        <v>2.75</v>
+      </c>
+      <c r="T202">
+        <v>2.025</v>
+      </c>
+      <c r="U202">
         <v>1.825</v>
       </c>
-      <c r="R202">
-        <v>2.025</v>
-      </c>
-      <c r="S202">
-        <v>3</v>
-      </c>
-      <c r="T202">
-        <v>1.875</v>
-      </c>
-      <c r="U202">
-        <v>1.975</v>
-      </c>
       <c r="V202">
         <v>-1</v>
       </c>
@@ -17882,19 +17882,19 @@
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z202">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AA202">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -17902,7 +17902,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6813947</v>
+        <v>6813945</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -17911,55 +17911,55 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I203" t="s">
         <v>48</v>
       </c>
       <c r="J203">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K203">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L203">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="M203">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N203">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O203">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="P203">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q203">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R203">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T203">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
         <v>-1</v>
@@ -17968,19 +17968,19 @@
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>0.615</v>
+        <v>0.909</v>
       </c>
       <c r="Y203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18590,7 +18590,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6813958</v>
+        <v>6813959</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18599,76 +18599,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J211">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="K211">
+        <v>6</v>
+      </c>
+      <c r="L211">
+        <v>9</v>
+      </c>
+      <c r="M211">
+        <v>1.5</v>
+      </c>
+      <c r="N211">
         <v>3.6</v>
       </c>
-      <c r="L211">
-        <v>3.4</v>
-      </c>
-      <c r="M211">
-        <v>2.2</v>
-      </c>
-      <c r="N211">
-        <v>3.4</v>
-      </c>
       <c r="O211">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="P211">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q211">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R211">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
         <v>2.5</v>
       </c>
       <c r="T211">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z211">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18762,7 +18762,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6813959</v>
+        <v>6813958</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18771,76 +18771,76 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J213">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="K213">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L213">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O213">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="P213">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
         <v>2.5</v>
       </c>
       <c r="T213">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18848,7 +18848,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6813961</v>
+        <v>6813960</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18857,13 +18857,13 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -18872,40 +18872,40 @@
         <v>48</v>
       </c>
       <c r="J214">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="K214">
         <v>4</v>
       </c>
       <c r="L214">
+        <v>2.75</v>
+      </c>
+      <c r="M214">
+        <v>1.95</v>
+      </c>
+      <c r="N214">
+        <v>3.4</v>
+      </c>
+      <c r="O214">
         <v>3.1</v>
       </c>
-      <c r="M214">
+      <c r="P214">
+        <v>-0.25</v>
+      </c>
+      <c r="Q214">
         <v>1.8</v>
       </c>
-      <c r="N214">
-        <v>4</v>
-      </c>
-      <c r="O214">
-        <v>3.4</v>
-      </c>
-      <c r="P214">
-        <v>-0.5</v>
-      </c>
-      <c r="Q214">
-        <v>1.85</v>
-      </c>
       <c r="R214">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S214">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T214">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
         <v>-1</v>
@@ -18914,19 +18914,19 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA214">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18934,7 +18934,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6813960</v>
+        <v>6813961</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -18943,13 +18943,13 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -18958,41 +18958,41 @@
         <v>48</v>
       </c>
       <c r="J215">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="K215">
         <v>4</v>
       </c>
       <c r="L215">
+        <v>3.1</v>
+      </c>
+      <c r="M215">
+        <v>1.8</v>
+      </c>
+      <c r="N215">
+        <v>4</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
+        <v>-0.5</v>
+      </c>
+      <c r="Q215">
+        <v>1.85</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
         <v>2.75</v>
       </c>
-      <c r="M215">
-        <v>1.95</v>
-      </c>
-      <c r="N215">
-        <v>3.4</v>
-      </c>
-      <c r="O215">
-        <v>3.1</v>
-      </c>
-      <c r="P215">
-        <v>-0.25</v>
-      </c>
-      <c r="Q215">
+      <c r="T215">
         <v>1.8</v>
       </c>
-      <c r="R215">
+      <c r="U215">
         <v>2.05</v>
       </c>
-      <c r="S215">
-        <v>2.5</v>
-      </c>
-      <c r="T215">
-        <v>1.975</v>
-      </c>
-      <c r="U215">
-        <v>1.875</v>
-      </c>
       <c r="V215">
         <v>-1</v>
       </c>
@@ -19000,19 +19000,19 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB215">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19192,7 +19192,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6813970</v>
+        <v>6813971</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19201,76 +19201,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G218">
+        <v>2</v>
+      </c>
+      <c r="H218">
         <v>1</v>
       </c>
-      <c r="H218">
-        <v>2</v>
-      </c>
       <c r="I218" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J218">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K218">
         <v>3.75</v>
       </c>
       <c r="L218">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M218">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N218">
         <v>3.6</v>
       </c>
       <c r="O218">
+        <v>2.25</v>
+      </c>
+      <c r="P218">
+        <v>0.25</v>
+      </c>
+      <c r="Q218">
+        <v>1.85</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
         <v>2.5</v>
       </c>
-      <c r="P218">
-        <v>0</v>
-      </c>
-      <c r="Q218">
-        <v>1.825</v>
-      </c>
-      <c r="R218">
-        <v>1.975</v>
-      </c>
-      <c r="S218">
-        <v>3</v>
-      </c>
       <c r="T218">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V218">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19278,7 +19278,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6813971</v>
+        <v>6813970</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19287,76 +19287,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J219">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K219">
         <v>3.75</v>
       </c>
       <c r="L219">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M219">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N219">
         <v>3.6</v>
       </c>
       <c r="O219">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P219">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q219">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T219">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U219">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA219">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19536,7 +19536,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6813963</v>
+        <v>6813966</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -19545,49 +19545,49 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J222">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="K222">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L222">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="M222">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N222">
         <v>3.6</v>
       </c>
       <c r="O222">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="P222">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q222">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T222">
         <v>1.85</v>
@@ -19599,22 +19599,22 @@
         <v>-1</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X222">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
+        <v>0.4125</v>
+      </c>
+      <c r="Z222">
         <v>-0.5</v>
       </c>
-      <c r="Z222">
-        <v>0.4875</v>
-      </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB222">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -19622,7 +19622,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6813964</v>
+        <v>6813963</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -19631,55 +19631,55 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G223">
         <v>0</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="s">
         <v>48</v>
       </c>
       <c r="J223">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="K223">
+        <v>4.75</v>
+      </c>
+      <c r="L223">
+        <v>1.363</v>
+      </c>
+      <c r="M223">
         <v>4</v>
       </c>
-      <c r="L223">
-        <v>4</v>
-      </c>
-      <c r="M223">
-        <v>1.615</v>
-      </c>
       <c r="N223">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O223">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="P223">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q223">
+        <v>1.875</v>
+      </c>
+      <c r="R223">
+        <v>1.975</v>
+      </c>
+      <c r="S223">
+        <v>2.5</v>
+      </c>
+      <c r="T223">
         <v>1.85</v>
       </c>
-      <c r="R223">
-        <v>2</v>
-      </c>
-      <c r="S223">
-        <v>2.75</v>
-      </c>
-      <c r="T223">
-        <v>2</v>
-      </c>
       <c r="U223">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V223">
         <v>-1</v>
@@ -19688,19 +19688,19 @@
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z223">
+        <v>0.4875</v>
+      </c>
+      <c r="AA223">
+        <v>-1</v>
+      </c>
+      <c r="AB223">
         <v>1</v>
-      </c>
-      <c r="AA223">
-        <v>-1</v>
-      </c>
-      <c r="AB223">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -19708,7 +19708,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6813965</v>
+        <v>6813964</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -19717,13 +19717,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -19732,40 +19732,40 @@
         <v>48</v>
       </c>
       <c r="J224">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="K224">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L224">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M224">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="N224">
+        <v>3.8</v>
+      </c>
+      <c r="O224">
         <v>4.5</v>
       </c>
-      <c r="O224">
-        <v>6</v>
-      </c>
       <c r="P224">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q224">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S224">
         <v>2.75</v>
       </c>
       <c r="T224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
         <v>-1</v>
@@ -19774,19 +19774,19 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA224">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19794,7 +19794,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6813966</v>
+        <v>6813965</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19803,76 +19803,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225">
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J225">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="K225">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L225">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="M225">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="N225">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O225">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="P225">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q225">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
         <v>2.75</v>
       </c>
       <c r="T225">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
         <v>-1</v>
       </c>
       <c r="W225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y225">
+        <v>-1</v>
+      </c>
+      <c r="Z225">
+        <v>0.95</v>
+      </c>
+      <c r="AA225">
         <v>0.4125</v>
       </c>
-      <c r="Z225">
+      <c r="AB225">
         <v>-0.5</v>
-      </c>
-      <c r="AA225">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB225">
-        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -21170,7 +21170,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6813988</v>
+        <v>6813984</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
@@ -21179,76 +21179,76 @@
         <v>45395.375</v>
       </c>
       <c r="E241" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F241" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G241">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J241">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="K241">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L241">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="M241">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N241">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O241">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="P241">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q241">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S241">
         <v>2.75</v>
       </c>
       <c r="T241">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA241">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -21256,7 +21256,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6813984</v>
+        <v>6813986</v>
       </c>
       <c r="C242" t="s">
         <v>27</v>
@@ -21265,76 +21265,76 @@
         <v>45395.375</v>
       </c>
       <c r="E242" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J242">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="K242">
+        <v>3.8</v>
+      </c>
+      <c r="L242">
+        <v>3.4</v>
+      </c>
+      <c r="M242">
+        <v>1.85</v>
+      </c>
+      <c r="N242">
         <v>3.75</v>
       </c>
-      <c r="L242">
-        <v>2.625</v>
-      </c>
-      <c r="M242">
-        <v>2.75</v>
-      </c>
-      <c r="N242">
-        <v>3.5</v>
-      </c>
       <c r="O242">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="P242">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q242">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R242">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S242">
         <v>2.75</v>
       </c>
       <c r="T242">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U242">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V242">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z242">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB242">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="243" spans="1:28">
@@ -21342,7 +21342,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6813986</v>
+        <v>6813987</v>
       </c>
       <c r="C243" t="s">
         <v>27</v>
@@ -21351,76 +21351,76 @@
         <v>45395.375</v>
       </c>
       <c r="E243" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F243" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J243">
+        <v>2.15</v>
+      </c>
+      <c r="K243">
+        <v>3.5</v>
+      </c>
+      <c r="L243">
+        <v>2.75</v>
+      </c>
+      <c r="M243">
+        <v>3.2</v>
+      </c>
+      <c r="N243">
+        <v>3.6</v>
+      </c>
+      <c r="O243">
+        <v>1.95</v>
+      </c>
+      <c r="P243">
+        <v>0.5</v>
+      </c>
+      <c r="Q243">
+        <v>1.825</v>
+      </c>
+      <c r="R243">
+        <v>2.025</v>
+      </c>
+      <c r="S243">
+        <v>3</v>
+      </c>
+      <c r="T243">
+        <v>2.05</v>
+      </c>
+      <c r="U243">
         <v>1.8</v>
       </c>
-      <c r="K243">
-        <v>3.8</v>
-      </c>
-      <c r="L243">
-        <v>3.4</v>
-      </c>
-      <c r="M243">
-        <v>1.85</v>
-      </c>
-      <c r="N243">
-        <v>3.75</v>
-      </c>
-      <c r="O243">
-        <v>3.3</v>
-      </c>
-      <c r="P243">
-        <v>-0.5</v>
-      </c>
-      <c r="Q243">
-        <v>1.9</v>
-      </c>
-      <c r="R243">
-        <v>1.9</v>
-      </c>
-      <c r="S243">
-        <v>2.75</v>
-      </c>
-      <c r="T243">
-        <v>1.75</v>
-      </c>
-      <c r="U243">
-        <v>1.95</v>
-      </c>
       <c r="V243">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y243">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA243">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AB243">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -21428,7 +21428,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6813987</v>
+        <v>6813988</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
@@ -21437,76 +21437,76 @@
         <v>45395.375</v>
       </c>
       <c r="E244" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G244">
+        <v>3</v>
+      </c>
+      <c r="H244">
         <v>1</v>
       </c>
-      <c r="H244">
-        <v>2</v>
-      </c>
       <c r="I244" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J244">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="K244">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="L244">
+        <v>10</v>
+      </c>
+      <c r="M244">
+        <v>1.5</v>
+      </c>
+      <c r="N244">
+        <v>4.333</v>
+      </c>
+      <c r="O244">
+        <v>4.75</v>
+      </c>
+      <c r="P244">
+        <v>-1</v>
+      </c>
+      <c r="Q244">
+        <v>1.85</v>
+      </c>
+      <c r="R244">
+        <v>1.95</v>
+      </c>
+      <c r="S244">
         <v>2.75</v>
       </c>
-      <c r="M244">
-        <v>3.2</v>
-      </c>
-      <c r="N244">
-        <v>3.6</v>
-      </c>
-      <c r="O244">
+      <c r="T244">
         <v>1.95</v>
       </c>
-      <c r="P244">
+      <c r="U244">
+        <v>1.85</v>
+      </c>
+      <c r="V244">
         <v>0.5</v>
       </c>
-      <c r="Q244">
-        <v>1.825</v>
-      </c>
-      <c r="R244">
-        <v>2.025</v>
-      </c>
-      <c r="S244">
-        <v>3</v>
-      </c>
-      <c r="T244">
-        <v>2.05</v>
-      </c>
-      <c r="U244">
-        <v>1.8</v>
-      </c>
-      <c r="V244">
-        <v>-1</v>
-      </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z244">
+        <v>-1</v>
+      </c>
+      <c r="AA244">
         <v>0.95</v>
       </c>
-      <c r="Y244">
-        <v>-1</v>
-      </c>
-      <c r="Z244">
-        <v>1.025</v>
-      </c>
-      <c r="AA244">
-        <v>0</v>
-      </c>
       <c r="AB244">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:28">
@@ -21686,7 +21686,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6813991</v>
+        <v>6813989</v>
       </c>
       <c r="C247" t="s">
         <v>27</v>
@@ -21695,76 +21695,76 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F247" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J247">
-        <v>1.2</v>
+        <v>2.55</v>
       </c>
       <c r="K247">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L247">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="M247">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="N247">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O247">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="P247">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q247">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R247">
+        <v>2.025</v>
+      </c>
+      <c r="S247">
+        <v>2.75</v>
+      </c>
+      <c r="T247">
+        <v>1.825</v>
+      </c>
+      <c r="U247">
         <v>1.975</v>
       </c>
-      <c r="S247">
-        <v>3.5</v>
-      </c>
-      <c r="T247">
-        <v>2.025</v>
-      </c>
-      <c r="U247">
-        <v>1.825</v>
-      </c>
       <c r="V247">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -21772,7 +21772,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6813989</v>
+        <v>6813990</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -21781,76 +21781,76 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J248">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="K248">
+        <v>4</v>
+      </c>
+      <c r="L248">
+        <v>3</v>
+      </c>
+      <c r="M248">
+        <v>2.375</v>
+      </c>
+      <c r="N248">
         <v>3.75</v>
       </c>
-      <c r="L248">
-        <v>2.2</v>
-      </c>
-      <c r="M248">
-        <v>2.6</v>
-      </c>
-      <c r="N248">
-        <v>3.6</v>
-      </c>
       <c r="O248">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="P248">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q248">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R248">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S248">
         <v>2.75</v>
       </c>
       <c r="T248">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W248">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB248">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21858,7 +21858,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6813990</v>
+        <v>6813991</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -21867,58 +21867,58 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E249" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G249">
         <v>3</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="s">
         <v>46</v>
       </c>
       <c r="J249">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="K249">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L249">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M249">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N249">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="O249">
-        <v>2.45</v>
+        <v>7.5</v>
       </c>
       <c r="P249">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q249">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R249">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T249">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U249">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V249">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -21927,16 +21927,16 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -22460,7 +22460,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6948238</v>
+        <v>6954886</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22469,13 +22469,13 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G256">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -22484,43 +22484,43 @@
         <v>46</v>
       </c>
       <c r="J256">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="K256">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L256">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="M256">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="N256">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O256">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="P256">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q256">
+        <v>1.825</v>
+      </c>
+      <c r="R256">
+        <v>1.975</v>
+      </c>
+      <c r="S256">
+        <v>2.75</v>
+      </c>
+      <c r="T256">
         <v>1.75</v>
       </c>
-      <c r="R256">
+      <c r="U256">
         <v>1.95</v>
       </c>
-      <c r="S256">
-        <v>3</v>
-      </c>
-      <c r="T256">
-        <v>1.95</v>
-      </c>
-      <c r="U256">
-        <v>1.75</v>
-      </c>
       <c r="V256">
-        <v>0.25</v>
+        <v>1.7</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -22529,16 +22529,16 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
+        <v>-1</v>
+      </c>
+      <c r="AB256">
         <v>0.95</v>
-      </c>
-      <c r="AB256">
-        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22546,7 +22546,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6954886</v>
+        <v>6957370</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22555,13 +22555,13 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -22570,43 +22570,43 @@
         <v>46</v>
       </c>
       <c r="J257">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="K257">
         <v>4.333</v>
       </c>
       <c r="L257">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="M257">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="N257">
+        <v>4.2</v>
+      </c>
+      <c r="O257">
         <v>3.6</v>
       </c>
-      <c r="O257">
-        <v>2.2</v>
-      </c>
       <c r="P257">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q257">
+        <v>1.9</v>
+      </c>
+      <c r="R257">
+        <v>1.95</v>
+      </c>
+      <c r="S257">
+        <v>3</v>
+      </c>
+      <c r="T257">
         <v>1.825</v>
       </c>
-      <c r="R257">
-        <v>1.975</v>
-      </c>
-      <c r="S257">
-        <v>2.75</v>
-      </c>
-      <c r="T257">
-        <v>1.75</v>
-      </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V257">
-        <v>1.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -22615,16 +22615,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
         <v>0.825</v>
       </c>
-      <c r="Z257">
-        <v>-1</v>
-      </c>
-      <c r="AA257">
-        <v>-1</v>
-      </c>
       <c r="AB257">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22632,7 +22632,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6957370</v>
+        <v>6948238</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
@@ -22641,10 +22641,10 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E258" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F258" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G258">
         <v>4</v>
@@ -22656,28 +22656,28 @@
         <v>46</v>
       </c>
       <c r="J258">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="K258">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M258">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="N258">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="O258">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P258">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q258">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R258">
         <v>1.95</v>
@@ -22686,13 +22686,13 @@
         <v>3</v>
       </c>
       <c r="T258">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U258">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V258">
-        <v>0.6499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="W258">
         <v>-1</v>
@@ -22701,13 +22701,13 @@
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB258">
         <v>-1</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -115,13 +115,13 @@
     <t>Schweinfurt 05</t>
   </si>
   <si>
+    <t>Nurnberg II</t>
+  </si>
+  <si>
     <t>Turkgucu Munchen</t>
   </si>
   <si>
     <t>Greuther Furth II</t>
-  </si>
-  <si>
-    <t>Nurnberg II</t>
   </si>
   <si>
     <t>TSV Aubstadt</t>
@@ -133,10 +133,10 @@
     <t>Augsburg II</t>
   </si>
   <si>
-    <t>Viktoria Aschaffenburg</t>
+    <t>Bayern Munich II</t>
   </si>
   <si>
-    <t>Bayern Munich II</t>
+    <t>Viktoria Aschaffenburg</t>
   </si>
   <si>
     <t>Memmingen</t>
@@ -800,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -972,7 +972,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6813724</v>
+        <v>6813722</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1058,73 +1058,73 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="K7">
         <v>3.6</v>
       </c>
       <c r="L7">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
         <v>3.25</v>
       </c>
       <c r="T7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813726</v>
+        <v>6813724</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1144,73 +1144,73 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>2.4</v>
+      </c>
+      <c r="K8">
+        <v>3.6</v>
+      </c>
+      <c r="L8">
+        <v>2.4</v>
+      </c>
+      <c r="M8">
+        <v>1.65</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>-0.75</v>
+      </c>
+      <c r="Q8">
+        <v>1.825</v>
+      </c>
+      <c r="R8">
+        <v>1.975</v>
+      </c>
+      <c r="S8">
+        <v>3.25</v>
+      </c>
+      <c r="T8">
+        <v>1.825</v>
+      </c>
+      <c r="U8">
+        <v>1.975</v>
+      </c>
+      <c r="V8">
+        <v>-1</v>
+      </c>
+      <c r="W8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8">
-        <v>2.25</v>
-      </c>
-      <c r="K8">
-        <v>3.75</v>
-      </c>
-      <c r="L8">
-        <v>2.5</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>3.6</v>
-      </c>
-      <c r="O8">
-        <v>2.05</v>
-      </c>
-      <c r="P8">
-        <v>0.25</v>
-      </c>
-      <c r="Q8">
-        <v>1.975</v>
-      </c>
-      <c r="R8">
-        <v>1.825</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>1.8</v>
-      </c>
-      <c r="V8">
-        <v>-1</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
       <c r="X8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6813722</v>
+        <v>6813726</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1230,52 +1230,52 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>3</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
       </c>
       <c r="I9" t="s">
         <v>48</v>
       </c>
       <c r="J9">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K9">
+        <v>3.75</v>
+      </c>
+      <c r="L9">
+        <v>2.5</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
         <v>3.6</v>
       </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>2.15</v>
-      </c>
-      <c r="N9">
-        <v>3.2</v>
-      </c>
       <c r="O9">
+        <v>2.05</v>
+      </c>
+      <c r="P9">
+        <v>0.25</v>
+      </c>
+      <c r="Q9">
+        <v>1.975</v>
+      </c>
+      <c r="R9">
+        <v>1.825</v>
+      </c>
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>-0.25</v>
-      </c>
-      <c r="Q9">
-        <v>1.95</v>
-      </c>
-      <c r="R9">
-        <v>1.9</v>
-      </c>
-      <c r="S9">
-        <v>3.25</v>
-      </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
         <v>-1</v>
@@ -1284,19 +1284,19 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1402,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6813736</v>
+        <v>6813734</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1574,73 +1574,73 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J13">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M13">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="N13">
         <v>3.6</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P13">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q13">
+        <v>2.15</v>
+      </c>
+      <c r="R13">
+        <v>1.725</v>
+      </c>
+      <c r="S13">
+        <v>3.5</v>
+      </c>
+      <c r="T13">
         <v>1.975</v>
       </c>
-      <c r="R13">
-        <v>1.825</v>
-      </c>
-      <c r="S13">
-        <v>2.75</v>
-      </c>
-      <c r="T13">
-        <v>1.8</v>
-      </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA13">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
       <c r="AB13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1648,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6813734</v>
+        <v>6813736</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1660,73 +1660,73 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L14">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="M14">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="N14">
         <v>3.6</v>
       </c>
       <c r="O14">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q14">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="R14">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z14">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6813745</v>
+        <v>6813748</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2173,13 +2173,13 @@
         <v>45143.375</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2188,43 +2188,43 @@
         <v>46</v>
       </c>
       <c r="J20">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="M20">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N20">
         <v>3.4</v>
       </c>
       <c r="O20">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="P20">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
         <v>2.75</v>
       </c>
       <c r="T20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2233,13 +2233,13 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2250,7 +2250,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6813742</v>
+        <v>6813745</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2259,10 +2259,10 @@
         <v>45143.375</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2274,43 +2274,43 @@
         <v>46</v>
       </c>
       <c r="J21">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O21">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P21">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q21">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2319,13 +2319,13 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2336,7 +2336,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6813747</v>
+        <v>6813744</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2345,76 +2345,76 @@
         <v>45143.375</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J22">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="K22">
+        <v>3.75</v>
+      </c>
+      <c r="L22">
+        <v>3.75</v>
+      </c>
+      <c r="M22">
+        <v>1.6</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>-0.75</v>
+      </c>
+      <c r="Q22">
+        <v>1.8</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
         <v>3.5</v>
       </c>
-      <c r="L22">
-        <v>2.1</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>3.6</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
-      <c r="P22">
-        <v>0.5</v>
-      </c>
-      <c r="Q22">
-        <v>1.775</v>
-      </c>
-      <c r="R22">
-        <v>2.1</v>
-      </c>
-      <c r="S22">
-        <v>3</v>
-      </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2422,7 +2422,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6813748</v>
+        <v>6813742</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2431,13 +2431,13 @@
         <v>45143.375</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2446,43 +2446,43 @@
         <v>46</v>
       </c>
       <c r="J23">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L23">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O23">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.85</v>
       </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
       <c r="V23">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2491,13 +2491,13 @@
         <v>-1</v>
       </c>
       <c r="Y23">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2508,7 +2508,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6813744</v>
+        <v>6813747</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2517,76 +2517,76 @@
         <v>45143.375</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J24">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="K24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="M24">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O24">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="P24">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q24">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S24">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2603,7 +2603,7 @@
         <v>45143.4375</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
         <v>38</v>
@@ -2864,7 +2864,7 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2938,7 +2938,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6813754</v>
+        <v>6813757</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2947,76 +2947,76 @@
         <v>45149.5625</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J29">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K29">
         <v>3.6</v>
       </c>
       <c r="L29">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M29">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="N29">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O29">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q29">
         <v>1.85</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
       <c r="T29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3024,7 +3024,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6813757</v>
+        <v>6813754</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3033,76 +3033,76 @@
         <v>45149.5625</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J30">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="K30">
         <v>3.6</v>
       </c>
       <c r="L30">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M30">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="N30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O30">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="P30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q30">
         <v>1.85</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
         <v>3</v>
       </c>
       <c r="T30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3110,7 +3110,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6813752</v>
+        <v>6813751</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3119,76 +3119,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K31">
         <v>3.6</v>
       </c>
       <c r="L31">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="N31">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q31">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="R31">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T31">
+        <v>1.95</v>
+      </c>
+      <c r="U31">
         <v>1.85</v>
       </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
       <c r="V31">
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X31">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3196,7 +3196,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6813753</v>
+        <v>6813752</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3205,76 +3205,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J32">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K32">
         <v>3.6</v>
       </c>
       <c r="L32">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M32">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="N32">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O32">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3282,7 +3282,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6814789</v>
+        <v>6813753</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3291,58 +3291,58 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>46</v>
       </c>
       <c r="J33">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K33">
         <v>3.6</v>
       </c>
       <c r="L33">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="N33">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O33">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="P33">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q33">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T33">
         <v>1.95</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V33">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3351,16 +3351,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3368,7 +3368,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6813751</v>
+        <v>6814789</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3377,76 +3377,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K34">
         <v>3.6</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M34">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O34">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="P34">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q34">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R34">
         <v>1.875</v>
       </c>
       <c r="S34">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T34">
         <v>1.95</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3540,7 +3540,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6813763</v>
+        <v>6813760</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3549,76 +3549,76 @@
         <v>45157.375</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J36">
+        <v>1.85</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
         <v>3.1</v>
       </c>
-      <c r="K36">
-        <v>3.75</v>
-      </c>
-      <c r="L36">
-        <v>1.909</v>
-      </c>
       <c r="M36">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O36">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="P36">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q36">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3626,7 +3626,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6813762</v>
+        <v>6813763</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3635,58 +3635,58 @@
         <v>45157.375</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>46</v>
       </c>
       <c r="J37">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K37">
         <v>3.75</v>
       </c>
       <c r="L37">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M37">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O37">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="P37">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T37">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3695,16 +3695,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3712,7 +3712,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6813759</v>
+        <v>6813762</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3721,58 +3721,58 @@
         <v>45157.375</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>4</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
         <v>46</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K38">
         <v>3.75</v>
       </c>
       <c r="L38">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M38">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N38">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O38">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="P38">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q38">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U38">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3781,13 +3781,13 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -3798,7 +3798,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6813760</v>
+        <v>6813759</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3807,76 +3807,76 @@
         <v>45157.375</v>
       </c>
       <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
         <v>35</v>
       </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
       <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J39">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M39">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N39">
         <v>3.8</v>
       </c>
       <c r="O39">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R39">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4065,10 +4065,10 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4142,7 +4142,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6813767</v>
+        <v>6813768</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4151,76 +4151,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="K43">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L43">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="N43">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O43">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="P43">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q43">
         <v>1.925</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T43">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA43">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4228,7 +4228,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6813768</v>
+        <v>6813767</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4237,76 +4237,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J44">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="K44">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="M44">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O44">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q44">
         <v>1.925</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W44">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4323,7 +4323,7 @@
         <v>45164.375</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
         <v>31</v>
@@ -4409,7 +4409,7 @@
         <v>45167.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
         <v>37</v>
@@ -4498,7 +4498,7 @@
         <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4839,7 +4839,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
         <v>45</v>
@@ -5002,7 +5002,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6813796</v>
+        <v>6813793</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5011,76 +5011,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="K53">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N53">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O53">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="P53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q53">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y53">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5088,7 +5088,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6813793</v>
+        <v>6813796</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5097,76 +5097,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54">
         <v>3</v>
       </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
-      <c r="I54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54">
-        <v>1.727</v>
-      </c>
       <c r="K54">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N54">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O54">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="P54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q54">
+        <v>1.775</v>
+      </c>
+      <c r="R54">
+        <v>2.025</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54">
         <v>1.95</v>
       </c>
-      <c r="R54">
+      <c r="U54">
         <v>1.85</v>
       </c>
-      <c r="S54">
-        <v>2.75</v>
-      </c>
-      <c r="T54">
-        <v>1.875</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
       <c r="V54">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5183,7 +5183,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
         <v>41</v>
@@ -5260,7 +5260,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6813795</v>
+        <v>6813798</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5269,76 +5269,76 @@
         <v>45171.375</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>3.75</v>
+      </c>
+      <c r="L56">
+        <v>2.875</v>
+      </c>
+      <c r="M56">
+        <v>3.25</v>
+      </c>
+      <c r="N56">
         <v>4</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>46</v>
-      </c>
-      <c r="J56">
-        <v>1.166</v>
-      </c>
-      <c r="K56">
-        <v>7</v>
-      </c>
-      <c r="L56">
-        <v>9</v>
-      </c>
-      <c r="M56">
-        <v>1.25</v>
-      </c>
-      <c r="N56">
-        <v>5.75</v>
-      </c>
       <c r="O56">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="P56">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q56">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R56">
         <v>1.875</v>
       </c>
       <c r="S56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T56">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U56">
         <v>1.875</v>
       </c>
       <c r="V56">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5346,7 +5346,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6813798</v>
+        <v>6813797</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5355,43 +5355,43 @@
         <v>45171.375</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57" t="s">
         <v>48</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K57">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L57">
+        <v>2.8</v>
+      </c>
+      <c r="M57">
         <v>2.875</v>
       </c>
-      <c r="M57">
-        <v>3.25</v>
-      </c>
       <c r="N57">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O57">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="P57">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q57">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R57">
         <v>1.875</v>
@@ -5400,10 +5400,10 @@
         <v>3</v>
       </c>
       <c r="T57">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
         <v>-1</v>
@@ -5412,7 +5412,7 @@
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5421,10 +5421,10 @@
         <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5432,7 +5432,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6813797</v>
+        <v>6813795</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5441,40 +5441,40 @@
         <v>45171.375</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>4</v>
-      </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J58">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="K58">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L58">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="M58">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="N58">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="O58">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="P58">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q58">
         <v>1.975</v>
@@ -5483,31 +5483,31 @@
         <v>1.875</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T58">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB58">
         <v>-1</v>
@@ -5788,7 +5788,7 @@
         <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5948,7 +5948,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6813807</v>
+        <v>6813805</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5957,13 +5957,13 @@
         <v>45178.375</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5972,43 +5972,43 @@
         <v>46</v>
       </c>
       <c r="J64">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L64">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="M64">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="N64">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O64">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="P64">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q64">
+        <v>1.925</v>
+      </c>
+      <c r="R64">
         <v>1.875</v>
-      </c>
-      <c r="R64">
-        <v>1.975</v>
       </c>
       <c r="S64">
         <v>3</v>
       </c>
       <c r="T64">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U64">
         <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6017,13 +6017,13 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6034,7 +6034,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6813805</v>
+        <v>6813807</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6043,13 +6043,13 @@
         <v>45178.375</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6058,43 +6058,43 @@
         <v>46</v>
       </c>
       <c r="J65">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="K65">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="M65">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O65">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="P65">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q65">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
         <v>3</v>
       </c>
       <c r="T65">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U65">
         <v>1.95</v>
       </c>
       <c r="V65">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6103,13 +6103,13 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6129,7 +6129,7 @@
         <v>45178.375</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
         <v>45</v>
@@ -6218,7 +6218,7 @@
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6301,10 +6301,10 @@
         <v>45184.5</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6378,7 +6378,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6813811</v>
+        <v>6813808</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6387,16 +6387,16 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
         <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
       </c>
       <c r="I69" t="s">
         <v>46</v>
@@ -6411,34 +6411,34 @@
         <v>3.25</v>
       </c>
       <c r="M69">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="N69">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
         <v>-0.75</v>
       </c>
       <c r="Q69">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
         <v>3</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>0.6499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6447,16 +6447,16 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6464,7 +6464,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6813810</v>
+        <v>6813814</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6473,34 +6473,34 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" t="s">
         <v>48</v>
       </c>
       <c r="J70">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K70">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L70">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="M70">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O70">
         <v>2.2</v>
@@ -6509,19 +6509,19 @@
         <v>0.25</v>
       </c>
       <c r="Q70">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T70">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V70">
         <v>-1</v>
@@ -6536,13 +6536,13 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6550,7 +6550,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6813808</v>
+        <v>6813811</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -6559,16 +6559,16 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
         <v>46</v>
@@ -6583,34 +6583,34 @@
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="N71">
+        <v>4.2</v>
+      </c>
+      <c r="O71">
         <v>3.75</v>
-      </c>
-      <c r="O71">
-        <v>3.6</v>
       </c>
       <c r="P71">
         <v>-0.75</v>
       </c>
       <c r="Q71">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
         <v>3</v>
       </c>
       <c r="T71">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>0.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6619,16 +6619,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6636,7 +6636,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6813814</v>
+        <v>6813810</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -6645,34 +6645,34 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
         <v>48</v>
       </c>
       <c r="J72">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="K72">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L72">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="M72">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N72">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O72">
         <v>2.2</v>
@@ -6681,19 +6681,19 @@
         <v>0.25</v>
       </c>
       <c r="Q72">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T72">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="U72">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
         <v>-1</v>
@@ -6708,13 +6708,13 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6722,7 +6722,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6813809</v>
+        <v>6813812</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6731,49 +6731,49 @@
         <v>45185.375</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" t="s">
         <v>48</v>
       </c>
       <c r="J73">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="K73">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N73">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T73">
         <v>1.9</v>
@@ -6788,13 +6788,13 @@
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
         <v>0.8999999999999999</v>
@@ -6808,7 +6808,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6813812</v>
+        <v>6813809</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6817,49 +6817,49 @@
         <v>45185.375</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I74" t="s">
         <v>48</v>
       </c>
       <c r="J74">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="K74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L74">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O74">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="P74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T74">
         <v>1.9</v>
@@ -6874,13 +6874,13 @@
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
         <v>0.8999999999999999</v>
@@ -7324,7 +7324,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6813817</v>
+        <v>6813818</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7333,58 +7333,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="s">
         <v>46</v>
       </c>
       <c r="J80">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="K80">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="M80">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O80">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="P80">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T80">
         <v>1.9</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7393,16 +7393,16 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7410,7 +7410,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6813818</v>
+        <v>6813817</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7419,58 +7419,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
         <v>46</v>
       </c>
       <c r="J81">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="K81">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L81">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="M81">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O81">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q81">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T81">
         <v>1.9</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7479,16 +7479,16 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7508,7 +7508,7 @@
         <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7680,7 +7680,7 @@
         <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>45192.375</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
         <v>31</v>
@@ -7852,7 +7852,7 @@
         <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7935,7 +7935,7 @@
         <v>45197.54166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
         <v>29</v>
@@ -8012,7 +8012,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6813832</v>
+        <v>6813826</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8021,55 +8021,55 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
         <v>48</v>
       </c>
       <c r="J88">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L88">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="M88">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N88">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O88">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
         <v>-1</v>
@@ -8078,16 +8078,16 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8098,7 +8098,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6813826</v>
+        <v>6813832</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8107,55 +8107,55 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89" t="s">
         <v>48</v>
       </c>
       <c r="J89">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="K89">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L89">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="M89">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N89">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O89">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="P89">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
         <v>-1</v>
@@ -8164,16 +8164,16 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
         <v>-1</v>
@@ -8193,7 +8193,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
         <v>41</v>
@@ -8270,7 +8270,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6813833</v>
+        <v>6813829</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8279,76 +8279,76 @@
         <v>45199.375</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J91">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K91">
         <v>3.6</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="M91">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="N91">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P91">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q91">
+        <v>2.025</v>
+      </c>
+      <c r="R91">
+        <v>1.825</v>
+      </c>
+      <c r="S91">
+        <v>3.25</v>
+      </c>
+      <c r="T91">
+        <v>1.975</v>
+      </c>
+      <c r="U91">
         <v>1.875</v>
       </c>
-      <c r="R91">
-        <v>1.975</v>
-      </c>
-      <c r="S91">
-        <v>3</v>
-      </c>
-      <c r="T91">
-        <v>1.8</v>
-      </c>
-      <c r="U91">
-        <v>2.05</v>
-      </c>
       <c r="V91">
         <v>-1</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X91">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8356,7 +8356,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6813829</v>
+        <v>6813828</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8365,76 +8365,76 @@
         <v>45199.375</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J92">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L92">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="M92">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="P92">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T92">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U92">
+        <v>2.1</v>
+      </c>
+      <c r="V92">
         <v>1.875</v>
       </c>
-      <c r="V92">
-        <v>-1</v>
-      </c>
       <c r="W92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z92">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8442,7 +8442,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6813828</v>
+        <v>6813833</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8451,76 +8451,76 @@
         <v>45199.375</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J93">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="K93">
+        <v>3.6</v>
+      </c>
+      <c r="L93">
         <v>3.5</v>
       </c>
-      <c r="L93">
-        <v>2.4</v>
-      </c>
       <c r="M93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N93">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O93">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
         <v>3</v>
       </c>
       <c r="T93">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U93">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8884,7 +8884,7 @@
         <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -8967,10 +8967,10 @@
         <v>45202.375</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -9056,7 +9056,7 @@
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9225,7 +9225,7 @@
         <v>45202.375</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
         <v>37</v>
@@ -9658,7 +9658,7 @@
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9913,7 +9913,7 @@
         <v>45207.375</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
         <v>41</v>
@@ -9999,7 +9999,7 @@
         <v>45207.375</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
         <v>28</v>
@@ -10260,7 +10260,7 @@
         <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10518,7 +10518,7 @@
         <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10690,7 +10690,7 @@
         <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10776,7 +10776,7 @@
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -10859,7 +10859,7 @@
         <v>45216.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
         <v>28</v>
@@ -11022,7 +11022,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6813863</v>
+        <v>6813867</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11031,58 +11031,58 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123" t="s">
         <v>46</v>
       </c>
       <c r="J123">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M123">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="N123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O123">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P123">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q123">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U123">
         <v>1.825</v>
       </c>
       <c r="V123">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11091,16 +11091,16 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11108,7 +11108,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6813866</v>
+        <v>6813863</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11117,76 +11117,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J124">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="K124">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L124">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="N124">
         <v>3.75</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P124">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q124">
+        <v>1.85</v>
+      </c>
+      <c r="R124">
         <v>1.95</v>
       </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
       <c r="S124">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T124">
+        <v>1.975</v>
+      </c>
+      <c r="U124">
         <v>1.825</v>
       </c>
-      <c r="U124">
-        <v>1.975</v>
-      </c>
       <c r="V124">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11194,7 +11194,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6813867</v>
+        <v>6813866</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11203,76 +11203,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J125">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K125">
         <v>3.6</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M125">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="N125">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q125">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T125">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11280,7 +11280,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6813870</v>
+        <v>6813868</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11289,76 +11289,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J126">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="K126">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L126">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M126">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N126">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O126">
+        <v>1.7</v>
+      </c>
+      <c r="P126">
+        <v>0.75</v>
+      </c>
+      <c r="Q126">
+        <v>1.825</v>
+      </c>
+      <c r="R126">
+        <v>1.975</v>
+      </c>
+      <c r="S126">
+        <v>3.25</v>
+      </c>
+      <c r="T126">
+        <v>1.95</v>
+      </c>
+      <c r="U126">
         <v>1.85</v>
       </c>
-      <c r="P126">
-        <v>0.5</v>
-      </c>
-      <c r="Q126">
-        <v>1.85</v>
-      </c>
-      <c r="R126">
-        <v>1.95</v>
-      </c>
-      <c r="S126">
-        <v>2.75</v>
-      </c>
-      <c r="T126">
-        <v>1.975</v>
-      </c>
-      <c r="U126">
-        <v>1.825</v>
-      </c>
       <c r="V126">
         <v>-1</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>0.825</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.95</v>
-      </c>
-      <c r="AA126">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11366,7 +11366,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6813871</v>
+        <v>6813870</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11375,76 +11375,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="K127">
+        <v>3.75</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>3.3</v>
+      </c>
+      <c r="N127">
         <v>3.6</v>
       </c>
-      <c r="L127">
-        <v>2.3</v>
-      </c>
-      <c r="M127">
-        <v>2.8</v>
-      </c>
-      <c r="N127">
-        <v>3.5</v>
-      </c>
       <c r="O127">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="P127">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q127">
+        <v>1.85</v>
+      </c>
+      <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
+        <v>2.75</v>
+      </c>
+      <c r="T127">
+        <v>1.975</v>
+      </c>
+      <c r="U127">
         <v>1.825</v>
       </c>
-      <c r="R127">
-        <v>1.975</v>
-      </c>
-      <c r="S127">
-        <v>2.5</v>
-      </c>
-      <c r="T127">
-        <v>1.85</v>
-      </c>
-      <c r="U127">
-        <v>1.95</v>
-      </c>
       <c r="V127">
         <v>-1</v>
       </c>
       <c r="W127">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y127">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11452,7 +11452,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6813868</v>
+        <v>6813871</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11461,10 +11461,10 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11476,25 +11476,25 @@
         <v>47</v>
       </c>
       <c r="J128">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="K128">
+        <v>3.6</v>
+      </c>
+      <c r="L128">
+        <v>2.3</v>
+      </c>
+      <c r="M128">
+        <v>2.8</v>
+      </c>
+      <c r="N128">
         <v>3.5</v>
       </c>
-      <c r="L128">
-        <v>2.25</v>
-      </c>
-      <c r="M128">
-        <v>4</v>
-      </c>
-      <c r="N128">
-        <v>3.8</v>
-      </c>
       <c r="O128">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="P128">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q128">
         <v>1.825</v>
@@ -11503,34 +11503,34 @@
         <v>1.975</v>
       </c>
       <c r="S128">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T128">
+        <v>1.85</v>
+      </c>
+      <c r="U128">
         <v>1.95</v>
       </c>
-      <c r="U128">
-        <v>1.85</v>
-      </c>
       <c r="V128">
         <v>-1</v>
       </c>
       <c r="W128">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11550,7 +11550,7 @@
         <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11633,7 +11633,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
         <v>31</v>
@@ -11722,7 +11722,7 @@
         <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11980,7 +11980,7 @@
         <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12238,7 +12238,7 @@
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12407,7 +12407,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
         <v>30</v>
@@ -12493,7 +12493,7 @@
         <v>45227.375</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
         <v>32</v>
@@ -12582,7 +12582,7 @@
         <v>42</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -12840,7 +12840,7 @@
         <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -13012,7 +13012,7 @@
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>4</v>
@@ -13184,7 +13184,7 @@
         <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13525,7 +13525,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
         <v>37</v>
@@ -13697,7 +13697,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
         <v>41</v>
@@ -13783,10 +13783,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13860,7 +13860,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6813900</v>
+        <v>6813898</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13869,76 +13869,76 @@
         <v>45240.625</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>47</v>
+      </c>
+      <c r="J156">
         <v>5</v>
       </c>
-      <c r="H156">
-        <v>4</v>
-      </c>
-      <c r="I156" t="s">
-        <v>46</v>
-      </c>
-      <c r="J156">
-        <v>1.909</v>
-      </c>
       <c r="K156">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L156">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="M156">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N156">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O156">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="P156">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q156">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
         <v>3.5</v>
       </c>
       <c r="T156">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13946,7 +13946,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6813898</v>
+        <v>6813900</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13955,76 +13955,76 @@
         <v>45240.625</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J157">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="K157">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N157">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O157">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="P157">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
         <v>3.5</v>
       </c>
       <c r="T157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14216,7 +14216,7 @@
         <v>43</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14471,10 +14471,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14904,7 +14904,7 @@
         <v>31</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14987,7 +14987,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
         <v>45</v>
@@ -15248,7 +15248,7 @@
         <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15331,7 +15331,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F173" t="s">
         <v>30</v>
@@ -15417,7 +15417,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
         <v>28</v>
@@ -15503,10 +15503,10 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -15580,7 +15580,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7763178</v>
+        <v>7763220</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -15589,40 +15589,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J176">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="K176">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L176">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="M176">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="N176">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O176">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q176">
         <v>1.85</v>
@@ -15634,19 +15634,19 @@
         <v>3</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
         <v>-1</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X176">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -15658,7 +15658,7 @@
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15666,7 +15666,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7763220</v>
+        <v>7763178</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15675,40 +15675,40 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G177">
         <v>0</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J177">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="K177">
+        <v>3.75</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>2.6</v>
+      </c>
+      <c r="N177">
         <v>3.6</v>
       </c>
-      <c r="L177">
-        <v>2.8</v>
-      </c>
-      <c r="M177">
-        <v>1.666</v>
-      </c>
-      <c r="N177">
-        <v>3.8</v>
-      </c>
       <c r="O177">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="P177">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q177">
         <v>1.85</v>
@@ -15720,19 +15720,19 @@
         <v>3</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
         <v>-1</v>
       </c>
       <c r="W177">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y177">
         <v>-1</v>
@@ -15744,7 +15744,7 @@
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15761,7 +15761,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F178" t="s">
         <v>36</v>
@@ -15847,10 +15847,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E179" t="s">
+        <v>40</v>
+      </c>
+      <c r="F179" t="s">
         <v>39</v>
-      </c>
-      <c r="F179" t="s">
-        <v>40</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -16108,7 +16108,7 @@
         <v>44</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16452,7 +16452,7 @@
         <v>31</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16535,10 +16535,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16621,7 +16621,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F188" t="s">
         <v>36</v>
@@ -16698,7 +16698,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6813936</v>
+        <v>6813940</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16707,13 +16707,13 @@
         <v>45359.625</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -16722,43 +16722,43 @@
         <v>46</v>
       </c>
       <c r="J189">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="K189">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L189">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="N189">
         <v>3.8</v>
       </c>
       <c r="O189">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q189">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
         <v>3</v>
       </c>
       <c r="T189">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -16767,16 +16767,16 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16784,7 +16784,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813940</v>
+        <v>6813936</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -16793,13 +16793,13 @@
         <v>45359.625</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -16808,43 +16808,43 @@
         <v>46</v>
       </c>
       <c r="J190">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="K190">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L190">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="M190">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="N190">
         <v>3.8</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="P190">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q190">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
         <v>3</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -16853,16 +16853,16 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="Z190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -17226,7 +17226,7 @@
         <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -17309,7 +17309,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
         <v>29</v>
@@ -17395,7 +17395,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F197" t="s">
         <v>30</v>
@@ -17481,7 +17481,7 @@
         <v>45363.625</v>
       </c>
       <c r="E198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
         <v>32</v>
@@ -18086,7 +18086,7 @@
         <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18169,10 +18169,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G206">
         <v>4</v>
@@ -18255,10 +18255,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18430,7 +18430,7 @@
         <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18513,7 +18513,7 @@
         <v>45373.625</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F210" t="s">
         <v>38</v>
@@ -18946,7 +18946,7 @@
         <v>31</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -19029,7 +19029,7 @@
         <v>45376.625</v>
       </c>
       <c r="E216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F216" t="s">
         <v>28</v>
@@ -19115,7 +19115,7 @@
         <v>45379.625</v>
       </c>
       <c r="E217" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F217" t="s">
         <v>32</v>
@@ -19545,7 +19545,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F222" t="s">
         <v>30</v>
@@ -19717,10 +19717,10 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E224" t="s">
+        <v>33</v>
+      </c>
+      <c r="F224" t="s">
         <v>35</v>
-      </c>
-      <c r="F224" t="s">
-        <v>34</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19806,7 +19806,7 @@
         <v>44</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19978,7 +19978,7 @@
         <v>37</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G227">
         <v>5</v>
@@ -20061,10 +20061,10 @@
         <v>45384.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20138,7 +20138,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6813976</v>
+        <v>6813972</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -20147,10 +20147,10 @@
         <v>45387.58333333334</v>
       </c>
       <c r="E229" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20162,61 +20162,61 @@
         <v>47</v>
       </c>
       <c r="J229">
+        <v>2.3</v>
+      </c>
+      <c r="K229">
+        <v>3.6</v>
+      </c>
+      <c r="L229">
+        <v>2.5</v>
+      </c>
+      <c r="M229">
         <v>1.909</v>
       </c>
-      <c r="K229">
-        <v>4</v>
-      </c>
-      <c r="L229">
-        <v>2.9</v>
-      </c>
-      <c r="M229">
-        <v>2</v>
-      </c>
       <c r="N229">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O229">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P229">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q229">
+        <v>2.025</v>
+      </c>
+      <c r="R229">
         <v>1.825</v>
       </c>
-      <c r="R229">
-        <v>1.975</v>
-      </c>
       <c r="S229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T229">
         <v>1.85</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V229">
         <v>-1</v>
       </c>
       <c r="W229">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20224,7 +20224,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6813972</v>
+        <v>6813976</v>
       </c>
       <c r="C230" t="s">
         <v>27</v>
@@ -20233,10 +20233,10 @@
         <v>45387.58333333334</v>
       </c>
       <c r="E230" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20248,61 +20248,61 @@
         <v>47</v>
       </c>
       <c r="J230">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="K230">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L230">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="M230">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N230">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P230">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q230">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T230">
         <v>1.85</v>
       </c>
       <c r="U230">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
         <v>-1</v>
       </c>
       <c r="W230">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z230">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="231" spans="1:28">
@@ -20405,7 +20405,7 @@
         <v>45388.375</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F232" t="s">
         <v>42</v>
@@ -20491,7 +20491,7 @@
         <v>45388.375</v>
       </c>
       <c r="E233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F233" t="s">
         <v>28</v>
@@ -20654,7 +20654,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6813974</v>
+        <v>6813975</v>
       </c>
       <c r="C235" t="s">
         <v>27</v>
@@ -20663,55 +20663,55 @@
         <v>45388.375</v>
       </c>
       <c r="E235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I235" t="s">
         <v>48</v>
       </c>
       <c r="J235">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="K235">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L235">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="M235">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N235">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O235">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="P235">
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="R235">
         <v>1.975</v>
       </c>
       <c r="S235">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T235">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
         <v>-1</v>
@@ -20720,19 +20720,19 @@
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z235">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -20740,7 +20740,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6813975</v>
+        <v>6813974</v>
       </c>
       <c r="C236" t="s">
         <v>27</v>
@@ -20749,55 +20749,55 @@
         <v>45388.375</v>
       </c>
       <c r="E236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I236" t="s">
         <v>48</v>
       </c>
       <c r="J236">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="K236">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L236">
+        <v>1.727</v>
+      </c>
+      <c r="M236">
+        <v>4.333</v>
+      </c>
+      <c r="N236">
+        <v>4.333</v>
+      </c>
+      <c r="O236">
         <v>1.533</v>
-      </c>
-      <c r="M236">
-        <v>5</v>
-      </c>
-      <c r="N236">
-        <v>3.6</v>
-      </c>
-      <c r="O236">
-        <v>1.571</v>
       </c>
       <c r="P236">
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="R236">
         <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T236">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U236">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V236">
         <v>-1</v>
@@ -20806,19 +20806,19 @@
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20835,7 +20835,7 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F237" t="s">
         <v>36</v>
@@ -21010,7 +21010,7 @@
         <v>41</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -21093,7 +21093,7 @@
         <v>45395.375</v>
       </c>
       <c r="E240" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F240" t="s">
         <v>30</v>
@@ -21268,7 +21268,7 @@
         <v>44</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21523,7 +21523,7 @@
         <v>45398.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F245" t="s">
         <v>29</v>
@@ -21686,7 +21686,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6813990</v>
+        <v>6813989</v>
       </c>
       <c r="C247" t="s">
         <v>27</v>
@@ -21695,76 +21695,76 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J247">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="K247">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="M247">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N247">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O247">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="P247">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q247">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R247">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S247">
         <v>2.75</v>
       </c>
       <c r="T247">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U247">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -21772,7 +21772,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6813989</v>
+        <v>6813990</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -21781,76 +21781,76 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J248">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="K248">
+        <v>4</v>
+      </c>
+      <c r="L248">
+        <v>3</v>
+      </c>
+      <c r="M248">
+        <v>2.375</v>
+      </c>
+      <c r="N248">
         <v>3.75</v>
       </c>
-      <c r="L248">
-        <v>2.2</v>
-      </c>
-      <c r="M248">
-        <v>2.6</v>
-      </c>
-      <c r="N248">
-        <v>3.6</v>
-      </c>
       <c r="O248">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="P248">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q248">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R248">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S248">
         <v>2.75</v>
       </c>
       <c r="T248">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W248">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB248">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21953,10 +21953,10 @@
         <v>45402.375</v>
       </c>
       <c r="E250" t="s">
+        <v>34</v>
+      </c>
+      <c r="F250" t="s">
         <v>33</v>
-      </c>
-      <c r="F250" t="s">
-        <v>35</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -22039,7 +22039,7 @@
         <v>45402.375</v>
       </c>
       <c r="E251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F251" t="s">
         <v>42</v>
@@ -22214,7 +22214,7 @@
         <v>37</v>
       </c>
       <c r="F253" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -22383,7 +22383,7 @@
         <v>45406.58333333334</v>
       </c>
       <c r="E255" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F255" t="s">
         <v>45</v>
@@ -22472,7 +22472,7 @@
         <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22558,7 +22558,7 @@
         <v>28</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G257">
         <v>4</v>
@@ -22899,10 +22899,10 @@
         <v>45409.375</v>
       </c>
       <c r="E261" t="s">
+        <v>39</v>
+      </c>
+      <c r="F261" t="s">
         <v>40</v>
-      </c>
-      <c r="F261" t="s">
-        <v>39</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -23071,7 +23071,7 @@
         <v>45409.375</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F263" t="s">
         <v>29</v>
@@ -23329,7 +23329,7 @@
         <v>45415.5625</v>
       </c>
       <c r="E266" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F266" t="s">
         <v>44</v>
@@ -23415,7 +23415,7 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E267" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F267" t="s">
         <v>43</v>
@@ -23504,7 +23504,7 @@
         <v>45</v>
       </c>
       <c r="F268" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23673,7 +23673,7 @@
         <v>45416.375</v>
       </c>
       <c r="E270" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F270" t="s">
         <v>38</v>
@@ -23759,7 +23759,7 @@
         <v>45416.375</v>
       </c>
       <c r="E271" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F271" t="s">
         <v>32</v>
@@ -24106,7 +24106,7 @@
         <v>28</v>
       </c>
       <c r="F275" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>42</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G276">
         <v>7</v>
@@ -24533,10 +24533,10 @@
         <v>45423.375</v>
       </c>
       <c r="E280" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -24622,7 +24622,7 @@
         <v>36</v>
       </c>
       <c r="F281" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24791,7 +24791,7 @@
         <v>45427.52083333334</v>
       </c>
       <c r="E283" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F283" t="s">
         <v>43</v>
@@ -24877,7 +24877,7 @@
         <v>45429.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F284" t="s">
         <v>41</v>
@@ -25052,7 +25052,7 @@
         <v>31</v>
       </c>
       <c r="F286" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -25307,7 +25307,7 @@
         <v>45430.375</v>
       </c>
       <c r="E289" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F289" t="s">
         <v>44</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -115,13 +115,13 @@
     <t>Schweinfurt 05</t>
   </si>
   <si>
+    <t>Nurnberg II</t>
+  </si>
+  <si>
     <t>Greuther Furth II</t>
   </si>
   <si>
     <t>Turkgucu Munchen</t>
-  </si>
-  <si>
-    <t>Nurnberg II</t>
   </si>
   <si>
     <t>TSV Aubstadt</t>
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6813726</v>
+        <v>6813722</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1058,52 +1058,52 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
         <v>48</v>
       </c>
       <c r="J7">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M7">
+        <v>2.15</v>
+      </c>
+      <c r="N7">
+        <v>3.2</v>
+      </c>
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="N7">
-        <v>3.6</v>
-      </c>
-      <c r="O7">
-        <v>2.05</v>
-      </c>
       <c r="P7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
         <v>-1</v>
@@ -1112,19 +1112,19 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813724</v>
+        <v>6813726</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1144,73 +1144,73 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K8">
+        <v>3.75</v>
+      </c>
+      <c r="L8">
+        <v>2.5</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
         <v>3.6</v>
       </c>
-      <c r="L8">
-        <v>2.4</v>
-      </c>
-      <c r="M8">
-        <v>1.65</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
       <c r="O8">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="P8">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q8">
+        <v>1.975</v>
+      </c>
+      <c r="R8">
         <v>1.825</v>
       </c>
-      <c r="R8">
-        <v>1.975</v>
-      </c>
       <c r="S8">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
         <v>-1</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6813722</v>
+        <v>6813724</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1230,73 +1230,73 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="K9">
         <v>3.6</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="M9">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N9">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
         <v>3.25</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1402,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1660,7 +1660,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>45143.375</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -2250,7 +2250,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6813745</v>
+        <v>6813747</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2259,76 +2259,76 @@
         <v>45143.375</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J21">
+        <v>2.8</v>
+      </c>
+      <c r="K21">
+        <v>3.5</v>
+      </c>
+      <c r="L21">
+        <v>2.1</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3.6</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>1.775</v>
+      </c>
+      <c r="R21">
+        <v>2.1</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
         <v>1.95</v>
-      </c>
-      <c r="K21">
-        <v>3.6</v>
-      </c>
-      <c r="L21">
-        <v>3.1</v>
-      </c>
-      <c r="M21">
-        <v>2.1</v>
-      </c>
-      <c r="N21">
-        <v>3.4</v>
-      </c>
-      <c r="O21">
-        <v>2.875</v>
-      </c>
-      <c r="P21">
-        <v>-0.25</v>
-      </c>
-      <c r="Q21">
-        <v>1.875</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>2.75</v>
-      </c>
-      <c r="T21">
-        <v>1.9</v>
       </c>
       <c r="U21">
         <v>1.9</v>
       </c>
       <c r="V21">
+        <v>-1</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
         <v>1.1</v>
       </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>0.875</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2336,7 +2336,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6813744</v>
+        <v>6813745</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2345,58 +2345,58 @@
         <v>45143.375</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>46</v>
       </c>
       <c r="J22">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="K22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S22">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2405,16 +2405,16 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2422,7 +2422,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6813742</v>
+        <v>6813744</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2431,58 +2431,58 @@
         <v>45143.375</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>46</v>
       </c>
       <c r="J23">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K23">
         <v>3.75</v>
       </c>
       <c r="L23">
+        <v>3.75</v>
+      </c>
+      <c r="M23">
+        <v>1.6</v>
+      </c>
+      <c r="N23">
         <v>4</v>
       </c>
-      <c r="M23">
-        <v>1.7</v>
-      </c>
-      <c r="N23">
-        <v>3.8</v>
-      </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P23">
         <v>-0.75</v>
       </c>
       <c r="Q23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2491,16 +2491,16 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2508,7 +2508,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6813747</v>
+        <v>6813742</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2517,76 +2517,76 @@
         <v>45143.375</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J24">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="K24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L24">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N24">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q24">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R24">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
         <v>3</v>
       </c>
       <c r="T24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>1</v>
       </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>1.1</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2603,7 +2603,7 @@
         <v>45143.4375</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
         <v>38</v>
@@ -2864,7 +2864,7 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3294,7 +3294,7 @@
         <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3549,7 +3549,7 @@
         <v>45157.375</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -3638,7 +3638,7 @@
         <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3721,7 +3721,7 @@
         <v>45157.375</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
@@ -4056,7 +4056,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6813768</v>
+        <v>6813771</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -4065,76 +4065,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="K42">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="M42">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N42">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="P42">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q42">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T42">
+        <v>1.85</v>
+      </c>
+      <c r="U42">
         <v>1.95</v>
       </c>
-      <c r="U42">
-        <v>1.85</v>
-      </c>
       <c r="V42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W42">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4142,7 +4142,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6813771</v>
+        <v>6813768</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4151,76 +4151,76 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="K43">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L43">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N43">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O43">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="P43">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S43">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T43">
+        <v>1.95</v>
+      </c>
+      <c r="U43">
         <v>1.85</v>
       </c>
-      <c r="U43">
-        <v>1.95</v>
-      </c>
       <c r="V43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA43">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4323,7 +4323,7 @@
         <v>45164.375</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
         <v>31</v>
@@ -4409,7 +4409,7 @@
         <v>45167.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
         <v>37</v>
@@ -4667,7 +4667,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
         <v>45</v>
@@ -5002,7 +5002,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6813793</v>
+        <v>6813796</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5011,76 +5011,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53">
         <v>3</v>
       </c>
-      <c r="H53">
-        <v>4</v>
-      </c>
-      <c r="I53" t="s">
-        <v>48</v>
-      </c>
-      <c r="J53">
-        <v>1.727</v>
-      </c>
       <c r="K53">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N53">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O53">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="P53">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q53">
+        <v>1.775</v>
+      </c>
+      <c r="R53">
+        <v>2.025</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
+      </c>
+      <c r="T53">
         <v>1.95</v>
       </c>
-      <c r="R53">
+      <c r="U53">
         <v>1.85</v>
       </c>
-      <c r="S53">
-        <v>2.75</v>
-      </c>
-      <c r="T53">
-        <v>1.875</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
       <c r="V53">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5088,7 +5088,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6813796</v>
+        <v>6813793</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5097,76 +5097,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="K54">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N54">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O54">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="P54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q54">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R54">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T54">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5355,10 +5355,10 @@
         <v>45171.375</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5960,7 +5960,7 @@
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6043,7 +6043,7 @@
         <v>45178.375</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
         <v>45</v>
@@ -6129,7 +6129,7 @@
         <v>45178.375</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
         <v>31</v>
@@ -6301,10 +6301,10 @@
         <v>45184.5</v>
       </c>
       <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
         <v>33</v>
-      </c>
-      <c r="F68" t="s">
-        <v>35</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6648,7 +6648,7 @@
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -7594,7 +7594,7 @@
         <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7763,7 +7763,7 @@
         <v>45192.375</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
         <v>31</v>
@@ -7852,7 +7852,7 @@
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7935,7 +7935,7 @@
         <v>45197.54166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
         <v>29</v>
@@ -8012,7 +8012,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6813826</v>
+        <v>6813827</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8021,49 +8021,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
         <v>1</v>
       </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J88">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L88">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N88">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O88">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="P88">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q88">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
         <v>1.825</v>
@@ -8072,25 +8072,25 @@
         <v>2.025</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8098,7 +8098,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6813827</v>
+        <v>6813826</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8107,49 +8107,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J89">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="P89">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q89">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
         <v>1.825</v>
@@ -8158,25 +8158,25 @@
         <v>2.025</v>
       </c>
       <c r="V89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y89">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8196,7 +8196,7 @@
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8279,7 +8279,7 @@
         <v>45199.375</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
         <v>44</v>
@@ -8786,7 +8786,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6813836</v>
+        <v>6813834</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8795,76 +8795,76 @@
         <v>45202.375</v>
       </c>
       <c r="E97" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J97">
-        <v>2.05</v>
+        <v>4.1</v>
       </c>
       <c r="K97">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L97">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="M97">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O97">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="P97">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q97">
         <v>1.95</v>
       </c>
       <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>3.25</v>
+      </c>
+      <c r="T97">
+        <v>1.95</v>
+      </c>
+      <c r="U97">
         <v>1.75</v>
       </c>
-      <c r="S97">
-        <v>2.75</v>
-      </c>
-      <c r="T97">
-        <v>1.875</v>
-      </c>
-      <c r="U97">
-        <v>1.925</v>
-      </c>
       <c r="V97">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8872,7 +8872,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6813834</v>
+        <v>6813836</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8881,76 +8881,76 @@
         <v>45202.375</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
         <v>0</v>
       </c>
-      <c r="H98">
-        <v>2</v>
-      </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J98">
-        <v>4.1</v>
+        <v>2.05</v>
       </c>
       <c r="K98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L98">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="M98">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O98">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="P98">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S98">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U98">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8958,7 +8958,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6813840</v>
+        <v>6813841</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8967,43 +8967,43 @@
         <v>45202.375</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J99">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="K99">
         <v>3.8</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M99">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N99">
         <v>3.75</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R99">
         <v>1.975</v>
@@ -9012,31 +9012,31 @@
         <v>3</v>
       </c>
       <c r="T99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9044,7 +9044,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6813841</v>
+        <v>6813838</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9053,76 +9053,76 @@
         <v>45202.375</v>
       </c>
       <c r="E100" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J100">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="K100">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L100">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N100">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
         <v>-0.5</v>
       </c>
       <c r="Q100">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
         <v>3</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
         <v>-1</v>
       </c>
       <c r="W100">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9130,7 +9130,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6813835</v>
+        <v>6813840</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9139,76 +9139,76 @@
         <v>45202.375</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
         <v>34</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J101">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O101">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="P101">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
         <v>3</v>
       </c>
       <c r="T101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9216,7 +9216,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813838</v>
+        <v>6813835</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9225,76 +9225,76 @@
         <v>45202.375</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J102">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K102">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="M102">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="P102">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S102">
         <v>3</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X102">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9302,7 +9302,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6813839</v>
+        <v>6814791</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9311,76 +9311,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>48</v>
+      </c>
+      <c r="J103">
+        <v>1.666</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>3.8</v>
+      </c>
+      <c r="M103">
+        <v>1.666</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>3.8</v>
+      </c>
+      <c r="P103">
+        <v>-0.75</v>
+      </c>
+      <c r="Q103">
+        <v>1.9</v>
+      </c>
+      <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
         <v>3</v>
       </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-      <c r="I103" t="s">
-        <v>46</v>
-      </c>
-      <c r="J103">
-        <v>2</v>
-      </c>
-      <c r="K103">
-        <v>3.75</v>
-      </c>
-      <c r="L103">
-        <v>2.875</v>
-      </c>
-      <c r="M103">
-        <v>2.25</v>
-      </c>
-      <c r="N103">
-        <v>3.75</v>
-      </c>
-      <c r="O103">
-        <v>2.55</v>
-      </c>
-      <c r="P103">
-        <v>-0.25</v>
-      </c>
-      <c r="Q103">
-        <v>2.1</v>
-      </c>
-      <c r="R103">
-        <v>1.775</v>
-      </c>
-      <c r="S103">
-        <v>2.75</v>
-      </c>
       <c r="T103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9388,7 +9388,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6814791</v>
+        <v>6813839</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9397,76 +9397,76 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J104">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L104">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="M104">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="P104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q104">
+        <v>2.1</v>
+      </c>
+      <c r="R104">
+        <v>1.775</v>
+      </c>
+      <c r="S104">
+        <v>2.75</v>
+      </c>
+      <c r="T104">
         <v>1.9</v>
       </c>
-      <c r="R104">
+      <c r="U104">
         <v>1.95</v>
       </c>
-      <c r="S104">
-        <v>3</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.85</v>
-      </c>
       <c r="V104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9658,7 +9658,7 @@
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9999,7 +9999,7 @@
         <v>45207.375</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
         <v>28</v>
@@ -10085,7 +10085,7 @@
         <v>45207.375</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
         <v>40</v>
@@ -10260,7 +10260,7 @@
         <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10334,7 +10334,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6813858</v>
+        <v>6813857</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10343,58 +10343,58 @@
         <v>45213.375</v>
       </c>
       <c r="E115" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>2</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>46</v>
       </c>
       <c r="J115">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K115">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P115">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q115">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U115">
         <v>1.825</v>
       </c>
       <c r="V115">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10403,16 +10403,16 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10420,7 +10420,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6813859</v>
+        <v>6813858</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10429,58 +10429,58 @@
         <v>45213.375</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="s">
         <v>46</v>
       </c>
       <c r="J116">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K116">
         <v>3.75</v>
       </c>
       <c r="L116">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="N116">
         <v>4</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q116">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10489,16 +10489,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10506,7 +10506,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6813860</v>
+        <v>6813859</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10515,58 +10515,58 @@
         <v>45213.375</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
         <v>46</v>
       </c>
       <c r="J117">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="K117">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L117">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="M117">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N117">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U117">
         <v>1.875</v>
       </c>
       <c r="V117">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10575,16 +10575,16 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10592,7 +10592,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6813861</v>
+        <v>6813860</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10601,76 +10601,76 @@
         <v>45213.375</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J118">
+        <v>1.25</v>
+      </c>
+      <c r="K118">
         <v>5.5</v>
       </c>
-      <c r="K118">
-        <v>4.5</v>
-      </c>
       <c r="L118">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="M118">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N118">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O118">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q118">
+        <v>1.825</v>
+      </c>
+      <c r="R118">
         <v>2.025</v>
       </c>
-      <c r="R118">
-        <v>1.825</v>
-      </c>
       <c r="S118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10678,7 +10678,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6813862</v>
+        <v>6813861</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10687,25 +10687,25 @@
         <v>45213.375</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I119" t="s">
         <v>48</v>
       </c>
       <c r="J119">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K119">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L119">
         <v>1.4</v>
@@ -10714,29 +10714,29 @@
         <v>5</v>
       </c>
       <c r="N119">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O119">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P119">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>3</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
         <v>1.85</v>
       </c>
-      <c r="S119">
-        <v>2.75</v>
-      </c>
-      <c r="T119">
-        <v>1.825</v>
-      </c>
-      <c r="U119">
-        <v>1.975</v>
-      </c>
       <c r="V119">
         <v>-1</v>
       </c>
@@ -10744,19 +10744,19 @@
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10764,7 +10764,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6813857</v>
+        <v>6813862</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10773,76 +10773,76 @@
         <v>45213.375</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120" t="s">
+        <v>48</v>
+      </c>
+      <c r="J120">
+        <v>6</v>
+      </c>
+      <c r="K120">
+        <v>4.333</v>
+      </c>
+      <c r="L120">
+        <v>1.4</v>
+      </c>
+      <c r="M120">
+        <v>5</v>
+      </c>
+      <c r="N120">
+        <v>4.2</v>
+      </c>
+      <c r="O120">
+        <v>1.5</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>1.95</v>
+      </c>
+      <c r="R120">
+        <v>1.85</v>
+      </c>
+      <c r="S120">
+        <v>2.75</v>
+      </c>
+      <c r="T120">
+        <v>1.825</v>
+      </c>
+      <c r="U120">
+        <v>1.975</v>
+      </c>
+      <c r="V120">
+        <v>-1</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>0.5</v>
+      </c>
+      <c r="Y120">
         <v>0</v>
       </c>
-      <c r="I120" t="s">
-        <v>46</v>
-      </c>
-      <c r="J120">
-        <v>1.333</v>
-      </c>
-      <c r="K120">
-        <v>5</v>
-      </c>
-      <c r="L120">
-        <v>6</v>
-      </c>
-      <c r="M120">
-        <v>1.45</v>
-      </c>
-      <c r="N120">
-        <v>4.75</v>
-      </c>
-      <c r="O120">
-        <v>5</v>
-      </c>
-      <c r="P120">
-        <v>-1.25</v>
-      </c>
-      <c r="Q120">
-        <v>2.025</v>
-      </c>
-      <c r="R120">
-        <v>1.825</v>
-      </c>
-      <c r="S120">
-        <v>3.25</v>
-      </c>
-      <c r="T120">
-        <v>2.025</v>
-      </c>
-      <c r="U120">
-        <v>1.825</v>
-      </c>
-      <c r="V120">
-        <v>0.45</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>1.025</v>
-      </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10859,7 +10859,7 @@
         <v>45216.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
         <v>28</v>
@@ -11108,7 +11108,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6813868</v>
+        <v>6813866</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11117,76 +11117,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="s">
         <v>47</v>
       </c>
       <c r="J124">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="K124">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L124">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N124">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q124">
+        <v>1.95</v>
+      </c>
+      <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>2.75</v>
+      </c>
+      <c r="T124">
         <v>1.825</v>
       </c>
-      <c r="R124">
+      <c r="U124">
         <v>1.975</v>
       </c>
-      <c r="S124">
-        <v>3.25</v>
-      </c>
-      <c r="T124">
-        <v>1.95</v>
-      </c>
-      <c r="U124">
-        <v>1.85</v>
-      </c>
       <c r="V124">
         <v>-1</v>
       </c>
       <c r="W124">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11194,7 +11194,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6813867</v>
+        <v>6813868</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11203,76 +11203,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J125">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="K125">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L125">
+        <v>2.25</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+      <c r="N125">
+        <v>3.8</v>
+      </c>
+      <c r="O125">
+        <v>1.7</v>
+      </c>
+      <c r="P125">
+        <v>0.75</v>
+      </c>
+      <c r="Q125">
+        <v>1.825</v>
+      </c>
+      <c r="R125">
+        <v>1.975</v>
+      </c>
+      <c r="S125">
+        <v>3.25</v>
+      </c>
+      <c r="T125">
+        <v>1.95</v>
+      </c>
+      <c r="U125">
+        <v>1.85</v>
+      </c>
+      <c r="V125">
+        <v>-1</v>
+      </c>
+      <c r="W125">
         <v>2.8</v>
       </c>
-      <c r="M125">
-        <v>1.571</v>
-      </c>
-      <c r="N125">
-        <v>3.6</v>
-      </c>
-      <c r="O125">
-        <v>4.75</v>
-      </c>
-      <c r="P125">
-        <v>-1</v>
-      </c>
-      <c r="Q125">
-        <v>2.05</v>
-      </c>
-      <c r="R125">
-        <v>1.8</v>
-      </c>
-      <c r="S125">
-        <v>3</v>
-      </c>
-      <c r="T125">
-        <v>2.025</v>
-      </c>
-      <c r="U125">
-        <v>1.825</v>
-      </c>
-      <c r="V125">
-        <v>0.571</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11280,7 +11280,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6813866</v>
+        <v>6813867</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11289,76 +11289,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J126">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K126">
         <v>3.6</v>
       </c>
       <c r="L126">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="M126">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="N126">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q126">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T126">
+        <v>2.025</v>
+      </c>
+      <c r="U126">
         <v>1.825</v>
       </c>
-      <c r="U126">
-        <v>1.975</v>
-      </c>
       <c r="V126">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W126">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11366,7 +11366,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6813871</v>
+        <v>6813870</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11375,76 +11375,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="K127">
+        <v>3.75</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>3.3</v>
+      </c>
+      <c r="N127">
         <v>3.6</v>
       </c>
-      <c r="L127">
-        <v>2.3</v>
-      </c>
-      <c r="M127">
-        <v>2.8</v>
-      </c>
-      <c r="N127">
-        <v>3.5</v>
-      </c>
       <c r="O127">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="P127">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q127">
+        <v>1.85</v>
+      </c>
+      <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
+        <v>2.75</v>
+      </c>
+      <c r="T127">
+        <v>1.975</v>
+      </c>
+      <c r="U127">
         <v>1.825</v>
       </c>
-      <c r="R127">
-        <v>1.975</v>
-      </c>
-      <c r="S127">
-        <v>2.5</v>
-      </c>
-      <c r="T127">
-        <v>1.85</v>
-      </c>
-      <c r="U127">
-        <v>1.95</v>
-      </c>
       <c r="V127">
         <v>-1</v>
       </c>
       <c r="W127">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y127">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11452,7 +11452,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6813870</v>
+        <v>6813871</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11461,76 +11461,76 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J128">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="K128">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M128">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N128">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O128">
+        <v>2.15</v>
+      </c>
+      <c r="P128">
+        <v>0.25</v>
+      </c>
+      <c r="Q128">
+        <v>1.825</v>
+      </c>
+      <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
+        <v>2.5</v>
+      </c>
+      <c r="T128">
         <v>1.85</v>
       </c>
-      <c r="P128">
-        <v>0.5</v>
-      </c>
-      <c r="Q128">
-        <v>1.85</v>
-      </c>
-      <c r="R128">
+      <c r="U128">
         <v>1.95</v>
       </c>
-      <c r="S128">
-        <v>2.75</v>
-      </c>
-      <c r="T128">
-        <v>1.975</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
       <c r="V128">
         <v>-1</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z128">
+        <v>-0.5</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
         <v>0.95</v>
-      </c>
-      <c r="AA128">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11538,7 +11538,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6813872</v>
+        <v>6813873</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11547,76 +11547,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129" t="s">
+        <v>48</v>
+      </c>
+      <c r="J129">
         <v>6</v>
       </c>
-      <c r="H129">
+      <c r="K129">
+        <v>4.75</v>
+      </c>
+      <c r="L129">
+        <v>1.363</v>
+      </c>
+      <c r="M129">
+        <v>4.5</v>
+      </c>
+      <c r="N129">
+        <v>4.5</v>
+      </c>
+      <c r="O129">
+        <v>1.5</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>1.975</v>
+      </c>
+      <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
         <v>3</v>
       </c>
-      <c r="I129" t="s">
-        <v>46</v>
-      </c>
-      <c r="J129">
-        <v>1.444</v>
-      </c>
-      <c r="K129">
-        <v>4.333</v>
-      </c>
-      <c r="L129">
-        <v>5.25</v>
-      </c>
-      <c r="M129">
-        <v>1.25</v>
-      </c>
-      <c r="N129">
-        <v>5</v>
-      </c>
-      <c r="O129">
-        <v>8.5</v>
-      </c>
-      <c r="P129">
-        <v>-1.75</v>
-      </c>
-      <c r="Q129">
+      <c r="T129">
         <v>1.825</v>
       </c>
-      <c r="R129">
+      <c r="U129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>3.75</v>
-      </c>
-      <c r="T129">
-        <v>1.875</v>
-      </c>
-      <c r="U129">
-        <v>1.925</v>
-      </c>
       <c r="V129">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
         <v>0.825</v>
       </c>
-      <c r="Z129">
-        <v>-1</v>
-      </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11624,7 +11624,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6813873</v>
+        <v>6813872</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -11633,76 +11633,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J130">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="K130">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="L130">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="M130">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="N130">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O130">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="P130">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="Q130">
+        <v>1.825</v>
+      </c>
+      <c r="R130">
         <v>1.975</v>
       </c>
-      <c r="R130">
-        <v>1.825</v>
-      </c>
       <c r="S130">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11894,7 +11894,7 @@
         <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -12152,7 +12152,7 @@
         <v>44</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12410,7 +12410,7 @@
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6813887</v>
+        <v>6813883</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12493,76 +12493,76 @@
         <v>45227.375</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J140">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="K140">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L140">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="M140">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="N140">
         <v>4</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="P140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S140">
         <v>3</v>
       </c>
       <c r="T140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12570,7 +12570,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6813883</v>
+        <v>6813887</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12579,76 +12579,76 @@
         <v>45227.375</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
         <v>0</v>
       </c>
-      <c r="H141">
-        <v>2</v>
-      </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J141">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="K141">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L141">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="M141">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="N141">
         <v>4</v>
       </c>
       <c r="O141">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="P141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q141">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
         <v>3</v>
       </c>
       <c r="T141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12840,7 +12840,7 @@
         <v>43</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -13172,7 +13172,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6813890</v>
+        <v>6813891</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13181,55 +13181,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>3</v>
-      </c>
-      <c r="H148">
-        <v>4</v>
       </c>
       <c r="I148" t="s">
         <v>48</v>
       </c>
       <c r="J148">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="K148">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="L148">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="M148">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="N148">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O148">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="P148">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S148">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T148">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
         <v>-1</v>
@@ -13238,19 +13238,19 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA148">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13516,7 +13516,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6813891</v>
+        <v>6813890</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13525,55 +13525,55 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I152" t="s">
         <v>48</v>
       </c>
       <c r="J152">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="K152">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L152">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="M152">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="N152">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O152">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T152">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
         <v>-1</v>
@@ -13582,19 +13582,19 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>0.444</v>
+        <v>1.9</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13697,7 +13697,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
         <v>41</v>
@@ -13783,7 +13783,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
         <v>40</v>
@@ -13958,7 +13958,7 @@
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -14032,7 +14032,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6813901</v>
+        <v>6813899</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14041,76 +14041,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G158">
+        <v>4</v>
+      </c>
+      <c r="H158">
         <v>1</v>
       </c>
-      <c r="H158">
-        <v>2</v>
-      </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J158">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="K158">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L158">
+        <v>1.363</v>
+      </c>
+      <c r="M158">
+        <v>3.3</v>
+      </c>
+      <c r="N158">
+        <v>4.2</v>
+      </c>
+      <c r="O158">
         <v>1.75</v>
       </c>
-      <c r="M158">
-        <v>2.75</v>
-      </c>
-      <c r="N158">
-        <v>3.4</v>
-      </c>
-      <c r="O158">
-        <v>2.15</v>
-      </c>
       <c r="P158">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T158">
+        <v>1.925</v>
+      </c>
+      <c r="U158">
         <v>1.875</v>
       </c>
-      <c r="U158">
-        <v>1.975</v>
-      </c>
       <c r="V158">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14118,7 +14118,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6813899</v>
+        <v>6813901</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14127,76 +14127,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159" t="s">
+        <v>48</v>
+      </c>
+      <c r="J159">
+        <v>3.4</v>
+      </c>
+      <c r="K159">
         <v>4</v>
       </c>
-      <c r="H159">
+      <c r="L159">
+        <v>1.75</v>
+      </c>
+      <c r="M159">
+        <v>2.75</v>
+      </c>
+      <c r="N159">
+        <v>3.4</v>
+      </c>
+      <c r="O159">
+        <v>2.15</v>
+      </c>
+      <c r="P159">
+        <v>0.25</v>
+      </c>
+      <c r="Q159">
+        <v>1.85</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>2.75</v>
+      </c>
+      <c r="T159">
+        <v>1.875</v>
+      </c>
+      <c r="U159">
+        <v>1.975</v>
+      </c>
+      <c r="V159">
+        <v>-1</v>
+      </c>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>1.15</v>
+      </c>
+      <c r="Y159">
+        <v>-1</v>
+      </c>
+      <c r="Z159">
         <v>1</v>
       </c>
-      <c r="I159" t="s">
-        <v>46</v>
-      </c>
-      <c r="J159">
-        <v>6</v>
-      </c>
-      <c r="K159">
-        <v>4.75</v>
-      </c>
-      <c r="L159">
-        <v>1.363</v>
-      </c>
-      <c r="M159">
-        <v>3.3</v>
-      </c>
-      <c r="N159">
-        <v>4.2</v>
-      </c>
-      <c r="O159">
-        <v>1.75</v>
-      </c>
-      <c r="P159">
-        <v>0.75</v>
-      </c>
-      <c r="Q159">
-        <v>1.825</v>
-      </c>
-      <c r="R159">
-        <v>1.975</v>
-      </c>
-      <c r="S159">
-        <v>3.25</v>
-      </c>
-      <c r="T159">
-        <v>1.925</v>
-      </c>
-      <c r="U159">
-        <v>1.875</v>
-      </c>
-      <c r="V159">
-        <v>2.3</v>
-      </c>
-      <c r="W159">
-        <v>-1</v>
-      </c>
-      <c r="X159">
-        <v>-1</v>
-      </c>
-      <c r="Y159">
-        <v>0.825</v>
-      </c>
-      <c r="Z159">
-        <v>-1</v>
-      </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14388,7 +14388,7 @@
         <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14901,7 +14901,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
         <v>45</v>
@@ -15162,7 +15162,7 @@
         <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15236,7 +15236,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6813914</v>
+        <v>6813920</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
@@ -15245,76 +15245,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>47</v>
+      </c>
+      <c r="J172">
+        <v>2.15</v>
+      </c>
+      <c r="K172">
+        <v>3.6</v>
+      </c>
+      <c r="L172">
+        <v>2.875</v>
+      </c>
+      <c r="M172">
+        <v>2.375</v>
+      </c>
+      <c r="N172">
+        <v>3.4</v>
+      </c>
+      <c r="O172">
+        <v>2.6</v>
+      </c>
+      <c r="P172">
         <v>0</v>
       </c>
-      <c r="H172">
-        <v>5</v>
-      </c>
-      <c r="I172" t="s">
-        <v>48</v>
-      </c>
-      <c r="J172">
-        <v>5.5</v>
-      </c>
-      <c r="K172">
-        <v>4.5</v>
-      </c>
-      <c r="L172">
-        <v>1.444</v>
-      </c>
-      <c r="M172">
-        <v>4</v>
-      </c>
-      <c r="N172">
-        <v>4</v>
-      </c>
-      <c r="O172">
-        <v>1.666</v>
-      </c>
-      <c r="P172">
-        <v>0.75</v>
-      </c>
       <c r="Q172">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T172">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
         <v>-1</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X172">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z172">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15322,7 +15322,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6813920</v>
+        <v>6813914</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
@@ -15331,76 +15331,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J173">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="K173">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L173">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="M173">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O173">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="P173">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q173">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R173">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T173">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
         <v>-1</v>
       </c>
       <c r="W173">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15506,7 +15506,7 @@
         <v>41</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -15666,7 +15666,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7625941</v>
+        <v>7763178</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15675,10 +15675,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15690,31 +15690,31 @@
         <v>48</v>
       </c>
       <c r="J177">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="K177">
         <v>3.75</v>
       </c>
       <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>2.6</v>
+      </c>
+      <c r="N177">
         <v>3.6</v>
       </c>
-      <c r="M177">
-        <v>4.75</v>
-      </c>
-      <c r="N177">
-        <v>3.75</v>
-      </c>
       <c r="O177">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="P177">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q177">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S177">
         <v>3</v>
@@ -15723,7 +15723,7 @@
         <v>1.975</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
         <v>-1</v>
@@ -15732,19 +15732,19 @@
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>0.6000000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="Y177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15838,7 +15838,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7763178</v>
+        <v>7625941</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15847,10 +15847,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15862,31 +15862,31 @@
         <v>48</v>
       </c>
       <c r="J179">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="K179">
         <v>3.75</v>
       </c>
       <c r="L179">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="M179">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O179">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="P179">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q179">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
         <v>3</v>
@@ -15895,7 +15895,7 @@
         <v>1.975</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
         <v>-1</v>
@@ -15904,19 +15904,19 @@
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>1.15</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z179">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -16182,7 +16182,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6813932</v>
+        <v>6813931</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16191,76 +16191,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
       </c>
       <c r="J183">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="K183">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L183">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="M183">
+        <v>1.95</v>
+      </c>
+      <c r="N183">
+        <v>3.5</v>
+      </c>
+      <c r="O183">
+        <v>3.1</v>
+      </c>
+      <c r="P183">
+        <v>-0.25</v>
+      </c>
+      <c r="Q183">
         <v>1.8</v>
       </c>
-      <c r="N183">
-        <v>3.4</v>
-      </c>
-      <c r="O183">
-        <v>3.6</v>
-      </c>
-      <c r="P183">
-        <v>-0.75</v>
-      </c>
-      <c r="Q183">
-        <v>2.1</v>
-      </c>
       <c r="R183">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S183">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z183">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16268,7 +16268,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6813931</v>
+        <v>6813932</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -16277,76 +16277,76 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
       </c>
       <c r="J184">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="K184">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L184">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="M184">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N184">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O184">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q184">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R184">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S184">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T184">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
         <v>-1</v>
       </c>
       <c r="W184">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16366,7 +16366,7 @@
         <v>31</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16535,7 +16535,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F187" t="s">
         <v>36</v>
@@ -16621,7 +16621,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F188" t="s">
         <v>39</v>
@@ -16698,7 +16698,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6813940</v>
+        <v>6813942</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16707,76 +16707,76 @@
         <v>45359.625</v>
       </c>
       <c r="E189" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J189">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="K189">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L189">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M189">
         <v>1.65</v>
       </c>
       <c r="N189">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
         <v>-0.75</v>
       </c>
       <c r="Q189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16784,7 +16784,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813942</v>
+        <v>6813940</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -16793,76 +16793,76 @@
         <v>45359.625</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G190">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J190">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="K190">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M190">
         <v>1.65</v>
       </c>
       <c r="N190">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P190">
         <v>-0.75</v>
       </c>
       <c r="Q190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W190">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16965,7 +16965,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F192" t="s">
         <v>30</v>
@@ -17140,7 +17140,7 @@
         <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17481,7 +17481,7 @@
         <v>45363.625</v>
       </c>
       <c r="E198" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F198" t="s">
         <v>32</v>
@@ -18160,7 +18160,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6813951</v>
+        <v>6813953</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
@@ -18169,73 +18169,73 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G206">
+        <v>4</v>
+      </c>
+      <c r="H206">
         <v>1</v>
       </c>
-      <c r="H206">
-        <v>3</v>
-      </c>
       <c r="I206" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J206">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="K206">
+        <v>4</v>
+      </c>
+      <c r="L206">
         <v>3.75</v>
       </c>
-      <c r="L206">
-        <v>2.55</v>
-      </c>
       <c r="M206">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="N206">
         <v>4</v>
       </c>
       <c r="O206">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q206">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S206">
         <v>2.75</v>
       </c>
       <c r="T206">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
         <v>0.825</v>
-      </c>
-      <c r="AA206">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AB206">
         <v>-1</v>
@@ -18246,7 +18246,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6813953</v>
+        <v>6813951</v>
       </c>
       <c r="C207" t="s">
         <v>27</v>
@@ -18258,70 +18258,70 @@
         <v>35</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J207">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="K207">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L207">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="M207">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="N207">
         <v>4</v>
       </c>
       <c r="O207">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="P207">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q207">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R207">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
         <v>2.75</v>
       </c>
       <c r="T207">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y207">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB207">
         <v>-1</v>
@@ -18516,7 +18516,7 @@
         <v>45</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18860,7 +18860,7 @@
         <v>31</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -19201,10 +19201,10 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19278,7 +19278,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6813964</v>
+        <v>6813968</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19287,55 +19287,55 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I219" t="s">
         <v>48</v>
       </c>
       <c r="J219">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="K219">
+        <v>3.75</v>
+      </c>
+      <c r="L219">
+        <v>1.909</v>
+      </c>
+      <c r="M219">
+        <v>3.8</v>
+      </c>
+      <c r="N219">
         <v>4</v>
       </c>
-      <c r="L219">
-        <v>4</v>
-      </c>
-      <c r="M219">
-        <v>1.615</v>
-      </c>
-      <c r="N219">
-        <v>3.8</v>
-      </c>
       <c r="O219">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="P219">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q219">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S219">
         <v>2.75</v>
       </c>
       <c r="T219">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U219">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V219">
         <v>-1</v>
@@ -19344,19 +19344,19 @@
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>3.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19364,7 +19364,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6813968</v>
+        <v>6813971</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -19373,73 +19373,73 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J220">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K220">
         <v>3.75</v>
       </c>
       <c r="L220">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M220">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N220">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O220">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="P220">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q220">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R220">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U220">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z220">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB220">
         <v>-1</v>
@@ -19450,7 +19450,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6813971</v>
+        <v>6813969</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -19459,58 +19459,58 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="s">
         <v>46</v>
       </c>
       <c r="J221">
-        <v>2.5</v>
+        <v>1.125</v>
       </c>
       <c r="K221">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="L221">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="M221">
-        <v>2.7</v>
+        <v>1.111</v>
       </c>
       <c r="N221">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="O221">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="P221">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q221">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S221">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T221">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>1.7</v>
+        <v>0.111</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -19519,13 +19519,13 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB221">
         <v>-1</v>
@@ -19536,7 +19536,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6813969</v>
+        <v>6813964</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -19545,76 +19545,76 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222" t="s">
+        <v>48</v>
+      </c>
+      <c r="J222">
+        <v>1.615</v>
+      </c>
+      <c r="K222">
         <v>4</v>
       </c>
-      <c r="H222">
-        <v>0</v>
-      </c>
-      <c r="I222" t="s">
-        <v>46</v>
-      </c>
-      <c r="J222">
-        <v>1.125</v>
-      </c>
-      <c r="K222">
-        <v>8</v>
-      </c>
       <c r="L222">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M222">
-        <v>1.111</v>
+        <v>1.615</v>
       </c>
       <c r="N222">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="O222">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P222">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q222">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S222">
+        <v>2.75</v>
+      </c>
+      <c r="T222">
+        <v>2</v>
+      </c>
+      <c r="U222">
+        <v>1.85</v>
+      </c>
+      <c r="V222">
+        <v>-1</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
         <v>3.5</v>
       </c>
-      <c r="T222">
-        <v>1.9</v>
-      </c>
-      <c r="U222">
-        <v>1.9</v>
-      </c>
-      <c r="V222">
-        <v>0.111</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
       <c r="Y222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -19880,7 +19880,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7763226</v>
+        <v>7625939</v>
       </c>
       <c r="C226" t="s">
         <v>27</v>
@@ -19889,76 +19889,76 @@
         <v>45384.53125</v>
       </c>
       <c r="E226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226" t="s">
+        <v>47</v>
+      </c>
+      <c r="J226">
         <v>5</v>
       </c>
-      <c r="H226">
-        <v>0</v>
-      </c>
-      <c r="I226" t="s">
-        <v>46</v>
-      </c>
-      <c r="J226">
-        <v>1.333</v>
-      </c>
       <c r="K226">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L226">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="M226">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="N226">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O226">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="P226">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q226">
+        <v>2</v>
+      </c>
+      <c r="R226">
+        <v>1.8</v>
+      </c>
+      <c r="S226">
+        <v>2.5</v>
+      </c>
+      <c r="T226">
         <v>1.875</v>
       </c>
-      <c r="R226">
+      <c r="U226">
         <v>1.925</v>
       </c>
-      <c r="S226">
-        <v>2.75</v>
-      </c>
-      <c r="T226">
-        <v>1.85</v>
-      </c>
-      <c r="U226">
-        <v>1.95</v>
-      </c>
       <c r="V226">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -19966,7 +19966,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7625939</v>
+        <v>7763226</v>
       </c>
       <c r="C227" t="s">
         <v>27</v>
@@ -19975,76 +19975,76 @@
         <v>45384.53125</v>
       </c>
       <c r="E227" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J227">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="K227">
+        <v>4.6</v>
+      </c>
+      <c r="L227">
+        <v>7</v>
+      </c>
+      <c r="M227">
+        <v>1.615</v>
+      </c>
+      <c r="N227">
+        <v>3.8</v>
+      </c>
+      <c r="O227">
         <v>4</v>
       </c>
-      <c r="L227">
-        <v>1.5</v>
-      </c>
-      <c r="M227">
-        <v>4.75</v>
-      </c>
-      <c r="N227">
-        <v>3.6</v>
-      </c>
-      <c r="O227">
-        <v>1.571</v>
-      </c>
       <c r="P227">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q227">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S227">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T227">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W227">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20061,7 +20061,7 @@
         <v>45384.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F228" t="s">
         <v>41</v>
@@ -20322,7 +20322,7 @@
         <v>31</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -20482,7 +20482,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6813978</v>
+        <v>6813977</v>
       </c>
       <c r="C233" t="s">
         <v>27</v>
@@ -20491,76 +20491,76 @@
         <v>45388.375</v>
       </c>
       <c r="E233" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J233">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K233">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N233">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O233">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P233">
         <v>-0.5</v>
       </c>
       <c r="Q233">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R233">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T233">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U233">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
         <v>-1</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X233">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20663,7 +20663,7 @@
         <v>45388.375</v>
       </c>
       <c r="E235" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F235" t="s">
         <v>28</v>
@@ -20740,7 +20740,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6813977</v>
+        <v>6813978</v>
       </c>
       <c r="C236" t="s">
         <v>27</v>
@@ -20749,76 +20749,76 @@
         <v>45388.375</v>
       </c>
       <c r="E236" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J236">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K236">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L236">
+        <v>3.4</v>
+      </c>
+      <c r="M236">
+        <v>1.8</v>
+      </c>
+      <c r="N236">
+        <v>4</v>
+      </c>
+      <c r="O236">
         <v>3.3</v>
-      </c>
-      <c r="M236">
-        <v>1.909</v>
-      </c>
-      <c r="N236">
-        <v>3.5</v>
-      </c>
-      <c r="O236">
-        <v>3.25</v>
       </c>
       <c r="P236">
         <v>-0.5</v>
       </c>
       <c r="Q236">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T236">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U236">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
         <v>-1</v>
       </c>
       <c r="W236">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -21084,7 +21084,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6813984</v>
+        <v>6813983</v>
       </c>
       <c r="C240" t="s">
         <v>27</v>
@@ -21093,76 +21093,76 @@
         <v>45395.375</v>
       </c>
       <c r="E240" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G240">
+        <v>3</v>
+      </c>
+      <c r="H240">
         <v>0</v>
       </c>
-      <c r="H240">
-        <v>2</v>
-      </c>
       <c r="I240" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J240">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="K240">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L240">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="M240">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="N240">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O240">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="P240">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q240">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R240">
         <v>1.975</v>
       </c>
       <c r="S240">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T240">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V240">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z240">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="241" spans="1:28">
@@ -21170,7 +21170,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6813983</v>
+        <v>6813984</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
@@ -21179,76 +21179,76 @@
         <v>45395.375</v>
       </c>
       <c r="E241" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G241">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J241">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="K241">
+        <v>3.75</v>
+      </c>
+      <c r="L241">
+        <v>2.625</v>
+      </c>
+      <c r="M241">
+        <v>2.75</v>
+      </c>
+      <c r="N241">
         <v>3.5</v>
       </c>
-      <c r="L241">
-        <v>4</v>
-      </c>
-      <c r="M241">
-        <v>1.615</v>
-      </c>
-      <c r="N241">
-        <v>3.8</v>
-      </c>
       <c r="O241">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="P241">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q241">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R241">
         <v>1.975</v>
       </c>
       <c r="S241">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T241">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U241">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA241">
+        <v>-1</v>
+      </c>
+      <c r="AB241">
         <v>0.825</v>
-      </c>
-      <c r="Z241">
-        <v>-1</v>
-      </c>
-      <c r="AA241">
-        <v>-0.5</v>
-      </c>
-      <c r="AB241">
-        <v>0.4</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -21354,7 +21354,7 @@
         <v>44</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -21437,7 +21437,7 @@
         <v>45395.375</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F244" t="s">
         <v>30</v>
@@ -21523,7 +21523,7 @@
         <v>45398.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F245" t="s">
         <v>29</v>
@@ -22039,7 +22039,7 @@
         <v>45402.375</v>
       </c>
       <c r="E251" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F251" t="s">
         <v>43</v>
@@ -22297,10 +22297,10 @@
         <v>45402.375</v>
       </c>
       <c r="E254" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22472,7 +22472,7 @@
         <v>28</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G256">
         <v>4</v>
@@ -22644,7 +22644,7 @@
         <v>40</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22899,7 +22899,7 @@
         <v>45409.375</v>
       </c>
       <c r="E261" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F261" t="s">
         <v>29</v>
@@ -23329,7 +23329,7 @@
         <v>45415.5625</v>
       </c>
       <c r="E266" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F266" t="s">
         <v>44</v>
@@ -23406,7 +23406,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6990098</v>
+        <v>6990099</v>
       </c>
       <c r="C267" t="s">
         <v>27</v>
@@ -23415,76 +23415,76 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E267" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F267" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="s">
         <v>47</v>
       </c>
       <c r="J267">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="K267">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L267">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M267">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N267">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O267">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="P267">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q267">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R267">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S267">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T267">
         <v>1.925</v>
       </c>
       <c r="U267">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
         <v>-1</v>
       </c>
       <c r="W267">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:28">
@@ -23492,7 +23492,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6990099</v>
+        <v>6990098</v>
       </c>
       <c r="C268" t="s">
         <v>27</v>
@@ -23501,76 +23501,76 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E268" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F268" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="s">
         <v>47</v>
       </c>
       <c r="J268">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="K268">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L268">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="M268">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N268">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O268">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="P268">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q268">
+        <v>1.825</v>
+      </c>
+      <c r="R268">
         <v>1.975</v>
       </c>
-      <c r="R268">
-        <v>1.875</v>
-      </c>
       <c r="S268">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T268">
         <v>1.925</v>
       </c>
       <c r="U268">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V268">
         <v>-1</v>
       </c>
       <c r="W268">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -23587,7 +23587,7 @@
         <v>45416.375</v>
       </c>
       <c r="E269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F269" t="s">
         <v>38</v>
@@ -23759,7 +23759,7 @@
         <v>45416.375</v>
       </c>
       <c r="E271" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F271" t="s">
         <v>32</v>
@@ -24106,7 +24106,7 @@
         <v>28</v>
       </c>
       <c r="F275" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>45423.375</v>
       </c>
       <c r="E276" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F276" t="s">
         <v>41</v>
@@ -24364,7 +24364,7 @@
         <v>43</v>
       </c>
       <c r="F278" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G278">
         <v>7</v>
@@ -24791,7 +24791,7 @@
         <v>45427.52083333334</v>
       </c>
       <c r="E283" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F283" t="s">
         <v>42</v>
@@ -24877,7 +24877,7 @@
         <v>45429.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F284" t="s">
         <v>40</v>
@@ -25307,7 +25307,7 @@
         <v>45430.375</v>
       </c>
       <c r="E289" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F289" t="s">
         <v>44</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -121,10 +121,10 @@
     <t>Greuther Furth II</t>
   </si>
   <si>
-    <t>Nurnberg II</t>
+    <t>Turkgucu Munchen</t>
   </si>
   <si>
-    <t>Turkgucu Munchen</t>
+    <t>Nurnberg II</t>
   </si>
   <si>
     <t>Schweinfurt 05</t>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6813722</v>
+        <v>6813724</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1100,79 +1100,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="M7">
         <v>3.6</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="P7">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U7">
         <v>3.25</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813724</v>
+        <v>6813722</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1192,79 +1192,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="M8">
         <v>3.6</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U8">
         <v>3.25</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1560,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2100,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6813746</v>
+        <v>6814788</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2109,13 +2109,13 @@
         <v>45142.58333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2124,67 +2124,67 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O18">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="P18">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S18">
+        <v>1.975</v>
+      </c>
+      <c r="T18">
         <v>1.875</v>
-      </c>
-      <c r="T18">
-        <v>1.925</v>
       </c>
       <c r="U18">
         <v>3</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2192,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6814788</v>
+        <v>6813746</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2201,13 +2201,13 @@
         <v>45142.58333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2216,67 +2216,67 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L19">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="R19">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U19">
         <v>3</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X19">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6813744</v>
+        <v>6813745</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2477,64 +2477,64 @@
         <v>45143.375</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
         <v>48</v>
       </c>
       <c r="L22">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="M22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N22">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O22">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="R22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U22">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X22">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
@@ -2543,16 +2543,16 @@
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6813742</v>
+        <v>6813744</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2569,64 +2569,64 @@
         <v>45143.375</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>48</v>
       </c>
       <c r="L23">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="M23">
         <v>3.75</v>
       </c>
       <c r="N23">
+        <v>3.75</v>
+      </c>
+      <c r="O23">
+        <v>1.6</v>
+      </c>
+      <c r="P23">
         <v>4</v>
       </c>
-      <c r="O23">
-        <v>1.7</v>
-      </c>
-      <c r="P23">
-        <v>3.8</v>
-      </c>
       <c r="Q23">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="R23">
         <v>-0.75</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X23">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y23">
         <v>-1</v>
@@ -2635,16 +2635,16 @@
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2652,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6813745</v>
+        <v>6813742</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2661,10 +2661,10 @@
         <v>45143.375</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2682,43 +2682,43 @@
         <v>48</v>
       </c>
       <c r="L24">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N24">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q24">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="R24">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S24">
+        <v>1.975</v>
+      </c>
+      <c r="T24">
         <v>1.875</v>
       </c>
-      <c r="T24">
-        <v>1.925</v>
-      </c>
       <c r="U24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X24">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2727,13 +2727,13 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <v>-1</v>
@@ -2753,7 +2753,7 @@
         <v>45143.4375</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -3032,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3308,7 +3308,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3756,7 +3756,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6813760</v>
+        <v>6813759</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3765,82 +3765,82 @@
         <v>45157.375</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N36">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O36">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="P36">
         <v>3.8</v>
       </c>
       <c r="Q36">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="R36">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3940,7 +3940,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6813759</v>
+        <v>6813760</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3949,82 +3949,82 @@
         <v>45157.375</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38">
+        <v>1.85</v>
+      </c>
+      <c r="M38">
         <v>4</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38">
-        <v>2</v>
-      </c>
-      <c r="M38">
-        <v>3.75</v>
-      </c>
       <c r="N38">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O38">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="P38">
         <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R38">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
+        <v>1.875</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>1.825</v>
+      </c>
+      <c r="W38">
         <v>1.975</v>
       </c>
-      <c r="T38">
-        <v>1.825</v>
-      </c>
-      <c r="U38">
-        <v>3.25</v>
-      </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
-      <c r="W38">
-        <v>1.75</v>
-      </c>
       <c r="X38">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>0.875</v>
+      </c>
+      <c r="AC38">
+        <v>-1</v>
+      </c>
+      <c r="AD38">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.95</v>
-      </c>
-      <c r="AD38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4041,7 +4041,7 @@
         <v>45157.375</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
         <v>39</v>
@@ -4216,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6813767</v>
+        <v>6813768</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4225,82 +4225,82 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L41">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N41">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="O41">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q41">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="R41">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S41">
         <v>1.925</v>
       </c>
       <c r="T41">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U41">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V41">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="X41">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC41">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AD41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6813768</v>
+        <v>6813767</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4317,82 +4317,82 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L42">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="M42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="O42">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="R42">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S42">
         <v>1.925</v>
       </c>
       <c r="T42">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="W42">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y42">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AD42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4504,7 +4504,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4685,7 +4685,7 @@
         <v>45167.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5053,7 +5053,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
         <v>47</v>
@@ -5424,7 +5424,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5792,7 +5792,7 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -6433,7 +6433,7 @@
         <v>45178.375</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
@@ -6525,7 +6525,7 @@
         <v>45178.375</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
         <v>33</v>
@@ -6712,7 +6712,7 @@
         <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6804,7 +6804,7 @@
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>45192.375</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
         <v>33</v>
@@ -8368,7 +8368,7 @@
         <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>45197.54166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
         <v>31</v>
@@ -8644,7 +8644,7 @@
         <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -9653,10 +9653,10 @@
         <v>45202.375</v>
       </c>
       <c r="E100" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100" t="s">
         <v>35</v>
-      </c>
-      <c r="F100" t="s">
-        <v>36</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -10208,7 +10208,7 @@
         <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -10665,7 +10665,7 @@
         <v>45207.375</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
         <v>30</v>
@@ -11036,7 +11036,7 @@
         <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -11128,7 +11128,7 @@
         <v>46</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -11585,7 +11585,7 @@
         <v>45216.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
@@ -11953,7 +11953,7 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
         <v>45</v>
@@ -12416,7 +12416,7 @@
         <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -12876,7 +12876,7 @@
         <v>46</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -13060,7 +13060,7 @@
         <v>42</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -13428,7 +13428,7 @@
         <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -14621,7 +14621,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
         <v>40</v>
@@ -14713,7 +14713,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
         <v>41</v>
@@ -14900,7 +14900,7 @@
         <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -15360,7 +15360,7 @@
         <v>44</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -16280,7 +16280,7 @@
         <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -16645,7 +16645,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
         <v>38</v>
@@ -16820,7 +16820,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7763220</v>
+        <v>7395938</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16829,16 +16829,16 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16847,34 +16847,34 @@
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L178">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M178">
+        <v>4</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178">
+        <v>2.45</v>
+      </c>
+      <c r="P178">
         <v>3.6</v>
       </c>
-      <c r="N178">
-        <v>2.8</v>
-      </c>
-      <c r="O178">
-        <v>1.666</v>
-      </c>
-      <c r="P178">
-        <v>3.8</v>
-      </c>
       <c r="Q178">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="R178">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U178">
         <v>3</v>
@@ -16883,28 +16883,28 @@
         <v>2</v>
       </c>
       <c r="W178">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
         <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -16912,7 +16912,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7395938</v>
+        <v>7763220</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16921,16 +16921,16 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16939,34 +16939,34 @@
         <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L179">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M179">
+        <v>3.6</v>
+      </c>
+      <c r="N179">
+        <v>2.8</v>
+      </c>
+      <c r="O179">
+        <v>1.666</v>
+      </c>
+      <c r="P179">
+        <v>3.8</v>
+      </c>
+      <c r="Q179">
         <v>4</v>
       </c>
-      <c r="N179">
-        <v>2</v>
-      </c>
-      <c r="O179">
-        <v>2.45</v>
-      </c>
-      <c r="P179">
-        <v>3.6</v>
-      </c>
-      <c r="Q179">
-        <v>2.3</v>
-      </c>
       <c r="R179">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U179">
         <v>3</v>
@@ -16975,28 +16975,28 @@
         <v>2</v>
       </c>
       <c r="W179">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z179">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC179">
         <v>-1</v>
       </c>
       <c r="AD179">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -17648,7 +17648,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6813935</v>
+        <v>6813925</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17660,13 +17660,13 @@
         <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G187">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17675,64 +17675,64 @@
         <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L187">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M187">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N187">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q187">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="R187">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U187">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V187">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z187">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
+        <v>0.4125</v>
+      </c>
+      <c r="AB187">
         <v>-0.5</v>
       </c>
-      <c r="AB187">
-        <v>0.425</v>
-      </c>
       <c r="AC187">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17740,7 +17740,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6813925</v>
+        <v>6813935</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17752,13 +17752,13 @@
         <v>35</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G188">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17767,64 +17767,64 @@
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L188">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M188">
+        <v>3.5</v>
+      </c>
+      <c r="N188">
+        <v>2.625</v>
+      </c>
+      <c r="O188">
+        <v>4.333</v>
+      </c>
+      <c r="P188">
         <v>3.75</v>
       </c>
-      <c r="N188">
-        <v>2.1</v>
-      </c>
-      <c r="O188">
-        <v>2.75</v>
-      </c>
-      <c r="P188">
-        <v>3.4</v>
-      </c>
       <c r="Q188">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="R188">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S188">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U188">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA188">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -17924,7 +17924,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813936</v>
+        <v>6813940</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17933,19 +17933,19 @@
         <v>45359.625</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -17954,43 +17954,43 @@
         <v>48</v>
       </c>
       <c r="L190">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N190">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O190">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="P190">
         <v>3.8</v>
       </c>
       <c r="Q190">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="R190">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U190">
         <v>3</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X190">
-        <v>1.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y190">
         <v>-1</v>
@@ -17999,16 +17999,16 @@
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC190">
         <v>-1</v>
       </c>
       <c r="AD190">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18016,7 +18016,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6813940</v>
+        <v>6813936</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18025,19 +18025,19 @@
         <v>45359.625</v>
       </c>
       <c r="E191" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -18046,43 +18046,43 @@
         <v>48</v>
       </c>
       <c r="L191">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="M191">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O191">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="P191">
         <v>3.8</v>
       </c>
       <c r="Q191">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="R191">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U191">
         <v>3</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X191">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="Y191">
         <v>-1</v>
@@ -18091,16 +18091,16 @@
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB191">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
         <v>-1</v>
       </c>
       <c r="AD191">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18212,7 +18212,7 @@
         <v>39</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -18660,7 +18660,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7763221</v>
+        <v>7763101</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18669,64 +18669,64 @@
         <v>45363.625</v>
       </c>
       <c r="E198" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <v>2</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
         <v>1</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198" t="s">
         <v>48</v>
       </c>
       <c r="L198">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M198">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N198">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O198">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="P198">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q198">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="R198">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S198">
+        <v>1.9</v>
+      </c>
+      <c r="T198">
+        <v>1.9</v>
+      </c>
+      <c r="U198">
+        <v>3.25</v>
+      </c>
+      <c r="V198">
         <v>1.825</v>
       </c>
-      <c r="T198">
+      <c r="W198">
         <v>1.975</v>
       </c>
-      <c r="U198">
-        <v>2.75</v>
-      </c>
-      <c r="V198">
-        <v>1.8</v>
-      </c>
-      <c r="W198">
-        <v>2</v>
-      </c>
       <c r="X198">
-        <v>0.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18735,16 +18735,16 @@
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD198">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18752,7 +18752,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7763101</v>
+        <v>7763221</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18761,64 +18761,64 @@
         <v>45363.625</v>
       </c>
       <c r="E199" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G199">
         <v>2</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
       <c r="J199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K199" t="s">
         <v>48</v>
       </c>
       <c r="L199">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M199">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N199">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O199">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="P199">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q199">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="R199">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U199">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W199">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X199">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18827,16 +18827,16 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB199">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD199">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -19405,7 +19405,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F206" t="s">
         <v>34</v>
@@ -19497,7 +19497,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
         <v>43</v>
@@ -19776,7 +19776,7 @@
         <v>47</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -19856,7 +19856,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6813960</v>
+        <v>6813961</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19865,62 +19865,62 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211" t="s">
         <v>50</v>
       </c>
       <c r="L211">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M211">
         <v>4</v>
       </c>
       <c r="N211">
+        <v>3.1</v>
+      </c>
+      <c r="O211">
+        <v>1.8</v>
+      </c>
+      <c r="P211">
+        <v>4</v>
+      </c>
+      <c r="Q211">
+        <v>3.4</v>
+      </c>
+      <c r="R211">
+        <v>-0.5</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
         <v>2.75</v>
       </c>
-      <c r="O211">
-        <v>1.95</v>
-      </c>
-      <c r="P211">
-        <v>3.4</v>
-      </c>
-      <c r="Q211">
-        <v>3.1</v>
-      </c>
-      <c r="R211">
-        <v>-0.25</v>
-      </c>
-      <c r="S211">
+      <c r="V211">
         <v>1.8</v>
       </c>
-      <c r="T211">
+      <c r="W211">
         <v>2.05</v>
       </c>
-      <c r="U211">
-        <v>2.5</v>
-      </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
-      <c r="W211">
-        <v>1.875</v>
-      </c>
       <c r="X211">
         <v>-1</v>
       </c>
@@ -19928,19 +19928,19 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD211">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -19948,7 +19948,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6813961</v>
+        <v>6813960</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19957,61 +19957,61 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K212" t="s">
         <v>50</v>
       </c>
       <c r="L212">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="M212">
         <v>4</v>
       </c>
       <c r="N212">
+        <v>2.75</v>
+      </c>
+      <c r="O212">
+        <v>1.95</v>
+      </c>
+      <c r="P212">
+        <v>3.4</v>
+      </c>
+      <c r="Q212">
         <v>3.1</v>
       </c>
-      <c r="O212">
+      <c r="R212">
+        <v>-0.25</v>
+      </c>
+      <c r="S212">
         <v>1.8</v>
       </c>
-      <c r="P212">
-        <v>4</v>
-      </c>
-      <c r="Q212">
-        <v>3.4</v>
-      </c>
-      <c r="R212">
-        <v>-0.5</v>
-      </c>
-      <c r="S212">
-        <v>1.85</v>
-      </c>
       <c r="T212">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -20020,19 +20020,19 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC212">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD212">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20040,7 +20040,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6813955</v>
+        <v>6813958</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20049,82 +20049,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J213">
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L213">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N213">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="O213">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P213">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q213">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="R213">
         <v>-0.25</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="U213">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC213">
         <v>-1</v>
       </c>
       <c r="AD213">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20132,7 +20132,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6813958</v>
+        <v>6813955</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20141,82 +20141,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L214">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="M214">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O214">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P214">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q214">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="R214">
         <v>-0.25</v>
       </c>
       <c r="S214">
+        <v>1.825</v>
+      </c>
+      <c r="T214">
         <v>2.025</v>
       </c>
-      <c r="T214">
-        <v>1.775</v>
-      </c>
       <c r="U214">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W214">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
         <v>-1</v>
       </c>
       <c r="AD214">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -21061,7 +21061,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
         <v>32</v>
@@ -21153,7 +21153,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
         <v>34</v>
@@ -21340,7 +21340,7 @@
         <v>39</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G227">
         <v>5</v>
@@ -21429,7 +21429,7 @@
         <v>45384.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F228" t="s">
         <v>41</v>
@@ -22168,7 +22168,7 @@
         <v>33</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -22533,7 +22533,7 @@
         <v>45395.375</v>
       </c>
       <c r="E240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F240" t="s">
         <v>32</v>
@@ -23821,10 +23821,10 @@
         <v>45402.375</v>
       </c>
       <c r="E254" t="s">
+        <v>35</v>
+      </c>
+      <c r="F254" t="s">
         <v>36</v>
-      </c>
-      <c r="F254" t="s">
-        <v>35</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>30</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G258">
         <v>4</v>
@@ -24649,7 +24649,7 @@
         <v>45409.375</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F263" t="s">
         <v>31</v>
@@ -24925,7 +24925,7 @@
         <v>45415.5625</v>
       </c>
       <c r="E266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F266" t="s">
         <v>46</v>
@@ -25385,7 +25385,7 @@
         <v>45416.375</v>
       </c>
       <c r="E271" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F271" t="s">
         <v>37</v>
@@ -25664,7 +25664,7 @@
         <v>30</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>45</v>
       </c>
       <c r="F278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G278">
         <v>7</v>
@@ -26581,7 +26581,7 @@
         <v>45429.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F284" t="s">
         <v>40</v>
@@ -27041,7 +27041,7 @@
         <v>45430.375</v>
       </c>
       <c r="E289" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F289" t="s">
         <v>46</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -121,10 +121,10 @@
     <t>Turkgucu Munchen</t>
   </si>
   <si>
-    <t>Greuther Furth II</t>
+    <t>Nurnberg II</t>
   </si>
   <si>
-    <t>Nurnberg II</t>
+    <t>Greuther Furth II</t>
   </si>
   <si>
     <t>Schweinfurt 05</t>
@@ -136,10 +136,10 @@
     <t>Ansbach</t>
   </si>
   <si>
-    <t>Bayern Munich II</t>
+    <t>Memmingen</t>
   </si>
   <si>
-    <t>Memmingen</t>
+    <t>Bayern Munich II</t>
   </si>
   <si>
     <t>Augsburg II</t>
@@ -148,10 +148,10 @@
     <t>Viktoria Aschaffenburg</t>
   </si>
   <si>
-    <t>FV Illertissen</t>
+    <t>DJK Vilzing</t>
   </si>
   <si>
-    <t>DJK Vilzing</t>
+    <t>FV Illertissen</t>
   </si>
   <si>
     <t>SV SchaldingHeining</t>
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -916,7 +916,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6813726</v>
+        <v>6813722</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1100,58 +1100,58 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
         <v>50</v>
       </c>
       <c r="L7">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="M7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="O7">
+        <v>2.15</v>
+      </c>
+      <c r="P7">
+        <v>3.2</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="P7">
-        <v>3.6</v>
-      </c>
-      <c r="Q7">
-        <v>2.05</v>
-      </c>
       <c r="R7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1160,19 +1160,19 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813722</v>
+        <v>6813726</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1192,58 +1192,58 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>50</v>
       </c>
       <c r="L8">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="M8">
+        <v>3.75</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
         <v>3.6</v>
       </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>2.15</v>
-      </c>
-      <c r="P8">
-        <v>3.2</v>
-      </c>
       <c r="Q8">
+        <v>2.05</v>
+      </c>
+      <c r="R8">
+        <v>0.25</v>
+      </c>
+      <c r="S8">
+        <v>1.975</v>
+      </c>
+      <c r="T8">
+        <v>1.825</v>
+      </c>
+      <c r="U8">
         <v>3</v>
       </c>
-      <c r="R8">
-        <v>-0.25</v>
-      </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
-      <c r="T8">
-        <v>1.9</v>
-      </c>
-      <c r="U8">
-        <v>3.25</v>
-      </c>
       <c r="V8">
         <v>2</v>
       </c>
       <c r="W8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1252,19 +1252,19 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1468,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6813734</v>
+        <v>6813735</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1560,55 +1560,55 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
         <v>50</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N12">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O12">
         <v>2.05</v>
       </c>
       <c r="P12">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="R12">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S12">
-        <v>2.15</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
         <v>1.875</v>
@@ -1620,19 +1620,19 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6813735</v>
+        <v>6813734</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1652,55 +1652,55 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>50</v>
       </c>
       <c r="L13">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="O13">
         <v>2.05</v>
       </c>
       <c r="P13">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q13">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="R13">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>2.15</v>
       </c>
       <c r="T13">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="U13">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>1.875</v>
@@ -1712,19 +1712,19 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD13">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1916,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6813733</v>
+        <v>6813740</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1928,7 +1928,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1946,61 +1946,61 @@
         <v>48</v>
       </c>
       <c r="L16">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q16">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>1.925</v>
+      </c>
+      <c r="U16">
+        <v>2.75</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>2.05</v>
+      </c>
+      <c r="X16">
+        <v>1.45</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.925</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
+        <v>0.4</v>
+      </c>
+      <c r="AD16">
         <v>-0.5</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>1.85</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
-      <c r="W16">
-        <v>1.9</v>
-      </c>
-      <c r="X16">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2008,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6813740</v>
+        <v>6813733</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2020,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2038,43 +2038,43 @@
         <v>48</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="P17">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X17">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2083,16 +2083,16 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2112,7 +2112,7 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2296,7 +2296,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2477,7 +2477,7 @@
         <v>45143.375</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -2664,7 +2664,7 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2753,7 +2753,7 @@
         <v>45143.4375</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2848,7 +2848,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>45147.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
@@ -3121,7 +3121,7 @@
         <v>45149.5625</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
@@ -3305,7 +3305,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
         <v>46</v>
@@ -3400,7 +3400,7 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3756,7 +3756,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6813763</v>
+        <v>6813760</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3765,82 +3765,82 @@
         <v>45157.375</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L36">
+        <v>1.85</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
         <v>3.1</v>
       </c>
-      <c r="M36">
-        <v>3.75</v>
-      </c>
-      <c r="N36">
-        <v>1.909</v>
-      </c>
       <c r="O36">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="P36">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q36">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="R36">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
         <v>-1</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3848,7 +3848,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6813762</v>
+        <v>6813759</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3857,64 +3857,64 @@
         <v>45157.375</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>4</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>3</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
         <v>48</v>
       </c>
       <c r="L37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <v>3.75</v>
       </c>
       <c r="N37">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O37">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="P37">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q37">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="R37">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U37">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="X37">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3923,13 +3923,13 @@
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD37">
         <v>-1</v>
@@ -3940,7 +3940,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6813760</v>
+        <v>6813763</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3949,82 +3949,82 @@
         <v>45157.375</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L38">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q38">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="R38">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
         <v>-1</v>
       </c>
       <c r="AD38">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4032,7 +4032,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6813759</v>
+        <v>6813762</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4041,64 +4041,64 @@
         <v>45157.375</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>3</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
         <v>48</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M39">
         <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O39">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="P39">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="R39">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="X39">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -4107,13 +4107,13 @@
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD39">
         <v>-1</v>
@@ -4228,7 +4228,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
         <v>46</v>
@@ -4501,7 +4501,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
@@ -4593,7 +4593,7 @@
         <v>45164.375</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
         <v>33</v>
@@ -4685,7 +4685,7 @@
         <v>45167.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4860,7 +4860,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6813789</v>
+        <v>6813786</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4869,82 +4869,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L48">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="N48">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="O48">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="P48">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q48">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y48">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -4952,7 +4952,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6813779</v>
+        <v>6813788</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4961,82 +4961,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L49">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="M49">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N49">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O49">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="P49">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q49">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="R49">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
+        <v>2.05</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
         <v>1.85</v>
       </c>
-      <c r="U49">
-        <v>3.25</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD49">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6813786</v>
+        <v>6813789</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5053,82 +5053,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L50">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="M50">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="N50">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="O50">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="P50">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q50">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="R50">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
+        <v>1.875</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
         <v>1.95</v>
       </c>
-      <c r="T50">
-        <v>1.85</v>
-      </c>
-      <c r="U50">
-        <v>2.75</v>
-      </c>
-      <c r="V50">
-        <v>1.825</v>
-      </c>
       <c r="W50">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="X50">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5136,7 +5136,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6813788</v>
+        <v>6813779</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5145,82 +5145,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L51">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O51">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q51">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="R51">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U51">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD51">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5237,10 +5237,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
         <v>44</v>
-      </c>
-      <c r="F52" t="s">
-        <v>45</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -5332,7 +5332,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5513,10 +5513,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s">
         <v>40</v>
-      </c>
-      <c r="F55" t="s">
-        <v>41</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5881,7 +5881,7 @@
         <v>45171.375</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
@@ -5973,7 +5973,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
         <v>38</v>
@@ -6157,10 +6157,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6433,7 +6433,7 @@
         <v>45178.375</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
@@ -6528,7 +6528,7 @@
         <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6709,10 +6709,10 @@
         <v>45184.5</v>
       </c>
       <c r="E68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
         <v>35</v>
-      </c>
-      <c r="F68" t="s">
-        <v>36</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -7077,7 +7077,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -7172,7 +7172,7 @@
         <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7264,7 +7264,7 @@
         <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7908,7 +7908,7 @@
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7988,7 +7988,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6813817</v>
+        <v>6813818</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -8000,16 +8000,16 @@
         <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -8018,43 +8018,43 @@
         <v>48</v>
       </c>
       <c r="L82">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M82">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N82">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="O82">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="P82">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q82">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R82">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S82">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U82">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V82">
         <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X82">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD82">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8080,7 +8080,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6813818</v>
+        <v>6813817</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -8092,16 +8092,16 @@
         <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -8110,43 +8110,43 @@
         <v>48</v>
       </c>
       <c r="L83">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="M83">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N83">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="P83">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q83">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U83">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V83">
         <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X83">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -8155,16 +8155,16 @@
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8181,7 +8181,7 @@
         <v>45192.375</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
         <v>33</v>
@@ -8273,7 +8273,7 @@
         <v>45192.375</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
         <v>43</v>
@@ -8540,7 +8540,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6813827</v>
+        <v>6813832</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8549,82 +8549,82 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L88">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="M88">
         <v>3.6</v>
       </c>
       <c r="N88">
+        <v>2.375</v>
+      </c>
+      <c r="O88">
+        <v>2.55</v>
+      </c>
+      <c r="P88">
         <v>3.5</v>
       </c>
-      <c r="O88">
-        <v>1.65</v>
-      </c>
-      <c r="P88">
-        <v>3.6</v>
-      </c>
       <c r="Q88">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="R88">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
         <v>1.85</v>
       </c>
-      <c r="T88">
-        <v>2</v>
-      </c>
       <c r="U88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X88">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA88">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AD88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8632,7 +8632,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6813832</v>
+        <v>6813826</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8641,61 +8641,61 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K89" t="s">
         <v>50</v>
       </c>
       <c r="L89">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="M89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N89">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O89">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8704,16 +8704,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD89">
         <v>-1</v>
@@ -8724,7 +8724,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6813826</v>
+        <v>6813827</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8733,16 +8733,16 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -8751,37 +8751,37 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L90">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="M90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="P90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="R90">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V90">
         <v>1.825</v>
@@ -8790,25 +8790,25 @@
         <v>2.025</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AD90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8828,7 +8828,7 @@
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>45199.375</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
         <v>37</v>
@@ -9009,7 +9009,7 @@
         <v>45199.375</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
         <v>46</v>
@@ -9285,7 +9285,7 @@
         <v>45202.375</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
         <v>34</v>
@@ -9377,7 +9377,7 @@
         <v>45202.375</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
         <v>39</v>
@@ -9469,7 +9469,7 @@
         <v>45202.375</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
         <v>38</v>
@@ -9837,10 +9837,10 @@
         <v>45202.375</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9929,7 +9929,7 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
         <v>47</v>
@@ -10208,7 +10208,7 @@
         <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -10300,7 +10300,7 @@
         <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -10484,7 +10484,7 @@
         <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>3</v>
@@ -10757,10 +10757,10 @@
         <v>45207.375</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10849,7 +10849,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
         <v>33</v>
@@ -10944,7 +10944,7 @@
         <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -11309,7 +11309,7 @@
         <v>45213.375</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
         <v>32</v>
@@ -11401,7 +11401,7 @@
         <v>45213.375</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
         <v>43</v>
@@ -11496,7 +11496,7 @@
         <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -11585,7 +11585,7 @@
         <v>45216.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
@@ -11956,7 +11956,7 @@
         <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125">
         <v>5</v>
@@ -12048,7 +12048,7 @@
         <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -12140,7 +12140,7 @@
         <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12321,7 +12321,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
         <v>34</v>
@@ -12413,7 +12413,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
         <v>33</v>
@@ -12689,10 +12689,10 @@
         <v>45220.375</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -12784,7 +12784,7 @@
         <v>46</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12873,7 +12873,7 @@
         <v>45220.375</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F135" t="s">
         <v>31</v>
@@ -13048,7 +13048,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6813882</v>
+        <v>6813881</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13060,76 +13060,76 @@
         <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>48</v>
+      </c>
+      <c r="L137">
+        <v>1.444</v>
+      </c>
+      <c r="M137">
+        <v>4.5</v>
+      </c>
+      <c r="N137">
         <v>5</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>3</v>
-      </c>
-      <c r="K137" t="s">
-        <v>50</v>
-      </c>
-      <c r="L137">
-        <v>9</v>
-      </c>
-      <c r="M137">
-        <v>7</v>
-      </c>
-      <c r="N137">
-        <v>1.166</v>
-      </c>
       <c r="O137">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="P137">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="R137">
+        <v>-1.25</v>
+      </c>
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
         <v>1.75</v>
-      </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>1.8</v>
       </c>
       <c r="U137">
         <v>3.25</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD137">
         <v>-1</v>
@@ -13232,7 +13232,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6813881</v>
+        <v>6813882</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13244,76 +13244,76 @@
         <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K139" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L139">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="M139">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="N139">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="O139">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="P139">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q139">
-        <v>5.25</v>
+        <v>1.222</v>
       </c>
       <c r="R139">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T139">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U139">
         <v>3.25</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X139">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD139">
         <v>-1</v>
@@ -13324,7 +13324,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6813888</v>
+        <v>6813884</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13333,19 +13333,19 @@
         <v>45227.375</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G140">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -13354,43 +13354,43 @@
         <v>48</v>
       </c>
       <c r="L140">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="M140">
         <v>4</v>
       </c>
       <c r="N140">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O140">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="P140">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="R140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U140">
         <v>3</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X140">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -13399,13 +13399,13 @@
         <v>-1</v>
       </c>
       <c r="AA140">
+        <v>0.825</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
-      <c r="AC140">
-        <v>0.95</v>
       </c>
       <c r="AD140">
         <v>-1</v>
@@ -13416,7 +13416,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6813884</v>
+        <v>6813888</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13425,19 +13425,19 @@
         <v>45227.375</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -13446,43 +13446,43 @@
         <v>48</v>
       </c>
       <c r="L141">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="M141">
         <v>4</v>
       </c>
       <c r="N141">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O141">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="P141">
+        <v>3.8</v>
+      </c>
+      <c r="Q141">
         <v>3.5</v>
       </c>
-      <c r="Q141">
-        <v>2.55</v>
-      </c>
       <c r="R141">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U141">
         <v>3</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X141">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13491,13 +13491,13 @@
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD141">
         <v>-1</v>
@@ -13612,7 +13612,7 @@
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -13701,7 +13701,7 @@
         <v>45227.375</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
         <v>33</v>
@@ -13888,7 +13888,7 @@
         <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>4</v>
@@ -13980,7 +13980,7 @@
         <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -14253,7 +14253,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
         <v>39</v>
@@ -14348,7 +14348,7 @@
         <v>30</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -14624,7 +14624,7 @@
         <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -14713,10 +14713,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -14808,7 +14808,7 @@
         <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -14897,7 +14897,7 @@
         <v>45240.625</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
         <v>31</v>
@@ -14989,7 +14989,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F158" t="s">
         <v>34</v>
@@ -15357,7 +15357,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
         <v>30</v>
@@ -15449,7 +15449,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F163" t="s">
         <v>46</v>
@@ -15544,7 +15544,7 @@
         <v>43</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15636,7 +15636,7 @@
         <v>31</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -16004,7 +16004,7 @@
         <v>46</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -16093,7 +16093,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
         <v>47</v>
@@ -16185,10 +16185,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -16277,10 +16277,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -16461,7 +16461,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
         <v>30</v>
@@ -16553,10 +16553,10 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -16648,7 +16648,7 @@
         <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -16924,7 +16924,7 @@
         <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -17016,7 +17016,7 @@
         <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -17108,7 +17108,7 @@
         <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -17200,7 +17200,7 @@
         <v>33</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -17476,7 +17476,7 @@
         <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -17565,7 +17565,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F186" t="s">
         <v>42</v>
@@ -17749,7 +17749,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F188" t="s">
         <v>38</v>
@@ -17841,10 +17841,10 @@
         <v>45359.625</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -18028,7 +18028,7 @@
         <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -18108,7 +18108,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6813937</v>
+        <v>6813938</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18117,61 +18117,61 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K192" t="s">
         <v>50</v>
       </c>
       <c r="L192">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="M192">
         <v>4</v>
       </c>
       <c r="N192">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O192">
+        <v>2.6</v>
+      </c>
+      <c r="P192">
         <v>3.6</v>
       </c>
-      <c r="P192">
-        <v>4</v>
-      </c>
       <c r="Q192">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="R192">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T192">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U192">
         <v>3</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W192">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -18180,19 +18180,19 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.6659999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD192">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18200,7 +18200,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6813938</v>
+        <v>6813937</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18209,61 +18209,61 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K193" t="s">
         <v>50</v>
       </c>
       <c r="L193">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="M193">
         <v>4</v>
       </c>
       <c r="N193">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q193">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="R193">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T193">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U193">
         <v>3</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -18272,19 +18272,19 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>1.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB193">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD193">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18393,7 +18393,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F195" t="s">
         <v>46</v>
@@ -18577,7 +18577,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
         <v>32</v>
@@ -18669,7 +18669,7 @@
         <v>45363.625</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
         <v>37</v>
@@ -19037,10 +19037,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E202" t="s">
+        <v>40</v>
+      </c>
+      <c r="F202" t="s">
         <v>41</v>
-      </c>
-      <c r="F202" t="s">
-        <v>40</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -19313,10 +19313,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E205" t="s">
+        <v>44</v>
+      </c>
+      <c r="F205" t="s">
         <v>45</v>
-      </c>
-      <c r="F205" t="s">
-        <v>44</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19405,7 +19405,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F206" t="s">
         <v>43</v>
@@ -19500,7 +19500,7 @@
         <v>34</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -19684,7 +19684,7 @@
         <v>47</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         <v>45373.625</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F210" t="s">
         <v>42</v>
@@ -19957,10 +19957,10 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G212">
         <v>3</v>
@@ -20040,7 +20040,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6813958</v>
+        <v>6813960</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20049,16 +20049,16 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -20067,64 +20067,64 @@
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L213">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="M213">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N213">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O213">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="P213">
         <v>3.4</v>
       </c>
       <c r="Q213">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="R213">
         <v>-0.25</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U213">
         <v>2.5</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AC213">
         <v>-1</v>
       </c>
       <c r="AD213">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20132,7 +20132,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6813960</v>
+        <v>6813955</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20141,82 +20141,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L214">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M214">
         <v>4</v>
       </c>
       <c r="N214">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P214">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q214">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R214">
         <v>-0.25</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U214">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W214">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
         <v>-1</v>
       </c>
       <c r="AD214">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20224,7 +20224,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6813955</v>
+        <v>6813958</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -20233,82 +20233,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215">
         <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L215">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N215">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="O215">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P215">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q215">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="R215">
         <v>-0.25</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T215">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="U215">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC215">
         <v>-1</v>
       </c>
       <c r="AD215">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20417,7 +20417,7 @@
         <v>45379.625</v>
       </c>
       <c r="E217" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F217" t="s">
         <v>37</v>
@@ -20509,7 +20509,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F218" t="s">
         <v>39</v>
@@ -20592,7 +20592,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6813968</v>
+        <v>6813970</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20601,19 +20601,19 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219">
         <v>1</v>
@@ -20622,40 +20622,40 @@
         <v>50</v>
       </c>
       <c r="L219">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="M219">
         <v>3.75</v>
       </c>
       <c r="N219">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O219">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="P219">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q219">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="R219">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S219">
+        <v>1.825</v>
+      </c>
+      <c r="T219">
         <v>1.975</v>
       </c>
-      <c r="T219">
-        <v>1.875</v>
-      </c>
       <c r="U219">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20664,19 +20664,19 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC219">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD219">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -20776,7 +20776,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6813970</v>
+        <v>6813968</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -20785,19 +20785,19 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221">
         <v>1</v>
@@ -20806,40 +20806,40 @@
         <v>50</v>
       </c>
       <c r="L221">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="M221">
         <v>3.75</v>
       </c>
       <c r="N221">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O221">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q221">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="R221">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S221">
+        <v>1.975</v>
+      </c>
+      <c r="T221">
+        <v>1.875</v>
+      </c>
+      <c r="U221">
+        <v>2.75</v>
+      </c>
+      <c r="V221">
         <v>1.825</v>
       </c>
-      <c r="T221">
-        <v>1.975</v>
-      </c>
-      <c r="U221">
-        <v>3</v>
-      </c>
-      <c r="V221">
-        <v>1.9</v>
-      </c>
       <c r="W221">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20848,19 +20848,19 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC221">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD221">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -20960,7 +20960,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6813966</v>
+        <v>6813963</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20969,55 +20969,55 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K223" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L223">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="M223">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N223">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O223">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="P223">
         <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="R223">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T223">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U223">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V223">
         <v>1.85</v>
@@ -21029,22 +21029,22 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA223">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AC223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD223">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21052,7 +21052,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6813963</v>
+        <v>6813964</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21061,16 +21061,16 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -21082,41 +21082,41 @@
         <v>50</v>
       </c>
       <c r="L224">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="M224">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N224">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="P224">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q224">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="R224">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S224">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V224">
+        <v>2</v>
+      </c>
+      <c r="W224">
         <v>1.85</v>
       </c>
-      <c r="W224">
-        <v>2</v>
-      </c>
       <c r="X224">
         <v>-1</v>
       </c>
@@ -21124,19 +21124,19 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="AA224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC224">
         <v>-1</v>
       </c>
       <c r="AD224">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21144,7 +21144,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6813964</v>
+        <v>6813966</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -21153,82 +21153,82 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H225">
         <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L225">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="M225">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N225">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O225">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="P225">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q225">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="R225">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U225">
         <v>2.75</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z225">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB225">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -21236,7 +21236,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7625939</v>
+        <v>7763226</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21245,82 +21245,82 @@
         <v>45384.53125</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226">
         <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L226">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="M226">
+        <v>4.6</v>
+      </c>
+      <c r="N226">
+        <v>7</v>
+      </c>
+      <c r="O226">
+        <v>1.615</v>
+      </c>
+      <c r="P226">
+        <v>3.8</v>
+      </c>
+      <c r="Q226">
         <v>4</v>
       </c>
-      <c r="N226">
-        <v>1.5</v>
-      </c>
-      <c r="O226">
-        <v>4.75</v>
-      </c>
-      <c r="P226">
-        <v>3.6</v>
-      </c>
-      <c r="Q226">
-        <v>1.571</v>
-      </c>
       <c r="R226">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U226">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y226">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21328,7 +21328,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7763226</v>
+        <v>7625939</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21337,82 +21337,82 @@
         <v>45384.53125</v>
       </c>
       <c r="E227" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227" t="s">
+        <v>49</v>
+      </c>
+      <c r="L227">
         <v>5</v>
       </c>
-      <c r="H227">
-        <v>0</v>
-      </c>
-      <c r="I227">
-        <v>2</v>
-      </c>
-      <c r="J227">
-        <v>0</v>
-      </c>
-      <c r="K227" t="s">
-        <v>48</v>
-      </c>
-      <c r="L227">
-        <v>1.333</v>
-      </c>
       <c r="M227">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="N227">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="O227">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="P227">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q227">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="R227">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S227">
+        <v>2</v>
+      </c>
+      <c r="T227">
+        <v>1.8</v>
+      </c>
+      <c r="U227">
+        <v>2.5</v>
+      </c>
+      <c r="V227">
         <v>1.875</v>
       </c>
-      <c r="T227">
+      <c r="W227">
         <v>1.925</v>
       </c>
-      <c r="U227">
-        <v>2.75</v>
-      </c>
-      <c r="V227">
-        <v>1.85</v>
-      </c>
-      <c r="W227">
-        <v>1.95</v>
-      </c>
       <c r="X227">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21429,10 +21429,10 @@
         <v>45384.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -21613,10 +21613,10 @@
         <v>45387.58333333334</v>
       </c>
       <c r="E230" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -21708,7 +21708,7 @@
         <v>43</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -21797,7 +21797,7 @@
         <v>45388.375</v>
       </c>
       <c r="E232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F232" t="s">
         <v>30</v>
@@ -21880,7 +21880,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6813974</v>
+        <v>6813978</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -21889,49 +21889,49 @@
         <v>45388.375</v>
       </c>
       <c r="E233" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I233">
         <v>0</v>
       </c>
       <c r="J233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K233" t="s">
         <v>50</v>
       </c>
       <c r="L233">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="M233">
+        <v>3.8</v>
+      </c>
+      <c r="N233">
+        <v>3.4</v>
+      </c>
+      <c r="O233">
+        <v>1.8</v>
+      </c>
+      <c r="P233">
         <v>4</v>
       </c>
-      <c r="N233">
-        <v>1.727</v>
-      </c>
-      <c r="O233">
-        <v>4.333</v>
-      </c>
-      <c r="P233">
-        <v>4.333</v>
-      </c>
       <c r="Q233">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="R233">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
         <v>1.975</v>
@@ -21940,10 +21940,10 @@
         <v>3</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W233">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21952,7 +21952,7 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.5329999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="AA233">
         <v>-1</v>
@@ -21961,10 +21961,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD233">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -21972,7 +21972,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6813978</v>
+        <v>6813977</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -21981,13 +21981,13 @@
         <v>45388.375</v>
       </c>
       <c r="E234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21996,67 +21996,67 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K234" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L234">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M234">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N234">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O234">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="P234">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q234">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R234">
         <v>-0.5</v>
       </c>
       <c r="S234">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T234">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U234">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V234">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z234">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC234">
         <v>-1</v>
       </c>
       <c r="AD234">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22064,7 +22064,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6813977</v>
+        <v>6813975</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22073,13 +22073,13 @@
         <v>45388.375</v>
       </c>
       <c r="E235" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -22088,67 +22088,67 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K235" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L235">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="M235">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N235">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="O235">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="P235">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q235">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="R235">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T235">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U235">
         <v>2.5</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB235">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC235">
         <v>-1</v>
       </c>
       <c r="AD235">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22156,7 +22156,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6813975</v>
+        <v>6813974</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22165,61 +22165,61 @@
         <v>45388.375</v>
       </c>
       <c r="E236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K236" t="s">
         <v>50</v>
       </c>
       <c r="L236">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M236">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N236">
+        <v>1.727</v>
+      </c>
+      <c r="O236">
+        <v>4.333</v>
+      </c>
+      <c r="P236">
+        <v>4.333</v>
+      </c>
+      <c r="Q236">
         <v>1.533</v>
       </c>
-      <c r="O236">
-        <v>5</v>
-      </c>
-      <c r="P236">
-        <v>3.6</v>
-      </c>
-      <c r="Q236">
-        <v>1.571</v>
-      </c>
       <c r="R236">
         <v>1</v>
       </c>
       <c r="S236">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
         <v>1.975</v>
       </c>
       <c r="U236">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W236">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -22228,19 +22228,19 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22257,7 +22257,7 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F237" t="s">
         <v>43</v>
@@ -22441,7 +22441,7 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s">
         <v>38</v>
@@ -22536,7 +22536,7 @@
         <v>46</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -22625,7 +22625,7 @@
         <v>45395.375</v>
       </c>
       <c r="E241" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F241" t="s">
         <v>47</v>
@@ -22717,7 +22717,7 @@
         <v>45395.375</v>
       </c>
       <c r="E242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F242" t="s">
         <v>32</v>
@@ -22904,7 +22904,7 @@
         <v>37</v>
       </c>
       <c r="F244" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>45398.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F245" t="s">
         <v>31</v>
@@ -23168,7 +23168,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6813989</v>
+        <v>6813991</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23177,82 +23177,82 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L247">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="M247">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N247">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="O247">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="P247">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q247">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="R247">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S247">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T247">
+        <v>1.975</v>
+      </c>
+      <c r="U247">
+        <v>3.5</v>
+      </c>
+      <c r="V247">
         <v>2.025</v>
       </c>
-      <c r="U247">
-        <v>2.75</v>
-      </c>
-      <c r="V247">
+      <c r="W247">
         <v>1.825</v>
       </c>
-      <c r="W247">
-        <v>1.975</v>
-      </c>
       <c r="X247">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y247">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AB247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
         <v>-1</v>
       </c>
       <c r="AD247">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23260,7 +23260,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6813991</v>
+        <v>6813990</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23269,64 +23269,64 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G248">
         <v>3</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K248" t="s">
         <v>48</v>
       </c>
       <c r="L248">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="M248">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N248">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O248">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="P248">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q248">
-        <v>7.5</v>
+        <v>2.45</v>
       </c>
       <c r="R248">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T248">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U248">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V248">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W248">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X248">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="Y248">
         <v>-1</v>
@@ -23335,16 +23335,16 @@
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB248">
         <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD248">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23352,7 +23352,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6813990</v>
+        <v>6813989</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23361,82 +23361,82 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E249" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L249">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="M249">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N249">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O249">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="P249">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q249">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="R249">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S249">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T249">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U249">
         <v>2.75</v>
       </c>
       <c r="V249">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W249">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X249">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC249">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD249">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23444,7 +23444,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6813995</v>
+        <v>6814797</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23453,19 +23453,19 @@
         <v>45402.375</v>
       </c>
       <c r="E250" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G250">
         <v>2</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -23474,43 +23474,43 @@
         <v>48</v>
       </c>
       <c r="L250">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="M250">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N250">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O250">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P250">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q250">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R250">
         <v>0</v>
       </c>
       <c r="S250">
+        <v>1.8</v>
+      </c>
+      <c r="T250">
+        <v>2.05</v>
+      </c>
+      <c r="U250">
+        <v>3</v>
+      </c>
+      <c r="V250">
+        <v>1.975</v>
+      </c>
+      <c r="W250">
         <v>1.875</v>
       </c>
-      <c r="T250">
-        <v>1.925</v>
-      </c>
-      <c r="U250">
-        <v>2.75</v>
-      </c>
-      <c r="V250">
-        <v>1.9</v>
-      </c>
-      <c r="W250">
-        <v>1.9</v>
-      </c>
       <c r="X250">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Y250">
         <v>-1</v>
@@ -23519,16 +23519,16 @@
         <v>-1</v>
       </c>
       <c r="AA250">
+        <v>0.8</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
+        <v>-1</v>
+      </c>
+      <c r="AD250">
         <v>0.875</v>
-      </c>
-      <c r="AB250">
-        <v>-1</v>
-      </c>
-      <c r="AC250">
-        <v>0.45</v>
-      </c>
-      <c r="AD250">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23536,7 +23536,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6814797</v>
+        <v>6813994</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23545,16 +23545,16 @@
         <v>45402.375</v>
       </c>
       <c r="E251" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251">
         <v>0</v>
@@ -23563,64 +23563,64 @@
         <v>0</v>
       </c>
       <c r="K251" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L251">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M251">
         <v>3.75</v>
       </c>
       <c r="N251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O251">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="P251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q251">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="R251">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S251">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U251">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V251">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W251">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X251">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC251">
         <v>-1</v>
       </c>
       <c r="AD251">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23628,7 +23628,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6813994</v>
+        <v>6813993</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23637,10 +23637,10 @@
         <v>45402.375</v>
       </c>
       <c r="E252" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F252" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K252" t="s">
         <v>50</v>
       </c>
       <c r="L252">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N252">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O252">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="P252">
         <v>4</v>
       </c>
       <c r="Q252">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="R252">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S252">
         <v>1.875</v>
@@ -23685,7 +23685,7 @@
         <v>1.975</v>
       </c>
       <c r="U252">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V252">
         <v>2.025</v>
@@ -23700,7 +23700,7 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.909</v>
+        <v>1.75</v>
       </c>
       <c r="AA252">
         <v>-1</v>
@@ -23720,7 +23720,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6813993</v>
+        <v>6813992</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -23729,10 +23729,10 @@
         <v>45402.375</v>
       </c>
       <c r="E253" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -23744,46 +23744,46 @@
         <v>0</v>
       </c>
       <c r="J253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K253" t="s">
         <v>50</v>
       </c>
       <c r="L253">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="M253">
         <v>4</v>
       </c>
       <c r="N253">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O253">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P253">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q253">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="R253">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="S253">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T253">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U253">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V253">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W253">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23792,19 +23792,19 @@
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>1.75</v>
+        <v>0.3</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB253">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC253">
         <v>-1</v>
       </c>
       <c r="AD253">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="254" spans="1:30">
@@ -23812,7 +23812,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6813992</v>
+        <v>6813995</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -23821,82 +23821,82 @@
         <v>45402.375</v>
       </c>
       <c r="E254" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254">
         <v>0</v>
       </c>
       <c r="K254" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L254">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="M254">
         <v>4</v>
       </c>
       <c r="N254">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O254">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="P254">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q254">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="R254">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="S254">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T254">
         <v>1.925</v>
       </c>
       <c r="U254">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V254">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
+        <v>0.875</v>
+      </c>
+      <c r="AB254">
+        <v>-1</v>
+      </c>
+      <c r="AC254">
+        <v>0.45</v>
+      </c>
+      <c r="AD254">
         <v>-0.5</v>
-      </c>
-      <c r="AB254">
-        <v>0.4625</v>
-      </c>
-      <c r="AC254">
-        <v>-1</v>
-      </c>
-      <c r="AD254">
-        <v>0.95</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -23913,7 +23913,7 @@
         <v>45406.58333333334</v>
       </c>
       <c r="E255" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F255" t="s">
         <v>47</v>
@@ -23996,7 +23996,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6948238</v>
+        <v>6954886</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -24005,19 +24005,19 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G256">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H256">
         <v>0</v>
       </c>
       <c r="I256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J256">
         <v>0</v>
@@ -24026,43 +24026,43 @@
         <v>48</v>
       </c>
       <c r="L256">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="M256">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N256">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="O256">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="P256">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q256">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="R256">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S256">
+        <v>1.825</v>
+      </c>
+      <c r="T256">
+        <v>1.975</v>
+      </c>
+      <c r="U256">
+        <v>2.75</v>
+      </c>
+      <c r="V256">
         <v>1.75</v>
       </c>
-      <c r="T256">
+      <c r="W256">
         <v>1.95</v>
       </c>
-      <c r="U256">
-        <v>3</v>
-      </c>
-      <c r="V256">
-        <v>1.95</v>
-      </c>
-      <c r="W256">
-        <v>1.75</v>
-      </c>
       <c r="X256">
-        <v>0.25</v>
+        <v>1.7</v>
       </c>
       <c r="Y256">
         <v>-1</v>
@@ -24071,16 +24071,16 @@
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB256">
         <v>-1</v>
       </c>
       <c r="AC256">
+        <v>-1</v>
+      </c>
+      <c r="AD256">
         <v>0.95</v>
-      </c>
-      <c r="AD256">
-        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -24088,7 +24088,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6954886</v>
+        <v>6948238</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24097,19 +24097,19 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H257">
         <v>0</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -24118,44 +24118,44 @@
         <v>48</v>
       </c>
       <c r="L257">
+        <v>1.363</v>
+      </c>
+      <c r="M257">
+        <v>4.5</v>
+      </c>
+      <c r="N257">
+        <v>6.5</v>
+      </c>
+      <c r="O257">
+        <v>1.25</v>
+      </c>
+      <c r="P257">
         <v>5.25</v>
       </c>
-      <c r="M257">
-        <v>4.333</v>
-      </c>
-      <c r="N257">
-        <v>1.444</v>
-      </c>
-      <c r="O257">
-        <v>2.7</v>
-      </c>
-      <c r="P257">
-        <v>3.6</v>
-      </c>
       <c r="Q257">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="R257">
+        <v>-1.5</v>
+      </c>
+      <c r="S257">
+        <v>1.75</v>
+      </c>
+      <c r="T257">
+        <v>1.95</v>
+      </c>
+      <c r="U257">
+        <v>3</v>
+      </c>
+      <c r="V257">
+        <v>1.95</v>
+      </c>
+      <c r="W257">
+        <v>1.75</v>
+      </c>
+      <c r="X257">
         <v>0.25</v>
       </c>
-      <c r="S257">
-        <v>1.825</v>
-      </c>
-      <c r="T257">
-        <v>1.975</v>
-      </c>
-      <c r="U257">
-        <v>2.75</v>
-      </c>
-      <c r="V257">
-        <v>1.75</v>
-      </c>
-      <c r="W257">
-        <v>1.95</v>
-      </c>
-      <c r="X257">
-        <v>1.7</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
@@ -24163,16 +24163,16 @@
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB257">
         <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD257">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24189,7 +24189,7 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E258" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F258" t="s">
         <v>39</v>
@@ -24281,7 +24281,7 @@
         <v>45409.375</v>
       </c>
       <c r="E259" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F259" t="s">
         <v>33</v>
@@ -24465,7 +24465,7 @@
         <v>45409.375</v>
       </c>
       <c r="E261" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F261" t="s">
         <v>43</v>
@@ -24557,7 +24557,7 @@
         <v>45409.375</v>
       </c>
       <c r="E262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F262" t="s">
         <v>31</v>
@@ -25020,7 +25020,7 @@
         <v>47</v>
       </c>
       <c r="F267" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -25112,7 +25112,7 @@
         <v>43</v>
       </c>
       <c r="F268" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -25284,7 +25284,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6990102</v>
+        <v>6993569</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25293,82 +25293,82 @@
         <v>45416.375</v>
       </c>
       <c r="E270" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F270" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K270" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L270">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M270">
         <v>4</v>
       </c>
       <c r="N270">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O270">
         <v>2.15</v>
       </c>
       <c r="P270">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q270">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="R270">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S270">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T270">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U270">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V270">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W270">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA270">
+        <v>-1</v>
+      </c>
+      <c r="AB270">
+        <v>1.05</v>
+      </c>
+      <c r="AC270">
+        <v>0.4125</v>
+      </c>
+      <c r="AD270">
         <v>-0.5</v>
-      </c>
-      <c r="AB270">
-        <v>0.425</v>
-      </c>
-      <c r="AC270">
-        <v>-1</v>
-      </c>
-      <c r="AD270">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -25376,7 +25376,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6993569</v>
+        <v>6990102</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -25385,82 +25385,82 @@
         <v>45416.375</v>
       </c>
       <c r="E271" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F271" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G271">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K271" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L271">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M271">
         <v>4</v>
       </c>
       <c r="N271">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O271">
         <v>2.15</v>
       </c>
       <c r="P271">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q271">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="R271">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S271">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T271">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U271">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W271">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z271">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB271">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
       <c r="AC271">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD271">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -25477,7 +25477,7 @@
         <v>45416.375</v>
       </c>
       <c r="E272" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F272" t="s">
         <v>37</v>
@@ -25572,7 +25572,7 @@
         <v>33</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -25661,7 +25661,7 @@
         <v>45422.58333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F274" t="s">
         <v>32</v>
@@ -25756,7 +25756,7 @@
         <v>30</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -25937,7 +25937,7 @@
         <v>45423.375</v>
       </c>
       <c r="E277" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F277" t="s">
         <v>34</v>
@@ -26305,7 +26305,7 @@
         <v>45423.375</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F281" t="s">
         <v>47</v>
@@ -26397,10 +26397,10 @@
         <v>45423.375</v>
       </c>
       <c r="E282" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F282" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -26489,10 +26489,10 @@
         <v>45427.52083333334</v>
       </c>
       <c r="E283" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G283">
         <v>2</v>
@@ -26584,7 +26584,7 @@
         <v>34</v>
       </c>
       <c r="F284" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -26676,7 +26676,7 @@
         <v>31</v>
       </c>
       <c r="F285" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G285">
         <v>4</v>
@@ -26768,7 +26768,7 @@
         <v>33</v>
       </c>
       <c r="F286" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -27133,7 +27133,7 @@
         <v>45430.375</v>
       </c>
       <c r="E290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F290" t="s">
         <v>46</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -118,16 +118,16 @@
     <t>Eintracht Bamberg</t>
   </si>
   <si>
+    <t>Schweinfurt 05</t>
+  </si>
+  <si>
     <t>Greuther Furth II</t>
   </si>
   <si>
-    <t>Schweinfurt 05</t>
+    <t>Nurnberg II</t>
   </si>
   <si>
     <t>Turkgucu Munchen</t>
-  </si>
-  <si>
-    <t>Nurnberg II</t>
   </si>
   <si>
     <t>TSV Aubstadt</t>
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6813726</v>
+        <v>6813721</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1008,79 +1008,79 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M6">
         <v>3.75</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="P6">
         <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="R6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U6">
         <v>3</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z6">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6813721</v>
+        <v>6813726</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1100,79 +1100,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M7">
         <v>3.75</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <v>3.6</v>
       </c>
       <c r="Q7">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="R7">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U7">
         <v>3</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813724</v>
+        <v>6813722</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1192,79 +1192,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="M8">
         <v>3.6</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U8">
         <v>3.25</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1272,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6813722</v>
+        <v>6813724</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1284,79 +1284,79 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="M9">
         <v>3.6</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="P9">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U9">
         <v>3.25</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1468,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1744,7 +1744,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6813748</v>
+        <v>6813747</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2293,82 +2293,82 @@
         <v>45143.375</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L20">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
         <v>3.5</v>
       </c>
       <c r="N20">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q20">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T20">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X20">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2376,7 +2376,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6813747</v>
+        <v>6813745</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2385,82 +2385,82 @@
         <v>45143.375</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L21">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
+        <v>3.1</v>
+      </c>
+      <c r="O21">
         <v>2.1</v>
       </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
       <c r="P21">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="R21">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S21">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>1.9</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6813745</v>
+        <v>6813748</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2477,13 +2477,13 @@
         <v>45143.375</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2492,49 +2492,49 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>48</v>
       </c>
       <c r="L22">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="M22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="P22">
         <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="R22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U22">
         <v>2.75</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X22">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="Y22">
         <v>-1</v>
@@ -2543,13 +2543,13 @@
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2661,7 +2661,7 @@
         <v>45143.375</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -2753,7 +2753,7 @@
         <v>45143.4375</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>41</v>
@@ -3032,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3112,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6813754</v>
+        <v>6813757</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3121,82 +3121,82 @@
         <v>45149.5625</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L29">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M29">
         <v>3.6</v>
       </c>
       <c r="N29">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O29">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="R29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S29">
         <v>1.85</v>
       </c>
       <c r="T29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U29">
         <v>3</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB29">
-        <v>-1</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
-      </c>
       <c r="AD29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3204,7 +3204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6813757</v>
+        <v>6813754</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3213,82 +3213,82 @@
         <v>45149.5625</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L30">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M30">
         <v>3.6</v>
       </c>
       <c r="N30">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O30">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="R30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S30">
         <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3400,7 +3400,7 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3756,7 +3756,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6813759</v>
+        <v>6813762</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3765,64 +3765,64 @@
         <v>45157.375</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>3</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
         <v>48</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M36">
         <v>3.75</v>
       </c>
       <c r="N36">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O36">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="P36">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="R36">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="X36">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -3831,13 +3831,13 @@
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD36">
         <v>-1</v>
@@ -3848,7 +3848,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6813762</v>
+        <v>6813759</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3857,64 +3857,64 @@
         <v>45157.375</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>4</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>3</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
         <v>48</v>
       </c>
       <c r="L37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <v>3.75</v>
       </c>
       <c r="N37">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O37">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="P37">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q37">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="R37">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U37">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="X37">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3923,13 +3923,13 @@
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD37">
         <v>-1</v>
@@ -3949,7 +3949,7 @@
         <v>45157.375</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
         <v>44</v>
@@ -4412,7 +4412,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4593,7 +4593,7 @@
         <v>45164.375</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
         <v>33</v>
@@ -4685,7 +4685,7 @@
         <v>45167.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4860,7 +4860,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6813788</v>
+        <v>6813779</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4869,82 +4869,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L48">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N48">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O48">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="P48">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="R48">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U48">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD48">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -4952,7 +4952,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6813789</v>
+        <v>6813786</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4961,82 +4961,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L49">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="N49">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="O49">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="P49">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q49">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U49">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y49">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6813786</v>
+        <v>6813788</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5053,82 +5053,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L50">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="M50">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="N50">
-        <v>4.8</v>
+        <v>2.55</v>
       </c>
       <c r="O50">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="P50">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="R50">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
+        <v>2.05</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="U50">
-        <v>2.75</v>
-      </c>
-      <c r="V50">
-        <v>1.825</v>
-      </c>
       <c r="W50">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X50">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
       <c r="AC50">
         <v>-1</v>
       </c>
       <c r="AD50">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5136,7 +5136,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6813779</v>
+        <v>6813789</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5145,82 +5145,82 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L51">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="M51">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="O51">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="P51">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="R51">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S51">
+        <v>1.925</v>
+      </c>
+      <c r="T51">
+        <v>1.875</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
         <v>1.95</v>
       </c>
-      <c r="T51">
-        <v>1.85</v>
-      </c>
-      <c r="U51">
-        <v>3.25</v>
-      </c>
-      <c r="V51">
-        <v>1.825</v>
-      </c>
       <c r="W51">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="X51">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD51">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5240,7 +5240,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5332,7 +5332,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5780,7 +5780,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6813797</v>
+        <v>6813798</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -5789,19 +5789,19 @@
         <v>45171.375</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -5810,28 +5810,28 @@
         <v>50</v>
       </c>
       <c r="L58">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P58">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R58">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
         <v>1.875</v>
@@ -5840,10 +5840,10 @@
         <v>3</v>
       </c>
       <c r="V58">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5852,7 +5852,7 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5861,10 +5861,10 @@
         <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AD58">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5872,7 +5872,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6813798</v>
+        <v>6813797</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -5881,19 +5881,19 @@
         <v>45171.375</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -5902,28 +5902,28 @@
         <v>50</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M59">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N59">
+        <v>2.8</v>
+      </c>
+      <c r="O59">
         <v>2.875</v>
       </c>
-      <c r="O59">
-        <v>3.25</v>
-      </c>
       <c r="P59">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q59">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R59">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
         <v>1.875</v>
@@ -5932,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5944,7 +5944,7 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -5953,10 +5953,10 @@
         <v>0.875</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -6065,7 +6065,7 @@
         <v>45177.5625</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
         <v>32</v>
@@ -6341,7 +6341,7 @@
         <v>45178.375</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
         <v>47</v>
@@ -6433,7 +6433,7 @@
         <v>45178.375</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
         <v>33</v>
@@ -6528,7 +6528,7 @@
         <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6709,10 +6709,10 @@
         <v>45184.5</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6792,7 +6792,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6813814</v>
+        <v>6813810</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6801,40 +6801,40 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="s">
         <v>50</v>
       </c>
       <c r="L69">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N69">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O69">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -6843,19 +6843,19 @@
         <v>0.25</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V69">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6870,13 +6870,13 @@
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6884,7 +6884,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6813810</v>
+        <v>6813811</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6893,82 +6893,82 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="M70">
         <v>4</v>
       </c>
       <c r="N70">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="O70">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="P70">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q70">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="R70">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB70">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
         <v>-1</v>
       </c>
       <c r="AD70">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6976,7 +6976,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6813811</v>
+        <v>6813808</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6985,22 +6985,22 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="s">
         <v>48</v>
@@ -7015,34 +7015,34 @@
         <v>3.25</v>
       </c>
       <c r="O71">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P71">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q71">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="R71">
         <v>-0.75</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U71">
         <v>3</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X71">
-        <v>0.6499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -7051,16 +7051,16 @@
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AD71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7068,7 +7068,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6813808</v>
+        <v>6813814</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7077,82 +7077,82 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>3</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L72">
+        <v>3.1</v>
+      </c>
+      <c r="M72">
+        <v>3.75</v>
+      </c>
+      <c r="N72">
+        <v>1.909</v>
+      </c>
+      <c r="O72">
+        <v>2.625</v>
+      </c>
+      <c r="P72">
+        <v>3.6</v>
+      </c>
+      <c r="Q72">
+        <v>2.2</v>
+      </c>
+      <c r="R72">
+        <v>0.25</v>
+      </c>
+      <c r="S72">
         <v>1.8</v>
       </c>
-      <c r="M72">
-        <v>4</v>
-      </c>
-      <c r="N72">
-        <v>3.25</v>
-      </c>
-      <c r="O72">
-        <v>1.75</v>
-      </c>
-      <c r="P72">
-        <v>3.75</v>
-      </c>
-      <c r="Q72">
-        <v>3.6</v>
-      </c>
-      <c r="R72">
-        <v>-0.75</v>
-      </c>
-      <c r="S72">
+      <c r="T72">
         <v>2.05</v>
-      </c>
-      <c r="T72">
-        <v>1.8</v>
       </c>
       <c r="U72">
         <v>3</v>
       </c>
       <c r="V72">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W72">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="X72">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
         <v>1.05</v>
       </c>
-      <c r="AB72">
-        <v>-1</v>
-      </c>
       <c r="AC72">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AD72">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -7353,7 +7353,7 @@
         <v>45185.375</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
         <v>42</v>
@@ -8000,7 +8000,7 @@
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -8181,10 +8181,10 @@
         <v>45192.375</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>45192.375</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
         <v>33</v>
@@ -8457,7 +8457,7 @@
         <v>45197.54166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
         <v>31</v>
@@ -8540,7 +8540,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6813832</v>
+        <v>6813826</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8549,61 +8549,61 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
         <v>50</v>
       </c>
       <c r="L88">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="M88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O88">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q88">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8612,16 +8612,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD88">
         <v>-1</v>
@@ -8632,7 +8632,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6813826</v>
+        <v>6813827</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8641,16 +8641,16 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -8659,37 +8659,37 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L89">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="M89">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N89">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="P89">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q89">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="R89">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S89">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V89">
         <v>1.825</v>
@@ -8698,25 +8698,25 @@
         <v>2.025</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AD89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8724,7 +8724,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6813827</v>
+        <v>6813832</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8733,82 +8733,82 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L90">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="M90">
         <v>3.6</v>
       </c>
       <c r="N90">
+        <v>2.375</v>
+      </c>
+      <c r="O90">
+        <v>2.55</v>
+      </c>
+      <c r="P90">
         <v>3.5</v>
       </c>
-      <c r="O90">
-        <v>1.65</v>
-      </c>
-      <c r="P90">
-        <v>3.6</v>
-      </c>
       <c r="Q90">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="R90">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
         <v>1.85</v>
       </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
       <c r="U90">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AD90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8908,7 +8908,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6813830</v>
+        <v>6813833</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8917,61 +8917,61 @@
         <v>45199.375</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
         <v>50</v>
       </c>
       <c r="L92">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M92">
+        <v>3.6</v>
+      </c>
+      <c r="N92">
         <v>3.5</v>
       </c>
-      <c r="N92">
-        <v>2.8</v>
-      </c>
       <c r="O92">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q92">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="R92">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U92">
         <v>3</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8980,19 +8980,19 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6813833</v>
+        <v>6813830</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,61 +9009,61 @@
         <v>45199.375</v>
       </c>
       <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
         <v>34</v>
       </c>
-      <c r="F93" t="s">
-        <v>46</v>
-      </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
         <v>50</v>
       </c>
       <c r="L93">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M93">
+        <v>3.5</v>
+      </c>
+      <c r="N93">
+        <v>2.8</v>
+      </c>
+      <c r="O93">
+        <v>1.85</v>
+      </c>
+      <c r="P93">
         <v>3.6</v>
       </c>
-      <c r="N93">
-        <v>3.5</v>
-      </c>
-      <c r="O93">
-        <v>1.666</v>
-      </c>
-      <c r="P93">
-        <v>3.8</v>
-      </c>
       <c r="Q93">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="R93">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U93">
         <v>3</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -9072,19 +9072,19 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9285,10 +9285,10 @@
         <v>45202.375</v>
       </c>
       <c r="E96" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" t="s">
         <v>37</v>
-      </c>
-      <c r="F96" t="s">
-        <v>36</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -9561,7 +9561,7 @@
         <v>45202.375</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
         <v>31</v>
@@ -9656,7 +9656,7 @@
         <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9920,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6813839</v>
+        <v>6814791</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9929,82 +9929,82 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>50</v>
+      </c>
+      <c r="L103">
+        <v>1.666</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>3.8</v>
+      </c>
+      <c r="O103">
+        <v>1.666</v>
+      </c>
+      <c r="P103">
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <v>3.8</v>
+      </c>
+      <c r="R103">
+        <v>-0.75</v>
+      </c>
+      <c r="S103">
+        <v>1.9</v>
+      </c>
+      <c r="T103">
+        <v>1.95</v>
+      </c>
+      <c r="U103">
         <v>3</v>
       </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>2</v>
-      </c>
-      <c r="K103" t="s">
-        <v>48</v>
-      </c>
-      <c r="L103">
-        <v>2</v>
-      </c>
-      <c r="M103">
-        <v>3.75</v>
-      </c>
-      <c r="N103">
-        <v>2.875</v>
-      </c>
-      <c r="O103">
-        <v>2.25</v>
-      </c>
-      <c r="P103">
-        <v>3.75</v>
-      </c>
-      <c r="Q103">
-        <v>2.55</v>
-      </c>
-      <c r="R103">
-        <v>-0.25</v>
-      </c>
-      <c r="S103">
-        <v>2.1</v>
-      </c>
-      <c r="T103">
-        <v>1.775</v>
-      </c>
-      <c r="U103">
-        <v>2.75</v>
-      </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X103">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10012,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6814791</v>
+        <v>6813839</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10021,13 +10021,13 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10036,67 +10036,67 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L104">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="O104">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="P104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q104">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="R104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S104">
+        <v>2.1</v>
+      </c>
+      <c r="T104">
+        <v>1.775</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
         <v>1.9</v>
       </c>
-      <c r="T104">
+      <c r="W104">
         <v>1.95</v>
       </c>
-      <c r="U104">
-        <v>3</v>
-      </c>
-      <c r="V104">
-        <v>2</v>
-      </c>
-      <c r="W104">
-        <v>1.85</v>
-      </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10116,7 +10116,7 @@
         <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -10392,7 +10392,7 @@
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>5</v>
@@ -10665,7 +10665,7 @@
         <v>45207.375</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
         <v>43</v>
@@ -10757,7 +10757,7 @@
         <v>45207.375</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
         <v>30</v>
@@ -10932,7 +10932,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6813860</v>
+        <v>6813857</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10941,10 +10941,10 @@
         <v>45213.375</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -10962,43 +10962,43 @@
         <v>48</v>
       </c>
       <c r="L114">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N114">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="O114">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="P114">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q114">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="R114">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S114">
+        <v>2.025</v>
+      </c>
+      <c r="T114">
         <v>1.825</v>
       </c>
-      <c r="T114">
+      <c r="U114">
+        <v>3.25</v>
+      </c>
+      <c r="V114">
         <v>2.025</v>
       </c>
-      <c r="U114">
-        <v>2.75</v>
-      </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X114">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Y114">
         <v>-1</v>
@@ -11007,16 +11007,16 @@
         <v>-1</v>
       </c>
       <c r="AA114">
+        <v>1.025</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
+        <v>-1</v>
+      </c>
+      <c r="AD114">
         <v>0.825</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
-      </c>
-      <c r="AD114">
-        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11128,7 +11128,7 @@
         <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -11208,7 +11208,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6813857</v>
+        <v>6813860</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11217,10 +11217,10 @@
         <v>45213.375</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -11238,43 +11238,43 @@
         <v>48</v>
       </c>
       <c r="L117">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N117">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="O117">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q117">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="R117">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S117">
+        <v>1.825</v>
+      </c>
+      <c r="T117">
         <v>2.025</v>
       </c>
-      <c r="T117">
-        <v>1.825</v>
-      </c>
       <c r="U117">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X117">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -11283,7 +11283,7 @@
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -11292,7 +11292,7 @@
         <v>-1</v>
       </c>
       <c r="AD117">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11300,7 +11300,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6813856</v>
+        <v>6813861</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11309,55 +11309,55 @@
         <v>45213.375</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
       </c>
       <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118" t="s">
+        <v>50</v>
+      </c>
+      <c r="L118">
+        <v>5.5</v>
+      </c>
+      <c r="M118">
+        <v>4.5</v>
+      </c>
+      <c r="N118">
+        <v>1.4</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>4.5</v>
+      </c>
+      <c r="Q118">
+        <v>1.45</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>1.825</v>
+      </c>
+      <c r="U118">
         <v>3</v>
-      </c>
-      <c r="H118">
-        <v>2</v>
-      </c>
-      <c r="I118">
-        <v>2</v>
-      </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="K118" t="s">
-        <v>48</v>
-      </c>
-      <c r="L118">
-        <v>2</v>
-      </c>
-      <c r="M118">
-        <v>3.75</v>
-      </c>
-      <c r="N118">
-        <v>2.875</v>
-      </c>
-      <c r="O118">
-        <v>2.3</v>
-      </c>
-      <c r="P118">
-        <v>3.8</v>
-      </c>
-      <c r="Q118">
-        <v>2.45</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>1.85</v>
-      </c>
-      <c r="T118">
-        <v>1.95</v>
-      </c>
-      <c r="U118">
-        <v>3.25</v>
       </c>
       <c r="V118">
         <v>2</v>
@@ -11366,19 +11366,19 @@
         <v>1.85</v>
       </c>
       <c r="X118">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>1</v>
@@ -11484,7 +11484,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6813861</v>
+        <v>6813856</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11493,55 +11493,55 @@
         <v>45213.375</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
         <v>36</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L120">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="O120">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q120">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="R120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U120">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V120">
         <v>2</v>
@@ -11550,19 +11550,19 @@
         <v>1.85</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
         <v>1</v>
@@ -11585,7 +11585,7 @@
         <v>45216.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
@@ -11760,7 +11760,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6813863</v>
+        <v>6813870</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11769,46 +11769,46 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G123">
         <v>2</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L123">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="M123">
         <v>3.75</v>
       </c>
       <c r="N123">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O123">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q123">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="R123">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S123">
         <v>1.85</v>
@@ -11817,7 +11817,7 @@
         <v>1.95</v>
       </c>
       <c r="U123">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V123">
         <v>1.975</v>
@@ -11826,25 +11826,25 @@
         <v>1.825</v>
       </c>
       <c r="X123">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11852,7 +11852,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6813866</v>
+        <v>6813871</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11861,82 +11861,82 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="s">
         <v>49</v>
       </c>
       <c r="L124">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M124">
         <v>3.6</v>
       </c>
       <c r="N124">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O124">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="P124">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q124">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="R124">
+        <v>0.25</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>1.975</v>
+      </c>
+      <c r="U124">
+        <v>2.5</v>
+      </c>
+      <c r="V124">
+        <v>1.85</v>
+      </c>
+      <c r="W124">
+        <v>1.95</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>2.5</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>0.4125</v>
+      </c>
+      <c r="AB124">
         <v>-0.5</v>
       </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>1.85</v>
-      </c>
-      <c r="U124">
-        <v>2.75</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
-      <c r="W124">
-        <v>1.975</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>2.75</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC124">
         <v>-1</v>
       </c>
       <c r="AD124">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11944,7 +11944,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6813867</v>
+        <v>6813868</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11953,82 +11953,82 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L125">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="M125">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
+        <v>2.25</v>
+      </c>
+      <c r="O125">
+        <v>4</v>
+      </c>
+      <c r="P125">
+        <v>3.8</v>
+      </c>
+      <c r="Q125">
+        <v>1.7</v>
+      </c>
+      <c r="R125">
+        <v>0.75</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>1.975</v>
+      </c>
+      <c r="U125">
+        <v>3.25</v>
+      </c>
+      <c r="V125">
+        <v>1.95</v>
+      </c>
+      <c r="W125">
+        <v>1.85</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
         <v>2.8</v>
       </c>
-      <c r="O125">
-        <v>1.571</v>
-      </c>
-      <c r="P125">
-        <v>3.6</v>
-      </c>
-      <c r="Q125">
-        <v>4.75</v>
-      </c>
-      <c r="R125">
-        <v>-1</v>
-      </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>1.8</v>
-      </c>
-      <c r="U125">
-        <v>3</v>
-      </c>
-      <c r="V125">
-        <v>2.025</v>
-      </c>
-      <c r="W125">
-        <v>1.825</v>
-      </c>
-      <c r="X125">
-        <v>0.571</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12036,7 +12036,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6813868</v>
+        <v>6813867</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12045,82 +12045,82 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L126">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="M126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="P126">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q126">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="R126">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="S126">
+        <v>2.05</v>
+      </c>
+      <c r="T126">
+        <v>1.8</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>2.025</v>
+      </c>
+      <c r="W126">
         <v>1.825</v>
       </c>
-      <c r="T126">
-        <v>1.975</v>
-      </c>
-      <c r="U126">
-        <v>3.25</v>
-      </c>
-      <c r="V126">
-        <v>1.95</v>
-      </c>
-      <c r="W126">
-        <v>1.85</v>
-      </c>
       <c r="X126">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y126">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12128,7 +12128,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6813871</v>
+        <v>6813866</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12137,82 +12137,82 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="s">
         <v>49</v>
       </c>
       <c r="L127">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M127">
         <v>3.6</v>
       </c>
       <c r="N127">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O127">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="P127">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="R127">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S127">
+        <v>1.95</v>
+      </c>
+      <c r="T127">
+        <v>1.85</v>
+      </c>
+      <c r="U127">
+        <v>2.75</v>
+      </c>
+      <c r="V127">
         <v>1.825</v>
       </c>
-      <c r="T127">
+      <c r="W127">
         <v>1.975</v>
       </c>
-      <c r="U127">
-        <v>2.5</v>
-      </c>
-      <c r="V127">
-        <v>1.85</v>
-      </c>
-      <c r="W127">
-        <v>1.95</v>
-      </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
       </c>
       <c r="AD127">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12220,7 +12220,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6813870</v>
+        <v>6813863</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12229,46 +12229,46 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>2</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L128">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="M128">
         <v>3.75</v>
       </c>
       <c r="N128">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="P128">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q128">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="R128">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S128">
         <v>1.85</v>
@@ -12277,7 +12277,7 @@
         <v>1.95</v>
       </c>
       <c r="U128">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V128">
         <v>1.975</v>
@@ -12286,25 +12286,25 @@
         <v>1.825</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12416,7 +12416,7 @@
         <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -12508,7 +12508,7 @@
         <v>46</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>44</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -13060,7 +13060,7 @@
         <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -13520,7 +13520,7 @@
         <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>4</v>
@@ -13612,7 +13612,7 @@
         <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -13704,7 +13704,7 @@
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -13968,7 +13968,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6813891</v>
+        <v>6813889</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13977,82 +13977,82 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L147">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M147">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N147">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O147">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="P147">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q147">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="R147">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V147">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z147">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB147">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD147">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14060,7 +14060,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6813889</v>
+        <v>6813891</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14069,82 +14069,82 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L148">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M148">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N148">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O148">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="P148">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q148">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="R148">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD148">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14161,7 +14161,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
         <v>39</v>
@@ -14529,7 +14529,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
         <v>46</v>
@@ -14621,7 +14621,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
         <v>42</v>
@@ -14713,7 +14713,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
         <v>43</v>
@@ -14900,7 +14900,7 @@
         <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -14992,7 +14992,7 @@
         <v>44</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -15256,7 +15256,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6813899</v>
+        <v>6813904</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15265,82 +15265,82 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
         <v>35</v>
       </c>
       <c r="G161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L161">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="M161">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N161">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O161">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="P161">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q161">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="R161">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U161">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X161">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD161">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15348,7 +15348,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6813904</v>
+        <v>6813905</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15357,82 +15357,82 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L162">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="M162">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N162">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="O162">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="P162">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q162">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="R162">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U162">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AD162">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15532,7 +15532,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6813905</v>
+        <v>6813899</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15541,13 +15541,13 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15562,43 +15562,43 @@
         <v>48</v>
       </c>
       <c r="L164">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="M164">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N164">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O164">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q164">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="R164">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U164">
         <v>3.25</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X164">
-        <v>0.333</v>
+        <v>2.3</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15607,13 +15607,13 @@
         <v>-1</v>
       </c>
       <c r="AA164">
+        <v>0.825</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.925</v>
-      </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
-      <c r="AC164">
-        <v>1.025</v>
       </c>
       <c r="AD164">
         <v>-1</v>
@@ -15909,7 +15909,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
         <v>47</v>
@@ -16372,7 +16372,7 @@
         <v>44</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -16556,7 +16556,7 @@
         <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -16737,7 +16737,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
         <v>45</v>
@@ -16829,7 +16829,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
         <v>38</v>
@@ -17289,7 +17289,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
         <v>43</v>
@@ -17384,7 +17384,7 @@
         <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -17657,7 +17657,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F187" t="s">
         <v>38</v>
@@ -17749,7 +17749,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F188" t="s">
         <v>40</v>
@@ -17936,7 +17936,7 @@
         <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -18120,7 +18120,7 @@
         <v>33</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -18304,7 +18304,7 @@
         <v>39</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -18485,7 +18485,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
         <v>32</v>
@@ -18660,7 +18660,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7763101</v>
+        <v>7763221</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18669,64 +18669,64 @@
         <v>45363.625</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G198">
         <v>2</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>1</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198" t="s">
         <v>48</v>
       </c>
       <c r="L198">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M198">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N198">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O198">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="P198">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q198">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="R198">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U198">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W198">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X198">
-        <v>0.3999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18735,16 +18735,16 @@
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB198">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD198">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18752,7 +18752,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7763221</v>
+        <v>7763101</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18761,64 +18761,64 @@
         <v>45363.625</v>
       </c>
       <c r="E199" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G199">
         <v>2</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K199" t="s">
         <v>48</v>
       </c>
       <c r="L199">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M199">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N199">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O199">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="P199">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q199">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="R199">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S199">
+        <v>1.9</v>
+      </c>
+      <c r="T199">
+        <v>1.9</v>
+      </c>
+      <c r="U199">
+        <v>3.25</v>
+      </c>
+      <c r="V199">
         <v>1.825</v>
       </c>
-      <c r="T199">
+      <c r="W199">
         <v>1.975</v>
       </c>
-      <c r="U199">
-        <v>2.75</v>
-      </c>
-      <c r="V199">
-        <v>1.8</v>
-      </c>
-      <c r="W199">
-        <v>2</v>
-      </c>
       <c r="X199">
-        <v>0.95</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18827,16 +18827,16 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD199">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -19037,7 +19037,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F202" t="s">
         <v>41</v>
@@ -19405,7 +19405,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F206" t="s">
         <v>40</v>
@@ -19497,10 +19497,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -19672,7 +19672,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6813956</v>
+        <v>6813954</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19681,82 +19681,82 @@
         <v>45373.625</v>
       </c>
       <c r="E209" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="M209">
         <v>4</v>
       </c>
       <c r="N209">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="P209">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q209">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="R209">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S209">
+        <v>1.775</v>
+      </c>
+      <c r="T209">
+        <v>2.025</v>
+      </c>
+      <c r="U209">
+        <v>3.25</v>
+      </c>
+      <c r="V209">
         <v>1.925</v>
       </c>
-      <c r="T209">
+      <c r="W209">
         <v>1.875</v>
       </c>
-      <c r="U209">
-        <v>3</v>
-      </c>
-      <c r="V209">
-        <v>1.9</v>
-      </c>
-      <c r="W209">
-        <v>1.9</v>
-      </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z209">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB209">
+        <v>-0.5</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+      <c r="AD209">
         <v>0.875</v>
-      </c>
-      <c r="AC209">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -19764,7 +19764,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6813954</v>
+        <v>6813956</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -19773,82 +19773,82 @@
         <v>45373.625</v>
       </c>
       <c r="E210" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I210">
         <v>0</v>
       </c>
       <c r="J210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K210" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L210">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
         <v>4</v>
       </c>
       <c r="N210">
+        <v>1.8</v>
+      </c>
+      <c r="O210">
+        <v>3.2</v>
+      </c>
+      <c r="P210">
         <v>4</v>
       </c>
-      <c r="O210">
-        <v>2.6</v>
-      </c>
-      <c r="P210">
-        <v>3.6</v>
-      </c>
       <c r="Q210">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="R210">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S210">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T210">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U210">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA210">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD210">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -19856,7 +19856,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6813961</v>
+        <v>6813955</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19865,82 +19865,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L211">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="M211">
         <v>4</v>
       </c>
       <c r="N211">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O211">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="P211">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q211">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="R211">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U211">
         <v>2.75</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W211">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD211">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -19948,7 +19948,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6813960</v>
+        <v>6813961</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19957,62 +19957,62 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>2</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K212" t="s">
         <v>50</v>
       </c>
       <c r="L212">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M212">
         <v>4</v>
       </c>
       <c r="N212">
+        <v>3.1</v>
+      </c>
+      <c r="O212">
+        <v>1.8</v>
+      </c>
+      <c r="P212">
+        <v>4</v>
+      </c>
+      <c r="Q212">
+        <v>3.4</v>
+      </c>
+      <c r="R212">
+        <v>-0.5</v>
+      </c>
+      <c r="S212">
+        <v>1.85</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
         <v>2.75</v>
       </c>
-      <c r="O212">
-        <v>1.95</v>
-      </c>
-      <c r="P212">
-        <v>3.4</v>
-      </c>
-      <c r="Q212">
-        <v>3.1</v>
-      </c>
-      <c r="R212">
-        <v>-0.25</v>
-      </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.8</v>
       </c>
-      <c r="T212">
+      <c r="W212">
         <v>2.05</v>
       </c>
-      <c r="U212">
-        <v>2.5</v>
-      </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
-      <c r="W212">
-        <v>1.875</v>
-      </c>
       <c r="X212">
         <v>-1</v>
       </c>
@@ -20020,19 +20020,19 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD212">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20040,7 +20040,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6813959</v>
+        <v>6813960</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20049,82 +20049,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213">
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L213">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N213">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="O213">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q213">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="R213">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U213">
         <v>2.5</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA213">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD213">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20132,7 +20132,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6813958</v>
+        <v>6813959</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20141,82 +20141,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L214">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="M214">
+        <v>6</v>
+      </c>
+      <c r="N214">
+        <v>9</v>
+      </c>
+      <c r="O214">
+        <v>1.5</v>
+      </c>
+      <c r="P214">
         <v>3.6</v>
       </c>
-      <c r="N214">
-        <v>3.4</v>
-      </c>
-      <c r="O214">
-        <v>2.2</v>
-      </c>
-      <c r="P214">
-        <v>3.4</v>
-      </c>
       <c r="Q214">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="R214">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
         <v>2.5</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB214">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20224,7 +20224,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6813955</v>
+        <v>6813958</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -20233,82 +20233,82 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215">
         <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L215">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N215">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="O215">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P215">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q215">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="R215">
         <v>-0.25</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T215">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="U215">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC215">
         <v>-1</v>
       </c>
       <c r="AD215">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20420,7 +20420,7 @@
         <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -20601,10 +20601,10 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -20785,7 +20785,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F221" t="s">
         <v>32</v>
@@ -21340,7 +21340,7 @@
         <v>39</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G227">
         <v>5</v>
@@ -21429,7 +21429,7 @@
         <v>45384.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F228" t="s">
         <v>42</v>
@@ -21696,7 +21696,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6813979</v>
+        <v>6813980</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21705,16 +21705,16 @@
         <v>45388.375</v>
       </c>
       <c r="E231" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G231">
         <v>0</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -21726,40 +21726,40 @@
         <v>50</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="M231">
         <v>3.6</v>
       </c>
       <c r="N231">
+        <v>3.2</v>
+      </c>
+      <c r="O231">
+        <v>2</v>
+      </c>
+      <c r="P231">
+        <v>3.5</v>
+      </c>
+      <c r="Q231">
+        <v>3.25</v>
+      </c>
+      <c r="R231">
+        <v>-0.5</v>
+      </c>
+      <c r="S231">
+        <v>2.05</v>
+      </c>
+      <c r="T231">
         <v>1.8</v>
       </c>
-      <c r="O231">
-        <v>2.875</v>
-      </c>
-      <c r="P231">
-        <v>3.4</v>
-      </c>
-      <c r="Q231">
-        <v>2.15</v>
-      </c>
-      <c r="R231">
-        <v>0.25</v>
-      </c>
-      <c r="S231">
-        <v>1.85</v>
-      </c>
-      <c r="T231">
-        <v>2</v>
-      </c>
       <c r="U231">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21768,19 +21768,19 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC231">
         <v>-1</v>
       </c>
       <c r="AD231">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21788,7 +21788,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6813978</v>
+        <v>6813979</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -21797,16 +21797,16 @@
         <v>45388.375</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F232" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -21818,40 +21818,40 @@
         <v>50</v>
       </c>
       <c r="L232">
+        <v>3.6</v>
+      </c>
+      <c r="M232">
+        <v>3.6</v>
+      </c>
+      <c r="N232">
         <v>1.8</v>
       </c>
-      <c r="M232">
-        <v>3.8</v>
-      </c>
-      <c r="N232">
+      <c r="O232">
+        <v>2.875</v>
+      </c>
+      <c r="P232">
         <v>3.4</v>
       </c>
-      <c r="O232">
-        <v>1.8</v>
-      </c>
-      <c r="P232">
-        <v>4</v>
-      </c>
       <c r="Q232">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="R232">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S232">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U232">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21860,19 +21860,19 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC232">
         <v>-1</v>
       </c>
       <c r="AD232">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -21880,7 +21880,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6813975</v>
+        <v>6813978</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -21889,10 +21889,10 @@
         <v>45388.375</v>
       </c>
       <c r="E233" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -21910,40 +21910,40 @@
         <v>50</v>
       </c>
       <c r="L233">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="M233">
         <v>3.8</v>
       </c>
       <c r="N233">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="P233">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q233">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="R233">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S233">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
         <v>1.975</v>
       </c>
       <c r="U233">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V233">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W233">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21952,19 +21952,19 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.571</v>
+        <v>2.3</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC233">
         <v>-1</v>
       </c>
       <c r="AD233">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -21972,7 +21972,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6813974</v>
+        <v>6813975</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -21981,61 +21981,61 @@
         <v>45388.375</v>
       </c>
       <c r="E234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K234" t="s">
         <v>50</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M234">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N234">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O234">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P234">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q234">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="R234">
         <v>1</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T234">
         <v>1.975</v>
       </c>
       <c r="U234">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -22044,19 +22044,19 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB234">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC234">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD234">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22064,7 +22064,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6813980</v>
+        <v>6813974</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22073,61 +22073,61 @@
         <v>45388.375</v>
       </c>
       <c r="E235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K235" t="s">
         <v>50</v>
       </c>
       <c r="L235">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N235">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O235">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="P235">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q235">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="R235">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T235">
+        <v>1.975</v>
+      </c>
+      <c r="U235">
+        <v>3</v>
+      </c>
+      <c r="V235">
         <v>1.8</v>
       </c>
-      <c r="U235">
-        <v>2.75</v>
-      </c>
-      <c r="V235">
-        <v>1.95</v>
-      </c>
       <c r="W235">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -22136,19 +22136,19 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>2.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC235">
         <v>0.8</v>
       </c>
-      <c r="AC235">
-        <v>-1</v>
-      </c>
       <c r="AD235">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22720,7 +22720,7 @@
         <v>46</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -22809,7 +22809,7 @@
         <v>45395.375</v>
       </c>
       <c r="E243" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F243" t="s">
         <v>32</v>
@@ -22901,7 +22901,7 @@
         <v>45395.375</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
         <v>44</v>
@@ -22993,7 +22993,7 @@
         <v>45398.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F245" t="s">
         <v>31</v>
@@ -23168,7 +23168,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6813989</v>
+        <v>6813990</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23177,82 +23177,82 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L247">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="M247">
+        <v>4</v>
+      </c>
+      <c r="N247">
+        <v>3</v>
+      </c>
+      <c r="O247">
+        <v>2.375</v>
+      </c>
+      <c r="P247">
         <v>3.75</v>
       </c>
-      <c r="N247">
-        <v>2.2</v>
-      </c>
-      <c r="O247">
-        <v>2.6</v>
-      </c>
-      <c r="P247">
-        <v>3.6</v>
-      </c>
       <c r="Q247">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="R247">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S247">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U247">
         <v>2.75</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y247">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD247">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23260,7 +23260,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6813990</v>
+        <v>6813991</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23269,64 +23269,64 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G248">
         <v>3</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K248" t="s">
         <v>48</v>
       </c>
       <c r="L248">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="M248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N248">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O248">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="P248">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q248">
-        <v>2.45</v>
+        <v>7.5</v>
       </c>
       <c r="R248">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="S248">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T248">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U248">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V248">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W248">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X248">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="Y248">
         <v>-1</v>
@@ -23335,16 +23335,16 @@
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB248">
         <v>-1</v>
       </c>
       <c r="AC248">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD248">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23352,7 +23352,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6813991</v>
+        <v>6813989</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23361,82 +23361,82 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E249" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F249" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L249">
-        <v>1.2</v>
+        <v>2.55</v>
       </c>
       <c r="M249">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N249">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="O249">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="P249">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q249">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="R249">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T249">
+        <v>2.025</v>
+      </c>
+      <c r="U249">
+        <v>2.75</v>
+      </c>
+      <c r="V249">
+        <v>1.825</v>
+      </c>
+      <c r="W249">
         <v>1.975</v>
       </c>
-      <c r="U249">
-        <v>3.5</v>
-      </c>
-      <c r="V249">
-        <v>2.025</v>
-      </c>
-      <c r="W249">
-        <v>1.825</v>
-      </c>
       <c r="X249">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC249">
         <v>-1</v>
       </c>
       <c r="AD249">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23545,7 +23545,7 @@
         <v>45402.375</v>
       </c>
       <c r="E251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F251" t="s">
         <v>45</v>
@@ -23821,10 +23821,10 @@
         <v>45402.375</v>
       </c>
       <c r="E254" t="s">
+        <v>37</v>
+      </c>
+      <c r="F254" t="s">
         <v>36</v>
-      </c>
-      <c r="F254" t="s">
-        <v>37</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -24100,7 +24100,7 @@
         <v>43</v>
       </c>
       <c r="F257" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -24192,7 +24192,7 @@
         <v>30</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G258">
         <v>4</v>
@@ -24281,7 +24281,7 @@
         <v>45409.375</v>
       </c>
       <c r="E259" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F259" t="s">
         <v>31</v>
@@ -24373,7 +24373,7 @@
         <v>45409.375</v>
       </c>
       <c r="E260" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F260" t="s">
         <v>38</v>
@@ -24925,7 +24925,7 @@
         <v>45415.5625</v>
       </c>
       <c r="E266" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F266" t="s">
         <v>46</v>
@@ -25008,7 +25008,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6990098</v>
+        <v>6990099</v>
       </c>
       <c r="C267" t="s">
         <v>29</v>
@@ -25017,82 +25017,82 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E267" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K267" t="s">
         <v>49</v>
       </c>
       <c r="L267">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="M267">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N267">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O267">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P267">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q267">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R267">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S267">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T267">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U267">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V267">
         <v>1.925</v>
       </c>
       <c r="W267">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
         <v>-1</v>
       </c>
       <c r="AD267">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:30">
@@ -25100,7 +25100,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6990099</v>
+        <v>6990098</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25109,82 +25109,82 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E268" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F268" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K268" t="s">
         <v>49</v>
       </c>
       <c r="L268">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="M268">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N268">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O268">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="P268">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q268">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="R268">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S268">
+        <v>1.825</v>
+      </c>
+      <c r="T268">
         <v>1.975</v>
       </c>
-      <c r="T268">
-        <v>1.875</v>
-      </c>
       <c r="U268">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V268">
         <v>1.925</v>
       </c>
       <c r="W268">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC268">
         <v>-1</v>
       </c>
       <c r="AD268">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25293,10 +25293,10 @@
         <v>45416.375</v>
       </c>
       <c r="E270" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G270">
         <v>3</v>
@@ -25477,7 +25477,7 @@
         <v>45416.375</v>
       </c>
       <c r="E272" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F272" t="s">
         <v>41</v>
@@ -25756,7 +25756,7 @@
         <v>30</v>
       </c>
       <c r="F275" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7023611</v>
+        <v>7023610</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25845,64 +25845,64 @@
         <v>45423.375</v>
       </c>
       <c r="E276" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F276" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G276">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K276" t="s">
         <v>48</v>
       </c>
       <c r="L276">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="M276">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N276">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O276">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="P276">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q276">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="R276">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S276">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T276">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U276">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W276">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X276">
-        <v>0.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y276">
         <v>-1</v>
@@ -25911,13 +25911,13 @@
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB276">
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD276">
         <v>-1</v>
@@ -25928,7 +25928,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7023610</v>
+        <v>7023611</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -25937,64 +25937,64 @@
         <v>45423.375</v>
       </c>
       <c r="E277" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F277" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G277">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K277" t="s">
         <v>48</v>
       </c>
       <c r="L277">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="M277">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N277">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="O277">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="P277">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q277">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="R277">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="S277">
+        <v>1.975</v>
+      </c>
+      <c r="T277">
+        <v>1.875</v>
+      </c>
+      <c r="U277">
+        <v>3.5</v>
+      </c>
+      <c r="V277">
         <v>1.9</v>
       </c>
-      <c r="T277">
-        <v>1.9</v>
-      </c>
-      <c r="U277">
-        <v>3.25</v>
-      </c>
-      <c r="V277">
-        <v>2</v>
-      </c>
       <c r="W277">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X277">
-        <v>0.8500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Y277">
         <v>-1</v>
@@ -26003,13 +26003,13 @@
         <v>-1</v>
       </c>
       <c r="AA277">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB277">
+        <v>-1</v>
+      </c>
+      <c r="AC277">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB277">
-        <v>-1</v>
-      </c>
-      <c r="AC277">
-        <v>1</v>
       </c>
       <c r="AD277">
         <v>-1</v>
@@ -26020,7 +26020,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7023622</v>
+        <v>7020637</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -26029,82 +26029,82 @@
         <v>45423.375</v>
       </c>
       <c r="E278" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F278" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278">
         <v>0</v>
       </c>
       <c r="J278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K278" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L278">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="M278">
         <v>4</v>
       </c>
       <c r="N278">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O278">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="P278">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q278">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="R278">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S278">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U278">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W278">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
         <v>-1</v>
       </c>
       <c r="AD278">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:30">
@@ -26296,7 +26296,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7020637</v>
+        <v>7356798</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26305,16 +26305,16 @@
         <v>45423.375</v>
       </c>
       <c r="E281" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G281">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -26323,64 +26323,64 @@
         <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L281">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M281">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N281">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O281">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="P281">
         <v>3.75</v>
       </c>
       <c r="Q281">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="R281">
+        <v>0.25</v>
+      </c>
+      <c r="S281">
+        <v>1.8</v>
+      </c>
+      <c r="T281">
+        <v>2.05</v>
+      </c>
+      <c r="U281">
+        <v>3.25</v>
+      </c>
+      <c r="V281">
+        <v>1.975</v>
+      </c>
+      <c r="W281">
+        <v>1.875</v>
+      </c>
+      <c r="X281">
+        <v>-1</v>
+      </c>
+      <c r="Y281">
+        <v>-1</v>
+      </c>
+      <c r="Z281">
+        <v>1.2</v>
+      </c>
+      <c r="AA281">
+        <v>-1</v>
+      </c>
+      <c r="AB281">
+        <v>1.05</v>
+      </c>
+      <c r="AC281">
         <v>-0.5</v>
       </c>
-      <c r="S281">
-        <v>1.9</v>
-      </c>
-      <c r="T281">
-        <v>1.95</v>
-      </c>
-      <c r="U281">
-        <v>2.75</v>
-      </c>
-      <c r="V281">
-        <v>1.85</v>
-      </c>
-      <c r="W281">
-        <v>2</v>
-      </c>
-      <c r="X281">
-        <v>0.833</v>
-      </c>
-      <c r="Y281">
-        <v>-1</v>
-      </c>
-      <c r="Z281">
-        <v>-1</v>
-      </c>
-      <c r="AA281">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB281">
-        <v>-1</v>
-      </c>
-      <c r="AC281">
-        <v>-1</v>
-      </c>
       <c r="AD281">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26388,7 +26388,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7356798</v>
+        <v>7023622</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26397,61 +26397,61 @@
         <v>45423.375</v>
       </c>
       <c r="E282" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I282">
         <v>0</v>
       </c>
       <c r="J282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282" t="s">
         <v>50</v>
       </c>
       <c r="L282">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="M282">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N282">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O282">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="P282">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q282">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="R282">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="S282">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T282">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U282">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V282">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -26460,19 +26460,19 @@
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="AA282">
         <v>-1</v>
       </c>
       <c r="AB282">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC282">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD282">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -26489,7 +26489,7 @@
         <v>45427.52083333334</v>
       </c>
       <c r="E283" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F283" t="s">
         <v>44</v>
@@ -26581,7 +26581,7 @@
         <v>45429.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F284" t="s">
         <v>43</v>
@@ -26664,7 +26664,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7054460</v>
+        <v>7054458</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
@@ -26673,19 +26673,19 @@
         <v>45430.375</v>
       </c>
       <c r="E285" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F285" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G285">
+        <v>4</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
         <v>3</v>
-      </c>
-      <c r="H285">
-        <v>1</v>
-      </c>
-      <c r="I285">
-        <v>2</v>
       </c>
       <c r="J285">
         <v>0</v>
@@ -26694,43 +26694,43 @@
         <v>48</v>
       </c>
       <c r="L285">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M285">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N285">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O285">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P285">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q285">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R285">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T285">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U285">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V285">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="W285">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X285">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="Y285">
         <v>-1</v>
@@ -26739,13 +26739,13 @@
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AD285">
         <v>-1</v>
@@ -26848,7 +26848,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7054458</v>
+        <v>7054460</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26857,19 +26857,19 @@
         <v>45430.375</v>
       </c>
       <c r="E287" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G287">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J287">
         <v>0</v>
@@ -26878,43 +26878,43 @@
         <v>48</v>
       </c>
       <c r="L287">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M287">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N287">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O287">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="P287">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="Q287">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R287">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S287">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T287">
+        <v>1.825</v>
+      </c>
+      <c r="U287">
+        <v>3.25</v>
+      </c>
+      <c r="V287">
+        <v>2.05</v>
+      </c>
+      <c r="W287">
         <v>1.8</v>
       </c>
-      <c r="U287">
-        <v>3</v>
-      </c>
-      <c r="V287">
-        <v>1.75</v>
-      </c>
-      <c r="W287">
-        <v>1.95</v>
-      </c>
       <c r="X287">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="Y287">
         <v>-1</v>
@@ -26923,13 +26923,13 @@
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB287">
         <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AD287">
         <v>-1</v>
@@ -27133,7 +27133,7 @@
         <v>45430.375</v>
       </c>
       <c r="E290" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F290" t="s">
         <v>46</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -148,10 +148,10 @@
     <t>Memmingen</t>
   </si>
   <si>
-    <t>FV Illertissen</t>
+    <t>DJK Vilzing</t>
   </si>
   <si>
-    <t>DJK Vilzing</t>
+    <t>FV Illertissen</t>
   </si>
   <si>
     <t>SV SchaldingHeining</t>
@@ -916,7 +916,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6813733</v>
+        <v>6813740</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1928,7 +1928,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1946,61 +1946,61 @@
         <v>48</v>
       </c>
       <c r="L16">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q16">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>1.925</v>
+      </c>
+      <c r="U16">
+        <v>2.75</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>2.05</v>
+      </c>
+      <c r="X16">
+        <v>1.45</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.925</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
+        <v>0.4</v>
+      </c>
+      <c r="AD16">
         <v>-0.5</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>1.85</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
-      <c r="W16">
-        <v>1.9</v>
-      </c>
-      <c r="X16">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2008,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6813740</v>
+        <v>6813733</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2020,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2038,43 +2038,43 @@
         <v>48</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="P17">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X17">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2083,16 +2083,16 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2664,7 +2664,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2848,7 +2848,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>45147.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
@@ -3112,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6813754</v>
+        <v>6813757</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3121,82 +3121,82 @@
         <v>45149.5625</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L29">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M29">
         <v>3.6</v>
       </c>
       <c r="N29">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O29">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="R29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S29">
         <v>1.85</v>
       </c>
       <c r="T29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U29">
         <v>3</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB29">
-        <v>-1</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
-      </c>
       <c r="AD29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3204,7 +3204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6813757</v>
+        <v>6813754</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3213,82 +3213,82 @@
         <v>45149.5625</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L30">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M30">
         <v>3.6</v>
       </c>
       <c r="N30">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O30">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="R30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S30">
         <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6813753</v>
+        <v>6813752</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3305,82 +3305,82 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L31">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M31">
         <v>3.6</v>
       </c>
       <c r="N31">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O31">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q31">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T31">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC31">
         <v>-1</v>
       </c>
       <c r="AD31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3388,7 +3388,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6813751</v>
+        <v>6813753</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3397,82 +3397,82 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M32">
         <v>3.6</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O32">
         <v>1.571</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="R32">
         <v>-1</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U32">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V32">
         <v>1.95</v>
       </c>
       <c r="W32">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3480,7 +3480,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6813752</v>
+        <v>6813751</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3489,82 +3489,82 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M33">
         <v>3.6</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S33">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U33">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V33">
+        <v>1.95</v>
+      </c>
+      <c r="W33">
         <v>1.85</v>
       </c>
-      <c r="W33">
-        <v>2</v>
-      </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3860,7 +3860,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
@@ -4504,7 +4504,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6813789</v>
+        <v>6813788</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4869,13 +4869,13 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4884,67 +4884,67 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="M48">
         <v>3.6</v>
       </c>
       <c r="N48">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O48">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="P48">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q48">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U48">
         <v>3</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD48">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -4952,7 +4952,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6813788</v>
+        <v>6813789</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4961,13 +4961,13 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4976,67 +4976,67 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L49">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="M49">
         <v>3.6</v>
       </c>
       <c r="N49">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="O49">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="P49">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q49">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R49">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U49">
         <v>3</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD49">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6813786</v>
+        <v>6813779</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5053,19 +5053,19 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -5074,22 +5074,22 @@
         <v>48</v>
       </c>
       <c r="L50">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M50">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O50">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P50">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q50">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R50">
         <v>-1.25</v>
@@ -5101,7 +5101,7 @@
         <v>1.85</v>
       </c>
       <c r="U50">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V50">
         <v>1.825</v>
@@ -5110,7 +5110,7 @@
         <v>1.975</v>
       </c>
       <c r="X50">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -5125,10 +5125,10 @@
         <v>0.425</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD50">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5136,7 +5136,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6813779</v>
+        <v>6813786</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5145,19 +5145,19 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -5166,22 +5166,22 @@
         <v>48</v>
       </c>
       <c r="L51">
+        <v>1.5</v>
+      </c>
+      <c r="M51">
+        <v>4.1</v>
+      </c>
+      <c r="N51">
+        <v>4.8</v>
+      </c>
+      <c r="O51">
         <v>1.4</v>
       </c>
-      <c r="M51">
-        <v>4.75</v>
-      </c>
-      <c r="N51">
+      <c r="P51">
+        <v>4.333</v>
+      </c>
+      <c r="Q51">
         <v>5.5</v>
-      </c>
-      <c r="O51">
-        <v>1.45</v>
-      </c>
-      <c r="P51">
-        <v>4.5</v>
-      </c>
-      <c r="Q51">
-        <v>5</v>
       </c>
       <c r="R51">
         <v>-1.25</v>
@@ -5193,7 +5193,7 @@
         <v>1.85</v>
       </c>
       <c r="U51">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V51">
         <v>1.825</v>
@@ -5202,7 +5202,7 @@
         <v>1.975</v>
       </c>
       <c r="X51">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5217,10 +5217,10 @@
         <v>0.425</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD51">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5513,10 +5513,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
         <v>44</v>
-      </c>
-      <c r="F55" t="s">
-        <v>45</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5973,7 +5973,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
         <v>38</v>
@@ -6252,7 +6252,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6801,7 +6801,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -7264,7 +7264,7 @@
         <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7908,7 +7908,7 @@
         <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -8172,7 +8172,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6813820</v>
+        <v>6813821</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8181,82 +8181,82 @@
         <v>45192.375</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L84">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="M84">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O84">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="P84">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="R84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S84">
+        <v>1.875</v>
+      </c>
+      <c r="T84">
+        <v>1.925</v>
+      </c>
+      <c r="U84">
+        <v>3.25</v>
+      </c>
+      <c r="V84">
+        <v>1.975</v>
+      </c>
+      <c r="W84">
         <v>1.825</v>
       </c>
-      <c r="T84">
-        <v>1.975</v>
-      </c>
-      <c r="U84">
-        <v>3</v>
-      </c>
-      <c r="V84">
-        <v>1.825</v>
-      </c>
-      <c r="W84">
-        <v>1.975</v>
-      </c>
       <c r="X84">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y84">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8264,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6813821</v>
+        <v>6813820</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8273,82 +8273,82 @@
         <v>45192.375</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>49</v>
+      </c>
+      <c r="L85">
+        <v>1.909</v>
+      </c>
+      <c r="M85">
+        <v>3.9</v>
+      </c>
+      <c r="N85">
         <v>3</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>48</v>
-      </c>
-      <c r="L85">
-        <v>1.285</v>
-      </c>
-      <c r="M85">
-        <v>4.75</v>
-      </c>
-      <c r="N85">
-        <v>8</v>
-      </c>
       <c r="O85">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q85">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="R85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V85">
+        <v>1.825</v>
+      </c>
+      <c r="W85">
         <v>1.975</v>
       </c>
-      <c r="W85">
-        <v>1.825</v>
-      </c>
       <c r="X85">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
+        <v>-1</v>
+      </c>
+      <c r="AD85">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8365,7 +8365,7 @@
         <v>45192.375</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
         <v>40</v>
@@ -8644,7 +8644,7 @@
         <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6813830</v>
+        <v>6813829</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8917,82 +8917,82 @@
         <v>45199.375</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L92">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N92">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O92">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="P92">
         <v>3.6</v>
       </c>
       <c r="Q92">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R92">
+        <v>-0.25</v>
+      </c>
+      <c r="S92">
+        <v>2.025</v>
+      </c>
+      <c r="T92">
+        <v>1.825</v>
+      </c>
+      <c r="U92">
+        <v>3.25</v>
+      </c>
+      <c r="V92">
+        <v>1.975</v>
+      </c>
+      <c r="W92">
+        <v>1.875</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>2.6</v>
+      </c>
+      <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
         <v>-0.5</v>
       </c>
-      <c r="S92">
-        <v>1.95</v>
-      </c>
-      <c r="T92">
-        <v>1.9</v>
-      </c>
-      <c r="U92">
-        <v>3</v>
-      </c>
-      <c r="V92">
-        <v>1.85</v>
-      </c>
-      <c r="W92">
-        <v>2</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>-1</v>
-      </c>
-      <c r="Z92">
-        <v>2.6</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6813828</v>
+        <v>6813830</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,46 +9009,46 @@
         <v>45199.375</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L93">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M93">
         <v>3.5</v>
       </c>
       <c r="N93">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O93">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="P93">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q93">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="R93">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S93">
         <v>1.95</v>
@@ -9060,31 +9060,31 @@
         <v>3</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X93">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9092,7 +9092,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6813829</v>
+        <v>6813828</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9101,82 +9101,82 @@
         <v>45199.375</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L94">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N94">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="P94">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q94">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="R94">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U94">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W94">
+        <v>2.1</v>
+      </c>
+      <c r="X94">
         <v>1.875</v>
       </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
       <c r="Y94">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB94">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
         <v>-1</v>
       </c>
       <c r="AD94">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9368,7 +9368,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6813840</v>
+        <v>6813836</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9380,61 +9380,61 @@
         <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="s">
         <v>48</v>
       </c>
       <c r="L97">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="M97">
         <v>3.8</v>
       </c>
       <c r="N97">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O97">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="R97">
         <v>-0.25</v>
       </c>
       <c r="S97">
+        <v>1.95</v>
+      </c>
+      <c r="T97">
+        <v>1.75</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="T97">
-        <v>1.975</v>
-      </c>
-      <c r="U97">
-        <v>3</v>
-      </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
       <c r="W97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X97">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9443,16 +9443,16 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9460,7 +9460,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6813836</v>
+        <v>6813834</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9469,82 +9469,82 @@
         <v>45202.375</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L98">
-        <v>2.05</v>
+        <v>4.1</v>
       </c>
       <c r="M98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N98">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q98">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="R98">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S98">
         <v>1.95</v>
       </c>
       <c r="T98">
+        <v>1.85</v>
+      </c>
+      <c r="U98">
+        <v>3.25</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
         <v>1.75</v>
       </c>
-      <c r="U98">
-        <v>2.75</v>
-      </c>
-      <c r="V98">
-        <v>1.875</v>
-      </c>
-      <c r="W98">
-        <v>1.925</v>
-      </c>
       <c r="X98">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
       </c>
       <c r="AD98">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9552,7 +9552,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6813834</v>
+        <v>6813835</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9561,82 +9561,82 @@
         <v>45202.375</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L99">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="P99">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="R99">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z99">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
         <v>-1</v>
       </c>
       <c r="AD99">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9644,7 +9644,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6813835</v>
+        <v>6813841</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9653,10 +9653,10 @@
         <v>45202.375</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -9674,61 +9674,61 @@
         <v>49</v>
       </c>
       <c r="L100">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N100">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="O100">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q100">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="R100">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U100">
         <v>3</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
       </c>
       <c r="AD100">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9736,7 +9736,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6813838</v>
+        <v>6813840</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9745,82 +9745,82 @@
         <v>45202.375</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="M101">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N101">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="P101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q101">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="R101">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U101">
         <v>3</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9828,7 +9828,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813841</v>
+        <v>6813838</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9837,16 +9837,16 @@
         <v>45202.375</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9855,64 +9855,64 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L102">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="M102">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N102">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="O102">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="P102">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q102">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R102">
         <v>-0.5</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U102">
         <v>3</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD102">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10116,7 +10116,7 @@
         <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -10392,7 +10392,7 @@
         <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -11033,7 +11033,7 @@
         <v>45213.375</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
         <v>40</v>
@@ -11217,7 +11217,7 @@
         <v>45213.375</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
         <v>32</v>
@@ -11864,7 +11864,7 @@
         <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -12048,7 +12048,7 @@
         <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -12689,7 +12689,7 @@
         <v>45220.375</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
         <v>31</v>
@@ -12873,7 +12873,7 @@
         <v>45220.375</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
         <v>34</v>
@@ -13517,7 +13517,7 @@
         <v>45227.375</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
         <v>33</v>
@@ -13609,7 +13609,7 @@
         <v>45227.375</v>
       </c>
       <c r="E143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F143" t="s">
         <v>36</v>
@@ -14164,7 +14164,7 @@
         <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -14348,7 +14348,7 @@
         <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -15173,7 +15173,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F160" t="s">
         <v>37</v>
@@ -15541,7 +15541,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F164" t="s">
         <v>46</v>
@@ -15636,7 +15636,7 @@
         <v>31</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -16280,7 +16280,7 @@
         <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -16369,7 +16369,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
         <v>36</v>
@@ -16924,7 +16924,7 @@
         <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -17016,7 +17016,7 @@
         <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -17096,7 +17096,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6813931</v>
+        <v>6813934</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17105,82 +17105,82 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L181">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="M181">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N181">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="O181">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="P181">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q181">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="R181">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U181">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y181">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
         <v>-1</v>
       </c>
       <c r="AD181">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17188,7 +17188,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6813934</v>
+        <v>6813926</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17197,73 +17197,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L182">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="M182">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N182">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="O182">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="P182">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q182">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="R182">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S182">
+        <v>2.025</v>
+      </c>
+      <c r="T182">
         <v>1.825</v>
       </c>
-      <c r="T182">
-        <v>2.025</v>
-      </c>
       <c r="U182">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V182">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X182">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB182">
         <v>-1</v>
@@ -17272,7 +17272,7 @@
         <v>-1</v>
       </c>
       <c r="AD182">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -17280,7 +17280,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6813926</v>
+        <v>6813924</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17289,52 +17289,52 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L183">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="M183">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N183">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q183">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="R183">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S183">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U183">
         <v>3.25</v>
@@ -17346,25 +17346,25 @@
         <v>1.875</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17372,7 +17372,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6813924</v>
+        <v>6813933</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17381,79 +17381,79 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>3</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>3</v>
+      </c>
+      <c r="K184" t="s">
+        <v>50</v>
+      </c>
+      <c r="L184">
+        <v>2.7</v>
+      </c>
+      <c r="M184">
+        <v>3.6</v>
+      </c>
+      <c r="N184">
+        <v>2.15</v>
+      </c>
+      <c r="O184">
+        <v>3.6</v>
+      </c>
+      <c r="P184">
         <v>4</v>
       </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>2</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184" t="s">
-        <v>48</v>
-      </c>
-      <c r="L184">
-        <v>1.2</v>
-      </c>
-      <c r="M184">
-        <v>5.5</v>
-      </c>
-      <c r="N184">
-        <v>10</v>
-      </c>
-      <c r="O184">
-        <v>1.25</v>
-      </c>
-      <c r="P184">
-        <v>5.5</v>
-      </c>
       <c r="Q184">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="R184">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W184">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="X184">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD184">
         <v>-1</v>
@@ -17464,7 +17464,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6813933</v>
+        <v>6813931</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17473,82 +17473,82 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G185">
         <v>1</v>
       </c>
       <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185" t="s">
+        <v>49</v>
+      </c>
+      <c r="L185">
+        <v>1.5</v>
+      </c>
+      <c r="M185">
+        <v>4.2</v>
+      </c>
+      <c r="N185">
+        <v>4.75</v>
+      </c>
+      <c r="O185">
+        <v>1.95</v>
+      </c>
+      <c r="P185">
+        <v>3.5</v>
+      </c>
+      <c r="Q185">
+        <v>3.1</v>
+      </c>
+      <c r="R185">
+        <v>-0.25</v>
+      </c>
+      <c r="S185">
+        <v>1.8</v>
+      </c>
+      <c r="T185">
+        <v>2.05</v>
+      </c>
+      <c r="U185">
         <v>3</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>3</v>
-      </c>
-      <c r="K185" t="s">
-        <v>50</v>
-      </c>
-      <c r="L185">
-        <v>2.7</v>
-      </c>
-      <c r="M185">
-        <v>3.6</v>
-      </c>
-      <c r="N185">
-        <v>2.15</v>
-      </c>
-      <c r="O185">
-        <v>3.6</v>
-      </c>
-      <c r="P185">
-        <v>4</v>
-      </c>
-      <c r="Q185">
-        <v>1.727</v>
-      </c>
-      <c r="R185">
-        <v>0.75</v>
-      </c>
-      <c r="S185">
-        <v>1.85</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>2.75</v>
-      </c>
       <c r="V185">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z185">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB185">
-        <v>1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17832,7 +17832,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6813940</v>
+        <v>6813936</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -17841,19 +17841,19 @@
         <v>45359.625</v>
       </c>
       <c r="E189" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -17862,43 +17862,43 @@
         <v>48</v>
       </c>
       <c r="L189">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="M189">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N189">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O189">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="P189">
         <v>3.8</v>
       </c>
       <c r="Q189">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="R189">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U189">
         <v>3</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X189">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="Y189">
         <v>-1</v>
@@ -17907,16 +17907,16 @@
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
         <v>-1</v>
       </c>
       <c r="AD189">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:30">
@@ -17924,7 +17924,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6813936</v>
+        <v>6813940</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17933,19 +17933,19 @@
         <v>45359.625</v>
       </c>
       <c r="E190" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -17954,43 +17954,43 @@
         <v>48</v>
       </c>
       <c r="L190">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N190">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O190">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="P190">
         <v>3.8</v>
       </c>
       <c r="Q190">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="R190">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U190">
         <v>3</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X190">
-        <v>1.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y190">
         <v>-1</v>
@@ -17999,16 +17999,16 @@
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC190">
         <v>-1</v>
       </c>
       <c r="AD190">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18485,7 +18485,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F196" t="s">
         <v>46</v>
@@ -19221,10 +19221,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E204" t="s">
+        <v>44</v>
+      </c>
+      <c r="F204" t="s">
         <v>45</v>
-      </c>
-      <c r="F204" t="s">
-        <v>44</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -20049,7 +20049,7 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F213" t="s">
         <v>43</v>
@@ -20236,7 +20236,7 @@
         <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -20500,7 +20500,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6813968</v>
+        <v>6813969</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20509,79 +20509,79 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L218">
-        <v>3.1</v>
+        <v>1.125</v>
       </c>
       <c r="M218">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N218">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="O218">
-        <v>3.8</v>
+        <v>1.111</v>
       </c>
       <c r="P218">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q218">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="R218">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="S218">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T218">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U218">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W218">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB218">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD218">
         <v>-1</v>
@@ -20592,7 +20592,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6813969</v>
+        <v>6813968</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20601,79 +20601,79 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
         <v>4</v>
       </c>
-      <c r="H219">
-        <v>0</v>
-      </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L219">
-        <v>1.125</v>
+        <v>3.1</v>
       </c>
       <c r="M219">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N219">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="O219">
-        <v>1.111</v>
+        <v>3.8</v>
       </c>
       <c r="P219">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q219">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="R219">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="S219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T219">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U219">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X219">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC219">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD219">
         <v>-1</v>
@@ -20880,7 +20880,7 @@
         <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -20960,7 +20960,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6813964</v>
+        <v>6813965</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20969,13 +20969,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F223" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20990,40 +20990,40 @@
         <v>50</v>
       </c>
       <c r="L223">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="M223">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O223">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="P223">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q223">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="R223">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U223">
         <v>2.75</v>
       </c>
       <c r="V223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -21032,19 +21032,19 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD223">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21052,7 +21052,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6813965</v>
+        <v>6813964</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21061,13 +21061,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -21082,40 +21082,40 @@
         <v>50</v>
       </c>
       <c r="L224">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="M224">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N224">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O224">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="P224">
+        <v>3.8</v>
+      </c>
+      <c r="Q224">
         <v>4.5</v>
       </c>
-      <c r="Q224">
-        <v>6</v>
-      </c>
       <c r="R224">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S224">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U224">
         <v>2.75</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W224">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -21124,19 +21124,19 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC224">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD224">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21236,7 +21236,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7625939</v>
+        <v>7763226</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21245,82 +21245,82 @@
         <v>45384.53125</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226">
         <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L226">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="M226">
+        <v>4.6</v>
+      </c>
+      <c r="N226">
+        <v>7</v>
+      </c>
+      <c r="O226">
+        <v>1.615</v>
+      </c>
+      <c r="P226">
+        <v>3.8</v>
+      </c>
+      <c r="Q226">
         <v>4</v>
       </c>
-      <c r="N226">
-        <v>1.5</v>
-      </c>
-      <c r="O226">
-        <v>4.75</v>
-      </c>
-      <c r="P226">
-        <v>3.6</v>
-      </c>
-      <c r="Q226">
-        <v>1.571</v>
-      </c>
       <c r="R226">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U226">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y226">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21328,7 +21328,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7763226</v>
+        <v>7625939</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21337,82 +21337,82 @@
         <v>45384.53125</v>
       </c>
       <c r="E227" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227" t="s">
+        <v>49</v>
+      </c>
+      <c r="L227">
         <v>5</v>
       </c>
-      <c r="H227">
-        <v>0</v>
-      </c>
-      <c r="I227">
-        <v>2</v>
-      </c>
-      <c r="J227">
-        <v>0</v>
-      </c>
-      <c r="K227" t="s">
-        <v>48</v>
-      </c>
-      <c r="L227">
-        <v>1.333</v>
-      </c>
       <c r="M227">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="N227">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="O227">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="P227">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q227">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="R227">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S227">
+        <v>2</v>
+      </c>
+      <c r="T227">
+        <v>1.8</v>
+      </c>
+      <c r="U227">
+        <v>2.5</v>
+      </c>
+      <c r="V227">
         <v>1.875</v>
       </c>
-      <c r="T227">
+      <c r="W227">
         <v>1.925</v>
       </c>
-      <c r="U227">
-        <v>2.75</v>
-      </c>
-      <c r="V227">
-        <v>1.85</v>
-      </c>
-      <c r="W227">
-        <v>1.95</v>
-      </c>
       <c r="X227">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21613,7 +21613,7 @@
         <v>45387.58333333334</v>
       </c>
       <c r="E230" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F230" t="s">
         <v>42</v>
@@ -21972,7 +21972,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6813979</v>
+        <v>6813980</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -21981,16 +21981,16 @@
         <v>45388.375</v>
       </c>
       <c r="E234" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G234">
         <v>0</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -22002,40 +22002,40 @@
         <v>50</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="M234">
         <v>3.6</v>
       </c>
       <c r="N234">
+        <v>3.2</v>
+      </c>
+      <c r="O234">
+        <v>2</v>
+      </c>
+      <c r="P234">
+        <v>3.5</v>
+      </c>
+      <c r="Q234">
+        <v>3.25</v>
+      </c>
+      <c r="R234">
+        <v>-0.5</v>
+      </c>
+      <c r="S234">
+        <v>2.05</v>
+      </c>
+      <c r="T234">
         <v>1.8</v>
       </c>
-      <c r="O234">
-        <v>2.875</v>
-      </c>
-      <c r="P234">
-        <v>3.4</v>
-      </c>
-      <c r="Q234">
-        <v>2.15</v>
-      </c>
-      <c r="R234">
-        <v>0.25</v>
-      </c>
-      <c r="S234">
-        <v>1.85</v>
-      </c>
-      <c r="T234">
-        <v>2</v>
-      </c>
       <c r="U234">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -22044,19 +22044,19 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC234">
         <v>-1</v>
       </c>
       <c r="AD234">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22064,7 +22064,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6813980</v>
+        <v>6813979</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22073,16 +22073,16 @@
         <v>45388.375</v>
       </c>
       <c r="E235" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -22094,40 +22094,40 @@
         <v>50</v>
       </c>
       <c r="L235">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
         <v>3.6</v>
       </c>
       <c r="N235">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O235">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="P235">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q235">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="R235">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T235">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W235">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -22136,19 +22136,19 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC235">
         <v>-1</v>
       </c>
       <c r="AD235">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22340,7 +22340,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6813982</v>
+        <v>6813981</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22349,19 +22349,19 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -22370,46 +22370,46 @@
         <v>49</v>
       </c>
       <c r="L238">
+        <v>1.85</v>
+      </c>
+      <c r="M238">
+        <v>3.5</v>
+      </c>
+      <c r="N238">
+        <v>3.5</v>
+      </c>
+      <c r="O238">
+        <v>2.4</v>
+      </c>
+      <c r="P238">
+        <v>3.1</v>
+      </c>
+      <c r="Q238">
         <v>2.7</v>
       </c>
-      <c r="M238">
-        <v>3.6</v>
-      </c>
-      <c r="N238">
-        <v>2.15</v>
-      </c>
-      <c r="O238">
-        <v>2.3</v>
-      </c>
-      <c r="P238">
-        <v>3.5</v>
-      </c>
-      <c r="Q238">
-        <v>2.6</v>
-      </c>
       <c r="R238">
         <v>0</v>
       </c>
       <c r="S238">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U238">
         <v>2.5</v>
       </c>
       <c r="V238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
@@ -22424,7 +22424,7 @@
         <v>-1</v>
       </c>
       <c r="AD238">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22432,7 +22432,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6813981</v>
+        <v>6813982</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22441,19 +22441,19 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -22462,46 +22462,46 @@
         <v>49</v>
       </c>
       <c r="L239">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="M239">
+        <v>3.6</v>
+      </c>
+      <c r="N239">
+        <v>2.15</v>
+      </c>
+      <c r="O239">
+        <v>2.3</v>
+      </c>
+      <c r="P239">
         <v>3.5</v>
       </c>
-      <c r="N239">
-        <v>3.5</v>
-      </c>
-      <c r="O239">
-        <v>2.4</v>
-      </c>
-      <c r="P239">
-        <v>3.1</v>
-      </c>
       <c r="Q239">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R239">
         <v>0</v>
       </c>
       <c r="S239">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T239">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U239">
         <v>2.5</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z239">
         <v>-1</v>
@@ -22516,7 +22516,7 @@
         <v>-1</v>
       </c>
       <c r="AD239">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22717,7 +22717,7 @@
         <v>45395.375</v>
       </c>
       <c r="E242" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F242" t="s">
         <v>47</v>
@@ -22812,7 +22812,7 @@
         <v>35</v>
       </c>
       <c r="F243" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>38</v>
       </c>
       <c r="F251" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>34</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -24097,7 +24097,7 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E257" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
         <v>39</v>
@@ -24272,7 +24272,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6954888</v>
+        <v>6957371</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24281,82 +24281,82 @@
         <v>45409.375</v>
       </c>
       <c r="E259" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259">
         <v>0</v>
       </c>
       <c r="K259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L259">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M259">
         <v>4</v>
       </c>
       <c r="N259">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O259">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P259">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q259">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="R259">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S259">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T259">
+        <v>1.825</v>
+      </c>
+      <c r="U259">
+        <v>2.75</v>
+      </c>
+      <c r="V259">
         <v>1.95</v>
       </c>
-      <c r="U259">
-        <v>3</v>
-      </c>
-      <c r="V259">
-        <v>1.8</v>
-      </c>
       <c r="W259">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X259">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD259">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24364,7 +24364,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6948243</v>
+        <v>6954888</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24373,82 +24373,82 @@
         <v>45409.375</v>
       </c>
       <c r="E260" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260">
         <v>0</v>
       </c>
       <c r="J260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K260" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L260">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M260">
         <v>4</v>
       </c>
       <c r="N260">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O260">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P260">
         <v>4</v>
       </c>
       <c r="Q260">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="R260">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S260">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T260">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U260">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V260">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W260">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB260">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AD260">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:30">
@@ -24456,7 +24456,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6954887</v>
+        <v>6948243</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24465,82 +24465,82 @@
         <v>45409.375</v>
       </c>
       <c r="E261" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F261" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G261">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261">
         <v>1</v>
       </c>
       <c r="K261" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L261">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="M261">
         <v>4</v>
       </c>
       <c r="N261">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O261">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="P261">
         <v>4</v>
       </c>
       <c r="Q261">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="R261">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S261">
         <v>1.825</v>
       </c>
       <c r="T261">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U261">
         <v>2.75</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W261">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA261">
         <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AD261">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -24548,7 +24548,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6956422</v>
+        <v>6954887</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24557,82 +24557,82 @@
         <v>45409.375</v>
       </c>
       <c r="E262" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
         <v>1</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K262" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L262">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="M262">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N262">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O262">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="P262">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q262">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="R262">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U262">
+        <v>2.75</v>
+      </c>
+      <c r="V262">
+        <v>1.85</v>
+      </c>
+      <c r="W262">
+        <v>1.95</v>
+      </c>
+      <c r="X262">
+        <v>-1</v>
+      </c>
+      <c r="Y262">
         <v>3</v>
       </c>
-      <c r="V262">
-        <v>1.975</v>
-      </c>
-      <c r="W262">
-        <v>1.875</v>
-      </c>
-      <c r="X262">
-        <v>-1</v>
-      </c>
-      <c r="Y262">
-        <v>-1</v>
-      </c>
       <c r="Z262">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
         <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC262">
         <v>-1</v>
       </c>
       <c r="AD262">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -24640,7 +24640,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6957371</v>
+        <v>6956422</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -24649,46 +24649,46 @@
         <v>45409.375</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F263" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263">
         <v>0</v>
       </c>
       <c r="K263" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L263">
-        <v>2.75</v>
+        <v>1.285</v>
       </c>
       <c r="M263">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N263">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="O263">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="P263">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q263">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="R263">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S263">
         <v>2.025</v>
@@ -24697,34 +24697,34 @@
         <v>1.825</v>
       </c>
       <c r="U263">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W263">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA263">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC263">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -25112,7 +25112,7 @@
         <v>40</v>
       </c>
       <c r="F268" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -25192,7 +25192,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6990101</v>
+        <v>6990102</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25201,46 +25201,46 @@
         <v>45416.375</v>
       </c>
       <c r="E269" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F269" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269" t="s">
+        <v>49</v>
+      </c>
+      <c r="L269">
+        <v>1.909</v>
+      </c>
+      <c r="M269">
         <v>4</v>
       </c>
-      <c r="H269">
-        <v>1</v>
-      </c>
-      <c r="I269">
-        <v>2</v>
-      </c>
-      <c r="J269">
-        <v>0</v>
-      </c>
-      <c r="K269" t="s">
-        <v>48</v>
-      </c>
-      <c r="L269">
-        <v>2.5</v>
-      </c>
-      <c r="M269">
-        <v>3.75</v>
-      </c>
       <c r="N269">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O269">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="P269">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q269">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="R269">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S269">
         <v>2</v>
@@ -25249,34 +25249,34 @@
         <v>1.85</v>
       </c>
       <c r="U269">
+        <v>3.25</v>
+      </c>
+      <c r="V269">
+        <v>2</v>
+      </c>
+      <c r="W269">
+        <v>1.85</v>
+      </c>
+      <c r="X269">
+        <v>-1</v>
+      </c>
+      <c r="Y269">
         <v>3</v>
       </c>
-      <c r="V269">
-        <v>1.975</v>
-      </c>
-      <c r="W269">
-        <v>1.875</v>
-      </c>
-      <c r="X269">
-        <v>1.75</v>
-      </c>
-      <c r="Y269">
-        <v>-1</v>
-      </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD269">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -25284,7 +25284,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6990102</v>
+        <v>6993569</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25293,82 +25293,82 @@
         <v>45416.375</v>
       </c>
       <c r="E270" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F270" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K270" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L270">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M270">
         <v>4</v>
       </c>
       <c r="N270">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O270">
         <v>2.15</v>
       </c>
       <c r="P270">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q270">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="R270">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S270">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T270">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U270">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V270">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W270">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA270">
+        <v>-1</v>
+      </c>
+      <c r="AB270">
+        <v>1.05</v>
+      </c>
+      <c r="AC270">
+        <v>0.4125</v>
+      </c>
+      <c r="AD270">
         <v>-0.5</v>
-      </c>
-      <c r="AB270">
-        <v>0.425</v>
-      </c>
-      <c r="AC270">
-        <v>-1</v>
-      </c>
-      <c r="AD270">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -25376,7 +25376,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6993569</v>
+        <v>6990101</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -25385,82 +25385,82 @@
         <v>45416.375</v>
       </c>
       <c r="E271" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F271" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J271">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K271" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L271">
         <v>2.5</v>
       </c>
       <c r="M271">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N271">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O271">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="P271">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q271">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="R271">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S271">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T271">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U271">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W271">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB271">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD271">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -25845,7 +25845,7 @@
         <v>45423.375</v>
       </c>
       <c r="E276" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F276" t="s">
         <v>47</v>
@@ -26305,7 +26305,7 @@
         <v>45423.375</v>
       </c>
       <c r="E281" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F281" t="s">
         <v>37</v>
@@ -26492,7 +26492,7 @@
         <v>34</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G283">
         <v>2</v>
@@ -27044,7 +27044,7 @@
         <v>31</v>
       </c>
       <c r="F289" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G289">
         <v>4</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -136,6 +136,9 @@
     <t>Ansbach</t>
   </si>
   <si>
+    <t>Memmingen</t>
+  </si>
+  <si>
     <t>Viktoria Aschaffenburg</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>Bayern Munich II</t>
-  </si>
-  <si>
-    <t>Memmingen</t>
   </si>
   <si>
     <t>DJK Vilzing</t>
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1100,7 +1100,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6813736</v>
+        <v>6813735</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1560,79 +1560,79 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L12">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="M12">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O12">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="P12">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="R12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X12">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6813739</v>
+        <v>6813736</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1652,79 +1652,79 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="M13">
+        <v>3.6</v>
+      </c>
+      <c r="N13">
+        <v>3.8</v>
+      </c>
+      <c r="O13">
+        <v>1.727</v>
+      </c>
+      <c r="P13">
+        <v>3.6</v>
+      </c>
+      <c r="Q13">
         <v>4</v>
       </c>
-      <c r="N13">
-        <v>1.6</v>
-      </c>
-      <c r="O13">
-        <v>5.5</v>
-      </c>
-      <c r="P13">
-        <v>4.5</v>
-      </c>
-      <c r="Q13">
-        <v>1.444</v>
-      </c>
       <c r="R13">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U13">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
         <v>-1</v>
       </c>
       <c r="AD13">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1732,7 +1732,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6813734</v>
+        <v>6813739</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1744,16 +1744,16 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1762,40 +1762,40 @@
         <v>50</v>
       </c>
       <c r="L14">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
         <v>4</v>
       </c>
       <c r="N14">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="O14">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="R14">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S14">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="U14">
         <v>3.5</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1804,19 +1804,19 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6813735</v>
+        <v>6813734</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1836,55 +1836,55 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
         <v>50</v>
       </c>
       <c r="L15">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="O15">
         <v>2.05</v>
       </c>
       <c r="P15">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="R15">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.15</v>
       </c>
       <c r="T15">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="U15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>1.875</v>
@@ -1896,19 +1896,19 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD15">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2112,7 +2112,7 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2388,7 +2388,7 @@
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2756,7 +2756,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6813757</v>
+        <v>6813754</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3121,82 +3121,82 @@
         <v>45149.5625</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L29">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M29">
         <v>3.6</v>
       </c>
       <c r="N29">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O29">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="R29">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S29">
         <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U29">
         <v>3</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3204,7 +3204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6813754</v>
+        <v>6813757</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3213,82 +3213,82 @@
         <v>45149.5625</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L30">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M30">
         <v>3.6</v>
       </c>
       <c r="N30">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O30">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="R30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S30">
         <v>1.85</v>
       </c>
       <c r="T30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X30">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB30">
-        <v>-1</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
-      </c>
       <c r="AD30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6813752</v>
+        <v>6813753</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3305,82 +3305,82 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L31">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M31">
         <v>3.6</v>
       </c>
       <c r="N31">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O31">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q31">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S31">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>-1</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3388,7 +3388,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6813753</v>
+        <v>6813751</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3397,82 +3397,82 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L32">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>3.6</v>
       </c>
       <c r="N32">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O32">
         <v>1.571</v>
       </c>
       <c r="P32">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q32">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="R32">
         <v>-1</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V32">
         <v>1.95</v>
       </c>
       <c r="W32">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="X32">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD32">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3480,7 +3480,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6813751</v>
+        <v>6813752</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3489,82 +3489,82 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M33">
         <v>3.6</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T33">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U33">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC33">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD33">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3581,7 +3581,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
         <v>46</v>
@@ -4044,7 +4044,7 @@
         <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6813768</v>
+        <v>6813771</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4317,82 +4317,82 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L42">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="M42">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="O42">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="R42">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U42">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V42">
+        <v>1.85</v>
+      </c>
+      <c r="W42">
         <v>1.95</v>
       </c>
-      <c r="W42">
-        <v>1.85</v>
-      </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y42">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD42">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4400,7 +4400,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6813771</v>
+        <v>6813768</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4409,82 +4409,82 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L43">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="M43">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N43">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="P43">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q43">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="R43">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U43">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V43">
+        <v>1.95</v>
+      </c>
+      <c r="W43">
         <v>1.85</v>
       </c>
-      <c r="W43">
-        <v>1.95</v>
-      </c>
       <c r="X43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC43">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD43">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4501,7 +4501,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -4780,7 +4780,7 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4869,10 +4869,10 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6813779</v>
+        <v>6813786</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5053,19 +5053,19 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -5074,22 +5074,22 @@
         <v>48</v>
       </c>
       <c r="L50">
+        <v>1.5</v>
+      </c>
+      <c r="M50">
+        <v>4.1</v>
+      </c>
+      <c r="N50">
+        <v>4.8</v>
+      </c>
+      <c r="O50">
         <v>1.4</v>
       </c>
-      <c r="M50">
-        <v>4.75</v>
-      </c>
-      <c r="N50">
+      <c r="P50">
+        <v>4.333</v>
+      </c>
+      <c r="Q50">
         <v>5.5</v>
-      </c>
-      <c r="O50">
-        <v>1.45</v>
-      </c>
-      <c r="P50">
-        <v>4.5</v>
-      </c>
-      <c r="Q50">
-        <v>5</v>
       </c>
       <c r="R50">
         <v>-1.25</v>
@@ -5101,7 +5101,7 @@
         <v>1.85</v>
       </c>
       <c r="U50">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V50">
         <v>1.825</v>
@@ -5110,7 +5110,7 @@
         <v>1.975</v>
       </c>
       <c r="X50">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -5125,10 +5125,10 @@
         <v>0.425</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD50">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5136,7 +5136,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6813786</v>
+        <v>6813779</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5145,19 +5145,19 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -5166,22 +5166,22 @@
         <v>48</v>
       </c>
       <c r="L51">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M51">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O51">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P51">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q51">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R51">
         <v>-1.25</v>
@@ -5193,7 +5193,7 @@
         <v>1.85</v>
       </c>
       <c r="U51">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V51">
         <v>1.825</v>
@@ -5202,7 +5202,7 @@
         <v>1.975</v>
       </c>
       <c r="X51">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5217,10 +5217,10 @@
         <v>0.425</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD51">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5237,7 +5237,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
         <v>36</v>
@@ -5329,7 +5329,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
         <v>35</v>
@@ -5421,10 +5421,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -6160,7 +6160,7 @@
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6249,7 +6249,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
         <v>45</v>
@@ -6804,7 +6804,7 @@
         <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6985,7 +6985,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
         <v>46</v>
@@ -7172,7 +7172,7 @@
         <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7537,7 +7537,7 @@
         <v>45188.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
@@ -7813,7 +7813,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
         <v>38</v>
@@ -7905,7 +7905,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
         <v>45</v>
@@ -8089,7 +8089,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -8172,7 +8172,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6813821</v>
+        <v>6813820</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8181,82 +8181,82 @@
         <v>45192.375</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>49</v>
+      </c>
+      <c r="L84">
+        <v>1.909</v>
+      </c>
+      <c r="M84">
+        <v>3.9</v>
+      </c>
+      <c r="N84">
         <v>3</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="s">
-        <v>48</v>
-      </c>
-      <c r="L84">
-        <v>1.285</v>
-      </c>
-      <c r="M84">
-        <v>4.75</v>
-      </c>
-      <c r="N84">
-        <v>8</v>
-      </c>
       <c r="O84">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q84">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="R84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V84">
+        <v>1.825</v>
+      </c>
+      <c r="W84">
         <v>1.975</v>
       </c>
-      <c r="W84">
-        <v>1.825</v>
-      </c>
       <c r="X84">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
+        <v>-1</v>
+      </c>
+      <c r="AD84">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD84">
-        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8264,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6813820</v>
+        <v>6813821</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8273,82 +8273,82 @@
         <v>45192.375</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L85">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="M85">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O85">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="P85">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="R85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S85">
+        <v>1.875</v>
+      </c>
+      <c r="T85">
+        <v>1.925</v>
+      </c>
+      <c r="U85">
+        <v>3.25</v>
+      </c>
+      <c r="V85">
+        <v>1.975</v>
+      </c>
+      <c r="W85">
         <v>1.825</v>
       </c>
-      <c r="T85">
-        <v>1.975</v>
-      </c>
-      <c r="U85">
-        <v>3</v>
-      </c>
-      <c r="V85">
-        <v>1.825</v>
-      </c>
-      <c r="W85">
-        <v>1.975</v>
-      </c>
       <c r="X85">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y85">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8368,7 +8368,7 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8549,10 +8549,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E88" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s">
         <v>40</v>
-      </c>
-      <c r="F88" t="s">
-        <v>43</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8908,7 +8908,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6813829</v>
+        <v>6813830</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8917,82 +8917,82 @@
         <v>45199.375</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L92">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N92">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O92">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="P92">
         <v>3.6</v>
       </c>
       <c r="Q92">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R92">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U92">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
         <v>2.6</v>
       </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6813830</v>
+        <v>6813829</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,82 +9009,82 @@
         <v>45199.375</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L93">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N93">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O93">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="P93">
         <v>3.6</v>
       </c>
       <c r="Q93">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R93">
+        <v>-0.25</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
+        <v>1.825</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>1.975</v>
+      </c>
+      <c r="W93">
+        <v>1.875</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>2.6</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
       </c>
-      <c r="S93">
-        <v>1.95</v>
-      </c>
-      <c r="T93">
-        <v>1.9</v>
-      </c>
-      <c r="U93">
-        <v>3</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
-      <c r="W93">
-        <v>2</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>2.6</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9104,7 +9104,7 @@
         <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         <v>45202.375</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
         <v>39</v>
@@ -9368,7 +9368,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6813836</v>
+        <v>6813840</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9377,64 +9377,64 @@
         <v>45202.375</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="s">
         <v>48</v>
       </c>
       <c r="L97">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="M97">
         <v>3.8</v>
       </c>
       <c r="N97">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O97">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="P97">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q97">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="R97">
         <v>-0.25</v>
       </c>
       <c r="S97">
+        <v>1.875</v>
+      </c>
+      <c r="T97">
+        <v>1.975</v>
+      </c>
+      <c r="U97">
+        <v>3</v>
+      </c>
+      <c r="V97">
         <v>1.95</v>
       </c>
-      <c r="T97">
-        <v>1.75</v>
-      </c>
-      <c r="U97">
-        <v>2.75</v>
-      </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
       <c r="W97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X97">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9443,16 +9443,16 @@
         <v>-1</v>
       </c>
       <c r="AA97">
+        <v>0.875</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.95</v>
       </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
-      </c>
       <c r="AD97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9460,7 +9460,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6813834</v>
+        <v>6813836</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9469,82 +9469,82 @@
         <v>45202.375</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L98">
-        <v>4.1</v>
+        <v>2.05</v>
       </c>
       <c r="M98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="P98">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="R98">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S98">
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U98">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
         <v>-1</v>
       </c>
       <c r="AD98">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9552,7 +9552,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6813835</v>
+        <v>6813834</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9561,82 +9561,82 @@
         <v>45202.375</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L99">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N99">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q99">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="R99">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U99">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA99">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
       </c>
       <c r="AD99">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9644,7 +9644,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6813841</v>
+        <v>6813835</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9653,10 +9653,10 @@
         <v>45202.375</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -9674,61 +9674,61 @@
         <v>49</v>
       </c>
       <c r="L100">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="M100">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="O100">
+        <v>2.45</v>
+      </c>
+      <c r="P100">
+        <v>4</v>
+      </c>
+      <c r="Q100">
+        <v>2.15</v>
+      </c>
+      <c r="R100">
+        <v>0.25</v>
+      </c>
+      <c r="S100">
         <v>1.8</v>
       </c>
-      <c r="P100">
-        <v>3.75</v>
-      </c>
-      <c r="Q100">
-        <v>3.4</v>
-      </c>
-      <c r="R100">
-        <v>-0.5</v>
-      </c>
-      <c r="S100">
-        <v>1.825</v>
-      </c>
       <c r="T100">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U100">
         <v>3</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
         <v>-1</v>
       </c>
       <c r="AD100">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9736,7 +9736,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6813840</v>
+        <v>6813838</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9745,82 +9745,82 @@
         <v>45202.375</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L101">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="M101">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O101">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="P101">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q101">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="R101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U101">
         <v>3</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X101">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD101">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9828,7 +9828,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813838</v>
+        <v>6813841</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9837,16 +9837,16 @@
         <v>45202.375</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9855,64 +9855,64 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="M102">
+        <v>3.8</v>
+      </c>
+      <c r="N102">
+        <v>4.1</v>
+      </c>
+      <c r="O102">
+        <v>1.8</v>
+      </c>
+      <c r="P102">
+        <v>3.75</v>
+      </c>
+      <c r="Q102">
         <v>3.4</v>
-      </c>
-      <c r="N102">
-        <v>3.2</v>
-      </c>
-      <c r="O102">
-        <v>1.909</v>
-      </c>
-      <c r="P102">
-        <v>3.5</v>
-      </c>
-      <c r="Q102">
-        <v>3.5</v>
       </c>
       <c r="R102">
         <v>-0.5</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U102">
         <v>3</v>
       </c>
       <c r="V102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z102">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD102">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10021,7 +10021,7 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
         <v>47</v>
@@ -10576,7 +10576,7 @@
         <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10760,7 +10760,7 @@
         <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10849,7 +10849,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
         <v>33</v>
@@ -11036,7 +11036,7 @@
         <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -11493,7 +11493,7 @@
         <v>45213.375</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
         <v>34</v>
@@ -11772,7 +11772,7 @@
         <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G123">
         <v>5</v>
@@ -11953,7 +11953,7 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
         <v>38</v>
@@ -12140,7 +12140,7 @@
         <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -12413,7 +12413,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
         <v>33</v>
@@ -12508,7 +12508,7 @@
         <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -12781,7 +12781,7 @@
         <v>45220.375</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
         <v>32</v>
@@ -13057,7 +13057,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
         <v>31</v>
@@ -13149,7 +13149,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F138" t="s">
         <v>32</v>
@@ -13241,7 +13241,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
         <v>37</v>
@@ -13425,7 +13425,7 @@
         <v>45227.375</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
         <v>35</v>
@@ -13885,10 +13885,10 @@
         <v>45230.625</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G146">
         <v>4</v>
@@ -14440,7 +14440,7 @@
         <v>31</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>6</v>
@@ -14532,7 +14532,7 @@
         <v>47</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14624,7 +14624,7 @@
         <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -14716,7 +14716,7 @@
         <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -14805,7 +14805,7 @@
         <v>45240.625</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
         <v>36</v>
@@ -14897,7 +14897,7 @@
         <v>45240.625</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
         <v>31</v>
@@ -14989,7 +14989,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
         <v>30</v>
@@ -15449,7 +15449,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
         <v>34</v>
@@ -15820,7 +15820,7 @@
         <v>30</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -15912,7 +15912,7 @@
         <v>46</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -16004,7 +16004,7 @@
         <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -16185,7 +16185,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
         <v>32</v>
@@ -16277,7 +16277,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F172" t="s">
         <v>44</v>
@@ -16461,7 +16461,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F174" t="s">
         <v>30</v>
@@ -16553,7 +16553,7 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F175" t="s">
         <v>34</v>
@@ -16829,10 +16829,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -17096,7 +17096,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6813934</v>
+        <v>6813926</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17105,73 +17105,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L181">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N181">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="O181">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q181">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="R181">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S181">
+        <v>2.025</v>
+      </c>
+      <c r="T181">
         <v>1.825</v>
       </c>
-      <c r="T181">
-        <v>2.025</v>
-      </c>
       <c r="U181">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X181">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB181">
         <v>-1</v>
@@ -17180,7 +17180,7 @@
         <v>-1</v>
       </c>
       <c r="AD181">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17188,7 +17188,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6813926</v>
+        <v>6813934</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17197,82 +17197,82 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="M182">
+        <v>4.75</v>
+      </c>
+      <c r="N182">
+        <v>6</v>
+      </c>
+      <c r="O182">
+        <v>1.615</v>
+      </c>
+      <c r="P182">
         <v>4</v>
       </c>
-      <c r="N182">
-        <v>1.666</v>
-      </c>
-      <c r="O182">
-        <v>3.4</v>
-      </c>
-      <c r="P182">
-        <v>3.8</v>
-      </c>
       <c r="Q182">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="R182">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S182">
+        <v>1.825</v>
+      </c>
+      <c r="T182">
         <v>2.025</v>
       </c>
-      <c r="T182">
+      <c r="U182">
+        <v>2.75</v>
+      </c>
+      <c r="V182">
         <v>1.825</v>
       </c>
-      <c r="U182">
-        <v>3.25</v>
-      </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
       <c r="W182">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y182">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
+        <v>0.825</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
+        <v>-1</v>
+      </c>
+      <c r="AD182">
         <v>1.025</v>
-      </c>
-      <c r="AB182">
-        <v>-1</v>
-      </c>
-      <c r="AC182">
-        <v>-1</v>
-      </c>
-      <c r="AD182">
-        <v>0.875</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -17476,7 +17476,7 @@
         <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -17568,7 +17568,7 @@
         <v>35</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -17752,7 +17752,7 @@
         <v>37</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -17841,7 +17841,7 @@
         <v>45359.625</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
         <v>44</v>
@@ -18025,10 +18025,10 @@
         <v>45359.625</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -18301,7 +18301,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F194" t="s">
         <v>31</v>
@@ -18669,7 +18669,7 @@
         <v>45363.625</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
         <v>46</v>
@@ -19037,10 +19037,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E202" t="s">
+        <v>40</v>
+      </c>
+      <c r="F202" t="s">
         <v>43</v>
-      </c>
-      <c r="F202" t="s">
-        <v>42</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -19316,7 +19316,7 @@
         <v>35</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19500,7 +19500,7 @@
         <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -19773,10 +19773,10 @@
         <v>45373.625</v>
       </c>
       <c r="E210" t="s">
+        <v>43</v>
+      </c>
+      <c r="F210" t="s">
         <v>42</v>
-      </c>
-      <c r="F210" t="s">
-        <v>41</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -20052,7 +20052,7 @@
         <v>45</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G213">
         <v>3</v>
@@ -20325,7 +20325,7 @@
         <v>45376.625</v>
       </c>
       <c r="E216" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F216" t="s">
         <v>30</v>
@@ -20417,7 +20417,7 @@
         <v>45379.625</v>
       </c>
       <c r="E217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
         <v>35</v>
@@ -20500,7 +20500,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6813969</v>
+        <v>6813968</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20509,79 +20509,79 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
         <v>4</v>
       </c>
-      <c r="H218">
-        <v>0</v>
-      </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L218">
-        <v>1.125</v>
+        <v>3.1</v>
       </c>
       <c r="M218">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N218">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
-        <v>1.111</v>
+        <v>3.8</v>
       </c>
       <c r="P218">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q218">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="R218">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U218">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W218">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X218">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC218">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD218">
         <v>-1</v>
@@ -20592,7 +20592,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6813968</v>
+        <v>6813969</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20601,79 +20601,79 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H219">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K219" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L219">
-        <v>3.1</v>
+        <v>1.125</v>
       </c>
       <c r="M219">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N219">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="O219">
-        <v>3.8</v>
+        <v>1.111</v>
       </c>
       <c r="P219">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q219">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="R219">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U219">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB219">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD219">
         <v>-1</v>
@@ -20788,7 +20788,7 @@
         <v>46</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -20877,7 +20877,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F222" t="s">
         <v>45</v>
@@ -20960,7 +20960,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6813965</v>
+        <v>6813964</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20969,13 +20969,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20990,40 +20990,40 @@
         <v>50</v>
       </c>
       <c r="L223">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="M223">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N223">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O223">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="P223">
+        <v>3.8</v>
+      </c>
+      <c r="Q223">
         <v>4.5</v>
       </c>
-      <c r="Q223">
-        <v>6</v>
-      </c>
       <c r="R223">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S223">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T223">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U223">
         <v>2.75</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -21032,19 +21032,19 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC223">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD223">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21052,7 +21052,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6813964</v>
+        <v>6813965</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21061,13 +21061,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F224" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -21082,40 +21082,40 @@
         <v>50</v>
       </c>
       <c r="L224">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="M224">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N224">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O224">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="P224">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q224">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="R224">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T224">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U224">
         <v>2.75</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -21124,19 +21124,19 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD224">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21153,7 +21153,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F225" t="s">
         <v>38</v>
@@ -21236,7 +21236,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7763226</v>
+        <v>7625939</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21245,82 +21245,82 @@
         <v>45384.53125</v>
       </c>
       <c r="E226" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226" t="s">
+        <v>49</v>
+      </c>
+      <c r="L226">
         <v>5</v>
       </c>
-      <c r="H226">
-        <v>0</v>
-      </c>
-      <c r="I226">
-        <v>2</v>
-      </c>
-      <c r="J226">
-        <v>0</v>
-      </c>
-      <c r="K226" t="s">
-        <v>48</v>
-      </c>
-      <c r="L226">
-        <v>1.333</v>
-      </c>
       <c r="M226">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="N226">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="O226">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="P226">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q226">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="R226">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S226">
+        <v>2</v>
+      </c>
+      <c r="T226">
+        <v>1.8</v>
+      </c>
+      <c r="U226">
+        <v>2.5</v>
+      </c>
+      <c r="V226">
         <v>1.875</v>
       </c>
-      <c r="T226">
+      <c r="W226">
         <v>1.925</v>
       </c>
-      <c r="U226">
-        <v>2.75</v>
-      </c>
-      <c r="V226">
-        <v>1.85</v>
-      </c>
-      <c r="W226">
-        <v>1.95</v>
-      </c>
       <c r="X226">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21328,7 +21328,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7625939</v>
+        <v>7763226</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21337,82 +21337,82 @@
         <v>45384.53125</v>
       </c>
       <c r="E227" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227">
         <v>0</v>
       </c>
       <c r="K227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L227">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="M227">
+        <v>4.6</v>
+      </c>
+      <c r="N227">
+        <v>7</v>
+      </c>
+      <c r="O227">
+        <v>1.615</v>
+      </c>
+      <c r="P227">
+        <v>3.8</v>
+      </c>
+      <c r="Q227">
         <v>4</v>
       </c>
-      <c r="N227">
-        <v>1.5</v>
-      </c>
-      <c r="O227">
-        <v>4.75</v>
-      </c>
-      <c r="P227">
-        <v>3.6</v>
-      </c>
-      <c r="Q227">
-        <v>1.571</v>
-      </c>
       <c r="R227">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U227">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y227">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21432,7 +21432,7 @@
         <v>36</v>
       </c>
       <c r="F228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -21616,7 +21616,7 @@
         <v>45</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -21800,7 +21800,7 @@
         <v>38</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -21892,7 +21892,7 @@
         <v>39</v>
       </c>
       <c r="F233" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -21972,7 +21972,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6813980</v>
+        <v>6813979</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -21981,16 +21981,16 @@
         <v>45388.375</v>
       </c>
       <c r="E234" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G234">
         <v>0</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -22002,40 +22002,40 @@
         <v>50</v>
       </c>
       <c r="L234">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
         <v>3.6</v>
       </c>
       <c r="N234">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O234">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="P234">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q234">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="R234">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S234">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U234">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W234">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -22044,19 +22044,19 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC234">
         <v>-1</v>
       </c>
       <c r="AD234">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22064,7 +22064,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6813979</v>
+        <v>6813980</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22073,16 +22073,16 @@
         <v>45388.375</v>
       </c>
       <c r="E235" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F235" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -22094,40 +22094,40 @@
         <v>50</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="M235">
         <v>3.6</v>
       </c>
       <c r="N235">
+        <v>3.2</v>
+      </c>
+      <c r="O235">
+        <v>2</v>
+      </c>
+      <c r="P235">
+        <v>3.5</v>
+      </c>
+      <c r="Q235">
+        <v>3.25</v>
+      </c>
+      <c r="R235">
+        <v>-0.5</v>
+      </c>
+      <c r="S235">
+        <v>2.05</v>
+      </c>
+      <c r="T235">
         <v>1.8</v>
       </c>
-      <c r="O235">
-        <v>2.875</v>
-      </c>
-      <c r="P235">
-        <v>3.4</v>
-      </c>
-      <c r="Q235">
-        <v>2.15</v>
-      </c>
-      <c r="R235">
-        <v>0.25</v>
-      </c>
-      <c r="S235">
-        <v>1.85</v>
-      </c>
-      <c r="T235">
-        <v>2</v>
-      </c>
       <c r="U235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V235">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W235">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -22136,19 +22136,19 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC235">
         <v>-1</v>
       </c>
       <c r="AD235">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22340,7 +22340,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6813981</v>
+        <v>6813982</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22349,19 +22349,19 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -22370,46 +22370,46 @@
         <v>49</v>
       </c>
       <c r="L238">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="M238">
+        <v>3.6</v>
+      </c>
+      <c r="N238">
+        <v>2.15</v>
+      </c>
+      <c r="O238">
+        <v>2.3</v>
+      </c>
+      <c r="P238">
         <v>3.5</v>
       </c>
-      <c r="N238">
-        <v>3.5</v>
-      </c>
-      <c r="O238">
-        <v>2.4</v>
-      </c>
-      <c r="P238">
-        <v>3.1</v>
-      </c>
       <c r="Q238">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R238">
         <v>0</v>
       </c>
       <c r="S238">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T238">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U238">
         <v>2.5</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z238">
         <v>-1</v>
@@ -22424,7 +22424,7 @@
         <v>-1</v>
       </c>
       <c r="AD238">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22432,7 +22432,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6813982</v>
+        <v>6813981</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22444,16 +22444,16 @@
         <v>43</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -22462,46 +22462,46 @@
         <v>49</v>
       </c>
       <c r="L239">
+        <v>1.85</v>
+      </c>
+      <c r="M239">
+        <v>3.5</v>
+      </c>
+      <c r="N239">
+        <v>3.5</v>
+      </c>
+      <c r="O239">
+        <v>2.4</v>
+      </c>
+      <c r="P239">
+        <v>3.1</v>
+      </c>
+      <c r="Q239">
         <v>2.7</v>
       </c>
-      <c r="M239">
-        <v>3.6</v>
-      </c>
-      <c r="N239">
-        <v>2.15</v>
-      </c>
-      <c r="O239">
-        <v>2.3</v>
-      </c>
-      <c r="P239">
-        <v>3.5</v>
-      </c>
-      <c r="Q239">
-        <v>2.6</v>
-      </c>
       <c r="R239">
         <v>0</v>
       </c>
       <c r="S239">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T239">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U239">
         <v>2.5</v>
       </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
@@ -22516,7 +22516,7 @@
         <v>-1</v>
       </c>
       <c r="AD239">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22625,7 +22625,7 @@
         <v>45395.375</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F241" t="s">
         <v>39</v>
@@ -23269,10 +23269,10 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -23364,7 +23364,7 @@
         <v>47</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -23640,7 +23640,7 @@
         <v>39</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>45406.58333333334</v>
       </c>
       <c r="E255" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F255" t="s">
         <v>47</v>
@@ -24005,7 +24005,7 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F256" t="s">
         <v>34</v>
@@ -24557,10 +24557,10 @@
         <v>45409.375</v>
       </c>
       <c r="E262" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F262" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F264" t="s">
         <v>47</v>
@@ -25020,7 +25020,7 @@
         <v>47</v>
       </c>
       <c r="F267" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -25109,7 +25109,7 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E268" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F268" t="s">
         <v>45</v>
@@ -25192,7 +25192,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6990102</v>
+        <v>6990101</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25201,46 +25201,46 @@
         <v>45416.375</v>
       </c>
       <c r="E269" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F269" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L269">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M269">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N269">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O269">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="P269">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q269">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="R269">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S269">
         <v>2</v>
@@ -25249,34 +25249,34 @@
         <v>1.85</v>
       </c>
       <c r="U269">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W269">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y269">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB269">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD269">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -25284,7 +25284,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6993569</v>
+        <v>6990102</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25293,82 +25293,82 @@
         <v>45416.375</v>
       </c>
       <c r="E270" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F270" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K270" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L270">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M270">
         <v>4</v>
       </c>
       <c r="N270">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O270">
         <v>2.15</v>
       </c>
       <c r="P270">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q270">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="R270">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S270">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T270">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U270">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V270">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W270">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z270">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
       <c r="AC270">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD270">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -25376,7 +25376,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6990101</v>
+        <v>6993569</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -25385,82 +25385,82 @@
         <v>45416.375</v>
       </c>
       <c r="E271" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F271" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G271">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K271" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L271">
         <v>2.5</v>
       </c>
       <c r="M271">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N271">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O271">
+        <v>2.15</v>
+      </c>
+      <c r="P271">
+        <v>4.2</v>
+      </c>
+      <c r="Q271">
+        <v>2.4</v>
+      </c>
+      <c r="R271">
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <v>1.8</v>
+      </c>
+      <c r="T271">
+        <v>2.05</v>
+      </c>
+      <c r="U271">
         <v>2.75</v>
       </c>
-      <c r="P271">
-        <v>4.333</v>
-      </c>
-      <c r="Q271">
-        <v>2</v>
-      </c>
-      <c r="R271">
-        <v>0.25</v>
-      </c>
-      <c r="S271">
-        <v>2</v>
-      </c>
-      <c r="T271">
-        <v>1.85</v>
-      </c>
-      <c r="U271">
-        <v>3</v>
-      </c>
       <c r="V271">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W271">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X271">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA271">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC271">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AD271">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -25572,7 +25572,7 @@
         <v>33</v>
       </c>
       <c r="F273" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -25661,7 +25661,7 @@
         <v>45422.58333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F274" t="s">
         <v>32</v>
@@ -25937,7 +25937,7 @@
         <v>45423.375</v>
       </c>
       <c r="E277" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F277" t="s">
         <v>33</v>
@@ -26216,7 +26216,7 @@
         <v>38</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -26400,7 +26400,7 @@
         <v>34</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -26584,7 +26584,7 @@
         <v>37</v>
       </c>
       <c r="F284" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -26768,7 +26768,7 @@
         <v>32</v>
       </c>
       <c r="F286" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G286">
         <v>4</v>
@@ -27136,7 +27136,7 @@
         <v>33</v>
       </c>
       <c r="F290" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G290">
         <v>2</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -121,10 +121,10 @@
     <t>Greuther Furth II</t>
   </si>
   <si>
-    <t>Schweinfurt 05</t>
+    <t>Nurnberg II</t>
   </si>
   <si>
-    <t>Nurnberg II</t>
+    <t>Schweinfurt 05</t>
   </si>
   <si>
     <t>Turkgucu Munchen</t>
@@ -136,9 +136,6 @@
     <t>Ansbach</t>
   </si>
   <si>
-    <t>Memmingen</t>
-  </si>
-  <si>
     <t>Viktoria Aschaffenburg</t>
   </si>
   <si>
@@ -148,10 +145,13 @@
     <t>Bayern Munich II</t>
   </si>
   <si>
-    <t>DJK Vilzing</t>
+    <t>Memmingen</t>
   </si>
   <si>
     <t>FV Illertissen</t>
+  </si>
+  <si>
+    <t>DJK Vilzing</t>
   </si>
   <si>
     <t>SV SchaldingHeining</t>
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -916,7 +916,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6813721</v>
+        <v>6813722</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1100,79 +1100,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="M7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R7">
         <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813722</v>
+        <v>6813721</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1192,79 +1192,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="M8">
+        <v>3.75</v>
+      </c>
+      <c r="N8">
+        <v>2.7</v>
+      </c>
+      <c r="O8">
+        <v>2.1</v>
+      </c>
+      <c r="P8">
         <v>3.6</v>
       </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>2.15</v>
-      </c>
-      <c r="P8">
-        <v>3.2</v>
-      </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R8">
         <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U8">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1284,7 +1284,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6813735</v>
+        <v>6813736</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1560,79 +1560,79 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L12">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U12">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6813736</v>
+        <v>6813739</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1652,79 +1652,79 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="O13">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="P13">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="R13">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U13">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X13">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1732,7 +1732,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6813739</v>
+        <v>6813734</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1744,16 +1744,16 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1762,61 +1762,61 @@
         <v>50</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="M14">
         <v>4</v>
       </c>
       <c r="N14">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="O14">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q14">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="R14">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="T14">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="U14">
         <v>3.5</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
+        <v>1.875</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
         <v>1.9</v>
       </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>0.444</v>
-      </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6813734</v>
+        <v>6813735</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1836,55 +1836,55 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
         <v>50</v>
       </c>
       <c r="L15">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O15">
         <v>2.05</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q15">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="R15">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S15">
-        <v>2.15</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="U15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>1.875</v>
@@ -1896,19 +1896,19 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD15">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -1916,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6813740</v>
+        <v>6813733</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1928,7 +1928,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1946,43 +1946,43 @@
         <v>48</v>
       </c>
       <c r="L16">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="P16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q16">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X16">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -1991,16 +1991,16 @@
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2008,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6813733</v>
+        <v>6813740</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2020,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2038,61 +2038,61 @@
         <v>48</v>
       </c>
       <c r="L17">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.925</v>
+      </c>
+      <c r="T17">
+        <v>1.925</v>
+      </c>
+      <c r="U17">
+        <v>2.75</v>
+      </c>
+      <c r="V17">
+        <v>1.8</v>
+      </c>
+      <c r="W17">
+        <v>2.05</v>
+      </c>
+      <c r="X17">
+        <v>1.45</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.925</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
+        <v>0.4</v>
+      </c>
+      <c r="AD17">
         <v>-0.5</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>1.85</v>
-      </c>
-      <c r="U17">
-        <v>3</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
-      <c r="W17">
-        <v>1.9</v>
-      </c>
-      <c r="X17">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>-1</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2112,7 +2112,7 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2293,7 +2293,7 @@
         <v>45143.375</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
         <v>47</v>
@@ -2388,7 +2388,7 @@
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2664,7 +2664,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2753,10 +2753,10 @@
         <v>45143.4375</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2848,7 +2848,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>45147.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
@@ -3213,10 +3213,10 @@
         <v>45149.5625</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6813753</v>
+        <v>6813752</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3305,82 +3305,82 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L31">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M31">
         <v>3.6</v>
       </c>
       <c r="N31">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O31">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q31">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T31">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC31">
         <v>-1</v>
       </c>
       <c r="AD31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3397,10 +3397,10 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3480,7 +3480,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6813752</v>
+        <v>6813753</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3489,82 +3489,82 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M33">
         <v>3.6</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O33">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S33">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <v>-1</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3581,7 +3581,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
         <v>46</v>
@@ -3765,7 +3765,7 @@
         <v>45157.375</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -3857,10 +3857,10 @@
         <v>45157.375</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4044,7 +4044,7 @@
         <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4225,7 +4225,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6813771</v>
+        <v>6813768</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4317,82 +4317,82 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L42">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="M42">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N42">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="O42">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="R42">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U42">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V42">
+        <v>1.95</v>
+      </c>
+      <c r="W42">
         <v>1.85</v>
       </c>
-      <c r="W42">
-        <v>1.95</v>
-      </c>
       <c r="X42">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC42">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD42">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4400,7 +4400,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6813768</v>
+        <v>6813771</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4409,82 +4409,82 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L43">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="M43">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N43">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="O43">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="R43">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U43">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
+        <v>1.85</v>
+      </c>
+      <c r="W43">
         <v>1.95</v>
       </c>
-      <c r="W43">
-        <v>1.85</v>
-      </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y43">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB43">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD43">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4501,10 +4501,10 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>45167.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4780,7 +4780,7 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4869,10 +4869,10 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6813786</v>
+        <v>6813779</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5053,19 +5053,19 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -5074,22 +5074,22 @@
         <v>48</v>
       </c>
       <c r="L50">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M50">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O50">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P50">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q50">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R50">
         <v>-1.25</v>
@@ -5101,7 +5101,7 @@
         <v>1.85</v>
       </c>
       <c r="U50">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V50">
         <v>1.825</v>
@@ -5110,7 +5110,7 @@
         <v>1.975</v>
       </c>
       <c r="X50">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -5125,10 +5125,10 @@
         <v>0.425</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD50">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5136,7 +5136,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6813779</v>
+        <v>6813786</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5145,19 +5145,19 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -5166,22 +5166,22 @@
         <v>48</v>
       </c>
       <c r="L51">
+        <v>1.5</v>
+      </c>
+      <c r="M51">
+        <v>4.1</v>
+      </c>
+      <c r="N51">
+        <v>4.8</v>
+      </c>
+      <c r="O51">
         <v>1.4</v>
       </c>
-      <c r="M51">
-        <v>4.75</v>
-      </c>
-      <c r="N51">
+      <c r="P51">
+        <v>4.333</v>
+      </c>
+      <c r="Q51">
         <v>5.5</v>
-      </c>
-      <c r="O51">
-        <v>1.45</v>
-      </c>
-      <c r="P51">
-        <v>4.5</v>
-      </c>
-      <c r="Q51">
-        <v>5</v>
       </c>
       <c r="R51">
         <v>-1.25</v>
@@ -5193,7 +5193,7 @@
         <v>1.85</v>
       </c>
       <c r="U51">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V51">
         <v>1.825</v>
@@ -5202,7 +5202,7 @@
         <v>1.975</v>
       </c>
       <c r="X51">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5217,10 +5217,10 @@
         <v>0.425</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD51">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5228,7 +5228,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6813793</v>
+        <v>6813796</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5243,76 +5243,76 @@
         <v>36</v>
       </c>
       <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52">
         <v>3</v>
       </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>50</v>
-      </c>
-      <c r="L52">
-        <v>1.727</v>
-      </c>
       <c r="M52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O52">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="P52">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q52">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R52">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S52">
+        <v>1.775</v>
+      </c>
+      <c r="T52">
+        <v>2.025</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
         <v>1.95</v>
       </c>
-      <c r="T52">
+      <c r="W52">
         <v>1.85</v>
       </c>
-      <c r="U52">
-        <v>2.75</v>
-      </c>
-      <c r="V52">
-        <v>1.875</v>
-      </c>
-      <c r="W52">
-        <v>1.925</v>
-      </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD52">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5320,7 +5320,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6813796</v>
+        <v>6813793</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5329,82 +5329,82 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
         <v>35</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O53">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="P53">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q53">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R53">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S53">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X53">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5412,7 +5412,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6813791</v>
+        <v>6813790</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5421,19 +5421,19 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -5442,43 +5442,43 @@
         <v>48</v>
       </c>
       <c r="L54">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="M54">
         <v>3.75</v>
       </c>
       <c r="N54">
+        <v>2.3</v>
+      </c>
+      <c r="O54">
+        <v>1.833</v>
+      </c>
+      <c r="P54">
         <v>3.75</v>
       </c>
-      <c r="O54">
-        <v>1.285</v>
-      </c>
-      <c r="P54">
-        <v>5</v>
-      </c>
       <c r="Q54">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="R54">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U54">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V54">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
         <v>1.925</v>
       </c>
       <c r="X54">
-        <v>0.2849999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5487,13 +5487,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AD54">
         <v>-1</v>
@@ -5504,7 +5504,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6813790</v>
+        <v>6813791</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5513,19 +5513,19 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5534,43 +5534,43 @@
         <v>48</v>
       </c>
       <c r="L55">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="M55">
         <v>3.75</v>
       </c>
       <c r="N55">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O55">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="P55">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q55">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="R55">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U55">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W55">
         <v>1.925</v>
       </c>
       <c r="X55">
-        <v>0.833</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5579,13 +5579,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD55">
         <v>-1</v>
@@ -5688,7 +5688,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6813794</v>
+        <v>6813795</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5697,79 +5697,79 @@
         <v>45171.375</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L57">
-        <v>2.55</v>
+        <v>1.166</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N57">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="O57">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="P57">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q57">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U57">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V57">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD57">
         <v>-1</v>
@@ -5780,7 +5780,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6813795</v>
+        <v>6813794</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -5789,79 +5789,79 @@
         <v>45171.375</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L58">
-        <v>1.166</v>
+        <v>2.55</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="O58">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="P58">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q58">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="R58">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U58">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W58">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X58">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD58">
         <v>-1</v>
@@ -5973,7 +5973,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
         <v>38</v>
@@ -6065,7 +6065,7 @@
         <v>45177.5625</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
         <v>32</v>
@@ -6160,7 +6160,7 @@
         <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6249,10 +6249,10 @@
         <v>45177.58333333334</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6617,7 +6617,7 @@
         <v>45178.375</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
         <v>47</v>
@@ -6712,7 +6712,7 @@
         <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6801,10 +6801,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6985,7 +6985,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
         <v>46</v>
@@ -7169,10 +7169,10 @@
         <v>45185.375</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7264,7 +7264,7 @@
         <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7537,7 +7537,7 @@
         <v>45188.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
@@ -7813,7 +7813,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
         <v>38</v>
@@ -7905,10 +7905,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -8089,7 +8089,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -8172,7 +8172,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6813820</v>
+        <v>6813821</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8184,79 +8184,79 @@
         <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L84">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="M84">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O84">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="P84">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="R84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S84">
+        <v>1.875</v>
+      </c>
+      <c r="T84">
+        <v>1.925</v>
+      </c>
+      <c r="U84">
+        <v>3.25</v>
+      </c>
+      <c r="V84">
+        <v>1.975</v>
+      </c>
+      <c r="W84">
         <v>1.825</v>
       </c>
-      <c r="T84">
-        <v>1.975</v>
-      </c>
-      <c r="U84">
-        <v>3</v>
-      </c>
-      <c r="V84">
-        <v>1.825</v>
-      </c>
-      <c r="W84">
-        <v>1.975</v>
-      </c>
       <c r="X84">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y84">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8264,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6813821</v>
+        <v>6813820</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8276,79 +8276,79 @@
         <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>49</v>
+      </c>
+      <c r="L85">
+        <v>1.909</v>
+      </c>
+      <c r="M85">
+        <v>3.9</v>
+      </c>
+      <c r="N85">
         <v>3</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>48</v>
-      </c>
-      <c r="L85">
-        <v>1.285</v>
-      </c>
-      <c r="M85">
-        <v>4.75</v>
-      </c>
-      <c r="N85">
-        <v>8</v>
-      </c>
       <c r="O85">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q85">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="R85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V85">
+        <v>1.825</v>
+      </c>
+      <c r="W85">
         <v>1.975</v>
       </c>
-      <c r="W85">
-        <v>1.825</v>
-      </c>
       <c r="X85">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
+        <v>-1</v>
+      </c>
+      <c r="AD85">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8365,10 +8365,10 @@
         <v>45192.375</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8549,10 +8549,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8644,7 +8644,7 @@
         <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6813830</v>
+        <v>6813829</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8917,82 +8917,82 @@
         <v>45199.375</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L92">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N92">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O92">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="P92">
         <v>3.6</v>
       </c>
       <c r="Q92">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R92">
+        <v>-0.25</v>
+      </c>
+      <c r="S92">
+        <v>2.025</v>
+      </c>
+      <c r="T92">
+        <v>1.825</v>
+      </c>
+      <c r="U92">
+        <v>3.25</v>
+      </c>
+      <c r="V92">
+        <v>1.975</v>
+      </c>
+      <c r="W92">
+        <v>1.875</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>2.6</v>
+      </c>
+      <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
         <v>-0.5</v>
       </c>
-      <c r="S92">
-        <v>1.95</v>
-      </c>
-      <c r="T92">
-        <v>1.9</v>
-      </c>
-      <c r="U92">
-        <v>3</v>
-      </c>
-      <c r="V92">
-        <v>1.85</v>
-      </c>
-      <c r="W92">
-        <v>2</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>-1</v>
-      </c>
-      <c r="Z92">
-        <v>2.6</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6813829</v>
+        <v>6813830</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,82 +9009,82 @@
         <v>45199.375</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L93">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M93">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O93">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="P93">
         <v>3.6</v>
       </c>
       <c r="Q93">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R93">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U93">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
         <v>2.6</v>
       </c>
-      <c r="Z93">
-        <v>-1</v>
-      </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9104,7 +9104,7 @@
         <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         <v>45202.375</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
         <v>39</v>
@@ -9368,7 +9368,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6813840</v>
+        <v>6813836</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9380,61 +9380,61 @@
         <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="s">
         <v>48</v>
       </c>
       <c r="L97">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="M97">
         <v>3.8</v>
       </c>
       <c r="N97">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O97">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="R97">
         <v>-0.25</v>
       </c>
       <c r="S97">
+        <v>1.95</v>
+      </c>
+      <c r="T97">
+        <v>1.75</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="T97">
-        <v>1.975</v>
-      </c>
-      <c r="U97">
-        <v>3</v>
-      </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
       <c r="W97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X97">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9443,16 +9443,16 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9460,7 +9460,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6813836</v>
+        <v>6813834</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9469,82 +9469,82 @@
         <v>45202.375</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L98">
-        <v>2.05</v>
+        <v>4.1</v>
       </c>
       <c r="M98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N98">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q98">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="R98">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S98">
         <v>1.95</v>
       </c>
       <c r="T98">
+        <v>1.85</v>
+      </c>
+      <c r="U98">
+        <v>3.25</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
         <v>1.75</v>
       </c>
-      <c r="U98">
-        <v>2.75</v>
-      </c>
-      <c r="V98">
-        <v>1.875</v>
-      </c>
-      <c r="W98">
-        <v>1.925</v>
-      </c>
       <c r="X98">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
       </c>
       <c r="AD98">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9552,7 +9552,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6813834</v>
+        <v>6813835</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9564,79 +9564,79 @@
         <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L99">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="P99">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="R99">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z99">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
         <v>-1</v>
       </c>
       <c r="AD99">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9644,7 +9644,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6813835</v>
+        <v>6813838</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9653,82 +9653,82 @@
         <v>45202.375</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L100">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N100">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O100">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q100">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="R100">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U100">
         <v>3</v>
       </c>
       <c r="V100">
+        <v>1.975</v>
+      </c>
+      <c r="W100">
         <v>1.875</v>
       </c>
-      <c r="W100">
-        <v>1.925</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD100">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9736,7 +9736,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6813838</v>
+        <v>6813840</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9745,82 +9745,82 @@
         <v>45202.375</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="M101">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N101">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="P101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q101">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="R101">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U101">
         <v>3</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9920,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6814791</v>
+        <v>6813839</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9929,13 +9929,13 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9944,67 +9944,67 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L103">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="O103">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="P103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q103">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="R103">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S103">
+        <v>2.1</v>
+      </c>
+      <c r="T103">
+        <v>1.775</v>
+      </c>
+      <c r="U103">
+        <v>2.75</v>
+      </c>
+      <c r="V103">
         <v>1.9</v>
       </c>
-      <c r="T103">
+      <c r="W103">
         <v>1.95</v>
       </c>
-      <c r="U103">
-        <v>3</v>
-      </c>
-      <c r="V103">
-        <v>2</v>
-      </c>
-      <c r="W103">
-        <v>1.85</v>
-      </c>
       <c r="X103">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10012,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6813839</v>
+        <v>6814791</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10021,82 +10021,82 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>50</v>
+      </c>
+      <c r="L104">
+        <v>1.666</v>
+      </c>
+      <c r="M104">
+        <v>4</v>
+      </c>
+      <c r="N104">
+        <v>3.8</v>
+      </c>
+      <c r="O104">
+        <v>1.666</v>
+      </c>
+      <c r="P104">
+        <v>4</v>
+      </c>
+      <c r="Q104">
+        <v>3.8</v>
+      </c>
+      <c r="R104">
+        <v>-0.75</v>
+      </c>
+      <c r="S104">
+        <v>1.9</v>
+      </c>
+      <c r="T104">
+        <v>1.95</v>
+      </c>
+      <c r="U104">
         <v>3</v>
       </c>
-      <c r="H104">
-        <v>2</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>2</v>
-      </c>
-      <c r="K104" t="s">
-        <v>48</v>
-      </c>
-      <c r="L104">
-        <v>2</v>
-      </c>
-      <c r="M104">
-        <v>3.75</v>
-      </c>
-      <c r="N104">
-        <v>2.875</v>
-      </c>
-      <c r="O104">
-        <v>2.25</v>
-      </c>
-      <c r="P104">
-        <v>3.75</v>
-      </c>
-      <c r="Q104">
-        <v>2.55</v>
-      </c>
-      <c r="R104">
-        <v>-0.25</v>
-      </c>
-      <c r="S104">
-        <v>2.1</v>
-      </c>
-      <c r="T104">
-        <v>1.775</v>
-      </c>
-      <c r="U104">
-        <v>2.75</v>
-      </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X104">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA104">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10116,7 +10116,7 @@
         <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -10208,7 +10208,7 @@
         <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -10392,7 +10392,7 @@
         <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -10484,7 +10484,7 @@
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>5</v>
@@ -10576,7 +10576,7 @@
         <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10760,7 +10760,7 @@
         <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10849,7 +10849,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
         <v>33</v>
@@ -10932,7 +10932,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6813856</v>
+        <v>6813857</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10941,64 +10941,64 @@
         <v>45213.375</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="s">
         <v>48</v>
       </c>
       <c r="L114">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="M114">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N114">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="O114">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="P114">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q114">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U114">
         <v>3.25</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X114">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="Y114">
         <v>-1</v>
@@ -11007,16 +11007,16 @@
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11024,7 +11024,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6813858</v>
+        <v>6813856</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11033,19 +11033,19 @@
         <v>45213.375</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -11054,43 +11054,43 @@
         <v>48</v>
       </c>
       <c r="L115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M115">
         <v>3.75</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O115">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="R115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X115">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="Y115">
         <v>-1</v>
@@ -11099,16 +11099,16 @@
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11116,7 +11116,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6813857</v>
+        <v>6813859</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11125,16 +11125,16 @@
         <v>45213.375</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -11146,43 +11146,43 @@
         <v>48</v>
       </c>
       <c r="L116">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N116">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O116">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q116">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="R116">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U116">
         <v>3.25</v>
       </c>
       <c r="V116">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X116">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -11191,16 +11191,16 @@
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11217,7 +11217,7 @@
         <v>45213.375</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
         <v>32</v>
@@ -11484,7 +11484,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6813859</v>
+        <v>6813858</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11493,64 +11493,64 @@
         <v>45213.375</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" t="s">
         <v>48</v>
       </c>
       <c r="L120">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M120">
         <v>3.75</v>
       </c>
       <c r="N120">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O120">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P120">
         <v>4</v>
       </c>
       <c r="Q120">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="R120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S120">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X120">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11559,16 +11559,16 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD120">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11585,7 +11585,7 @@
         <v>45216.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
@@ -11772,7 +11772,7 @@
         <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G123">
         <v>5</v>
@@ -11864,7 +11864,7 @@
         <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11953,7 +11953,7 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
         <v>38</v>
@@ -12048,7 +12048,7 @@
         <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -12140,7 +12140,7 @@
         <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
         <v>39</v>
@@ -12321,7 +12321,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -12413,7 +12413,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
         <v>33</v>
@@ -12508,7 +12508,7 @@
         <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -12600,7 +12600,7 @@
         <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>45220.375</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
         <v>31</v>
@@ -12781,7 +12781,7 @@
         <v>45220.375</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
         <v>32</v>
@@ -12873,7 +12873,7 @@
         <v>45220.375</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F135" t="s">
         <v>34</v>
@@ -13048,7 +13048,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6813882</v>
+        <v>6813885</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13057,61 +13057,61 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K137" t="s">
         <v>50</v>
       </c>
       <c r="L137">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N137">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="O137">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="P137">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="R137">
+        <v>0.25</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>1.9</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
         <v>1.75</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>1.8</v>
-      </c>
-      <c r="U137">
-        <v>3.25</v>
-      </c>
-      <c r="V137">
-        <v>1.9</v>
-      </c>
       <c r="W137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -13120,19 +13120,19 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.222</v>
+        <v>1.1</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13149,7 +13149,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
         <v>32</v>
@@ -13232,7 +13232,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6813885</v>
+        <v>6813882</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13241,62 +13241,62 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K139" t="s">
         <v>50</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N139">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="O139">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q139">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="R139">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>1.8</v>
+      </c>
+      <c r="U139">
+        <v>3.25</v>
+      </c>
+      <c r="V139">
         <v>1.9</v>
       </c>
-      <c r="T139">
+      <c r="W139">
         <v>1.9</v>
       </c>
-      <c r="U139">
-        <v>2.75</v>
-      </c>
-      <c r="V139">
-        <v>1.75</v>
-      </c>
-      <c r="W139">
-        <v>1.95</v>
-      </c>
       <c r="X139">
         <v>-1</v>
       </c>
@@ -13304,19 +13304,19 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>1.1</v>
+        <v>0.222</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
+        <v>0.8</v>
+      </c>
+      <c r="AC139">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AC139">
-        <v>-1</v>
-      </c>
       <c r="AD139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13425,10 +13425,10 @@
         <v>45227.375</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -13517,7 +13517,7 @@
         <v>45227.375</v>
       </c>
       <c r="E142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F142" t="s">
         <v>33</v>
@@ -13609,10 +13609,10 @@
         <v>45227.375</v>
       </c>
       <c r="E143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -13885,10 +13885,10 @@
         <v>45230.625</v>
       </c>
       <c r="E146" t="s">
+        <v>41</v>
+      </c>
+      <c r="F146" t="s">
         <v>42</v>
-      </c>
-      <c r="F146" t="s">
-        <v>43</v>
       </c>
       <c r="G146">
         <v>4</v>
@@ -13968,7 +13968,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6813890</v>
+        <v>6813896</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13977,49 +13977,49 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G147">
         <v>3</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L147">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="O147">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="P147">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q147">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="R147">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
         <v>1.95</v>
@@ -14028,28 +14028,28 @@
         <v>3.25</v>
       </c>
       <c r="V147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD147">
         <v>-1</v>
@@ -14060,7 +14060,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6813896</v>
+        <v>6813890</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14069,49 +14069,49 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>3</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L148">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="M148">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N148">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="O148">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q148">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="R148">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T148">
         <v>1.95</v>
@@ -14120,28 +14120,28 @@
         <v>3.25</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X148">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AD148">
         <v>-1</v>
@@ -14152,7 +14152,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6813889</v>
+        <v>6813891</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14161,82 +14161,82 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L149">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M149">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N149">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O149">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="P149">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q149">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="R149">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD149">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14244,7 +14244,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6813891</v>
+        <v>6813892</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14253,82 +14253,82 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
         <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="M150">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N150">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O150">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="P150">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q150">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="R150">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S150">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V150">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB150">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD150">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14336,7 +14336,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6813892</v>
+        <v>6813894</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -14345,13 +14345,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G151">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14366,43 +14366,43 @@
         <v>48</v>
       </c>
       <c r="L151">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="M151">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N151">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="O151">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="R151">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U151">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V151">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X151">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="Y151">
         <v>-1</v>
@@ -14411,13 +14411,13 @@
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD151">
         <v>-1</v>
@@ -14428,7 +14428,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6813894</v>
+        <v>6813889</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14437,82 +14437,82 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G152">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L152">
-        <v>1.166</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N152">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="O152">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="R152">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U152">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14532,7 +14532,7 @@
         <v>47</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14621,10 +14621,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -14716,7 +14716,7 @@
         <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -14805,10 +14805,10 @@
         <v>45240.625</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -14897,7 +14897,7 @@
         <v>45240.625</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
         <v>31</v>
@@ -14989,7 +14989,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F158" t="s">
         <v>30</v>
@@ -15084,7 +15084,7 @@
         <v>47</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -15173,7 +15173,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
         <v>37</v>
@@ -15449,7 +15449,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
         <v>34</v>
@@ -15541,7 +15541,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
         <v>46</v>
@@ -15636,7 +15636,7 @@
         <v>31</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -15820,7 +15820,7 @@
         <v>30</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -15912,7 +15912,7 @@
         <v>46</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -16004,7 +16004,7 @@
         <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -16185,7 +16185,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F171" t="s">
         <v>32</v>
@@ -16277,10 +16277,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -16369,10 +16369,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -16461,7 +16461,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F174" t="s">
         <v>30</v>
@@ -16553,7 +16553,7 @@
         <v>45341.58333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
         <v>34</v>
@@ -16829,10 +16829,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -16921,10 +16921,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -17016,7 +17016,7 @@
         <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -17108,7 +17108,7 @@
         <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -17473,10 +17473,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -17565,10 +17565,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -17657,7 +17657,7 @@
         <v>45354.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F187" t="s">
         <v>38</v>
@@ -17752,7 +17752,7 @@
         <v>37</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -17841,10 +17841,10 @@
         <v>45359.625</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -18025,10 +18025,10 @@
         <v>45359.625</v>
       </c>
       <c r="E191" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -18120,7 +18120,7 @@
         <v>33</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -18212,7 +18212,7 @@
         <v>39</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -18301,7 +18301,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F194" t="s">
         <v>31</v>
@@ -18485,7 +18485,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F196" t="s">
         <v>46</v>
@@ -18669,7 +18669,7 @@
         <v>45363.625</v>
       </c>
       <c r="E198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F198" t="s">
         <v>46</v>
@@ -18764,7 +18764,7 @@
         <v>34</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -19037,10 +19037,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -19221,10 +19221,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E204" t="s">
+        <v>45</v>
+      </c>
+      <c r="F204" t="s">
         <v>44</v>
-      </c>
-      <c r="F204" t="s">
-        <v>45</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -19313,10 +19313,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19497,10 +19497,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -19684,7 +19684,7 @@
         <v>47</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -19773,10 +19773,10 @@
         <v>45373.625</v>
       </c>
       <c r="E210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -19868,7 +19868,7 @@
         <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -20049,10 +20049,10 @@
         <v>45374.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G213">
         <v>3</v>
@@ -20236,7 +20236,7 @@
         <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -20325,7 +20325,7 @@
         <v>45376.625</v>
       </c>
       <c r="E216" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F216" t="s">
         <v>30</v>
@@ -20417,10 +20417,10 @@
         <v>45379.625</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -20500,7 +20500,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6813968</v>
+        <v>6813969</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20509,79 +20509,79 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L218">
-        <v>3.1</v>
+        <v>1.125</v>
       </c>
       <c r="M218">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N218">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="O218">
-        <v>3.8</v>
+        <v>1.111</v>
       </c>
       <c r="P218">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q218">
-        <v>1.65</v>
+        <v>15</v>
       </c>
       <c r="R218">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="S218">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T218">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U218">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W218">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB218">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD218">
         <v>-1</v>
@@ -20592,7 +20592,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6813969</v>
+        <v>6813968</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20601,79 +20601,79 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
         <v>4</v>
       </c>
-      <c r="H219">
-        <v>0</v>
-      </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L219">
-        <v>1.125</v>
+        <v>3.1</v>
       </c>
       <c r="M219">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N219">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="O219">
-        <v>1.111</v>
+        <v>3.8</v>
       </c>
       <c r="P219">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q219">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="R219">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="S219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T219">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U219">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X219">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC219">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD219">
         <v>-1</v>
@@ -20693,7 +20693,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
         <v>34</v>
@@ -20788,7 +20788,7 @@
         <v>46</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -20877,10 +20877,10 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -20960,7 +20960,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6813964</v>
+        <v>6813965</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20969,13 +20969,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F223" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20990,40 +20990,40 @@
         <v>50</v>
       </c>
       <c r="L223">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="M223">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O223">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="P223">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q223">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="R223">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U223">
         <v>2.75</v>
       </c>
       <c r="V223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -21032,19 +21032,19 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD223">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21052,7 +21052,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6813965</v>
+        <v>6813964</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21061,13 +21061,13 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -21082,40 +21082,40 @@
         <v>50</v>
       </c>
       <c r="L224">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="M224">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N224">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O224">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="P224">
+        <v>3.8</v>
+      </c>
+      <c r="Q224">
         <v>4.5</v>
       </c>
-      <c r="Q224">
-        <v>6</v>
-      </c>
       <c r="R224">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S224">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U224">
         <v>2.75</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W224">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -21124,19 +21124,19 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC224">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD224">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21153,7 +21153,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F225" t="s">
         <v>38</v>
@@ -21429,10 +21429,10 @@
         <v>45384.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F228" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -21613,10 +21613,10 @@
         <v>45387.58333333334</v>
       </c>
       <c r="E230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -21800,7 +21800,7 @@
         <v>38</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -21880,7 +21880,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6813978</v>
+        <v>6813979</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -21889,16 +21889,16 @@
         <v>45388.375</v>
       </c>
       <c r="E233" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G233">
         <v>0</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -21910,40 +21910,40 @@
         <v>50</v>
       </c>
       <c r="L233">
+        <v>3.6</v>
+      </c>
+      <c r="M233">
+        <v>3.6</v>
+      </c>
+      <c r="N233">
         <v>1.8</v>
       </c>
-      <c r="M233">
-        <v>3.8</v>
-      </c>
-      <c r="N233">
+      <c r="O233">
+        <v>2.875</v>
+      </c>
+      <c r="P233">
         <v>3.4</v>
       </c>
-      <c r="O233">
-        <v>1.8</v>
-      </c>
-      <c r="P233">
-        <v>4</v>
-      </c>
       <c r="Q233">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="R233">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U233">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W233">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21952,19 +21952,19 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC233">
         <v>-1</v>
       </c>
       <c r="AD233">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -21972,7 +21972,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6813979</v>
+        <v>6813980</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -21981,16 +21981,16 @@
         <v>45388.375</v>
       </c>
       <c r="E234" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G234">
         <v>0</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -22002,40 +22002,40 @@
         <v>50</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="M234">
         <v>3.6</v>
       </c>
       <c r="N234">
+        <v>3.2</v>
+      </c>
+      <c r="O234">
+        <v>2</v>
+      </c>
+      <c r="P234">
+        <v>3.5</v>
+      </c>
+      <c r="Q234">
+        <v>3.25</v>
+      </c>
+      <c r="R234">
+        <v>-0.5</v>
+      </c>
+      <c r="S234">
+        <v>2.05</v>
+      </c>
+      <c r="T234">
         <v>1.8</v>
       </c>
-      <c r="O234">
-        <v>2.875</v>
-      </c>
-      <c r="P234">
-        <v>3.4</v>
-      </c>
-      <c r="Q234">
-        <v>2.15</v>
-      </c>
-      <c r="R234">
-        <v>0.25</v>
-      </c>
-      <c r="S234">
-        <v>1.85</v>
-      </c>
-      <c r="T234">
-        <v>2</v>
-      </c>
       <c r="U234">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -22044,19 +22044,19 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="AA234">
         <v>-1</v>
       </c>
       <c r="AB234">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC234">
         <v>-1</v>
       </c>
       <c r="AD234">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:30">
@@ -22064,7 +22064,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6813980</v>
+        <v>6813978</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22073,10 +22073,10 @@
         <v>45388.375</v>
       </c>
       <c r="E235" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -22094,40 +22094,40 @@
         <v>50</v>
       </c>
       <c r="L235">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M235">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N235">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O235">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P235">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q235">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R235">
         <v>-0.5</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T235">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U235">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -22136,19 +22136,19 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC235">
         <v>-1</v>
       </c>
       <c r="AD235">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22168,7 +22168,7 @@
         <v>33</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -22349,10 +22349,10 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E238" t="s">
+        <v>43</v>
+      </c>
+      <c r="F238" t="s">
         <v>40</v>
-      </c>
-      <c r="F238" t="s">
-        <v>41</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -22441,7 +22441,7 @@
         <v>45394.58333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F239" t="s">
         <v>38</v>
@@ -22625,7 +22625,7 @@
         <v>45395.375</v>
       </c>
       <c r="E241" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s">
         <v>39</v>
@@ -22717,7 +22717,7 @@
         <v>45395.375</v>
       </c>
       <c r="E242" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F242" t="s">
         <v>47</v>
@@ -22809,10 +22809,10 @@
         <v>45395.375</v>
       </c>
       <c r="E243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F243" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -22901,7 +22901,7 @@
         <v>45395.375</v>
       </c>
       <c r="E244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F244" t="s">
         <v>32</v>
@@ -23180,7 +23180,7 @@
         <v>31</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -23269,10 +23269,10 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E248" t="s">
+        <v>40</v>
+      </c>
+      <c r="F248" t="s">
         <v>41</v>
-      </c>
-      <c r="F248" t="s">
-        <v>42</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -23364,7 +23364,7 @@
         <v>47</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -23456,7 +23456,7 @@
         <v>37</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>38</v>
       </c>
       <c r="F251" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>39</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>34</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -23913,7 +23913,7 @@
         <v>45406.58333333334</v>
       </c>
       <c r="E255" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F255" t="s">
         <v>47</v>
@@ -24005,7 +24005,7 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F256" t="s">
         <v>34</v>
@@ -24097,7 +24097,7 @@
         <v>45408.58333333334</v>
       </c>
       <c r="E257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F257" t="s">
         <v>39</v>
@@ -24281,7 +24281,7 @@
         <v>45409.375</v>
       </c>
       <c r="E259" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F259" t="s">
         <v>38</v>
@@ -24373,7 +24373,7 @@
         <v>45409.375</v>
       </c>
       <c r="E260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F260" t="s">
         <v>31</v>
@@ -24557,10 +24557,10 @@
         <v>45409.375</v>
       </c>
       <c r="E262" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -24649,7 +24649,7 @@
         <v>45409.375</v>
       </c>
       <c r="E263" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F263" t="s">
         <v>33</v>
@@ -24741,7 +24741,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F264" t="s">
         <v>47</v>
@@ -25020,7 +25020,7 @@
         <v>47</v>
       </c>
       <c r="F267" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -25109,10 +25109,10 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>34</v>
       </c>
       <c r="F270" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -25388,7 +25388,7 @@
         <v>32</v>
       </c>
       <c r="F271" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -25477,10 +25477,10 @@
         <v>45416.375</v>
       </c>
       <c r="E272" t="s">
+        <v>35</v>
+      </c>
+      <c r="F272" t="s">
         <v>36</v>
-      </c>
-      <c r="F272" t="s">
-        <v>35</v>
       </c>
       <c r="G272">
         <v>3</v>
@@ -25572,7 +25572,7 @@
         <v>33</v>
       </c>
       <c r="F273" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -25661,7 +25661,7 @@
         <v>45422.58333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F274" t="s">
         <v>32</v>
@@ -25756,7 +25756,7 @@
         <v>30</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7023624</v>
+        <v>7020637</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25845,25 +25845,25 @@
         <v>45423.375</v>
       </c>
       <c r="E276" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F276" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G276">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276">
         <v>0</v>
       </c>
       <c r="K276" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L276">
         <v>1.727</v>
@@ -25875,52 +25875,52 @@
         <v>3.5</v>
       </c>
       <c r="O276">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="P276">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q276">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="R276">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T276">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U276">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V276">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W276">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB276">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD276">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:30">
@@ -25928,7 +25928,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7023623</v>
+        <v>7023610</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -25937,64 +25937,64 @@
         <v>45423.375</v>
       </c>
       <c r="E277" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G277">
         <v>3</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K277" t="s">
         <v>48</v>
       </c>
       <c r="L277">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="M277">
         <v>4</v>
       </c>
       <c r="N277">
+        <v>3.25</v>
+      </c>
+      <c r="O277">
+        <v>1.85</v>
+      </c>
+      <c r="P277">
         <v>4</v>
       </c>
-      <c r="O277">
-        <v>1.571</v>
-      </c>
-      <c r="P277">
-        <v>4.2</v>
-      </c>
       <c r="Q277">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="R277">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S277">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T277">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U277">
         <v>3.25</v>
       </c>
       <c r="V277">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W277">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X277">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y277">
         <v>-1</v>
@@ -26003,16 +26003,16 @@
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB277">
         <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD277">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:30">
@@ -26020,7 +26020,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7023622</v>
+        <v>7023611</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -26029,82 +26029,82 @@
         <v>45423.375</v>
       </c>
       <c r="E278" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F278" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H278">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K278" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L278">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="M278">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N278">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="O278">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="P278">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q278">
-        <v>1.333</v>
+        <v>8.5</v>
       </c>
       <c r="R278">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="S278">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T278">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U278">
         <v>3.5</v>
       </c>
       <c r="V278">
+        <v>1.9</v>
+      </c>
+      <c r="W278">
         <v>1.95</v>
       </c>
-      <c r="W278">
-        <v>1.9</v>
-      </c>
       <c r="X278">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB278">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD278">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:30">
@@ -26112,7 +26112,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7023610</v>
+        <v>7023622</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -26121,82 +26121,82 @@
         <v>45423.375</v>
       </c>
       <c r="E279" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
         <v>3</v>
       </c>
-      <c r="H279">
-        <v>1</v>
-      </c>
       <c r="I279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279">
         <v>1</v>
       </c>
       <c r="K279" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L279">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="M279">
         <v>4</v>
       </c>
       <c r="N279">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="O279">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="P279">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q279">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="R279">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="S279">
+        <v>1.925</v>
+      </c>
+      <c r="T279">
+        <v>1.925</v>
+      </c>
+      <c r="U279">
+        <v>3.5</v>
+      </c>
+      <c r="V279">
+        <v>1.95</v>
+      </c>
+      <c r="W279">
         <v>1.9</v>
       </c>
-      <c r="T279">
-        <v>1.9</v>
-      </c>
-      <c r="U279">
-        <v>3.25</v>
-      </c>
-      <c r="V279">
-        <v>2</v>
-      </c>
-      <c r="W279">
-        <v>1.8</v>
-      </c>
       <c r="X279">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="AA279">
+        <v>-1</v>
+      </c>
+      <c r="AB279">
+        <v>0.925</v>
+      </c>
+      <c r="AC279">
+        <v>-1</v>
+      </c>
+      <c r="AD279">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB279">
-        <v>-1</v>
-      </c>
-      <c r="AC279">
-        <v>1</v>
-      </c>
-      <c r="AD279">
-        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -26204,7 +26204,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7020637</v>
+        <v>7023623</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -26213,19 +26213,19 @@
         <v>45423.375</v>
       </c>
       <c r="E280" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H280">
         <v>0</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J280">
         <v>0</v>
@@ -26234,61 +26234,61 @@
         <v>48</v>
       </c>
       <c r="L280">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="M280">
         <v>4</v>
       </c>
       <c r="N280">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O280">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="P280">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q280">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="R280">
+        <v>-1</v>
+      </c>
+      <c r="S280">
+        <v>1.975</v>
+      </c>
+      <c r="T280">
+        <v>1.825</v>
+      </c>
+      <c r="U280">
+        <v>3.25</v>
+      </c>
+      <c r="V280">
+        <v>1.825</v>
+      </c>
+      <c r="W280">
+        <v>1.975</v>
+      </c>
+      <c r="X280">
+        <v>0.571</v>
+      </c>
+      <c r="Y280">
+        <v>-1</v>
+      </c>
+      <c r="Z280">
+        <v>-1</v>
+      </c>
+      <c r="AA280">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
         <v>-0.5</v>
       </c>
-      <c r="S280">
-        <v>1.9</v>
-      </c>
-      <c r="T280">
-        <v>1.95</v>
-      </c>
-      <c r="U280">
-        <v>2.75</v>
-      </c>
-      <c r="V280">
-        <v>1.85</v>
-      </c>
-      <c r="W280">
-        <v>2</v>
-      </c>
-      <c r="X280">
-        <v>0.833</v>
-      </c>
-      <c r="Y280">
-        <v>-1</v>
-      </c>
-      <c r="Z280">
-        <v>-1</v>
-      </c>
-      <c r="AA280">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB280">
-        <v>-1</v>
-      </c>
-      <c r="AC280">
-        <v>-1</v>
-      </c>
       <c r="AD280">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="281" spans="1:30">
@@ -26296,7 +26296,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7023611</v>
+        <v>7356798</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26305,82 +26305,82 @@
         <v>45423.375</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F281" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G281">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J281">
         <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L281">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="M281">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N281">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="O281">
+        <v>2.55</v>
+      </c>
+      <c r="P281">
+        <v>3.75</v>
+      </c>
+      <c r="Q281">
+        <v>2.2</v>
+      </c>
+      <c r="R281">
+        <v>0.25</v>
+      </c>
+      <c r="S281">
+        <v>1.8</v>
+      </c>
+      <c r="T281">
+        <v>2.05</v>
+      </c>
+      <c r="U281">
+        <v>3.25</v>
+      </c>
+      <c r="V281">
+        <v>1.975</v>
+      </c>
+      <c r="W281">
+        <v>1.875</v>
+      </c>
+      <c r="X281">
+        <v>-1</v>
+      </c>
+      <c r="Y281">
+        <v>-1</v>
+      </c>
+      <c r="Z281">
         <v>1.2</v>
       </c>
-      <c r="P281">
-        <v>6</v>
-      </c>
-      <c r="Q281">
-        <v>8.5</v>
-      </c>
-      <c r="R281">
-        <v>-2</v>
-      </c>
-      <c r="S281">
-        <v>1.975</v>
-      </c>
-      <c r="T281">
-        <v>1.875</v>
-      </c>
-      <c r="U281">
-        <v>3.5</v>
-      </c>
-      <c r="V281">
-        <v>1.9</v>
-      </c>
-      <c r="W281">
-        <v>1.95</v>
-      </c>
-      <c r="X281">
-        <v>0.2</v>
-      </c>
-      <c r="Y281">
-        <v>-1</v>
-      </c>
-      <c r="Z281">
-        <v>-1</v>
-      </c>
       <c r="AA281">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC281">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD281">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26388,7 +26388,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7356798</v>
+        <v>7023624</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26397,10 +26397,10 @@
         <v>45423.375</v>
       </c>
       <c r="E282" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F282" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -26409,7 +26409,7 @@
         <v>2</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>50</v>
       </c>
       <c r="L282">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M282">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N282">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O282">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="P282">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q282">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="R282">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S282">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T282">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U282">
         <v>3.25</v>
       </c>
       <c r="V282">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W282">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -26460,19 +26460,19 @@
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="AA282">
         <v>-1</v>
       </c>
       <c r="AB282">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC282">
         <v>-0.5</v>
       </c>
       <c r="AD282">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -26492,7 +26492,7 @@
         <v>34</v>
       </c>
       <c r="F283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G283">
         <v>2</v>
@@ -26584,7 +26584,7 @@
         <v>37</v>
       </c>
       <c r="F284" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -26673,7 +26673,7 @@
         <v>45430.375</v>
       </c>
       <c r="E285" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F285" t="s">
         <v>46</v>
@@ -26768,7 +26768,7 @@
         <v>32</v>
       </c>
       <c r="F286" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G286">
         <v>4</v>
@@ -26949,7 +26949,7 @@
         <v>45430.375</v>
       </c>
       <c r="E288" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F288" t="s">
         <v>30</v>
@@ -27044,7 +27044,7 @@
         <v>31</v>
       </c>
       <c r="F289" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G289">
         <v>4</v>
@@ -27136,7 +27136,7 @@
         <v>33</v>
       </c>
       <c r="F290" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G290">
         <v>2</v>

--- a/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
+++ b/Germany Regionalliga Bayern/Germany Regionalliga Bayern.xlsx
@@ -121,10 +121,10 @@
     <t>Greuther Furth II</t>
   </si>
   <si>
-    <t>Nurnberg II</t>
+    <t>Schweinfurt 05</t>
   </si>
   <si>
-    <t>Schweinfurt 05</t>
+    <t>Nurnberg II</t>
   </si>
   <si>
     <t>Turkgucu Munchen</t>
@@ -148,10 +148,10 @@
     <t>Memmingen</t>
   </si>
   <si>
-    <t>FV Illertissen</t>
+    <t>DJK Vilzing</t>
   </si>
   <si>
-    <t>DJK Vilzing</t>
+    <t>FV Illertissen</t>
   </si>
   <si>
     <t>SV SchaldingHeining</t>
@@ -916,7 +916,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6813722</v>
+        <v>6813721</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1100,79 +1100,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="M7">
+        <v>3.75</v>
+      </c>
+      <c r="N7">
+        <v>2.7</v>
+      </c>
+      <c r="O7">
+        <v>2.1</v>
+      </c>
+      <c r="P7">
         <v>3.6</v>
       </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>2.15</v>
-      </c>
-      <c r="P7">
-        <v>3.2</v>
-      </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R7">
         <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6813721</v>
+        <v>6813722</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1192,79 +1192,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R8">
         <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1836,7 +1836,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6813733</v>
+        <v>6813740</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1928,7 +1928,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1946,61 +1946,61 @@
         <v>48</v>
       </c>
       <c r="L16">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q16">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>1.925</v>
+      </c>
+      <c r="U16">
+        <v>2.75</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>2.05</v>
+      </c>
+      <c r="X16">
+        <v>1.45</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.925</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
+        <v>0.4</v>
+      </c>
+      <c r="AD16">
         <v>-0.5</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>1.85</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
-      <c r="W16">
-        <v>1.9</v>
-      </c>
-      <c r="X16">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2008,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6813740</v>
+        <v>6813733</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2020,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2038,43 +2038,43 @@
         <v>48</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="P17">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X17">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2083,16 +2083,16 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2293,7 +2293,7 @@
         <v>45143.375</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
         <v>47</v>
@@ -2664,7 +2664,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2753,7 +2753,7 @@
         <v>45143.4375</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>41</v>
@@ -2848,7 +2848,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>45147.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
@@ -3112,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6813754</v>
+        <v>6813757</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3121,82 +3121,82 @@
         <v>45149.5625</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L29">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M29">
         <v>3.6</v>
       </c>
       <c r="N29">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O29">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="R29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S29">
         <v>1.85</v>
       </c>
       <c r="T29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U29">
         <v>3</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB29">
-        <v>-1</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
-      </c>
       <c r="AD29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3204,7 +3204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6813757</v>
+        <v>6813754</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3213,82 +3213,82 @@
         <v>45149.5625</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L30">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M30">
         <v>3.6</v>
       </c>
       <c r="N30">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O30">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="R30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S30">
         <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U30">
         <v>3</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3400,7 +3400,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3765,7 +3765,7 @@
         <v>45157.375</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -3857,10 +3857,10 @@
         <v>45157.375</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
@@ -4504,7 +4504,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>45167.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5053,7 +5053,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
         <v>33</v>
@@ -5228,7 +5228,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6813796</v>
+        <v>6813793</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5237,82 +5237,82 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
         <v>36</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="M52">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O52">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="P52">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q52">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R52">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X52">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5320,7 +5320,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6813793</v>
+        <v>6813796</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5329,82 +5329,82 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
         <v>35</v>
       </c>
       <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53">
         <v>3</v>
       </c>
-      <c r="H53">
-        <v>4</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53">
-        <v>1.727</v>
-      </c>
       <c r="M53">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="P53">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q53">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R53">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S53">
+        <v>1.775</v>
+      </c>
+      <c r="T53">
+        <v>2.025</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
         <v>1.95</v>
       </c>
-      <c r="T53">
+      <c r="W53">
         <v>1.85</v>
       </c>
-      <c r="U53">
-        <v>2.75</v>
-      </c>
-      <c r="V53">
-        <v>1.875</v>
-      </c>
-      <c r="W53">
-        <v>1.925</v>
-      </c>
       <c r="X53">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5412,7 +5412,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6813790</v>
+        <v>6813791</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5421,19 +5421,19 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
         <v>3</v>
       </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -5442,43 +5442,43 @@
         <v>48</v>
       </c>
       <c r="L54">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="M54">
         <v>3.75</v>
       </c>
       <c r="N54">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O54">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="P54">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q54">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="R54">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
         <v>1.925</v>
       </c>
       <c r="X54">
-        <v>0.833</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5487,13 +5487,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD54">
         <v>-1</v>
@@ -5504,7 +5504,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6813791</v>
+        <v>6813790</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5513,19 +5513,19 @@
         <v>45170.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5534,43 +5534,43 @@
         <v>48</v>
       </c>
       <c r="L55">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="M55">
         <v>3.75</v>
       </c>
       <c r="N55">
+        <v>2.3</v>
+      </c>
+      <c r="O55">
+        <v>1.833</v>
+      </c>
+      <c r="P55">
         <v>3.75</v>
       </c>
-      <c r="O55">
-        <v>1.285</v>
-      </c>
-      <c r="P55">
-        <v>5</v>
-      </c>
       <c r="Q55">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="R55">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U55">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V55">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
         <v>1.925</v>
       </c>
       <c r="X55">
-        <v>0.2849999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5579,13 +5579,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AD55">
         <v>-1</v>
@@ -5688,7 +5688,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6813795</v>
+        <v>6813794</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5697,79 +5697,79 @@
         <v>45171.375</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L57">
-        <v>1.166</v>
+        <v>2.55</v>
       </c>
       <c r="M57">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="O57">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="P57">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q57">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="R57">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W57">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X57">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD57">
         <v>-1</v>
@@ -5780,7 +5780,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6813794</v>
+        <v>6813797</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -5789,79 +5789,79 @@
         <v>45171.375</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L58">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="M58">
         <v>3.6</v>
       </c>
       <c r="N58">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O58">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="P58">
         <v>3.6</v>
       </c>
       <c r="Q58">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U58">
         <v>3</v>
       </c>
       <c r="V58">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W58">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AD58">
         <v>-1</v>
@@ -5872,7 +5872,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6813797</v>
+        <v>6813795</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -5881,46 +5881,46 @@
         <v>45171.375</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L59">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="M59">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N59">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="O59">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="P59">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="R59">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S59">
         <v>1.975</v>
@@ -5929,31 +5929,31 @@
         <v>1.875</v>
       </c>
       <c r="U59">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V59">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD59">
         <v>-1</v>
@@ -5973,7 +5973,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
         <v>38</v>
@@ -6065,7 +6065,7 @@
         <v>45177.5625</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
         <v>32</v>
@@ -6252,7 +6252,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6332,7 +6332,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6813807</v>
+        <v>6813805</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6341,19 +6341,19 @@
         <v>45178.375</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -6362,43 +6362,43 @@
         <v>48</v>
       </c>
       <c r="L64">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="M64">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N64">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="O64">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="P64">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q64">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="R64">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S64">
+        <v>1.925</v>
+      </c>
+      <c r="T64">
         <v>1.875</v>
-      </c>
-      <c r="T64">
-        <v>1.975</v>
       </c>
       <c r="U64">
         <v>3</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W64">
         <v>1.95</v>
       </c>
       <c r="X64">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="Y64">
         <v>-1</v>
@@ -6407,13 +6407,13 @@
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AD64">
         <v>-1</v>
@@ -6424,7 +6424,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6813805</v>
+        <v>6813804</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6433,64 +6433,64 @@
         <v>45178.375</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="s">
         <v>48</v>
       </c>
       <c r="L65">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="M65">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N65">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O65">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="R65">
         <v>-1.5</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U65">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V65">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X65">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6499,16 +6499,16 @@
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6516,7 +6516,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6813804</v>
+        <v>6813803</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6525,64 +6525,64 @@
         <v>45178.375</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="s">
         <v>48</v>
       </c>
       <c r="L66">
-        <v>1.444</v>
+        <v>1.6</v>
       </c>
       <c r="M66">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O66">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q66">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="R66">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T66">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U66">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X66">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6591,16 +6591,16 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6608,7 +6608,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6813803</v>
+        <v>6813807</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6617,65 +6617,65 @@
         <v>45178.375</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" t="s">
         <v>48</v>
       </c>
       <c r="L67">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N67">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O67">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="P67">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q67">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="R67">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S67">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U67">
         <v>3</v>
       </c>
       <c r="V67">
+        <v>1.9</v>
+      </c>
+      <c r="W67">
+        <v>1.95</v>
+      </c>
+      <c r="X67">
         <v>1.8</v>
       </c>
-      <c r="W67">
-        <v>2</v>
-      </c>
-      <c r="X67">
-        <v>0.7</v>
-      </c>
       <c r="Y67">
         <v>-1</v>
       </c>
@@ -6683,13 +6683,13 @@
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD67">
         <v>-1</v>
@@ -6712,7 +6712,7 @@
         <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6801,7 +6801,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -7169,7 +7169,7 @@
         <v>45185.375</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
         <v>42</v>
@@ -7264,7 +7264,7 @@
         <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7908,7 +7908,7 @@
         <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -8181,7 +8181,7 @@
         <v>45192.375</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
         <v>33</v>
@@ -8273,7 +8273,7 @@
         <v>45192.375</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
         <v>37</v>
@@ -8365,7 +8365,7 @@
         <v>45192.375</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
         <v>40</v>
@@ -8644,7 +8644,7 @@
         <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6813829</v>
+        <v>6813830</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8917,82 +8917,82 @@
         <v>45199.375</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L92">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N92">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O92">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="P92">
         <v>3.6</v>
       </c>
       <c r="Q92">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="R92">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U92">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
         <v>2.6</v>
       </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6813830</v>
+        <v>6813829</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,82 +9009,82 @@
         <v>45199.375</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L93">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N93">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O93">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="P93">
         <v>3.6</v>
       </c>
       <c r="Q93">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R93">
+        <v>-0.25</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
+        <v>1.825</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>1.975</v>
+      </c>
+      <c r="W93">
+        <v>1.875</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>2.6</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
       </c>
-      <c r="S93">
-        <v>1.95</v>
-      </c>
-      <c r="T93">
-        <v>1.9</v>
-      </c>
-      <c r="U93">
-        <v>3</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
-      <c r="W93">
-        <v>2</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>2.6</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9377,7 +9377,7 @@
         <v>45202.375</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
         <v>38</v>
@@ -9469,7 +9469,7 @@
         <v>45202.375</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
         <v>31</v>
@@ -9561,7 +9561,7 @@
         <v>45202.375</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
         <v>37</v>
@@ -9644,7 +9644,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6813838</v>
+        <v>6813841</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9653,16 +9653,16 @@
         <v>45202.375</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -9671,64 +9671,64 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="M100">
+        <v>3.8</v>
+      </c>
+      <c r="N100">
+        <v>4.1</v>
+      </c>
+      <c r="O100">
+        <v>1.8</v>
+      </c>
+      <c r="P100">
+        <v>3.75</v>
+      </c>
+      <c r="Q100">
         <v>3.4</v>
-      </c>
-      <c r="N100">
-        <v>3.2</v>
-      </c>
-      <c r="O100">
-        <v>1.909</v>
-      </c>
-      <c r="P100">
-        <v>3.5</v>
-      </c>
-      <c r="Q100">
-        <v>3.5</v>
       </c>
       <c r="R100">
         <v>-0.5</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U100">
         <v>3</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z100">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD100">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9745,7 +9745,7 @@
         <v>45202.375</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
         <v>34</v>
@@ -9828,7 +9828,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6813841</v>
+        <v>6813838</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9837,16 +9837,16 @@
         <v>45202.375</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9855,64 +9855,64 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L102">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="M102">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N102">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="O102">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="P102">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q102">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R102">
         <v>-0.5</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U102">
         <v>3</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD102">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9920,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6813839</v>
+        <v>6814791</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9929,82 +9929,82 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>50</v>
+      </c>
+      <c r="L103">
+        <v>1.666</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>3.8</v>
+      </c>
+      <c r="O103">
+        <v>1.666</v>
+      </c>
+      <c r="P103">
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <v>3.8</v>
+      </c>
+      <c r="R103">
+        <v>-0.75</v>
+      </c>
+      <c r="S103">
+        <v>1.9</v>
+      </c>
+      <c r="T103">
+        <v>1.95</v>
+      </c>
+      <c r="U103">
         <v>3</v>
       </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>2</v>
-      </c>
-      <c r="K103" t="s">
-        <v>48</v>
-      </c>
-      <c r="L103">
-        <v>2</v>
-      </c>
-      <c r="M103">
-        <v>3.75</v>
-      </c>
-      <c r="N103">
-        <v>2.875</v>
-      </c>
-      <c r="O103">
-        <v>2.25</v>
-      </c>
-      <c r="P103">
-        <v>3.75</v>
-      </c>
-      <c r="Q103">
-        <v>2.55</v>
-      </c>
-      <c r="R103">
-        <v>-0.25</v>
-      </c>
-      <c r="S103">
-        <v>2.1</v>
-      </c>
-      <c r="T103">
-        <v>1.775</v>
-      </c>
-      <c r="U103">
-        <v>2.75</v>
-      </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X103">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA103">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10012,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6814791</v>
+        <v>6813839</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10021,13 +10021,13 @@
         <v>45202.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10036,67 +10036,67 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L104">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="O104">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="P104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q104">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="R104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S104">
+        <v>2.1</v>
+      </c>
+      <c r="T104">
+        <v>1.775</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
         <v>1.9</v>
       </c>
-      <c r="T104">
+      <c r="W104">
         <v>1.95</v>
       </c>
-      <c r="U104">
-        <v>3</v>
-      </c>
-      <c r="V104">
-        <v>2</v>
-      </c>
-      <c r="W104">
-        <v>1.85</v>
-      </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10116,7 +10116,7 @@
         <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -10208,7 +10208,7 @@
         <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -10392,7 +10392,7 @@
         <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -10484,7 +10484,7 @@
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>5</v>
@@ -10932,7 +10932,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6813857</v>
+        <v>6813861</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10941,46 +10941,46 @@
         <v>45213.375</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K114" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L114">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="M114">
+        <v>4.5</v>
+      </c>
+      <c r="N114">
+        <v>1.4</v>
+      </c>
+      <c r="O114">
         <v>5</v>
       </c>
-      <c r="N114">
-        <v>6</v>
-      </c>
-      <c r="O114">
+      <c r="P114">
+        <v>4.5</v>
+      </c>
+      <c r="Q114">
         <v>1.45</v>
       </c>
-      <c r="P114">
-        <v>4.75</v>
-      </c>
-      <c r="Q114">
-        <v>5</v>
-      </c>
       <c r="R114">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="S114">
         <v>2.025</v>
@@ -10989,34 +10989,34 @@
         <v>1.825</v>
       </c>
       <c r="U114">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V114">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
         <v>0.45</v>
       </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>-1</v>
-      </c>
       <c r="AA114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11033,10 +11033,10 @@
         <v>45213.375</v>
       </c>
       <c r="E115" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" t="s">
         <v>36</v>
-      </c>
-      <c r="F115" t="s">
-        <v>35</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -11116,7 +11116,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6813859</v>
+        <v>6813858</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11125,64 +11125,64 @@
         <v>45213.375</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="s">
         <v>48</v>
       </c>
       <c r="L116">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M116">
         <v>3.75</v>
       </c>
       <c r="N116">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P116">
         <v>4</v>
       </c>
       <c r="Q116">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="R116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X116">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -11191,16 +11191,16 @@
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD116">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11208,7 +11208,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6813860</v>
+        <v>6813857</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11217,10 +11217,10 @@
         <v>45213.375</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -11238,43 +11238,43 @@
         <v>48</v>
       </c>
       <c r="L117">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="M117">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="O117">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="P117">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="R117">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
         <v>1.825</v>
       </c>
-      <c r="T117">
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
         <v>2.025</v>
       </c>
-      <c r="U117">
-        <v>2.75</v>
-      </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X117">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -11283,16 +11283,16 @@
         <v>-1</v>
       </c>
       <c r="AA117">
+        <v>1.025</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
+        <v>-1</v>
+      </c>
+      <c r="AD117">
         <v>0.825</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
-      </c>
-      <c r="AD117">
-        <v>0.875</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11300,7 +11300,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6813861</v>
+        <v>6813859</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11309,79 +11309,79 @@
         <v>45213.375</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" t="s">
+        <v>48</v>
+      </c>
+      <c r="L118">
+        <v>2.1</v>
+      </c>
+      <c r="M118">
+        <v>3.75</v>
+      </c>
+      <c r="N118">
+        <v>2.7</v>
+      </c>
+      <c r="O118">
+        <v>2</v>
+      </c>
+      <c r="P118">
         <v>4</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118">
-        <v>2</v>
-      </c>
-      <c r="K118" t="s">
-        <v>50</v>
-      </c>
-      <c r="L118">
-        <v>5.5</v>
-      </c>
-      <c r="M118">
-        <v>4.5</v>
-      </c>
-      <c r="N118">
-        <v>1.4</v>
-      </c>
-      <c r="O118">
-        <v>5</v>
-      </c>
-      <c r="P118">
-        <v>4.5</v>
-      </c>
       <c r="Q118">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="R118">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD118">
         <v>-1</v>
@@ -11392,7 +11392,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6813862</v>
+        <v>6813860</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11401,82 +11401,82 @@
         <v>45213.375</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L119">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="M119">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N119">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="O119">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="P119">
+        <v>3.4</v>
+      </c>
+      <c r="Q119">
         <v>4.2</v>
       </c>
-      <c r="Q119">
-        <v>1.5</v>
-      </c>
       <c r="R119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U119">
         <v>2.75</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD119">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11484,7 +11484,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6813858</v>
+        <v>6813862</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11493,82 +11493,82 @@
         <v>45213.375</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L120">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="M120">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N120">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O120">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="P120">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
+        <v>1.85</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
+        <v>1.825</v>
+      </c>
+      <c r="W120">
+        <v>1.975</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0.5</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0.4125</v>
+      </c>
+      <c r="AD120">
         <v>-0.5</v>
-      </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>3</v>
-      </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
-      <c r="W120">
-        <v>1.825</v>
-      </c>
-      <c r="X120">
-        <v>0.75</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>-1</v>
-      </c>
-      <c r="AA120">
-        <v>0.8</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
-      </c>
-      <c r="AC120">
-        <v>0</v>
-      </c>
-      <c r="AD120">
-        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11585,7 +11585,7 @@
         <v>45216.4375</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
@@ -11760,7 +11760,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6813867</v>
+        <v>6813871</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11769,82 +11769,82 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L123">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M123">
         <v>3.6</v>
       </c>
       <c r="N123">
+        <v>2.3</v>
+      </c>
+      <c r="O123">
         <v>2.8</v>
       </c>
-      <c r="O123">
-        <v>1.571</v>
-      </c>
       <c r="P123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q123">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="R123">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U123">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V123">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X123">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11852,7 +11852,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6813866</v>
+        <v>6813867</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11861,82 +11861,82 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L124">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M124">
         <v>3.6</v>
       </c>
       <c r="N124">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="P124">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q124">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="R124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U124">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V124">
+        <v>2.025</v>
+      </c>
+      <c r="W124">
         <v>1.825</v>
       </c>
-      <c r="W124">
-        <v>1.975</v>
-      </c>
       <c r="X124">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11944,7 +11944,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6813871</v>
+        <v>6813866</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11953,82 +11953,82 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" t="s">
         <v>49</v>
       </c>
       <c r="L125">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M125">
         <v>3.6</v>
       </c>
       <c r="N125">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="P125">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="R125">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>1.85</v>
+      </c>
+      <c r="U125">
+        <v>2.75</v>
+      </c>
+      <c r="V125">
         <v>1.825</v>
       </c>
-      <c r="T125">
+      <c r="W125">
         <v>1.975</v>
       </c>
-      <c r="U125">
-        <v>2.5</v>
-      </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
-      <c r="W125">
-        <v>1.95</v>
-      </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC125">
         <v>-1</v>
       </c>
       <c r="AD125">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12048,7 +12048,7 @@
         <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -12128,7 +12128,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6813868</v>
+        <v>6813863</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12137,82 +12137,82 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L127">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="M127">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N127">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="P127">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="R127">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U127">
         <v>3.25</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y127">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
+        <v>-1</v>
+      </c>
+      <c r="AD127">
         <v>0.825</v>
-      </c>
-      <c r="AB127">
-        <v>-1</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
-      </c>
-      <c r="AD127">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12220,7 +12220,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6813863</v>
+        <v>6813868</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12229,82 +12229,82 @@
         <v>45216.58333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L128">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N128">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q128">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="R128">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U128">
         <v>3.25</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X128">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
+        <v>0.825</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>-1</v>
+      </c>
+      <c r="AD128">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
-      <c r="AC128">
-        <v>-1</v>
-      </c>
-      <c r="AD128">
-        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12600,7 +12600,7 @@
         <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -12680,7 +12680,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6813878</v>
+        <v>6813876</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12692,76 +12692,76 @@
         <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133" t="s">
+        <v>49</v>
+      </c>
+      <c r="L133">
+        <v>1.727</v>
+      </c>
+      <c r="M133">
+        <v>3.75</v>
+      </c>
+      <c r="N133">
+        <v>3.75</v>
+      </c>
+      <c r="O133">
+        <v>1.666</v>
+      </c>
+      <c r="P133">
+        <v>4</v>
+      </c>
+      <c r="Q133">
+        <v>4.2</v>
+      </c>
+      <c r="R133">
+        <v>-0.75</v>
+      </c>
+      <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
+        <v>1.975</v>
+      </c>
+      <c r="U133">
+        <v>3.25</v>
+      </c>
+      <c r="V133">
+        <v>1.975</v>
+      </c>
+      <c r="W133">
+        <v>1.825</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
         <v>3</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>1</v>
-      </c>
-      <c r="K133" t="s">
-        <v>50</v>
-      </c>
-      <c r="L133">
-        <v>2.4</v>
-      </c>
-      <c r="M133">
-        <v>3.6</v>
-      </c>
-      <c r="N133">
-        <v>2.4</v>
-      </c>
-      <c r="O133">
-        <v>4.2</v>
-      </c>
-      <c r="P133">
-        <v>3.8</v>
-      </c>
-      <c r="Q133">
-        <v>1.7</v>
-      </c>
-      <c r="R133">
-        <v>0.75</v>
-      </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
-      <c r="T133">
-        <v>1.9</v>
-      </c>
-      <c r="U133">
-        <v>2.75</v>
-      </c>
-      <c r="V133">
-        <v>1.85</v>
-      </c>
-      <c r="W133">
-        <v>2</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
       <c r="Z133">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD133">
         <v>-1</v>
@@ -12772,7 +12772,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6813877</v>
+        <v>6813878</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
@@ -12781,79 +12781,79 @@
         <v>45220.375</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
         <v>3</v>
       </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L134">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="M134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N134">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="O134">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="R134">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U134">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD134">
         <v>-1</v>
@@ -12864,7 +12864,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6813876</v>
+        <v>6813875</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12873,76 +12873,76 @@
         <v>45220.375</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L135">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N135">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="O135">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="P135">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="R135">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S135">
         <v>1.825</v>
       </c>
       <c r="T135">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V135">
         <v>1.975</v>
       </c>
       <c r="W135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y135">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
         <v>0.9750000000000001</v>
@@ -12956,7 +12956,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6813875</v>
+        <v>6813877</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12965,10 +12965,10 @@
         <v>45220.375</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -12980,49 +12980,49 @@
         <v>2</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="s">
         <v>48</v>
       </c>
       <c r="L136">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="M136">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N136">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="O136">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="P136">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="R136">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U136">
         <v>3</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X136">
-        <v>0.363</v>
+        <v>1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
@@ -13031,13 +13031,13 @@
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD136">
         <v>-1</v>
@@ -13048,7 +13048,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6813885</v>
+        <v>6813882</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13057,62 +13057,62 @@
         <v>45226.58333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K137" t="s">
         <v>50</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N137">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="O137">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q137">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="R137">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>1.8</v>
+      </c>
+      <c r="U137">
+        <v>3.25</v>
+      </c>
+      <c r="V137">
         <v>1.9</v>
       </c>
-      <c r="T137">
+      <c r="W137">
         <v>1.9</v>
       </c>
-      <c r="U137">
-        <v>2.75</v>
-      </c>
-      <c r="V137">
-        <v>1.75</v>
-      </c>
-      <c r="W137">
-        <v>1.95</v>
-      </c>
       <c r="X137">
         <v>-1</v>
       </c>
@@ -13120,19 +13120,19 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1.1</v>
+        <v>0.222</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
+        <v>0.8</v>
+      </c>
+      <c r="AC137">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AC137">
-        <v>-1</v>
-      </c>
       <c r="AD137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13232,7 +13232,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6813882</v>
+        <v>6813885</v>
       </c>
       <c r="